--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -19,7 +19,7 @@
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data =</t>
+    <t>exports.data = </t>
   </si>
   <si>
     <t>#path</t>
@@ -968,19 +968,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color rgb="000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1006,10 +999,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1022,7 +1015,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1067,10 +1060,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1102,10 +1095,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1308,18 +1301,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LB3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DT1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="141" max="141" width="28.875" customWidth="1"/>
-    <col min="142" max="142" width="30.875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:314" x14ac:dyDescent="0.15">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:314" x14ac:dyDescent="0.15">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2271,7 +2259,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="3" spans="1:314" x14ac:dyDescent="0.15">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -3214,8 +3202,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
 </worksheet>
 </file>
--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data = </t>
+    <t>exports.data =</t>
   </si>
   <si>
     <t>#path</t>
@@ -122,6 +122,30 @@
   </si>
   <si>
     <t>.costList[31]:number</t>
+  </si>
+  <si>
+    <t>.costList[32]:number</t>
+  </si>
+  <si>
+    <t>.costList[33]:number</t>
+  </si>
+  <si>
+    <t>.costList[34]:number</t>
+  </si>
+  <si>
+    <t>.costList[35]:number</t>
+  </si>
+  <si>
+    <t>.costList[36]:number</t>
+  </si>
+  <si>
+    <t>.costList[37]:number</t>
+  </si>
+  <si>
+    <t>.costList[38]:number</t>
+  </si>
+  <si>
+    <t>.costList[39]:number</t>
   </si>
   <si>
     <t>.property[0].health:number</t>
@@ -968,21 +992,49 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -994,15 +1046,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,7 +1098,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1060,10 +1143,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1095,10 +1178,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1301,13 +1384,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:ML5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ5" sqref="AQ5:LJ5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="50" max="50" width="23.375" customWidth="1"/>
+    <col min="58" max="58" width="9" customWidth="1"/>
+    <col min="168" max="168" width="16.375" customWidth="1"/>
+    <col min="322" max="322" width="26" customWidth="1"/>
+    <col min="323" max="323" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:350" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1315,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:350" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2258,951 +2350,2669 @@
       <c r="LB2" s="1" t="s">
         <v>315</v>
       </c>
+      <c r="LC2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LD2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LE2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LF2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LG2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LH2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LI2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LJ2" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:350" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R3" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S3" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T3" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U3" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="V3" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="W3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="X3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Y3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AA3" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AB3" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AC3" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD3" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AE3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AF3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AG3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AH3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AI3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="3">
+        <v>9</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="3">
+        <v>2</v>
+      </c>
+      <c r="CZ3" s="3"/>
+      <c r="DA3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>9</v>
+      </c>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DF3" s="2"/>
+      <c r="DG3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2">
+        <v>9</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="2"/>
+      <c r="DM3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DN3" s="2"/>
+      <c r="DO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="2">
+        <v>9</v>
+      </c>
+      <c r="DQ3" s="2"/>
+      <c r="DR3" s="2"/>
+      <c r="DS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DT3" s="2"/>
+      <c r="DU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DW3" s="2">
+        <v>9</v>
+      </c>
+      <c r="DX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="DY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DZ3" s="2"/>
+      <c r="EA3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="ED3" s="2">
+        <v>9</v>
+      </c>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2"/>
+      <c r="EG3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EH3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EJ3" s="2"/>
+      <c r="EK3" s="2">
+        <v>9</v>
+      </c>
+      <c r="EL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="EM3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EN3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EP3" s="2"/>
+      <c r="EQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="ER3" s="2">
+        <v>9</v>
+      </c>
+      <c r="ES3" s="2"/>
+      <c r="ET3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EV3" s="2"/>
+      <c r="EW3" s="2">
+        <v>2</v>
+      </c>
+      <c r="EX3" s="2"/>
+      <c r="EY3" s="3">
+        <v>11</v>
+      </c>
+      <c r="EZ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FA3" s="3">
+        <v>3</v>
+      </c>
+      <c r="FB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FC3" s="3">
+        <v>3</v>
+      </c>
+      <c r="FD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="FE3" s="3">
+        <v>3</v>
+      </c>
+      <c r="FF3" s="2">
+        <v>11</v>
+      </c>
+      <c r="FG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FI3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="2">
+        <v>11</v>
+      </c>
+      <c r="FN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FT3" s="2">
+        <v>11</v>
+      </c>
+      <c r="FU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="FY3" s="2">
+        <v>3</v>
+      </c>
+      <c r="FZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GA3" s="2">
+        <v>11</v>
+      </c>
+      <c r="GB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GC3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GE3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GG3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GH3" s="2">
+        <v>11</v>
+      </c>
+      <c r="GI3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GM3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GO3" s="2">
+        <v>11</v>
+      </c>
+      <c r="GP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GQ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GS3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GU3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GV3" s="2">
+        <v>11</v>
+      </c>
+      <c r="GW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GY3" s="2">
+        <v>3</v>
+      </c>
+      <c r="GZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HA3" s="2">
+        <v>3</v>
+      </c>
+      <c r="HB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HC3" s="3">
+        <v>15</v>
+      </c>
+      <c r="HD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="HE3" s="3">
+        <v>4</v>
+      </c>
+      <c r="HF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="HG3" s="3">
+        <v>4</v>
+      </c>
+      <c r="HH3" s="3">
+        <v>2</v>
+      </c>
+      <c r="HI3" s="3">
+        <v>4</v>
+      </c>
+      <c r="HJ3" s="2">
+        <v>14</v>
+      </c>
+      <c r="HK3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HL3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HM3" s="2">
+        <v>4</v>
+      </c>
+      <c r="HN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HO3" s="2">
+        <v>4</v>
+      </c>
+      <c r="HP3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HQ3" s="2">
+        <v>15</v>
+      </c>
+      <c r="HR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HS3" s="2">
+        <v>4</v>
+      </c>
+      <c r="HT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HU3" s="2">
+        <v>4</v>
+      </c>
+      <c r="HV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HW3" s="2">
+        <v>4</v>
+      </c>
+      <c r="HX3" s="2">
+        <v>14</v>
+      </c>
+      <c r="HY3" s="2">
+        <v>1</v>
+      </c>
+      <c r="HZ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IA3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IC3" s="2">
+        <v>4</v>
+      </c>
+      <c r="ID3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IE3" s="2">
+        <v>15</v>
+      </c>
+      <c r="IF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IG3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IH3" s="2">
+        <v>2</v>
+      </c>
+      <c r="II3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IJ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="IK3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IL3" s="2">
+        <v>14</v>
+      </c>
+      <c r="IM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="IN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="IO3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IQ3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IS3" s="2">
+        <v>15</v>
+      </c>
+      <c r="IT3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IU3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IW3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IY3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IZ3" s="2">
+        <v>14</v>
+      </c>
+      <c r="JA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="JC3" s="2">
+        <v>4</v>
+      </c>
+      <c r="JD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JE3" s="2">
+        <v>4</v>
+      </c>
+      <c r="JF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JG3" s="3">
+        <v>21</v>
+      </c>
+      <c r="JH3" s="3">
+        <v>2</v>
+      </c>
+      <c r="JI3" s="3">
+        <v>5</v>
+      </c>
+      <c r="JJ3" s="3">
+        <v>3</v>
+      </c>
+      <c r="JK3" s="3">
+        <v>5</v>
+      </c>
+      <c r="JL3" s="3">
+        <v>3</v>
+      </c>
+      <c r="JM3" s="3">
+        <v>5</v>
+      </c>
+      <c r="JN3" s="2">
+        <v>18</v>
+      </c>
+      <c r="JO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="JP3" s="2">
+        <v>3</v>
+      </c>
+      <c r="JQ3" s="2">
+        <v>5</v>
+      </c>
+      <c r="JR3" s="2">
+        <v>3</v>
+      </c>
+      <c r="JS3" s="2">
+        <v>5</v>
+      </c>
+      <c r="JT3" s="2">
+        <v>3</v>
+      </c>
+      <c r="JU3" s="2">
+        <v>21</v>
+      </c>
+      <c r="JV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="JW3" s="2">
+        <v>5</v>
+      </c>
+      <c r="JX3" s="2">
+        <v>3</v>
+      </c>
+      <c r="JY3" s="2">
+        <v>5</v>
+      </c>
+      <c r="JZ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KB3" s="2">
+        <v>18</v>
+      </c>
+      <c r="KC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="KD3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KE3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KF3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KG3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KH3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KI3" s="2">
+        <v>21</v>
+      </c>
+      <c r="KJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="KK3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KL3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KM3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KN3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KO3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KP3" s="2">
+        <v>18</v>
+      </c>
+      <c r="KQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="KR3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KS3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KT3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KU3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KV3" s="2">
+        <v>3</v>
+      </c>
+      <c r="KW3" s="2">
+        <v>21</v>
+      </c>
+      <c r="KX3" s="2">
+        <v>2</v>
+      </c>
+      <c r="KY3" s="2">
+        <v>5</v>
+      </c>
+      <c r="KZ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="LA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="LB3" s="2">
+        <v>3</v>
+      </c>
+      <c r="LC3" s="2">
+        <v>5</v>
+      </c>
+      <c r="LD3" s="2">
+        <v>18</v>
+      </c>
+      <c r="LE3" s="2">
+        <v>2</v>
+      </c>
+      <c r="LF3" s="2">
+        <v>3</v>
+      </c>
+      <c r="LG3" s="2">
+        <v>5</v>
+      </c>
+      <c r="LH3" s="2">
+        <v>3</v>
+      </c>
+      <c r="LI3" s="2">
+        <v>5</v>
+      </c>
+      <c r="LJ3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:350" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="1">
+        <v>11</v>
+      </c>
+      <c r="T4" s="1">
+        <v>11</v>
+      </c>
+      <c r="U4" s="1">
+        <v>11</v>
+      </c>
+      <c r="V4" s="1">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1">
+        <v>12</v>
+      </c>
+      <c r="X4" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
+      <c r="BI4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="4"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="4"/>
+      <c r="BU4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="4"/>
+      <c r="BW4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CO4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="4"/>
+      <c r="CS4" s="4">
+        <v>1</v>
+      </c>
+      <c r="CT4" s="4"/>
+      <c r="CU4" s="5">
+        <v>3</v>
+      </c>
+      <c r="CV4" s="5">
+        <v>2</v>
+      </c>
+      <c r="CW4" s="5">
+        <v>2</v>
+      </c>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5">
+        <v>2</v>
+      </c>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5">
+        <v>2</v>
+      </c>
+      <c r="DB4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DC4" s="4">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="4"/>
+      <c r="DE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DF4" s="4"/>
+      <c r="DG4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DH4" s="4"/>
+      <c r="DI4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DJ4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DK4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DL4" s="4"/>
+      <c r="DM4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DP4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DQ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DV4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DW4" s="4">
+        <v>3</v>
+      </c>
+      <c r="DX4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DY4" s="4">
+        <v>2</v>
+      </c>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EC4" s="4">
+        <v>2</v>
+      </c>
+      <c r="ED4" s="4">
+        <v>3</v>
+      </c>
+      <c r="EE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EH4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EI4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EJ4" s="4"/>
+      <c r="EK4" s="4">
+        <v>3</v>
+      </c>
+      <c r="EL4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EM4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EN4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EO4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4">
+        <v>2</v>
+      </c>
+      <c r="ER4" s="4">
+        <v>3</v>
+      </c>
+      <c r="ES4" s="4">
+        <v>1</v>
+      </c>
+      <c r="ET4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EU4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4">
+        <v>2</v>
+      </c>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="5">
+        <v>5</v>
+      </c>
+      <c r="EZ4" s="5">
+        <v>2</v>
+      </c>
+      <c r="FA4" s="5">
+        <v>3</v>
+      </c>
+      <c r="FB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="FC4" s="5">
+        <v>3</v>
+      </c>
+      <c r="FD4" s="5">
+        <v>1</v>
+      </c>
+      <c r="FE4" s="5">
+        <v>3</v>
+      </c>
+      <c r="FF4" s="4">
+        <v>5</v>
+      </c>
+      <c r="FG4" s="4">
+        <v>2</v>
+      </c>
+      <c r="FH4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FI4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FK4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FM4" s="4">
+        <v>5</v>
+      </c>
+      <c r="FN4" s="4">
+        <v>2</v>
+      </c>
+      <c r="FO4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FP4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FQ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FS4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FT4" s="4">
+        <v>5</v>
+      </c>
+      <c r="FU4" s="4">
+        <v>2</v>
+      </c>
+      <c r="FV4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FW4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FX4" s="4">
+        <v>1</v>
+      </c>
+      <c r="FY4" s="4">
+        <v>3</v>
+      </c>
+      <c r="FZ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GA4" s="4">
+        <v>5</v>
+      </c>
+      <c r="GB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="GC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GE4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GF4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GG4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GH4" s="4">
+        <v>5</v>
+      </c>
+      <c r="GI4" s="4">
+        <v>2</v>
+      </c>
+      <c r="GJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GM4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="4">
+        <v>5</v>
+      </c>
+      <c r="GP4" s="4">
+        <v>2</v>
+      </c>
+      <c r="GQ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GS4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GT4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GU4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GV4" s="4">
+        <v>5</v>
+      </c>
+      <c r="GW4" s="4">
+        <v>2</v>
+      </c>
+      <c r="GX4" s="4">
+        <v>1</v>
+      </c>
+      <c r="GY4" s="4">
+        <v>3</v>
+      </c>
+      <c r="GZ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HA4" s="4">
+        <v>3</v>
+      </c>
+      <c r="HB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HC4" s="5">
         <v>6</v>
       </c>
-      <c r="AJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="1">
+      <c r="HD4" s="5">
+        <v>2</v>
+      </c>
+      <c r="HE4" s="5">
+        <v>4</v>
+      </c>
+      <c r="HF4" s="5">
+        <v>1</v>
+      </c>
+      <c r="HG4" s="5">
+        <v>4</v>
+      </c>
+      <c r="HH4" s="5">
+        <v>2</v>
+      </c>
+      <c r="HI4" s="5">
+        <v>4</v>
+      </c>
+      <c r="HJ4" s="4">
+        <v>5</v>
+      </c>
+      <c r="HK4" s="4">
+        <v>3</v>
+      </c>
+      <c r="HL4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HM4" s="4">
+        <v>4</v>
+      </c>
+      <c r="HN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HO4" s="4">
+        <v>4</v>
+      </c>
+      <c r="HP4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HQ4" s="4">
         <v>6</v>
       </c>
-      <c r="AQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="1">
+      <c r="HR4" s="4">
+        <v>2</v>
+      </c>
+      <c r="HS4" s="4">
+        <v>4</v>
+      </c>
+      <c r="HT4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HU4" s="4">
+        <v>4</v>
+      </c>
+      <c r="HV4" s="4">
+        <v>1</v>
+      </c>
+      <c r="HW4" s="4">
+        <v>4</v>
+      </c>
+      <c r="HX4" s="4">
+        <v>5</v>
+      </c>
+      <c r="HY4" s="4">
+        <v>3</v>
+      </c>
+      <c r="HZ4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IA4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IC4" s="4">
+        <v>4</v>
+      </c>
+      <c r="ID4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IE4" s="4">
         <v>6</v>
       </c>
-      <c r="AX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="1">
+      <c r="IF4" s="4">
+        <v>3</v>
+      </c>
+      <c r="IG4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IH4" s="4">
+        <v>2</v>
+      </c>
+      <c r="II4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IJ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="IK4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IL4" s="4">
+        <v>5</v>
+      </c>
+      <c r="IM4" s="4">
+        <v>3</v>
+      </c>
+      <c r="IN4" s="4">
+        <v>1</v>
+      </c>
+      <c r="IO4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IP4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IQ4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IR4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IS4" s="4">
         <v>6</v>
       </c>
-      <c r="BE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="1">
+      <c r="IT4" s="4">
+        <v>3</v>
+      </c>
+      <c r="IU4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IV4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IW4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IX4" s="4">
+        <v>2</v>
+      </c>
+      <c r="IY4" s="4">
+        <v>4</v>
+      </c>
+      <c r="IZ4" s="4">
+        <v>5</v>
+      </c>
+      <c r="JA4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="JC4" s="4">
+        <v>4</v>
+      </c>
+      <c r="JD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="JE4" s="4">
+        <v>4</v>
+      </c>
+      <c r="JF4" s="4">
+        <v>1</v>
+      </c>
+      <c r="JG4" s="5">
+        <v>12</v>
+      </c>
+      <c r="JH4" s="5">
+        <v>3</v>
+      </c>
+      <c r="JI4" s="5">
+        <v>5</v>
+      </c>
+      <c r="JJ4" s="5">
+        <v>3</v>
+      </c>
+      <c r="JK4" s="5">
+        <v>5</v>
+      </c>
+      <c r="JL4" s="5">
+        <v>3</v>
+      </c>
+      <c r="JM4" s="5">
+        <v>5</v>
+      </c>
+      <c r="JN4" s="4">
+        <v>9</v>
+      </c>
+      <c r="JO4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JP4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JQ4" s="4">
+        <v>5</v>
+      </c>
+      <c r="JR4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JS4" s="4">
+        <v>5</v>
+      </c>
+      <c r="JT4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JU4" s="4">
+        <v>12</v>
+      </c>
+      <c r="JV4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JW4" s="4">
+        <v>5</v>
+      </c>
+      <c r="JX4" s="4">
+        <v>3</v>
+      </c>
+      <c r="JY4" s="4">
+        <v>5</v>
+      </c>
+      <c r="JZ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KA4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KB4" s="4">
+        <v>9</v>
+      </c>
+      <c r="KC4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KD4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KE4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KF4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KG4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KH4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KI4" s="4">
+        <v>12</v>
+      </c>
+      <c r="KJ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KK4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KL4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KM4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KN4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KO4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KP4" s="4">
+        <v>9</v>
+      </c>
+      <c r="KQ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KR4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KS4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KT4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KU4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KV4" s="4">
+        <v>3</v>
+      </c>
+      <c r="KW4" s="4">
+        <v>12</v>
+      </c>
+      <c r="KX4" s="4">
+        <v>4</v>
+      </c>
+      <c r="KY4" s="4">
+        <v>5</v>
+      </c>
+      <c r="KZ4" s="4">
+        <v>3</v>
+      </c>
+      <c r="LA4" s="4">
+        <v>5</v>
+      </c>
+      <c r="LB4" s="4">
+        <v>3</v>
+      </c>
+      <c r="LC4" s="4">
+        <v>5</v>
+      </c>
+      <c r="LD4" s="4">
+        <v>9</v>
+      </c>
+      <c r="LE4" s="4">
+        <v>4</v>
+      </c>
+      <c r="LF4" s="4">
+        <v>3</v>
+      </c>
+      <c r="LG4" s="4">
+        <v>5</v>
+      </c>
+      <c r="LH4" s="4">
+        <v>3</v>
+      </c>
+      <c r="LI4" s="4">
+        <v>5</v>
+      </c>
+      <c r="LJ4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:350" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10</v>
+      </c>
+      <c r="P5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <v>10</v>
+      </c>
+      <c r="S5" s="1">
+        <v>11</v>
+      </c>
+      <c r="T5" s="1">
+        <v>11</v>
+      </c>
+      <c r="U5" s="1">
+        <v>11</v>
+      </c>
+      <c r="V5" s="1">
+        <v>11</v>
+      </c>
+      <c r="W5" s="1">
+        <v>12</v>
+      </c>
+      <c r="X5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>15</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BV5" s="7"/>
+      <c r="BW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="7"/>
+      <c r="BZ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="7"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="7"/>
+      <c r="CD5" s="7"/>
+      <c r="CE5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="7"/>
+      <c r="CG5" s="7">
+        <v>2</v>
+      </c>
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CJ5" s="7"/>
+      <c r="CK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CL5" s="7"/>
+      <c r="CM5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="7"/>
+      <c r="CP5" s="7"/>
+      <c r="CQ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CS5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="8">
         <v>6</v>
       </c>
-      <c r="BL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="1">
+      <c r="CV5" s="8">
+        <v>1</v>
+      </c>
+      <c r="CW5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CX5" s="8"/>
+      <c r="CY5" s="8">
+        <v>2</v>
+      </c>
+      <c r="CZ5" s="8"/>
+      <c r="DA5" s="8">
+        <v>2</v>
+      </c>
+      <c r="DB5" s="7">
         <v>6</v>
       </c>
-      <c r="BS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY3" s="1">
+      <c r="DC5" s="7">
+        <v>1</v>
+      </c>
+      <c r="DD5" s="7"/>
+      <c r="DE5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DF5" s="7"/>
+      <c r="DG5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DH5" s="7"/>
+      <c r="DI5" s="7">
         <v>6</v>
       </c>
-      <c r="BZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="1">
+      <c r="DJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DL5" s="7"/>
+      <c r="DM5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DN5" s="7"/>
+      <c r="DO5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DP5" s="7">
         <v>6</v>
       </c>
-      <c r="CG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="1">
+      <c r="DQ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="DR5" s="7"/>
+      <c r="DS5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DT5" s="7"/>
+      <c r="DU5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DV5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DW5" s="7">
         <v>6</v>
       </c>
-      <c r="CN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CT3" s="1">
+      <c r="DX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="7">
+        <v>2</v>
+      </c>
+      <c r="DZ5" s="7"/>
+      <c r="EA5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EB5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EC5" s="7">
+        <v>2</v>
+      </c>
+      <c r="ED5" s="7">
         <v>6</v>
       </c>
-      <c r="CU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DA3" s="1">
+      <c r="EE5" s="7">
+        <v>1</v>
+      </c>
+      <c r="EF5" s="7"/>
+      <c r="EG5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EH5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EI5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EJ5" s="7"/>
+      <c r="EK5" s="7">
         <v>6</v>
       </c>
-      <c r="DB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DH3" s="1">
+      <c r="EL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="EM5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EN5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EO5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EP5" s="7"/>
+      <c r="EQ5" s="7">
+        <v>2</v>
+      </c>
+      <c r="ER5" s="7">
         <v>6</v>
       </c>
-      <c r="DI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DO3" s="1">
-        <v>6</v>
-      </c>
-      <c r="DP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DV3" s="1">
-        <v>6</v>
-      </c>
-      <c r="DW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="DZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EC3" s="1">
-        <v>6</v>
-      </c>
-      <c r="ED3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EJ3" s="1">
-        <v>6</v>
-      </c>
-      <c r="EK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EQ3" s="1">
-        <v>6</v>
-      </c>
-      <c r="ER3" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="1">
-        <v>2</v>
-      </c>
-      <c r="ET3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="EX3" s="1">
-        <v>6</v>
-      </c>
-      <c r="EY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FE3" s="1">
-        <v>6</v>
-      </c>
-      <c r="FF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FL3" s="1">
-        <v>6</v>
-      </c>
-      <c r="FM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FS3" s="1">
-        <v>6</v>
-      </c>
-      <c r="FT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FZ3" s="1">
-        <v>6</v>
-      </c>
-      <c r="GA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GG3" s="1">
-        <v>6</v>
-      </c>
-      <c r="GH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GN3" s="1">
-        <v>6</v>
-      </c>
-      <c r="GO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GU3" s="1">
-        <v>6</v>
-      </c>
-      <c r="GV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HB3" s="1">
-        <v>6</v>
-      </c>
-      <c r="HC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HI3" s="1">
-        <v>6</v>
-      </c>
-      <c r="HJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HP3" s="1">
-        <v>6</v>
-      </c>
-      <c r="HQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HW3" s="1">
-        <v>6</v>
-      </c>
-      <c r="HX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="ID3" s="1">
-        <v>6</v>
-      </c>
-      <c r="IE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="IF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="II3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IK3" s="1">
-        <v>6</v>
-      </c>
-      <c r="IL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="IM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IR3" s="1">
-        <v>6</v>
-      </c>
-      <c r="IS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="IT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IY3" s="1">
-        <v>6</v>
-      </c>
-      <c r="IZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="JA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JF3" s="1">
-        <v>6</v>
-      </c>
-      <c r="JG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="JH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JM3" s="1">
-        <v>6</v>
-      </c>
-      <c r="JN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="JO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JT3" s="1">
-        <v>6</v>
-      </c>
-      <c r="JU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="JV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KA3" s="1">
-        <v>6</v>
-      </c>
-      <c r="KB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="KC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KH3" s="1">
-        <v>6</v>
-      </c>
-      <c r="KI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="KJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KO3" s="1">
-        <v>6</v>
-      </c>
-      <c r="KP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="KQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KV3" s="1">
-        <v>6</v>
-      </c>
-      <c r="KW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="KX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="KZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="LA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="LB3" s="1">
-        <v>2</v>
-      </c>
+      <c r="ES5" s="7">
+        <v>1</v>
+      </c>
+      <c r="ET5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EU5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EV5" s="7"/>
+      <c r="EW5" s="7">
+        <v>2</v>
+      </c>
+      <c r="EX5" s="7"/>
+      <c r="EY5" s="8">
+        <v>8</v>
+      </c>
+      <c r="EZ5" s="8">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="8">
+        <v>3</v>
+      </c>
+      <c r="FB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="8">
+        <v>3</v>
+      </c>
+      <c r="FD5" s="8">
+        <v>1</v>
+      </c>
+      <c r="FE5" s="8">
+        <v>3</v>
+      </c>
+      <c r="FF5" s="7">
+        <v>8</v>
+      </c>
+      <c r="FG5" s="7">
+        <v>2</v>
+      </c>
+      <c r="FH5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FI5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FK5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="7">
+        <v>8</v>
+      </c>
+      <c r="FN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FO5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FQ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FS5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FT5" s="7">
+        <v>8</v>
+      </c>
+      <c r="FU5" s="7">
+        <v>2</v>
+      </c>
+      <c r="FV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FW5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="FY5" s="7">
+        <v>3</v>
+      </c>
+      <c r="FZ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GA5" s="7">
+        <v>8</v>
+      </c>
+      <c r="GB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GC5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GD5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GE5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GF5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GG5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GH5" s="7">
+        <v>8</v>
+      </c>
+      <c r="GI5" s="7">
+        <v>2</v>
+      </c>
+      <c r="GJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GK5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GM5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="7">
+        <v>8</v>
+      </c>
+      <c r="GP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GQ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GR5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GU5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GV5" s="7">
+        <v>8</v>
+      </c>
+      <c r="GW5" s="7">
+        <v>2</v>
+      </c>
+      <c r="GX5" s="7">
+        <v>1</v>
+      </c>
+      <c r="GY5" s="7">
+        <v>3</v>
+      </c>
+      <c r="GZ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HA5" s="7">
+        <v>3</v>
+      </c>
+      <c r="HB5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HC5" s="8">
+        <v>12</v>
+      </c>
+      <c r="HD5" s="8">
+        <v>2</v>
+      </c>
+      <c r="HE5" s="8">
+        <v>4</v>
+      </c>
+      <c r="HF5" s="8">
+        <v>1</v>
+      </c>
+      <c r="HG5" s="8">
+        <v>4</v>
+      </c>
+      <c r="HH5" s="8">
+        <v>2</v>
+      </c>
+      <c r="HI5" s="8">
+        <v>4</v>
+      </c>
+      <c r="HJ5" s="7">
+        <v>8</v>
+      </c>
+      <c r="HK5" s="7">
+        <v>2</v>
+      </c>
+      <c r="HL5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HM5" s="7">
+        <v>4</v>
+      </c>
+      <c r="HN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HO5" s="7">
+        <v>4</v>
+      </c>
+      <c r="HP5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HQ5" s="7">
+        <v>12</v>
+      </c>
+      <c r="HR5" s="7">
+        <v>2</v>
+      </c>
+      <c r="HS5" s="7">
+        <v>4</v>
+      </c>
+      <c r="HT5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HU5" s="7">
+        <v>4</v>
+      </c>
+      <c r="HV5" s="7">
+        <v>1</v>
+      </c>
+      <c r="HW5" s="7">
+        <v>4</v>
+      </c>
+      <c r="HX5" s="7">
+        <v>8</v>
+      </c>
+      <c r="HY5" s="7">
+        <v>2</v>
+      </c>
+      <c r="HZ5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IA5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IB5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IC5" s="7">
+        <v>4</v>
+      </c>
+      <c r="ID5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IE5" s="7">
+        <v>12</v>
+      </c>
+      <c r="IF5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IG5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IH5" s="7">
+        <v>2</v>
+      </c>
+      <c r="II5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="IK5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IL5" s="7">
+        <v>8</v>
+      </c>
+      <c r="IM5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IN5" s="7">
+        <v>1</v>
+      </c>
+      <c r="IO5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IP5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IQ5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IR5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IS5" s="7">
+        <v>12</v>
+      </c>
+      <c r="IT5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IU5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IV5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IW5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IX5" s="7">
+        <v>2</v>
+      </c>
+      <c r="IY5" s="7">
+        <v>4</v>
+      </c>
+      <c r="IZ5" s="7">
+        <v>8</v>
+      </c>
+      <c r="JA5" s="7">
+        <v>2</v>
+      </c>
+      <c r="JB5" s="7">
+        <v>2</v>
+      </c>
+      <c r="JC5" s="7">
+        <v>4</v>
+      </c>
+      <c r="JD5" s="7">
+        <v>1</v>
+      </c>
+      <c r="JE5" s="7">
+        <v>4</v>
+      </c>
+      <c r="JF5" s="7">
+        <v>1</v>
+      </c>
+      <c r="JG5" s="8">
+        <v>15</v>
+      </c>
+      <c r="JH5" s="8">
+        <v>3</v>
+      </c>
+      <c r="JI5" s="8">
+        <v>5</v>
+      </c>
+      <c r="JJ5" s="8">
+        <v>3</v>
+      </c>
+      <c r="JK5" s="8">
+        <v>5</v>
+      </c>
+      <c r="JL5" s="8">
+        <v>3</v>
+      </c>
+      <c r="JM5" s="8">
+        <v>5</v>
+      </c>
+      <c r="JN5" s="7">
+        <v>12</v>
+      </c>
+      <c r="JO5" s="7">
+        <v>2</v>
+      </c>
+      <c r="JP5" s="7">
+        <v>3</v>
+      </c>
+      <c r="JQ5" s="7">
+        <v>5</v>
+      </c>
+      <c r="JR5" s="7">
+        <v>3</v>
+      </c>
+      <c r="JS5" s="7">
+        <v>5</v>
+      </c>
+      <c r="JT5" s="7">
+        <v>3</v>
+      </c>
+      <c r="JU5" s="7">
+        <v>15</v>
+      </c>
+      <c r="JV5" s="7">
+        <v>3</v>
+      </c>
+      <c r="JW5" s="7">
+        <v>5</v>
+      </c>
+      <c r="JX5" s="7">
+        <v>3</v>
+      </c>
+      <c r="JY5" s="7">
+        <v>5</v>
+      </c>
+      <c r="JZ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KA5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KB5" s="7">
+        <v>12</v>
+      </c>
+      <c r="KC5" s="7">
+        <v>2</v>
+      </c>
+      <c r="KD5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KE5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KF5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KG5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KH5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KI5" s="7">
+        <v>15</v>
+      </c>
+      <c r="KJ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KK5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KL5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KM5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KN5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KO5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KP5" s="7">
+        <v>12</v>
+      </c>
+      <c r="KQ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KR5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KS5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KT5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KU5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KV5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KW5" s="7">
+        <v>15</v>
+      </c>
+      <c r="KX5" s="7">
+        <v>3</v>
+      </c>
+      <c r="KY5" s="7">
+        <v>5</v>
+      </c>
+      <c r="KZ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="LA5" s="7">
+        <v>5</v>
+      </c>
+      <c r="LB5" s="7">
+        <v>3</v>
+      </c>
+      <c r="LC5" s="7">
+        <v>5</v>
+      </c>
+      <c r="LD5" s="7">
+        <v>12</v>
+      </c>
+      <c r="LE5" s="7">
+        <v>3</v>
+      </c>
+      <c r="LF5" s="7">
+        <v>3</v>
+      </c>
+      <c r="LG5" s="7">
+        <v>5</v>
+      </c>
+      <c r="LH5" s="7">
+        <v>3</v>
+      </c>
+      <c r="LI5" s="7">
+        <v>5</v>
+      </c>
+      <c r="LJ5" s="7">
+        <v>3</v>
+      </c>
+      <c r="LK5" s="6"/>
+      <c r="LL5" s="6"/>
+      <c r="LM5" s="6"/>
+      <c r="LN5" s="6"/>
+      <c r="LO5" s="6"/>
+      <c r="LP5" s="6"/>
+      <c r="LQ5" s="6"/>
+      <c r="LR5" s="6"/>
+      <c r="LS5" s="6"/>
+      <c r="LT5" s="6"/>
+      <c r="LU5" s="6"/>
+      <c r="LV5" s="6"/>
+      <c r="LW5" s="6"/>
+      <c r="LX5" s="6"/>
+      <c r="LY5" s="6"/>
+      <c r="LZ5" s="6"/>
+      <c r="MA5" s="6"/>
+      <c r="MB5" s="6"/>
+      <c r="MC5" s="6"/>
+      <c r="MD5" s="6"/>
+      <c r="ME5" s="6"/>
+      <c r="MF5" s="6"/>
+      <c r="MG5" s="6"/>
+      <c r="MH5" s="6"/>
+      <c r="MI5" s="6"/>
+      <c r="MJ5" s="6"/>
+      <c r="MK5" s="6"/>
+      <c r="ML5" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>#head</t>
   </si>
@@ -175,9 +175,6 @@
     <t>.property[2].speed:number</t>
   </si>
   <si>
-    <t>.property[3].health:number</t>
-  </si>
-  <si>
     <t>.property[3].attack:number</t>
   </si>
   <si>
@@ -838,22 +835,37 @@
     <t>.property[0].attack:number</t>
   </si>
   <si>
+    <t>.property[4].speed:number</t>
+  </si>
+  <si>
+    <t>.property[6].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[7].attack:number</t>
   </si>
   <si>
     <t>.property[9].attack:number</t>
   </si>
   <si>
+    <t>.property[9].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[11].attack:number</t>
   </si>
   <si>
+    <t>.property[11].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[13].attack:number</t>
   </si>
   <si>
+    <t>.property[13].speed:number</t>
+  </si>
+  <si>
     <t>.property[15].attack:number</t>
   </si>
   <si>
-    <t>.property[6].accuracy:number</t>
+    <t>.property[15].accuracy:number</t>
   </si>
   <si>
     <t>.property[7].accuracy:number</t>
@@ -2054,6 +2066,18 @@
       <c r="JT2" s="1" t="s">
         <v>281</v>
       </c>
+      <c r="JU2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JV2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JW2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="JX2" s="1" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -2181,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="AQ3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3" s="1">
         <v>1</v>
@@ -2193,13 +2217,13 @@
         <v>1</v>
       </c>
       <c r="AU3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV3" s="1">
         <v>1</v>
       </c>
       <c r="AW3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="1">
         <v>1</v>
@@ -2217,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="BC3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE3" s="1">
         <v>1</v>
@@ -2229,34 +2253,34 @@
         <v>1</v>
       </c>
       <c r="BG3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ3" s="1">
         <v>1</v>
       </c>
       <c r="BK3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BL3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BM3" s="1">
         <v>1</v>
       </c>
       <c r="BN3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BO3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BP3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ3" s="1">
         <v>2</v>
@@ -2265,22 +2289,22 @@
         <v>2</v>
       </c>
       <c r="BS3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="BT3" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BU3" s="1">
         <v>2</v>
       </c>
       <c r="BV3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BW3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BX3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY3" s="1">
         <v>2</v>
@@ -2289,10 +2313,10 @@
         <v>2</v>
       </c>
       <c r="CA3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CB3" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CC3" s="1">
         <v>2</v>
@@ -2301,13 +2325,13 @@
         <v>2</v>
       </c>
       <c r="CE3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CF3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CG3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH3" s="1">
         <v>2</v>
@@ -2319,10 +2343,10 @@
         <v>2</v>
       </c>
       <c r="CK3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CL3" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CM3" s="1">
         <v>2</v>
@@ -2331,13 +2355,13 @@
         <v>2</v>
       </c>
       <c r="CO3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="CP3" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CQ3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CR3" s="1">
         <v>2</v>
@@ -2349,10 +2373,10 @@
         <v>2</v>
       </c>
       <c r="CU3" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="CV3" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="CW3" s="1">
         <v>2</v>
@@ -2361,512 +2385,510 @@
         <v>2</v>
       </c>
       <c r="CY3" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="CZ3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="DA3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DB3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DC3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DE3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DF3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="DG3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="DH3" s="1">
         <v>1</v>
       </c>
       <c r="DI3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DJ3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DK3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DL3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DM3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="DN3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="DO3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DP3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DQ3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DR3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DS3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DT3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="DU3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="DV3" s="1">
         <v>1</v>
       </c>
       <c r="DW3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DX3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DY3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DZ3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EA3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EB3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="EC3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="ED3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EE3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EF3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EG3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EH3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="EI3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="EJ3" s="1">
         <v>1</v>
       </c>
       <c r="EK3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EM3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EO3" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="EP3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="EQ3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="ER3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="ES3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="ET3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EU3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EV3" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="EW3" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="EX3" s="1">
         <v>1</v>
       </c>
       <c r="EY3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EZ3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FA3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FB3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FC3" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="FD3" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="FE3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FF3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="FG3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FH3" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="FI3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FJ3" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="FK3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FM3" s="1">
+        <v>4</v>
+      </c>
+      <c r="FN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FO3" s="1">
+        <v>4</v>
+      </c>
+      <c r="FP3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FQ3" s="1">
+        <v>18</v>
+      </c>
+      <c r="FR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FS3" s="1">
+        <v>4</v>
+      </c>
+      <c r="FT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FU3" s="1">
+        <v>4</v>
+      </c>
+      <c r="FV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FW3" s="1">
+        <v>4</v>
+      </c>
+      <c r="FX3" s="1">
         <v>14</v>
       </c>
-      <c r="FL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FN3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FP3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FR3" s="1">
-        <v>15</v>
-      </c>
-      <c r="FS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FT3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FX3" s="1">
-        <v>4</v>
-      </c>
       <c r="FY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FZ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GA3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GB3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GC3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GE3" s="1">
+        <v>12</v>
+      </c>
+      <c r="GF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GG3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GI3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="GK3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GL3" s="1">
         <v>14</v>
       </c>
-      <c r="FZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GB3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GD3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GF3" s="1">
-        <v>15</v>
-      </c>
-      <c r="GG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GH3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GJ3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GL3" s="1">
-        <v>4</v>
-      </c>
       <c r="GM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="GN3" s="1">
+        <v>1</v>
+      </c>
+      <c r="GO3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GP3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GQ3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GS3" s="1">
+        <v>12</v>
+      </c>
+      <c r="GT3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GU3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GW3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="GY3" s="1">
+        <v>4</v>
+      </c>
+      <c r="GZ3" s="1">
         <v>14</v>
       </c>
-      <c r="GN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GP3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GR3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GT3" s="1">
-        <v>15</v>
-      </c>
-      <c r="GU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GV3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GX3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GZ3" s="1">
-        <v>4</v>
-      </c>
       <c r="HA3" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="HB3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HC3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="HD3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HE3" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="HF3" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HG3" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="HH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="HI3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HJ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="HK3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HL3" s="1">
+        <v>3</v>
+      </c>
+      <c r="HM3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HN3" s="1">
+        <v>18</v>
+      </c>
+      <c r="HO3" s="1">
+        <v>1</v>
+      </c>
+      <c r="HP3" s="1">
+        <v>3</v>
+      </c>
+      <c r="HQ3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HR3" s="1">
+        <v>3</v>
+      </c>
+      <c r="HS3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HT3" s="1">
+        <v>3</v>
+      </c>
+      <c r="HU3" s="1">
         <v>21</v>
       </c>
-      <c r="HI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HJ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HK3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HL3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HM3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HN3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HO3" s="1">
+      <c r="HV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="HW3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HX3" s="1">
+        <v>3</v>
+      </c>
+      <c r="HY3" s="1">
+        <v>5</v>
+      </c>
+      <c r="HZ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IA3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IB3" s="1">
         <v>18</v>
       </c>
-      <c r="HP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HQ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HR3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HS3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HT3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HU3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HV3" s="1">
+      <c r="IC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="ID3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IE3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IF3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IG3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IH3" s="1">
+        <v>3</v>
+      </c>
+      <c r="II3" s="1">
         <v>21</v>
       </c>
-      <c r="HW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HX3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HY3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HZ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IB3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IC3" s="1">
+      <c r="IJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IK3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IL3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IM3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IN3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IO3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IP3" s="1">
         <v>18</v>
       </c>
-      <c r="ID3" s="1">
-        <v>1</v>
-      </c>
-      <c r="IE3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IF3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IG3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IH3" s="1">
-        <v>5</v>
-      </c>
-      <c r="II3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IJ3" s="1">
+      <c r="IQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IR3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IS3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IT3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IU3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IV3" s="1">
+        <v>3</v>
+      </c>
+      <c r="IW3" s="1">
         <v>21</v>
       </c>
-      <c r="IK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IL3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IM3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IN3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IO3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IP3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IQ3" s="1">
+      <c r="IX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IY3" s="1">
+        <v>5</v>
+      </c>
+      <c r="IZ3" s="1">
+        <v>3</v>
+      </c>
+      <c r="JA3" s="1">
+        <v>5</v>
+      </c>
+      <c r="JB3" s="1">
+        <v>3</v>
+      </c>
+      <c r="JC3" s="1">
+        <v>5</v>
+      </c>
+      <c r="JD3" s="1">
         <v>18</v>
       </c>
-      <c r="IR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IS3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IT3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IU3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IV3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IW3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IX3" s="1">
-        <v>21</v>
-      </c>
-      <c r="IY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IZ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JB3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JC3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JD3" s="1">
-        <v>5</v>
-      </c>
       <c r="JE3" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="JF3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="JG3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JH3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="JI3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JJ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JK3" s="1">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="JK3" s="1"/>
       <c r="JL3" s="1"/>
       <c r="JM3" s="1"/>
       <c r="JN3" s="1"/>
@@ -2876,6 +2898,10 @@
       <c r="JR3" s="1"/>
       <c r="JS3" s="1"/>
       <c r="JT3" s="1"/>
+      <c r="JU3" s="1"/>
+      <c r="JV3" s="1"/>
+      <c r="JW3" s="1"/>
+      <c r="JX3" s="1"/>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -3006,12 +3032,8 @@
       <c r="AR4" s="1">
         <v>1</v>
       </c>
-      <c r="AS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>1</v>
-      </c>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
       <c r="AU4" s="1">
         <v>1</v>
       </c>
@@ -3019,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="AW4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="1">
         <v>1</v>
@@ -3027,17 +3049,19 @@
       <c r="AY4" s="1">
         <v>1</v>
       </c>
-      <c r="AZ4" s="1"/>
+      <c r="AZ4" s="1">
+        <v>1</v>
+      </c>
       <c r="BA4" s="1">
         <v>1</v>
       </c>
       <c r="BB4" s="1">
         <v>1</v>
       </c>
-      <c r="BC4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
       <c r="BE4" s="1">
         <v>1</v>
       </c>
@@ -3048,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="BH4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI4" s="1">
         <v>1</v>
@@ -3059,32 +3083,30 @@
       <c r="BK4" s="1">
         <v>1</v>
       </c>
-      <c r="BL4" s="1">
-        <v>1</v>
-      </c>
+      <c r="BL4" s="1"/>
       <c r="BM4" s="1">
         <v>1</v>
       </c>
       <c r="BN4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP4" s="1">
         <v>2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR4" s="1">
         <v>2</v>
       </c>
       <c r="BS4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BU4" s="1">
         <v>2</v>
@@ -3093,22 +3115,22 @@
         <v>2</v>
       </c>
       <c r="BW4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX4" s="1">
         <v>2</v>
       </c>
       <c r="BY4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BZ4" s="1">
         <v>2</v>
       </c>
       <c r="CA4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CB4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CC4" s="1">
         <v>2</v>
@@ -3120,13 +3142,13 @@
         <v>2</v>
       </c>
       <c r="CF4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CG4" s="1">
         <v>2</v>
       </c>
       <c r="CH4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CI4" s="1">
         <v>2</v>
@@ -3135,10 +3157,10 @@
         <v>2</v>
       </c>
       <c r="CK4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CL4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CM4" s="1">
         <v>2</v>
@@ -3150,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="CP4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CQ4" s="1">
         <v>2</v>
@@ -3159,16 +3181,16 @@
         <v>2</v>
       </c>
       <c r="CS4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT4" s="1">
         <v>2</v>
       </c>
       <c r="CU4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CV4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CW4" s="1">
         <v>2</v>
@@ -3177,511 +3199,509 @@
         <v>2</v>
       </c>
       <c r="CY4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CZ4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DA4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DB4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DC4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DD4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DE4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DF4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DG4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DH4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DI4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DJ4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DK4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DL4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DM4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="DN4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DO4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DP4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DQ4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DR4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DS4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DT4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="DU4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DV4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DW4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DX4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DY4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DZ4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EA4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EB4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EC4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="ED4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EE4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EF4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EG4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EH4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EI4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EJ4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EK4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EL4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EM4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EN4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EO4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="EP4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EQ4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="ER4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="ES4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="ET4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="EU4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EV4" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="EW4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EX4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EY4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EZ4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FA4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FB4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FC4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="FD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="FE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="FG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="FI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FJ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FK4" s="1">
+        <v>3</v>
+      </c>
+      <c r="FL4" s="1"/>
+      <c r="FM4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="FO4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="FQ4" s="1">
         <v>6</v>
       </c>
-      <c r="FE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FF4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FH4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FI4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FJ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FK4" s="1">
-        <v>5</v>
-      </c>
-      <c r="FL4" s="1">
-        <v>3</v>
-      </c>
-      <c r="FM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FN4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FP4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FQ4" s="1">
-        <v>1</v>
-      </c>
       <c r="FR4" s="1">
+        <v>3</v>
+      </c>
+      <c r="FS4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="FU4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="FW4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FX4" s="1">
+        <v>4</v>
+      </c>
+      <c r="FY4" s="1">
+        <v>3</v>
+      </c>
+      <c r="FZ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="GA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="GC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GD4" s="1">
+        <v>2</v>
+      </c>
+      <c r="GE4" s="1">
         <v>6</v>
       </c>
-      <c r="FS4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FT4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FV4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FW4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FX4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FY4" s="1">
-        <v>5</v>
-      </c>
-      <c r="FZ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="GA4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GB4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GC4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GD4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GE4" s="1">
-        <v>2</v>
-      </c>
       <c r="GF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="GG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="GI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="GK4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GL4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GM4" s="1">
+        <v>3</v>
+      </c>
+      <c r="GN4" s="1">
+        <v>1</v>
+      </c>
+      <c r="GO4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="GQ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="GR4" s="1">
+        <v>2</v>
+      </c>
+      <c r="GS4" s="1">
         <v>6</v>
       </c>
-      <c r="GG4" s="1">
-        <v>3</v>
-      </c>
-      <c r="GH4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GI4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GJ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GK4" s="1">
-        <v>1</v>
-      </c>
-      <c r="GL4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GM4" s="1">
-        <v>5</v>
-      </c>
-      <c r="GN4" s="1">
-        <v>3</v>
-      </c>
-      <c r="GO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="GP4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GQ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GR4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GS4" s="1">
-        <v>2</v>
-      </c>
       <c r="GT4" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="GU4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="GV4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="GW4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GX4" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="GY4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="GZ4" s="1">
         <v>4</v>
       </c>
       <c r="HA4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="HB4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="HC4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="HD4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HE4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HF4" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="HG4" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="HH4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HI4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HJ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HK4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HL4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HM4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HN4" s="1">
+        <v>9</v>
+      </c>
+      <c r="HO4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HP4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HQ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HR4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HS4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HT4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HU4" s="1">
         <v>12</v>
       </c>
-      <c r="HI4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HJ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HK4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HL4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HM4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HN4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HO4" s="1">
+      <c r="HV4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HW4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HX4" s="1">
+        <v>3</v>
+      </c>
+      <c r="HY4" s="1">
+        <v>5</v>
+      </c>
+      <c r="HZ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IB4" s="1">
         <v>9</v>
       </c>
-      <c r="HP4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HQ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HR4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HS4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HT4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HU4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HV4" s="1">
+      <c r="IC4" s="1">
+        <v>3</v>
+      </c>
+      <c r="ID4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IE4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IG4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IH4" s="1">
+        <v>3</v>
+      </c>
+      <c r="II4" s="1">
         <v>12</v>
       </c>
-      <c r="HW4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HX4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HY4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HZ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IA4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IB4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IC4" s="1">
+      <c r="IJ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IK4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IL4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IM4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IN4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IP4" s="1">
         <v>9</v>
       </c>
-      <c r="ID4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IE4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IF4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IG4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IH4" s="1">
-        <v>5</v>
-      </c>
-      <c r="II4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IJ4" s="1">
+      <c r="IQ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IR4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IS4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IT4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IU4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IV4" s="1">
+        <v>3</v>
+      </c>
+      <c r="IW4" s="1">
         <v>12</v>
       </c>
-      <c r="IK4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IL4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IM4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IN4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IO4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IP4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IQ4" s="1">
+      <c r="IX4" s="1">
+        <v>4</v>
+      </c>
+      <c r="IY4" s="1">
+        <v>5</v>
+      </c>
+      <c r="IZ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="JA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="JB4" s="1">
+        <v>3</v>
+      </c>
+      <c r="JC4" s="1">
+        <v>5</v>
+      </c>
+      <c r="JD4" s="1">
         <v>9</v>
       </c>
-      <c r="IR4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IS4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IT4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IU4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IV4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IW4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IX4" s="1">
-        <v>12</v>
-      </c>
-      <c r="IY4" s="1">
-        <v>4</v>
-      </c>
-      <c r="IZ4" s="1">
-        <v>5</v>
-      </c>
-      <c r="JA4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JB4" s="1">
-        <v>5</v>
-      </c>
-      <c r="JC4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JD4" s="1">
-        <v>5</v>
-      </c>
       <c r="JE4" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="JF4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="JG4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JH4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="JI4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JJ4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="JK4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="JL4" s="1">
         <v>1</v>
@@ -3701,9 +3721,23 @@
       <c r="JQ4" s="1">
         <v>1</v>
       </c>
-      <c r="JR4" s="1"/>
-      <c r="JS4" s="1"/>
-      <c r="JT4" s="1"/>
+      <c r="JR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="JS4" s="1">
+        <v>1</v>
+      </c>
+      <c r="JT4" s="1">
+        <v>1</v>
+      </c>
+      <c r="JU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="JV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="JW4" s="1"/>
+      <c r="JX4" s="1"/>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -3857,7 +3891,9 @@
       <c r="AY5" s="1">
         <v>1</v>
       </c>
-      <c r="AZ5" s="1"/>
+      <c r="AZ5" s="1">
+        <v>1</v>
+      </c>
       <c r="BA5" s="1">
         <v>1</v>
       </c>
@@ -3865,10 +3901,10 @@
         <v>1</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="1">
         <v>1</v>
@@ -3880,10 +3916,10 @@
         <v>1</v>
       </c>
       <c r="BH5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ5" s="1">
         <v>1</v>
@@ -3898,109 +3934,109 @@
         <v>1</v>
       </c>
       <c r="BN5" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="1">
         <v>6</v>
       </c>
-      <c r="BP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="1">
-        <v>2</v>
-      </c>
       <c r="BT5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="1">
         <v>6</v>
       </c>
-      <c r="BU5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV5" s="1">
-        <v>2</v>
-      </c>
       <c r="BW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA5" s="1">
         <v>6</v>
       </c>
-      <c r="BX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CA5" s="1">
-        <v>2</v>
-      </c>
       <c r="CB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE5" s="1">
         <v>6</v>
       </c>
-      <c r="CC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>2</v>
-      </c>
       <c r="CF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CJ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK5" s="1">
         <v>6</v>
       </c>
-      <c r="CG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>2</v>
-      </c>
       <c r="CL5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO5" s="1">
         <v>6</v>
       </c>
-      <c r="CM5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO5" s="1">
-        <v>2</v>
-      </c>
       <c r="CP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU5" s="1">
         <v>6</v>
       </c>
-      <c r="CQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CT5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CU5" s="1">
-        <v>2</v>
-      </c>
       <c r="CV5" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CW5" s="1">
         <v>2</v>
@@ -4009,533 +4045,535 @@
         <v>2</v>
       </c>
       <c r="CY5" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="CZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DA5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DC5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DE5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DF5" s="1">
         <v>8</v>
       </c>
-      <c r="DA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DB5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DD5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DF5" s="1">
-        <v>3</v>
-      </c>
       <c r="DG5" s="1">
+        <v>2</v>
+      </c>
+      <c r="DH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DI5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DK5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DM5" s="1">
         <v>8</v>
       </c>
-      <c r="DH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="DI5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DJ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DM5" s="1">
-        <v>1</v>
-      </c>
       <c r="DN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DO5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DQ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DS5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DT5" s="1">
         <v>8</v>
       </c>
-      <c r="DO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DR5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DT5" s="1">
-        <v>3</v>
-      </c>
       <c r="DU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="DV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="1">
+        <v>3</v>
+      </c>
+      <c r="DZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EA5" s="1">
         <v>8</v>
       </c>
-      <c r="DV5" s="1">
-        <v>2</v>
-      </c>
-      <c r="DW5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DX5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DY5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DZ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EA5" s="1">
-        <v>1</v>
-      </c>
       <c r="EB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EC5" s="1">
+        <v>3</v>
+      </c>
+      <c r="ED5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EE5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EG5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EH5" s="1">
         <v>8</v>
       </c>
-      <c r="EC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="ED5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EF5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EH5" s="1">
-        <v>3</v>
-      </c>
       <c r="EI5" s="1">
+        <v>2</v>
+      </c>
+      <c r="EJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EK5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EM5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EO5" s="1">
         <v>8</v>
       </c>
-      <c r="EJ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="EK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EN5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EO5" s="1">
-        <v>1</v>
-      </c>
       <c r="EP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EQ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="ER5" s="1">
+        <v>1</v>
+      </c>
+      <c r="ES5" s="1">
+        <v>3</v>
+      </c>
+      <c r="ET5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EU5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EV5" s="1">
         <v>8</v>
       </c>
-      <c r="EQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="ER5" s="1">
-        <v>3</v>
-      </c>
-      <c r="ES5" s="1">
-        <v>1</v>
-      </c>
-      <c r="ET5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EV5" s="1">
-        <v>3</v>
-      </c>
       <c r="EW5" s="1">
+        <v>2</v>
+      </c>
+      <c r="EX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="EY5" s="1">
+        <v>3</v>
+      </c>
+      <c r="EZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="1">
+        <v>3</v>
+      </c>
+      <c r="FB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FC5" s="1">
+        <v>12</v>
+      </c>
+      <c r="FD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FE5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FG5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FJ5" s="1">
         <v>8</v>
       </c>
-      <c r="EX5" s="1">
-        <v>2</v>
-      </c>
-      <c r="EY5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EZ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="FA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FB5" s="1">
-        <v>3</v>
-      </c>
-      <c r="FC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FD5" s="1">
+      <c r="FK5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FM5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FO5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FQ5" s="1">
         <v>12</v>
       </c>
-      <c r="FE5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FF5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FH5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FI5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FJ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FK5" s="1">
+      <c r="FR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FS5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FU5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="FW5" s="1">
+        <v>4</v>
+      </c>
+      <c r="FX5" s="1">
         <v>8</v>
       </c>
-      <c r="FL5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FN5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FP5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FR5" s="1">
+      <c r="FY5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FZ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GA5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GE5" s="1">
         <v>12</v>
       </c>
-      <c r="FS5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FT5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FV5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FW5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FX5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FY5" s="1">
+      <c r="GF5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GG5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="GK5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GL5" s="1">
         <v>8</v>
       </c>
-      <c r="FZ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GA5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GB5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GE5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GF5" s="1">
+      <c r="GM5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="GO5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GP5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GQ5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GS5" s="1">
         <v>12</v>
       </c>
-      <c r="GG5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GH5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GI5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GJ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="GL5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GM5" s="1">
+      <c r="GT5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GU5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GV5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GW5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="GY5" s="1">
+        <v>4</v>
+      </c>
+      <c r="GZ5" s="1">
         <v>8</v>
       </c>
-      <c r="GN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="GP5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GQ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GR5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GS5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GT5" s="1">
+      <c r="HA5" s="1">
+        <v>2</v>
+      </c>
+      <c r="HB5" s="1">
+        <v>2</v>
+      </c>
+      <c r="HC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="HD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="HE5" s="1">
+        <v>4</v>
+      </c>
+      <c r="HF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="HG5" s="1">
+        <v>15</v>
+      </c>
+      <c r="HH5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HI5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HJ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HK5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HL5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HM5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HN5" s="1">
         <v>12</v>
       </c>
-      <c r="GU5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GV5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GW5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GX5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GZ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HA5" s="1">
-        <v>8</v>
-      </c>
-      <c r="HB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="HC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="HD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="HF5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="HH5" s="1">
+      <c r="HO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="HP5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HQ5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HR5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HS5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HT5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HU5" s="1">
         <v>15</v>
       </c>
-      <c r="HI5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HJ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HK5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HL5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HM5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HN5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HO5" s="1">
+      <c r="HV5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HW5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HX5" s="1">
+        <v>3</v>
+      </c>
+      <c r="HY5" s="1">
+        <v>5</v>
+      </c>
+      <c r="HZ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IB5" s="1">
         <v>12</v>
       </c>
-      <c r="HP5" s="1">
-        <v>2</v>
-      </c>
-      <c r="HQ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HR5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HS5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HT5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HU5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HV5" s="1">
+      <c r="IC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="ID5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IE5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IF5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IG5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IH5" s="1">
+        <v>3</v>
+      </c>
+      <c r="II5" s="1">
         <v>15</v>
       </c>
-      <c r="HW5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HX5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HY5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HZ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IA5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IB5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IC5" s="1">
+      <c r="IJ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IK5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IL5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IM5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IN5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IO5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IP5" s="1">
         <v>12</v>
       </c>
-      <c r="ID5" s="1">
-        <v>2</v>
-      </c>
-      <c r="IE5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IF5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IG5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IH5" s="1">
-        <v>5</v>
-      </c>
-      <c r="II5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IJ5" s="1">
+      <c r="IQ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IR5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IS5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IT5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IU5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IV5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IW5" s="1">
         <v>15</v>
       </c>
-      <c r="IK5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IL5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IM5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IN5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IO5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IP5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IQ5" s="1">
+      <c r="IX5" s="1">
+        <v>3</v>
+      </c>
+      <c r="IY5" s="1">
+        <v>5</v>
+      </c>
+      <c r="IZ5" s="1">
+        <v>3</v>
+      </c>
+      <c r="JA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="JB5" s="1">
+        <v>3</v>
+      </c>
+      <c r="JC5" s="1">
+        <v>5</v>
+      </c>
+      <c r="JD5" s="1">
         <v>12</v>
       </c>
-      <c r="IR5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IS5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IT5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IU5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IV5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IW5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IX5" s="1">
-        <v>15</v>
-      </c>
-      <c r="IY5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IZ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JA5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JB5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JC5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JD5" s="1">
-        <v>5</v>
-      </c>
       <c r="JE5" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="JF5" s="1">
         <v>3</v>
       </c>
       <c r="JG5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JH5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="JI5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="JJ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JK5" s="1">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="JK5" s="1"/>
       <c r="JL5" s="1"/>
-      <c r="JM5" s="1"/>
-      <c r="JN5" s="1">
-        <v>1</v>
-      </c>
+      <c r="JM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="JN5" s="1"/>
       <c r="JO5" s="1">
         <v>1</v>
       </c>
-      <c r="JP5" s="1">
-        <v>1</v>
-      </c>
+      <c r="JP5" s="1"/>
       <c r="JQ5" s="1">
         <v>1</v>
       </c>
-      <c r="JR5" s="1">
-        <v>1</v>
-      </c>
+      <c r="JR5" s="1"/>
       <c r="JS5" s="1">
         <v>1</v>
       </c>
-      <c r="JT5" s="1">
+      <c r="JT5" s="1"/>
+      <c r="JU5" s="1">
+        <v>1</v>
+      </c>
+      <c r="JV5" s="1"/>
+      <c r="JW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="JX5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data = </t>
+    <t>exports.data =</t>
   </si>
   <si>
     <t>#path</t>
@@ -151,72 +151,171 @@
     <t>.property[0].health:number</t>
   </si>
   <si>
+    <t>.property[0].attack:number</t>
+  </si>
+  <si>
     <t>.property[0].critical:number</t>
   </si>
   <si>
+    <t>.property[0].strong:number</t>
+  </si>
+  <si>
     <t>.property[0].accuracy:number</t>
   </si>
   <si>
+    <t>.property[0].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[0].speed:number</t>
   </si>
   <si>
     <t>.property[1].health:number</t>
   </si>
   <si>
+    <t>.property[1].attack:number</t>
+  </si>
+  <si>
+    <t>.property[1].critical:number</t>
+  </si>
+  <si>
     <t>.property[1].strong:number</t>
   </si>
   <si>
+    <t>.property[1].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[1].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[1].speed:number</t>
+  </si>
+  <si>
     <t>.property[2].health:number</t>
   </si>
   <si>
+    <t>.property[2].attack:number</t>
+  </si>
+  <si>
+    <t>.property[2].critical:number</t>
+  </si>
+  <si>
+    <t>.property[2].strong:number</t>
+  </si>
+  <si>
     <t>.property[2].accuracy:number</t>
   </si>
   <si>
+    <t>.property[2].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[2].speed:number</t>
   </si>
   <si>
+    <t>.property[3].health:number</t>
+  </si>
+  <si>
     <t>.property[3].attack:number</t>
   </si>
   <si>
+    <t>.property[3].critical:number</t>
+  </si>
+  <si>
     <t>.property[3].strong:number</t>
   </si>
   <si>
+    <t>.property[3].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[3].reactivity:number</t>
   </si>
   <si>
+    <t>.property[3].speed:number</t>
+  </si>
+  <si>
     <t>.property[4].health:number</t>
   </si>
   <si>
+    <t>.property[4].attack:number</t>
+  </si>
+  <si>
     <t>.property[4].critical:number</t>
   </si>
   <si>
+    <t>.property[4].strong:number</t>
+  </si>
+  <si>
     <t>.property[4].accuracy:number</t>
   </si>
   <si>
+    <t>.property[4].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[4].speed:number</t>
+  </si>
+  <si>
     <t>.property[5].health:number</t>
   </si>
   <si>
+    <t>.property[5].attack:number</t>
+  </si>
+  <si>
+    <t>.property[5].critical:number</t>
+  </si>
+  <si>
+    <t>.property[5].strong:number</t>
+  </si>
+  <si>
+    <t>.property[5].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[5].reactivity:number</t>
   </si>
   <si>
+    <t>.property[5].speed:number</t>
+  </si>
+  <si>
     <t>.property[6].health:number</t>
   </si>
   <si>
+    <t>.property[6].attack:number</t>
+  </si>
+  <si>
     <t>.property[6].critical:number</t>
   </si>
   <si>
+    <t>.property[6].strong:number</t>
+  </si>
+  <si>
+    <t>.property[6].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[6].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[6].speed:number</t>
   </si>
   <si>
     <t>.property[7].health:number</t>
   </si>
   <si>
+    <t>.property[7].attack:number</t>
+  </si>
+  <si>
+    <t>.property[7].critical:number</t>
+  </si>
+  <si>
     <t>.property[7].strong:number</t>
   </si>
   <si>
+    <t>.property[7].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[7].reactivity:number</t>
   </si>
   <si>
+    <t>.property[7].speed:number</t>
+  </si>
+  <si>
     <t>.property[8].health:number</t>
   </si>
   <si>
@@ -226,21 +325,39 @@
     <t>.property[8].critical:number</t>
   </si>
   <si>
+    <t>.property[8].strong:number</t>
+  </si>
+  <si>
     <t>.property[8].accuracy:number</t>
   </si>
   <si>
+    <t>.property[8].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[8].speed:number</t>
   </si>
   <si>
     <t>.property[9].health:number</t>
   </si>
   <si>
+    <t>.property[9].attack:number</t>
+  </si>
+  <si>
+    <t>.property[9].critical:number</t>
+  </si>
+  <si>
     <t>.property[9].strong:number</t>
   </si>
   <si>
+    <t>.property[9].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[9].reactivity:number</t>
   </si>
   <si>
+    <t>.property[9].speed:number</t>
+  </si>
+  <si>
     <t>.property[10].health:number</t>
   </si>
   <si>
@@ -250,18 +367,33 @@
     <t>.property[10].critical:number</t>
   </si>
   <si>
+    <t>.property[10].strong:number</t>
+  </si>
+  <si>
     <t>.property[10].accuracy:number</t>
   </si>
   <si>
+    <t>.property[10].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[10].speed:number</t>
   </si>
   <si>
     <t>.property[11].health:number</t>
   </si>
   <si>
+    <t>.property[11].attack:number</t>
+  </si>
+  <si>
+    <t>.property[11].critical:number</t>
+  </si>
+  <si>
     <t>.property[11].strong:number</t>
   </si>
   <si>
+    <t>.property[11].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[11].reactivity:number</t>
   </si>
   <si>
@@ -277,6 +409,9 @@
     <t>.property[12].critical:number</t>
   </si>
   <si>
+    <t>.property[12].strong:number</t>
+  </si>
+  <si>
     <t>.property[12].accuracy:number</t>
   </si>
   <si>
@@ -289,6 +424,12 @@
     <t>.property[13].health:number</t>
   </si>
   <si>
+    <t>.property[13].attack:number</t>
+  </si>
+  <si>
+    <t>.property[13].critical:number</t>
+  </si>
+  <si>
     <t>.property[13].strong:number</t>
   </si>
   <si>
@@ -298,6 +439,9 @@
     <t>.property[13].reactivity:number</t>
   </si>
   <si>
+    <t>.property[13].speed:number</t>
+  </si>
+  <si>
     <t>.property[14].health:number</t>
   </si>
   <si>
@@ -313,21 +457,33 @@
     <t>.property[14].accuracy:number</t>
   </si>
   <si>
+    <t>.property[14].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[14].speed:number</t>
   </si>
   <si>
     <t>.property[15].health:number</t>
   </si>
   <si>
+    <t>.property[15].attack:number</t>
+  </si>
+  <si>
     <t>.property[15].critical:number</t>
   </si>
   <si>
     <t>.property[15].strong:number</t>
   </si>
   <si>
+    <t>.property[15].accuracy:number</t>
+  </si>
+  <si>
     <t>.property[15].reactivity:number</t>
   </si>
   <si>
+    <t>.property[15].speed:number</t>
+  </si>
+  <si>
     <t>.property[16].health:number</t>
   </si>
   <si>
@@ -830,60 +986,40 @@
   </si>
   <si>
     <t>.property[39].speed:number</t>
-  </si>
-  <si>
-    <t>.property[0].attack:number</t>
-  </si>
-  <si>
-    <t>.property[4].speed:number</t>
-  </si>
-  <si>
-    <t>.property[6].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[7].attack:number</t>
-  </si>
-  <si>
-    <t>.property[9].attack:number</t>
-  </si>
-  <si>
-    <t>.property[9].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[11].attack:number</t>
-  </si>
-  <si>
-    <t>.property[11].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[13].attack:number</t>
-  </si>
-  <si>
-    <t>.property[13].speed:number</t>
-  </si>
-  <si>
-    <t>.property[15].attack:number</t>
-  </si>
-  <si>
-    <t>.property[15].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[7].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[7].speed:number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -904,15 +1040,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -925,7 +1074,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -970,10 +1119,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1005,10 +1154,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1211,13 +1360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:LJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="KL1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3:LJ5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2078,8 +2229,122 @@
       <c r="JX2" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="JY2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="JZ2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KA2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KB2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KC2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KD2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KE2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KF2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KG2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KH2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KI2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KJ2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KK2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KL2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KM2" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KN2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KO2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KP2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KQ2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KR2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KS2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KT2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KU2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KV2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KW2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="KX2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="KY2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="KZ2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LA2" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LB2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LC2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LD2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LE2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LF2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LG2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LH2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LI2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LJ2" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -2204,706 +2469,834 @@
       <c r="AP3" s="1">
         <v>16</v>
       </c>
-      <c r="AQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="1">
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>5</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>7</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>8</v>
+      </c>
+      <c r="CA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CD3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="2">
+        <v>12</v>
+      </c>
+      <c r="CH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN3" s="2">
+        <v>17</v>
+      </c>
+      <c r="CO3" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CQ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CS3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CT3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CU3" s="2">
+        <v>23</v>
+      </c>
+      <c r="CV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="2">
+        <v>5</v>
+      </c>
+      <c r="CX3" s="2">
+        <v>3</v>
+      </c>
+      <c r="CY3" s="2">
+        <v>5</v>
+      </c>
+      <c r="CZ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="DA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>35</v>
+      </c>
+      <c r="DC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DD3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DE3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DF3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DG3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DH3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DI3" s="2">
+        <v>41</v>
+      </c>
+      <c r="DJ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="DK3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DL3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DM3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DN3" s="2">
+        <v>5</v>
+      </c>
+      <c r="DO3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DP3" s="2">
+        <v>53</v>
+      </c>
+      <c r="DQ3" s="2">
+        <v>3</v>
+      </c>
+      <c r="DR3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DS3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DT3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DU3" s="2">
+        <v>7</v>
+      </c>
+      <c r="DV3" s="2">
+        <v>9</v>
+      </c>
+      <c r="DW3" s="2">
+        <v>59</v>
+      </c>
+      <c r="DX3" s="2">
         <v>4</v>
       </c>
-      <c r="BI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="1">
+      <c r="DY3" s="2">
+        <v>9</v>
+      </c>
+      <c r="DZ3" s="2">
+        <v>7</v>
+      </c>
+      <c r="EA3" s="2">
+        <v>9</v>
+      </c>
+      <c r="EB3" s="2">
+        <v>9</v>
+      </c>
+      <c r="EC3" s="2">
+        <v>11</v>
+      </c>
+      <c r="ED3" s="2">
+        <v>71</v>
+      </c>
+      <c r="EE3" s="2">
+        <v>4</v>
+      </c>
+      <c r="EF3" s="2">
+        <v>9</v>
+      </c>
+      <c r="EG3" s="2">
+        <v>9</v>
+      </c>
+      <c r="EH3" s="2">
+        <v>11</v>
+      </c>
+      <c r="EI3" s="2">
+        <v>11</v>
+      </c>
+      <c r="EJ3" s="2">
+        <v>11</v>
+      </c>
+      <c r="EK3" s="2">
+        <v>77</v>
+      </c>
+      <c r="EL3" s="2">
         <v>5</v>
       </c>
-      <c r="BL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="1">
+      <c r="EM3" s="2">
+        <v>11</v>
+      </c>
+      <c r="EN3" s="2">
+        <v>11</v>
+      </c>
+      <c r="EO3" s="2">
+        <v>13</v>
+      </c>
+      <c r="EP3" s="2">
+        <v>11</v>
+      </c>
+      <c r="EQ3" s="2">
+        <v>13</v>
+      </c>
+      <c r="ER3" s="2">
+        <v>89</v>
+      </c>
+      <c r="ES3" s="2">
+        <v>5</v>
+      </c>
+      <c r="ET3" s="2">
+        <v>13</v>
+      </c>
+      <c r="EU3" s="2">
+        <v>13</v>
+      </c>
+      <c r="EV3" s="2">
+        <v>13</v>
+      </c>
+      <c r="EW3" s="2">
+        <v>13</v>
+      </c>
+      <c r="EX3" s="2">
+        <v>13</v>
+      </c>
+      <c r="EY3" s="2">
+        <v>97</v>
+      </c>
+      <c r="EZ3" s="2">
         <v>6</v>
       </c>
-      <c r="BO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="1">
+      <c r="FA3" s="2">
+        <v>16</v>
+      </c>
+      <c r="FB3" s="2">
+        <v>14</v>
+      </c>
+      <c r="FC3" s="2">
+        <v>16</v>
+      </c>
+      <c r="FD3" s="2">
+        <v>14</v>
+      </c>
+      <c r="FE3" s="2">
+        <v>16</v>
+      </c>
+      <c r="FF3" s="2">
+        <v>111</v>
+      </c>
+      <c r="FG3" s="2">
+        <v>7</v>
+      </c>
+      <c r="FH3" s="2">
+        <v>17</v>
+      </c>
+      <c r="FI3" s="2">
+        <v>17</v>
+      </c>
+      <c r="FJ3" s="2">
+        <v>17</v>
+      </c>
+      <c r="FK3" s="2">
+        <v>17</v>
+      </c>
+      <c r="FL3" s="2">
+        <v>17</v>
+      </c>
+      <c r="FM3" s="2">
+        <v>119</v>
+      </c>
+      <c r="FN3" s="2">
+        <v>8</v>
+      </c>
+      <c r="FO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="FP3" s="2">
+        <v>18</v>
+      </c>
+      <c r="FQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="FR3" s="2">
+        <v>18</v>
+      </c>
+      <c r="FS3" s="2">
+        <v>2</v>
+      </c>
+      <c r="FT3" s="2">
+        <v>133</v>
+      </c>
+      <c r="FU3" s="2">
+        <v>9</v>
+      </c>
+      <c r="FV3" s="2">
+        <v>21</v>
+      </c>
+      <c r="FW3" s="2">
+        <v>21</v>
+      </c>
+      <c r="FX3" s="2">
+        <v>21</v>
+      </c>
+      <c r="FY3" s="2">
+        <v>21</v>
+      </c>
+      <c r="FZ3" s="2">
+        <v>21</v>
+      </c>
+      <c r="GA3" s="2">
+        <v>141</v>
+      </c>
+      <c r="GB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="GC3" s="2">
+        <v>24</v>
+      </c>
+      <c r="GD3" s="2">
+        <v>22</v>
+      </c>
+      <c r="GE3" s="2">
+        <v>24</v>
+      </c>
+      <c r="GF3" s="2">
+        <v>22</v>
+      </c>
+      <c r="GG3" s="2">
+        <v>24</v>
+      </c>
+      <c r="GH3" s="2">
+        <v>155</v>
+      </c>
+      <c r="GI3" s="2">
+        <v>11</v>
+      </c>
+      <c r="GJ3" s="2">
+        <v>25</v>
+      </c>
+      <c r="GK3" s="2">
+        <v>25</v>
+      </c>
+      <c r="GL3" s="2">
+        <v>25</v>
+      </c>
+      <c r="GM3" s="2">
+        <v>25</v>
+      </c>
+      <c r="GN3" s="2">
+        <v>25</v>
+      </c>
+      <c r="GO3" s="2">
+        <v>163</v>
+      </c>
+      <c r="GP3" s="2">
         <v>12</v>
       </c>
-      <c r="BT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>6</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>12</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>6</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>12</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>6</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CU3" s="1">
-        <v>12</v>
-      </c>
-      <c r="CV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CW3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CY3" s="1">
+      <c r="GQ3" s="2">
+        <v>28</v>
+      </c>
+      <c r="GR3" s="2">
+        <v>26</v>
+      </c>
+      <c r="GS3" s="2">
+        <v>28</v>
+      </c>
+      <c r="GT3" s="2">
+        <v>26</v>
+      </c>
+      <c r="GU3" s="2">
+        <v>28</v>
+      </c>
+      <c r="GV3" s="2">
+        <v>177</v>
+      </c>
+      <c r="GW3" s="2">
+        <v>13</v>
+      </c>
+      <c r="GX3" s="2">
+        <v>29</v>
+      </c>
+      <c r="GY3" s="2">
+        <v>29</v>
+      </c>
+      <c r="GZ3" s="2">
+        <v>29</v>
+      </c>
+      <c r="HA3" s="2">
+        <v>29</v>
+      </c>
+      <c r="HB3" s="2">
+        <v>29</v>
+      </c>
+      <c r="HC3" s="2">
+        <v>195</v>
+      </c>
+      <c r="HD3" s="2">
+        <v>14</v>
+      </c>
+      <c r="HE3" s="2">
+        <v>33</v>
+      </c>
+      <c r="HF3" s="2">
+        <v>3</v>
+      </c>
+      <c r="HG3" s="2">
+        <v>33</v>
+      </c>
+      <c r="HH3" s="2">
+        <v>31</v>
+      </c>
+      <c r="HI3" s="2">
+        <v>33</v>
+      </c>
+      <c r="HJ3" s="2">
+        <v>29</v>
+      </c>
+      <c r="HK3" s="2">
+        <v>15</v>
+      </c>
+      <c r="HL3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HM3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HN3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HO3" s="2">
+        <v>35</v>
+      </c>
+      <c r="HP3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HQ3" s="2">
+        <v>227</v>
+      </c>
+      <c r="HR3" s="2">
+        <v>16</v>
+      </c>
+      <c r="HS3" s="2">
+        <v>38</v>
+      </c>
+      <c r="HT3" s="2">
+        <v>35</v>
+      </c>
+      <c r="HU3" s="2">
+        <v>38</v>
+      </c>
+      <c r="HV3" s="2">
+        <v>36</v>
+      </c>
+      <c r="HW3" s="2">
+        <v>38</v>
+      </c>
+      <c r="HX3" s="2">
+        <v>241</v>
+      </c>
+      <c r="HY3" s="2">
+        <v>17</v>
+      </c>
+      <c r="HZ3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IA3" s="2">
+        <v>39</v>
+      </c>
+      <c r="IB3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IC3" s="2">
+        <v>4</v>
+      </c>
+      <c r="ID3" s="2">
+        <v>4</v>
+      </c>
+      <c r="IE3" s="2">
+        <v>253</v>
+      </c>
+      <c r="IF3" s="2">
+        <v>19</v>
+      </c>
+      <c r="IG3" s="2">
+        <v>44</v>
+      </c>
+      <c r="IH3" s="2">
+        <v>41</v>
+      </c>
+      <c r="II3" s="2">
+        <v>44</v>
+      </c>
+      <c r="IJ3" s="2">
+        <v>41</v>
+      </c>
+      <c r="IK3" s="2">
+        <v>44</v>
+      </c>
+      <c r="IL3" s="2">
+        <v>267</v>
+      </c>
+      <c r="IM3" s="2">
+        <v>2</v>
+      </c>
+      <c r="IN3" s="2">
+        <v>45</v>
+      </c>
+      <c r="IO3" s="2">
+        <v>45</v>
+      </c>
+      <c r="IP3" s="2">
+        <v>46</v>
+      </c>
+      <c r="IQ3" s="2">
+        <v>45</v>
+      </c>
+      <c r="IR3" s="2">
+        <v>46</v>
+      </c>
+      <c r="IS3" s="2">
+        <v>279</v>
+      </c>
+      <c r="IT3" s="2">
+        <v>22</v>
+      </c>
+      <c r="IU3" s="2">
+        <v>49</v>
+      </c>
+      <c r="IV3" s="2">
+        <v>47</v>
+      </c>
+      <c r="IW3" s="2">
+        <v>5</v>
+      </c>
+      <c r="IX3" s="2">
+        <v>47</v>
+      </c>
+      <c r="IY3" s="2">
+        <v>5</v>
+      </c>
+      <c r="IZ3" s="2">
+        <v>293</v>
+      </c>
+      <c r="JA3" s="2">
+        <v>23</v>
+      </c>
+      <c r="JB3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JC3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JD3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JE3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JF3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JG3" s="2">
+        <v>314</v>
+      </c>
+      <c r="JH3" s="2">
+        <v>25</v>
+      </c>
+      <c r="JI3" s="2">
+        <v>56</v>
+      </c>
+      <c r="JJ3" s="2">
+        <v>54</v>
+      </c>
+      <c r="JK3" s="2">
+        <v>56</v>
+      </c>
+      <c r="JL3" s="2">
+        <v>54</v>
+      </c>
+      <c r="JM3" s="2">
+        <v>56</v>
+      </c>
+      <c r="JN3" s="2">
+        <v>332</v>
+      </c>
+      <c r="JO3" s="2">
+        <v>26</v>
+      </c>
+      <c r="JP3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JQ3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JR3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JS3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JT3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JU3" s="2">
+        <v>353</v>
+      </c>
+      <c r="JV3" s="2">
+        <v>28</v>
+      </c>
+      <c r="JW3" s="2">
+        <v>64</v>
+      </c>
+      <c r="JX3" s="2">
+        <v>62</v>
+      </c>
+      <c r="JY3" s="2">
+        <v>64</v>
+      </c>
+      <c r="JZ3" s="2">
+        <v>62</v>
+      </c>
+      <c r="KA3" s="2">
+        <v>64</v>
+      </c>
+      <c r="KB3" s="2">
+        <v>371</v>
+      </c>
+      <c r="KC3" s="2">
+        <v>29</v>
+      </c>
+      <c r="KD3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KE3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KF3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KG3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KH3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KI3" s="2">
+        <v>392</v>
+      </c>
+      <c r="KJ3" s="2">
+        <v>31</v>
+      </c>
+      <c r="KK3" s="2">
+        <v>72</v>
+      </c>
+      <c r="KL3" s="2">
+        <v>7</v>
+      </c>
+      <c r="KM3" s="2">
+        <v>72</v>
+      </c>
+      <c r="KN3" s="2">
+        <v>7</v>
+      </c>
+      <c r="KO3" s="2">
+        <v>72</v>
+      </c>
+      <c r="KP3" s="2">
+        <v>41</v>
+      </c>
+      <c r="KQ3" s="2">
+        <v>33</v>
+      </c>
+      <c r="KR3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KS3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KT3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KU3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KV3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KW3" s="2">
+        <v>431</v>
+      </c>
+      <c r="KX3" s="2">
+        <v>35</v>
+      </c>
+      <c r="KY3" s="2">
         <v>8</v>
       </c>
-      <c r="CZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DF3" s="1">
-        <v>14</v>
-      </c>
-      <c r="DG3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM3" s="1">
+      <c r="KZ3" s="2">
+        <v>78</v>
+      </c>
+      <c r="LA3" s="2">
         <v>8</v>
       </c>
-      <c r="DN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DT3" s="1">
-        <v>14</v>
-      </c>
-      <c r="DU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DW3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DY3" s="1">
-        <v>3</v>
-      </c>
-      <c r="DZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EA3" s="1">
+      <c r="LB3" s="2">
+        <v>78</v>
+      </c>
+      <c r="LC3" s="2">
         <v>8</v>
       </c>
-      <c r="EB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EC3" s="1">
-        <v>3</v>
-      </c>
-      <c r="ED3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EE3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EG3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EH3" s="1">
-        <v>14</v>
-      </c>
-      <c r="EI3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EK3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EM3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EO3" s="1">
-        <v>8</v>
-      </c>
-      <c r="EP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EQ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="ER3" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES3" s="1">
-        <v>3</v>
-      </c>
-      <c r="ET3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EU3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EV3" s="1">
-        <v>14</v>
-      </c>
-      <c r="EW3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EX3" s="1">
-        <v>1</v>
-      </c>
-      <c r="EY3" s="1">
-        <v>3</v>
-      </c>
-      <c r="EZ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FA3" s="1">
-        <v>3</v>
-      </c>
-      <c r="FB3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FC3" s="1">
-        <v>18</v>
-      </c>
-      <c r="FD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FE3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FG3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FJ3" s="1">
-        <v>14</v>
-      </c>
-      <c r="FK3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FL3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FM3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FO3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FP3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FQ3" s="1">
-        <v>18</v>
-      </c>
-      <c r="FR3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FS3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FT3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FU3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FV3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FW3" s="1">
-        <v>4</v>
-      </c>
-      <c r="FX3" s="1">
-        <v>14</v>
-      </c>
-      <c r="FY3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FZ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GA3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GC3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GE3" s="1">
-        <v>12</v>
-      </c>
-      <c r="GF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GG3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GI3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GK3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GL3" s="1">
-        <v>14</v>
-      </c>
-      <c r="GM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GN3" s="1">
-        <v>1</v>
-      </c>
-      <c r="GO3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GP3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GQ3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GS3" s="1">
-        <v>12</v>
-      </c>
-      <c r="GT3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GU3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GW3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="GY3" s="1">
-        <v>4</v>
-      </c>
-      <c r="GZ3" s="1">
-        <v>14</v>
-      </c>
-      <c r="HA3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HB3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HC3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HE3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HG3" s="1">
-        <v>21</v>
-      </c>
-      <c r="HH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HI3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HK3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HL3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HM3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HN3" s="1">
-        <v>18</v>
-      </c>
-      <c r="HO3" s="1">
-        <v>1</v>
-      </c>
-      <c r="HP3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HQ3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HR3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HS3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HT3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HU3" s="1">
-        <v>21</v>
-      </c>
-      <c r="HV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="HW3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HX3" s="1">
-        <v>3</v>
-      </c>
-      <c r="HY3" s="1">
-        <v>5</v>
-      </c>
-      <c r="HZ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IA3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IB3" s="1">
-        <v>18</v>
-      </c>
-      <c r="IC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="ID3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IE3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IF3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IG3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IH3" s="1">
-        <v>3</v>
-      </c>
-      <c r="II3" s="1">
-        <v>21</v>
-      </c>
-      <c r="IJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IK3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IL3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IM3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IN3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IO3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IP3" s="1">
-        <v>18</v>
-      </c>
-      <c r="IQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IR3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IS3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IT3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IU3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IV3" s="1">
-        <v>3</v>
-      </c>
-      <c r="IW3" s="1">
-        <v>21</v>
-      </c>
-      <c r="IX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IY3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IZ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JA3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JC3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JD3" s="1">
-        <v>18</v>
-      </c>
-      <c r="JE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="JF3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JG3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JH3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JI3" s="1">
-        <v>5</v>
-      </c>
-      <c r="JJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="JK3" s="1"/>
-      <c r="JL3" s="1"/>
-      <c r="JM3" s="1"/>
-      <c r="JN3" s="1"/>
-      <c r="JO3" s="1"/>
-      <c r="JP3" s="1"/>
-      <c r="JQ3" s="1"/>
-      <c r="JR3" s="1"/>
-      <c r="JS3" s="1"/>
-      <c r="JT3" s="1"/>
-      <c r="JU3" s="1"/>
-      <c r="JV3" s="1"/>
-      <c r="JW3" s="1"/>
-      <c r="JX3" s="1"/>
+      <c r="LD3" s="2">
+        <v>449</v>
+      </c>
+      <c r="LE3" s="2">
+        <v>37</v>
+      </c>
+      <c r="LF3" s="2">
+        <v>83</v>
+      </c>
+      <c r="LG3" s="2">
+        <v>83</v>
+      </c>
+      <c r="LH3" s="2">
+        <v>83</v>
+      </c>
+      <c r="LI3" s="2">
+        <v>83</v>
+      </c>
+      <c r="LJ3" s="2">
+        <v>83</v>
+      </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -3028,718 +3421,830 @@
       <c r="AP4" s="1">
         <v>16</v>
       </c>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="1">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>3</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="2">
         <v>4</v>
       </c>
-      <c r="BT4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CA4" s="1">
+      <c r="CA4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="2">
+        <v>6</v>
+      </c>
+      <c r="CH4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN4" s="2">
+        <v>7</v>
+      </c>
+      <c r="CO4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CP4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CQ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CS4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CT4" s="2">
+        <v>3</v>
+      </c>
+      <c r="CU4" s="2">
+        <v>9</v>
+      </c>
+      <c r="CV4" s="2">
+        <v>5</v>
+      </c>
+      <c r="CW4" s="2">
+        <v>5</v>
+      </c>
+      <c r="CX4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CY4" s="2">
         <v>4</v>
       </c>
-      <c r="CB4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CF4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CG4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="1">
+      <c r="CZ4" s="2">
+        <v>3</v>
+      </c>
+      <c r="DA4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>13</v>
+      </c>
+      <c r="DC4" s="2">
+        <v>6</v>
+      </c>
+      <c r="DD4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DE4" s="2">
         <v>4</v>
       </c>
-      <c r="CL4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CN4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CQ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CR4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="CT4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CU4" s="1">
+      <c r="DF4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DG4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DH4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DI4" s="2">
+        <v>15</v>
+      </c>
+      <c r="DJ4" s="2">
+        <v>8</v>
+      </c>
+      <c r="DK4" s="2">
+        <v>7</v>
+      </c>
+      <c r="DL4" s="2">
         <v>4</v>
       </c>
-      <c r="CV4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CW4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CX4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CY4" s="1">
+      <c r="DM4" s="2">
+        <v>6</v>
+      </c>
+      <c r="DN4" s="2">
+        <v>5</v>
+      </c>
+      <c r="DO4" s="2">
+        <v>7</v>
+      </c>
+      <c r="DP4" s="2">
+        <v>19</v>
+      </c>
+      <c r="DQ4" s="2">
+        <v>9</v>
+      </c>
+      <c r="DR4" s="2">
+        <v>7</v>
+      </c>
+      <c r="DS4" s="2">
+        <v>6</v>
+      </c>
+      <c r="DT4" s="2">
+        <v>7</v>
+      </c>
+      <c r="DU4" s="2">
+        <v>7</v>
+      </c>
+      <c r="DV4" s="2">
+        <v>9</v>
+      </c>
+      <c r="DW4" s="2">
+        <v>21</v>
+      </c>
+      <c r="DX4" s="2">
+        <v>11</v>
+      </c>
+      <c r="DY4" s="2">
+        <v>9</v>
+      </c>
+      <c r="DZ4" s="2">
+        <v>6</v>
+      </c>
+      <c r="EA4" s="2">
+        <v>8</v>
+      </c>
+      <c r="EB4" s="2">
+        <v>9</v>
+      </c>
+      <c r="EC4" s="2">
+        <v>11</v>
+      </c>
+      <c r="ED4" s="2">
+        <v>25</v>
+      </c>
+      <c r="EE4" s="2">
+        <v>12</v>
+      </c>
+      <c r="EF4" s="2">
+        <v>9</v>
+      </c>
+      <c r="EG4" s="2">
+        <v>8</v>
+      </c>
+      <c r="EH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="EI4" s="2">
+        <v>11</v>
+      </c>
+      <c r="EJ4" s="2">
+        <v>12</v>
+      </c>
+      <c r="EK4" s="2">
+        <v>27</v>
+      </c>
+      <c r="EL4" s="2">
+        <v>14</v>
+      </c>
+      <c r="EM4" s="2">
+        <v>11</v>
+      </c>
+      <c r="EN4" s="2">
+        <v>1</v>
+      </c>
+      <c r="EO4" s="2">
+        <v>11</v>
+      </c>
+      <c r="EP4" s="2">
+        <v>11</v>
+      </c>
+      <c r="EQ4" s="2">
+        <v>14</v>
+      </c>
+      <c r="ER4" s="2">
+        <v>31</v>
+      </c>
+      <c r="ES4" s="2">
+        <v>15</v>
+      </c>
+      <c r="ET4" s="2">
+        <v>13</v>
+      </c>
+      <c r="EU4" s="2">
+        <v>12</v>
+      </c>
+      <c r="EV4" s="2">
+        <v>12</v>
+      </c>
+      <c r="EW4" s="2">
+        <v>13</v>
+      </c>
+      <c r="EX4" s="2">
+        <v>14</v>
+      </c>
+      <c r="EY4" s="2">
+        <v>35</v>
+      </c>
+      <c r="EZ4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FA4" s="2">
+        <v>16</v>
+      </c>
+      <c r="FB4" s="2">
+        <v>13</v>
+      </c>
+      <c r="FC4" s="2">
+        <v>15</v>
+      </c>
+      <c r="FD4" s="2">
+        <v>14</v>
+      </c>
+      <c r="FE4" s="2">
+        <v>16</v>
+      </c>
+      <c r="FF4" s="2">
+        <v>41</v>
+      </c>
+      <c r="FG4" s="2">
+        <v>19</v>
+      </c>
+      <c r="FH4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FI4" s="2">
+        <v>16</v>
+      </c>
+      <c r="FJ4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FK4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FL4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FM4" s="2">
+        <v>45</v>
+      </c>
+      <c r="FN4" s="2">
+        <v>21</v>
+      </c>
+      <c r="FO4" s="2">
+        <v>2</v>
+      </c>
+      <c r="FP4" s="2">
+        <v>17</v>
+      </c>
+      <c r="FQ4" s="2">
+        <v>19</v>
+      </c>
+      <c r="FR4" s="2">
+        <v>18</v>
+      </c>
+      <c r="FS4" s="2">
+        <v>2</v>
+      </c>
+      <c r="FT4" s="2">
+        <v>51</v>
+      </c>
+      <c r="FU4" s="2">
+        <v>23</v>
+      </c>
+      <c r="FV4" s="2">
+        <v>21</v>
+      </c>
+      <c r="FW4" s="2">
+        <v>2</v>
+      </c>
+      <c r="FX4" s="2">
+        <v>21</v>
+      </c>
+      <c r="FY4" s="2">
+        <v>21</v>
+      </c>
+      <c r="FZ4" s="2">
+        <v>21</v>
+      </c>
+      <c r="GA4" s="2">
+        <v>55</v>
+      </c>
+      <c r="GB4" s="2">
+        <v>25</v>
+      </c>
+      <c r="GC4" s="2">
+        <v>24</v>
+      </c>
+      <c r="GD4" s="2">
+        <v>21</v>
+      </c>
+      <c r="GE4" s="2">
+        <v>23</v>
+      </c>
+      <c r="GF4" s="2">
+        <v>22</v>
+      </c>
+      <c r="GG4" s="2">
+        <v>24</v>
+      </c>
+      <c r="GH4" s="2">
+        <v>61</v>
+      </c>
+      <c r="GI4" s="2">
+        <v>27</v>
+      </c>
+      <c r="GJ4" s="2">
+        <v>25</v>
+      </c>
+      <c r="GK4" s="2">
+        <v>24</v>
+      </c>
+      <c r="GL4" s="2">
+        <v>25</v>
+      </c>
+      <c r="GM4" s="2">
+        <v>25</v>
+      </c>
+      <c r="GN4" s="2">
+        <v>25</v>
+      </c>
+      <c r="GO4" s="2">
+        <v>65</v>
+      </c>
+      <c r="GP4" s="2">
+        <v>29</v>
+      </c>
+      <c r="GQ4" s="2">
+        <v>28</v>
+      </c>
+      <c r="GR4" s="2">
+        <v>25</v>
+      </c>
+      <c r="GS4" s="2">
+        <v>27</v>
+      </c>
+      <c r="GT4" s="2">
+        <v>26</v>
+      </c>
+      <c r="GU4" s="2">
+        <v>28</v>
+      </c>
+      <c r="GV4" s="2">
+        <v>71</v>
+      </c>
+      <c r="GW4" s="2">
+        <v>31</v>
+      </c>
+      <c r="GX4" s="2">
+        <v>29</v>
+      </c>
+      <c r="GY4" s="2">
+        <v>28</v>
+      </c>
+      <c r="GZ4" s="2">
+        <v>29</v>
+      </c>
+      <c r="HA4" s="2">
+        <v>29</v>
+      </c>
+      <c r="HB4" s="2">
+        <v>29</v>
+      </c>
+      <c r="HC4" s="2">
+        <v>77</v>
+      </c>
+      <c r="HD4" s="2">
+        <v>34</v>
+      </c>
+      <c r="HE4" s="2">
+        <v>33</v>
+      </c>
+      <c r="HF4" s="2">
+        <v>29</v>
+      </c>
+      <c r="HG4" s="2">
+        <v>33</v>
+      </c>
+      <c r="HH4" s="2">
+        <v>31</v>
+      </c>
+      <c r="HI4" s="2">
+        <v>33</v>
+      </c>
+      <c r="HJ4" s="2">
+        <v>81</v>
+      </c>
+      <c r="HK4" s="2">
+        <v>37</v>
+      </c>
+      <c r="HL4" s="2">
+        <v>33</v>
+      </c>
+      <c r="HM4" s="2">
+        <v>33</v>
+      </c>
+      <c r="HN4" s="2">
+        <v>34</v>
+      </c>
+      <c r="HO4" s="2">
+        <v>35</v>
+      </c>
+      <c r="HP4" s="2">
+        <v>34</v>
+      </c>
+      <c r="HQ4" s="2">
+        <v>87</v>
+      </c>
+      <c r="HR4" s="2">
         <v>4</v>
       </c>
-      <c r="CZ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DA4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DF4" s="1">
-        <v>6</v>
-      </c>
-      <c r="DG4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DH4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DJ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DK4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DL4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM4" s="1">
+      <c r="HS4" s="2">
+        <v>37</v>
+      </c>
+      <c r="HT4" s="2">
+        <v>34</v>
+      </c>
+      <c r="HU4" s="2">
+        <v>38</v>
+      </c>
+      <c r="HV4" s="2">
+        <v>36</v>
+      </c>
+      <c r="HW4" s="2">
+        <v>38</v>
+      </c>
+      <c r="HX4" s="2">
+        <v>91</v>
+      </c>
+      <c r="HY4" s="2">
+        <v>43</v>
+      </c>
+      <c r="HZ4" s="2">
+        <v>39</v>
+      </c>
+      <c r="IA4" s="2">
+        <v>38</v>
+      </c>
+      <c r="IB4" s="2">
+        <v>39</v>
+      </c>
+      <c r="IC4" s="2">
         <v>4</v>
       </c>
-      <c r="DN4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DO4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DT4" s="1">
-        <v>6</v>
-      </c>
-      <c r="DU4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="DW4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DX4" s="1">
-        <v>2</v>
-      </c>
-      <c r="DY4" s="1">
-        <v>3</v>
-      </c>
-      <c r="DZ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EA4" s="1">
+      <c r="ID4" s="2">
         <v>4</v>
       </c>
-      <c r="EB4" s="1">
-        <v>2</v>
-      </c>
-      <c r="EC4" s="1">
-        <v>3</v>
-      </c>
-      <c r="ED4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="EF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EG4" s="1">
-        <v>3</v>
-      </c>
-      <c r="EH4" s="1">
-        <v>6</v>
-      </c>
-      <c r="EI4" s="1">
-        <v>2</v>
-      </c>
-      <c r="EJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EK4" s="1">
-        <v>3</v>
-      </c>
-      <c r="EL4" s="1">
-        <v>2</v>
-      </c>
-      <c r="EM4" s="1">
-        <v>3</v>
-      </c>
-      <c r="EN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="1">
+      <c r="IE4" s="2">
+        <v>97</v>
+      </c>
+      <c r="IF4" s="2">
+        <v>46</v>
+      </c>
+      <c r="IG4" s="2">
+        <v>43</v>
+      </c>
+      <c r="IH4" s="2">
         <v>4</v>
       </c>
-      <c r="EP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="EQ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="ER4" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES4" s="1">
-        <v>2</v>
-      </c>
-      <c r="ET4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EU4" s="1">
-        <v>3</v>
-      </c>
-      <c r="EV4" s="1">
-        <v>6</v>
-      </c>
-      <c r="EW4" s="1">
-        <v>2</v>
-      </c>
-      <c r="EX4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EY4" s="1">
-        <v>3</v>
-      </c>
-      <c r="EZ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FA4" s="1">
-        <v>3</v>
-      </c>
-      <c r="FB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FC4" s="1">
-        <v>6</v>
-      </c>
-      <c r="FD4" s="1">
-        <v>3</v>
-      </c>
-      <c r="FE4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FG4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FJ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FK4" s="1">
-        <v>3</v>
-      </c>
-      <c r="FL4" s="1"/>
-      <c r="FM4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FO4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FQ4" s="1">
-        <v>6</v>
-      </c>
-      <c r="FR4" s="1">
-        <v>3</v>
-      </c>
-      <c r="FS4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FU4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FX4" s="1">
-        <v>4</v>
-      </c>
-      <c r="FY4" s="1">
-        <v>3</v>
-      </c>
-      <c r="FZ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GA4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="GC4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GD4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GE4" s="1">
-        <v>6</v>
-      </c>
-      <c r="GF4" s="1">
-        <v>3</v>
-      </c>
-      <c r="GG4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GI4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="GK4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GL4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GM4" s="1">
-        <v>3</v>
-      </c>
-      <c r="GN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="GO4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="GQ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GR4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GS4" s="1">
-        <v>6</v>
-      </c>
-      <c r="GT4" s="1">
-        <v>3</v>
-      </c>
-      <c r="GU4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GV4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GW4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GX4" s="1">
-        <v>2</v>
-      </c>
-      <c r="GY4" s="1">
-        <v>4</v>
-      </c>
-      <c r="GZ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="HA4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HB4" s="1">
-        <v>2</v>
-      </c>
-      <c r="HC4" s="1">
-        <v>4</v>
-      </c>
-      <c r="HD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="HE4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HF4" s="1">
-        <v>1</v>
-      </c>
-      <c r="HG4" s="1">
-        <v>12</v>
-      </c>
-      <c r="HH4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HI4" s="1">
+      <c r="II4" s="2">
+        <v>43</v>
+      </c>
+      <c r="IJ4" s="2">
+        <v>41</v>
+      </c>
+      <c r="IK4" s="2">
+        <v>44</v>
+      </c>
+      <c r="IL4" s="2">
+        <v>11</v>
+      </c>
+      <c r="IM4" s="2">
+        <v>49</v>
+      </c>
+      <c r="IN4" s="2">
+        <v>44</v>
+      </c>
+      <c r="IO4" s="2">
+        <v>44</v>
+      </c>
+      <c r="IP4" s="2">
+        <v>44</v>
+      </c>
+      <c r="IQ4" s="2">
+        <v>45</v>
+      </c>
+      <c r="IR4" s="2">
+        <v>46</v>
+      </c>
+      <c r="IS4" s="2">
+        <v>17</v>
+      </c>
+      <c r="IT4" s="2">
+        <v>52</v>
+      </c>
+      <c r="IU4" s="2">
+        <v>48</v>
+      </c>
+      <c r="IV4" s="2">
+        <v>46</v>
+      </c>
+      <c r="IW4" s="2">
+        <v>48</v>
+      </c>
+      <c r="IX4" s="2">
+        <v>47</v>
+      </c>
+      <c r="IY4" s="2">
         <v>5</v>
       </c>
-      <c r="HJ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HK4" s="1">
+      <c r="IZ4" s="2">
+        <v>111</v>
+      </c>
+      <c r="JA4" s="2">
+        <v>55</v>
+      </c>
+      <c r="JB4" s="2">
         <v>5</v>
       </c>
-      <c r="HL4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HM4" s="1">
+      <c r="JC4" s="2">
         <v>5</v>
       </c>
-      <c r="HN4" s="1">
-        <v>9</v>
-      </c>
-      <c r="HO4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HP4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HQ4" s="1">
+      <c r="JD4" s="2">
+        <v>49</v>
+      </c>
+      <c r="JE4" s="2">
         <v>5</v>
       </c>
-      <c r="HR4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HS4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HT4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HU4" s="1">
-        <v>12</v>
-      </c>
-      <c r="HV4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HW4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HX4" s="1">
-        <v>3</v>
-      </c>
-      <c r="HY4" s="1">
-        <v>5</v>
-      </c>
-      <c r="HZ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IA4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IB4" s="1">
-        <v>9</v>
-      </c>
-      <c r="IC4" s="1">
-        <v>3</v>
-      </c>
-      <c r="ID4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IE4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IF4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IG4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IH4" s="1">
-        <v>3</v>
-      </c>
-      <c r="II4" s="1">
-        <v>12</v>
-      </c>
-      <c r="IJ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IK4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IL4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IM4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IN4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IO4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IP4" s="1">
-        <v>9</v>
-      </c>
-      <c r="IQ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IR4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IS4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IT4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IU4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IV4" s="1">
-        <v>3</v>
-      </c>
-      <c r="IW4" s="1">
-        <v>12</v>
-      </c>
-      <c r="IX4" s="1">
-        <v>4</v>
-      </c>
-      <c r="IY4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IZ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JA4" s="1">
-        <v>5</v>
-      </c>
-      <c r="JB4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JC4" s="1">
-        <v>5</v>
-      </c>
-      <c r="JD4" s="1">
-        <v>9</v>
-      </c>
-      <c r="JE4" s="1">
-        <v>4</v>
-      </c>
-      <c r="JF4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JG4" s="1">
-        <v>5</v>
-      </c>
-      <c r="JH4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JI4" s="1">
-        <v>5</v>
-      </c>
-      <c r="JJ4" s="1">
-        <v>3</v>
-      </c>
-      <c r="JK4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JL4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JN4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JQ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JR4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JS4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JT4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JU4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JV4" s="1">
-        <v>1</v>
-      </c>
-      <c r="JW4" s="1"/>
-      <c r="JX4" s="1"/>
+      <c r="JF4" s="2">
+        <v>51</v>
+      </c>
+      <c r="JG4" s="2">
+        <v>123</v>
+      </c>
+      <c r="JH4" s="2">
+        <v>58</v>
+      </c>
+      <c r="JI4" s="2">
+        <v>55</v>
+      </c>
+      <c r="JJ4" s="2">
+        <v>53</v>
+      </c>
+      <c r="JK4" s="2">
+        <v>54</v>
+      </c>
+      <c r="JL4" s="2">
+        <v>53</v>
+      </c>
+      <c r="JM4" s="2">
+        <v>56</v>
+      </c>
+      <c r="JN4" s="2">
+        <v>132</v>
+      </c>
+      <c r="JO4" s="2">
+        <v>61</v>
+      </c>
+      <c r="JP4" s="2">
+        <v>58</v>
+      </c>
+      <c r="JQ4" s="2">
+        <v>58</v>
+      </c>
+      <c r="JR4" s="2">
+        <v>57</v>
+      </c>
+      <c r="JS4" s="2">
+        <v>58</v>
+      </c>
+      <c r="JT4" s="2">
+        <v>59</v>
+      </c>
+      <c r="JU4" s="2">
+        <v>144</v>
+      </c>
+      <c r="JV4" s="2">
+        <v>64</v>
+      </c>
+      <c r="JW4" s="2">
+        <v>63</v>
+      </c>
+      <c r="JX4" s="2">
+        <v>61</v>
+      </c>
+      <c r="JY4" s="2">
+        <v>62</v>
+      </c>
+      <c r="JZ4" s="2">
+        <v>61</v>
+      </c>
+      <c r="KA4" s="2">
+        <v>64</v>
+      </c>
+      <c r="KB4" s="2">
+        <v>153</v>
+      </c>
+      <c r="KC4" s="2">
+        <v>67</v>
+      </c>
+      <c r="KD4" s="2">
+        <v>66</v>
+      </c>
+      <c r="KE4" s="2">
+        <v>66</v>
+      </c>
+      <c r="KF4" s="2">
+        <v>65</v>
+      </c>
+      <c r="KG4" s="2">
+        <v>66</v>
+      </c>
+      <c r="KH4" s="2">
+        <v>67</v>
+      </c>
+      <c r="KI4" s="2">
+        <v>165</v>
+      </c>
+      <c r="KJ4" s="2">
+        <v>7</v>
+      </c>
+      <c r="KK4" s="2">
+        <v>71</v>
+      </c>
+      <c r="KL4" s="2">
+        <v>69</v>
+      </c>
+      <c r="KM4" s="2">
+        <v>7</v>
+      </c>
+      <c r="KN4" s="2">
+        <v>69</v>
+      </c>
+      <c r="KO4" s="2">
+        <v>72</v>
+      </c>
+      <c r="KP4" s="2">
+        <v>174</v>
+      </c>
+      <c r="KQ4" s="2">
+        <v>73</v>
+      </c>
+      <c r="KR4" s="2">
+        <v>74</v>
+      </c>
+      <c r="KS4" s="2">
+        <v>74</v>
+      </c>
+      <c r="KT4" s="2">
+        <v>73</v>
+      </c>
+      <c r="KU4" s="2">
+        <v>74</v>
+      </c>
+      <c r="KV4" s="2">
+        <v>75</v>
+      </c>
+      <c r="KW4" s="2">
+        <v>186</v>
+      </c>
+      <c r="KX4" s="2">
+        <v>77</v>
+      </c>
+      <c r="KY4" s="2">
+        <v>79</v>
+      </c>
+      <c r="KZ4" s="2">
+        <v>77</v>
+      </c>
+      <c r="LA4" s="2">
+        <v>78</v>
+      </c>
+      <c r="LB4" s="2">
+        <v>77</v>
+      </c>
+      <c r="LC4" s="2">
+        <v>8</v>
+      </c>
+      <c r="LD4" s="2">
+        <v>195</v>
+      </c>
+      <c r="LE4" s="2">
+        <v>81</v>
+      </c>
+      <c r="LF4" s="2">
+        <v>82</v>
+      </c>
+      <c r="LG4" s="2">
+        <v>82</v>
+      </c>
+      <c r="LH4" s="2">
+        <v>81</v>
+      </c>
+      <c r="LI4" s="2">
+        <v>82</v>
+      </c>
+      <c r="LJ4" s="2">
+        <v>83</v>
+      </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -3864,721 +4369,836 @@
       <c r="AP5" s="1">
         <v>16</v>
       </c>
-      <c r="AQ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AY5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="1">
+      <c r="AQ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>5</v>
+      </c>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>5</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>7</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>3</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>8</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>4</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO5" s="2">
+        <v>1</v>
+      </c>
+      <c r="CP5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CQ5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR5" s="2">
+        <v>5</v>
+      </c>
+      <c r="CS5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="2">
+        <v>4</v>
+      </c>
+      <c r="CU5" s="2">
+        <v>17</v>
+      </c>
+      <c r="CV5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CW5" s="2">
+        <v>5</v>
+      </c>
+      <c r="CX5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CY5" s="2">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="2">
+        <v>3</v>
+      </c>
+      <c r="DA5" s="2">
         <v>6</v>
       </c>
-      <c r="BO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="1">
+      <c r="DB5" s="2">
+        <v>23</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>3</v>
+      </c>
+      <c r="DD5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DF5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DG5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DH5" s="2">
         <v>6</v>
       </c>
-      <c r="BT5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV5" s="1">
+      <c r="DI5" s="2">
+        <v>29</v>
+      </c>
+      <c r="DJ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="DK5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DL5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DM5" s="2">
+        <v>9</v>
+      </c>
+      <c r="DN5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DO5" s="2">
+        <v>8</v>
+      </c>
+      <c r="DP5" s="2">
+        <v>35</v>
+      </c>
+      <c r="DQ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DR5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DS5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DT5" s="2">
+        <v>9</v>
+      </c>
+      <c r="DU5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="DW5" s="2">
+        <v>41</v>
+      </c>
+      <c r="DX5" s="2">
         <v>6</v>
       </c>
-      <c r="BW5" s="1">
-        <v>1</v>
-      </c>
-      <c r="BX5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CA5" s="1">
+      <c r="DY5" s="2">
+        <v>9</v>
+      </c>
+      <c r="DZ5" s="2">
+        <v>7</v>
+      </c>
+      <c r="EA5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EB5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EC5" s="2">
+        <v>12</v>
+      </c>
+      <c r="ED5" s="2">
+        <v>47</v>
+      </c>
+      <c r="EE5" s="2">
+        <v>7</v>
+      </c>
+      <c r="EF5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EG5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EH5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EI5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EJ5" s="2">
+        <v>12</v>
+      </c>
+      <c r="EK5" s="2">
+        <v>53</v>
+      </c>
+      <c r="EL5" s="2">
+        <v>8</v>
+      </c>
+      <c r="EM5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EN5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EO5" s="2">
+        <v>15</v>
+      </c>
+      <c r="EP5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EQ5" s="2">
+        <v>14</v>
+      </c>
+      <c r="ER5" s="2">
+        <v>59</v>
+      </c>
+      <c r="ES5" s="2">
+        <v>9</v>
+      </c>
+      <c r="ET5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EU5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EV5" s="2">
+        <v>15</v>
+      </c>
+      <c r="EW5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EX5" s="2">
+        <v>14</v>
+      </c>
+      <c r="EY5" s="2">
+        <v>67</v>
+      </c>
+      <c r="EZ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="FA5" s="2">
+        <v>16</v>
+      </c>
+      <c r="FB5" s="2">
+        <v>14</v>
+      </c>
+      <c r="FC5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FD5" s="2">
+        <v>14</v>
+      </c>
+      <c r="FE5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FF5" s="2">
+        <v>75</v>
+      </c>
+      <c r="FG5" s="2">
+        <v>12</v>
+      </c>
+      <c r="FH5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FI5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FJ5" s="2">
+        <v>19</v>
+      </c>
+      <c r="FK5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FL5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FM5" s="2">
+        <v>83</v>
+      </c>
+      <c r="FN5" s="2">
+        <v>13</v>
+      </c>
+      <c r="FO5" s="2">
+        <v>2</v>
+      </c>
+      <c r="FP5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FQ5" s="2">
+        <v>22</v>
+      </c>
+      <c r="FR5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FS5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FT5" s="2">
+        <v>91</v>
+      </c>
+      <c r="FU5" s="2">
+        <v>15</v>
+      </c>
+      <c r="FV5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FW5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FX5" s="2">
+        <v>23</v>
+      </c>
+      <c r="FY5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FZ5" s="2">
+        <v>22</v>
+      </c>
+      <c r="GA5" s="2">
+        <v>99</v>
+      </c>
+      <c r="GB5" s="2">
+        <v>16</v>
+      </c>
+      <c r="GC5" s="2">
+        <v>24</v>
+      </c>
+      <c r="GD5" s="2">
+        <v>22</v>
+      </c>
+      <c r="GE5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GF5" s="2">
+        <v>22</v>
+      </c>
+      <c r="GG5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GH5" s="2">
+        <v>17</v>
+      </c>
+      <c r="GI5" s="2">
+        <v>18</v>
+      </c>
+      <c r="GJ5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GK5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GL5" s="2">
+        <v>27</v>
+      </c>
+      <c r="GM5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GN5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GO5" s="2">
+        <v>115</v>
+      </c>
+      <c r="GP5" s="2">
+        <v>19</v>
+      </c>
+      <c r="GQ5" s="2">
+        <v>28</v>
+      </c>
+      <c r="GR5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GS5" s="2">
+        <v>3</v>
+      </c>
+      <c r="GT5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GU5" s="2">
+        <v>29</v>
+      </c>
+      <c r="GV5" s="2">
+        <v>123</v>
+      </c>
+      <c r="GW5" s="2">
+        <v>21</v>
+      </c>
+      <c r="GX5" s="2">
+        <v>29</v>
+      </c>
+      <c r="GY5" s="2">
+        <v>29</v>
+      </c>
+      <c r="GZ5" s="2">
+        <v>31</v>
+      </c>
+      <c r="HA5" s="2">
+        <v>29</v>
+      </c>
+      <c r="HB5" s="2">
+        <v>3</v>
+      </c>
+      <c r="HC5" s="2">
+        <v>135</v>
+      </c>
+      <c r="HD5" s="2">
+        <v>23</v>
+      </c>
+      <c r="HE5" s="2">
+        <v>33</v>
+      </c>
+      <c r="HF5" s="2">
+        <v>3</v>
+      </c>
+      <c r="HG5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HH5" s="2">
+        <v>31</v>
+      </c>
+      <c r="HI5" s="2">
+        <v>34</v>
+      </c>
+      <c r="HJ5" s="2">
+        <v>143</v>
+      </c>
+      <c r="HK5" s="2">
+        <v>25</v>
+      </c>
+      <c r="HL5" s="2">
+        <v>34</v>
+      </c>
+      <c r="HM5" s="2">
+        <v>34</v>
+      </c>
+      <c r="HN5" s="2">
+        <v>36</v>
+      </c>
+      <c r="HO5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HP5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HQ5" s="2">
+        <v>155</v>
+      </c>
+      <c r="HR5" s="2">
+        <v>27</v>
+      </c>
+      <c r="HS5" s="2">
+        <v>38</v>
+      </c>
+      <c r="HT5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HU5" s="2">
+        <v>4</v>
+      </c>
+      <c r="HV5" s="2">
+        <v>36</v>
+      </c>
+      <c r="HW5" s="2">
+        <v>39</v>
+      </c>
+      <c r="HX5" s="2">
+        <v>163</v>
+      </c>
+      <c r="HY5" s="2">
+        <v>29</v>
+      </c>
+      <c r="HZ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="IA5" s="2">
+        <v>39</v>
+      </c>
+      <c r="IB5" s="2">
+        <v>42</v>
+      </c>
+      <c r="IC5" s="2">
+        <v>4</v>
+      </c>
+      <c r="ID5" s="2">
+        <v>41</v>
+      </c>
+      <c r="IE5" s="2">
+        <v>175</v>
+      </c>
+      <c r="IF5" s="2">
+        <v>31</v>
+      </c>
+      <c r="IG5" s="2">
+        <v>44</v>
+      </c>
+      <c r="IH5" s="2">
+        <v>41</v>
+      </c>
+      <c r="II5" s="2">
+        <v>46</v>
+      </c>
+      <c r="IJ5" s="2">
+        <v>41</v>
+      </c>
+      <c r="IK5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IL5" s="2">
+        <v>183</v>
+      </c>
+      <c r="IM5" s="2">
+        <v>33</v>
+      </c>
+      <c r="IN5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IO5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IP5" s="2">
+        <v>48</v>
+      </c>
+      <c r="IQ5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IR5" s="2">
+        <v>47</v>
+      </c>
+      <c r="IS5" s="2">
+        <v>195</v>
+      </c>
+      <c r="IT5" s="2">
+        <v>35</v>
+      </c>
+      <c r="IU5" s="2">
+        <v>49</v>
+      </c>
+      <c r="IV5" s="2">
+        <v>47</v>
+      </c>
+      <c r="IW5" s="2">
+        <v>52</v>
+      </c>
+      <c r="IX5" s="2">
+        <v>47</v>
+      </c>
+      <c r="IY5" s="2">
+        <v>51</v>
+      </c>
+      <c r="IZ5" s="2">
+        <v>23</v>
+      </c>
+      <c r="JA5" s="2">
+        <v>37</v>
+      </c>
+      <c r="JB5" s="2">
+        <v>51</v>
+      </c>
+      <c r="JC5" s="2">
+        <v>51</v>
+      </c>
+      <c r="JD5" s="2">
+        <v>53</v>
+      </c>
+      <c r="JE5" s="2">
+        <v>51</v>
+      </c>
+      <c r="JF5" s="2">
+        <v>52</v>
+      </c>
+      <c r="JG5" s="2">
+        <v>218</v>
+      </c>
+      <c r="JH5" s="2">
+        <v>4</v>
+      </c>
+      <c r="JI5" s="2">
+        <v>56</v>
+      </c>
+      <c r="JJ5" s="2">
+        <v>54</v>
+      </c>
+      <c r="JK5" s="2">
+        <v>58</v>
+      </c>
+      <c r="JL5" s="2">
+        <v>54</v>
+      </c>
+      <c r="JM5" s="2">
+        <v>57</v>
+      </c>
+      <c r="JN5" s="2">
+        <v>23</v>
+      </c>
+      <c r="JO5" s="2">
+        <v>42</v>
+      </c>
+      <c r="JP5" s="2">
+        <v>59</v>
+      </c>
+      <c r="JQ5" s="2">
+        <v>59</v>
+      </c>
+      <c r="JR5" s="2">
+        <v>61</v>
+      </c>
+      <c r="JS5" s="2">
+        <v>59</v>
+      </c>
+      <c r="JT5" s="2">
         <v>6</v>
       </c>
-      <c r="CB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CE5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CO5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CQ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CS5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CT5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CU5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CV5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CW5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CX5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CY5" s="1">
+      <c r="JU5" s="2">
+        <v>245</v>
+      </c>
+      <c r="JV5" s="2">
+        <v>45</v>
+      </c>
+      <c r="JW5" s="2">
+        <v>64</v>
+      </c>
+      <c r="JX5" s="2">
+        <v>62</v>
+      </c>
+      <c r="JY5" s="2">
+        <v>66</v>
+      </c>
+      <c r="JZ5" s="2">
+        <v>62</v>
+      </c>
+      <c r="KA5" s="2">
+        <v>65</v>
+      </c>
+      <c r="KB5" s="2">
+        <v>257</v>
+      </c>
+      <c r="KC5" s="2">
+        <v>47</v>
+      </c>
+      <c r="KD5" s="2">
+        <v>67</v>
+      </c>
+      <c r="KE5" s="2">
+        <v>67</v>
+      </c>
+      <c r="KF5" s="2">
+        <v>69</v>
+      </c>
+      <c r="KG5" s="2">
+        <v>67</v>
+      </c>
+      <c r="KH5" s="2">
+        <v>68</v>
+      </c>
+      <c r="KI5" s="2">
+        <v>272</v>
+      </c>
+      <c r="KJ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="KK5" s="2">
+        <v>72</v>
+      </c>
+      <c r="KL5" s="2">
+        <v>7</v>
+      </c>
+      <c r="KM5" s="2">
+        <v>74</v>
+      </c>
+      <c r="KN5" s="2">
+        <v>7</v>
+      </c>
+      <c r="KO5" s="2">
+        <v>73</v>
+      </c>
+      <c r="KP5" s="2">
+        <v>284</v>
+      </c>
+      <c r="KQ5" s="2">
+        <v>53</v>
+      </c>
+      <c r="KR5" s="2">
+        <v>75</v>
+      </c>
+      <c r="KS5" s="2">
+        <v>75</v>
+      </c>
+      <c r="KT5" s="2">
+        <v>77</v>
+      </c>
+      <c r="KU5" s="2">
+        <v>75</v>
+      </c>
+      <c r="KV5" s="2">
+        <v>76</v>
+      </c>
+      <c r="KW5" s="2">
+        <v>299</v>
+      </c>
+      <c r="KX5" s="2">
+        <v>56</v>
+      </c>
+      <c r="KY5" s="2">
         <v>8</v>
       </c>
-      <c r="CZ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DA5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DC5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DE5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DF5" s="1">
-        <v>8</v>
-      </c>
-      <c r="DG5" s="1">
-        <v>2</v>
-      </c>
-      <c r="DH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DI5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DK5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DM5" s="1">
-        <v>8</v>
-      </c>
-      <c r="DN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DO5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DQ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DR5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DS5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DT5" s="1">
-        <v>8</v>
-      </c>
-      <c r="DU5" s="1">
-        <v>2</v>
-      </c>
-      <c r="DV5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DW5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DY5" s="1">
-        <v>3</v>
-      </c>
-      <c r="DZ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EA5" s="1">
-        <v>8</v>
-      </c>
-      <c r="EB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EC5" s="1">
-        <v>3</v>
-      </c>
-      <c r="ED5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EE5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EG5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EH5" s="1">
-        <v>8</v>
-      </c>
-      <c r="EI5" s="1">
-        <v>2</v>
-      </c>
-      <c r="EJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EK5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EM5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EO5" s="1">
-        <v>8</v>
-      </c>
-      <c r="EP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EQ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="ER5" s="1">
-        <v>1</v>
-      </c>
-      <c r="ES5" s="1">
-        <v>3</v>
-      </c>
-      <c r="ET5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EU5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EV5" s="1">
-        <v>8</v>
-      </c>
-      <c r="EW5" s="1">
-        <v>2</v>
-      </c>
-      <c r="EX5" s="1">
-        <v>1</v>
-      </c>
-      <c r="EY5" s="1">
-        <v>3</v>
-      </c>
-      <c r="EZ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FA5" s="1">
-        <v>3</v>
-      </c>
-      <c r="FB5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FC5" s="1">
-        <v>12</v>
-      </c>
-      <c r="FD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FE5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FG5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FJ5" s="1">
-        <v>8</v>
-      </c>
-      <c r="FK5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FM5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FO5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FQ5" s="1">
-        <v>12</v>
-      </c>
-      <c r="FR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FS5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FT5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FU5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FV5" s="1">
-        <v>1</v>
-      </c>
-      <c r="FW5" s="1">
-        <v>4</v>
-      </c>
-      <c r="FX5" s="1">
-        <v>8</v>
-      </c>
-      <c r="FY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FZ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GA5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GC5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GE5" s="1">
-        <v>12</v>
-      </c>
-      <c r="GF5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GG5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GI5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GJ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="GK5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GL5" s="1">
-        <v>8</v>
-      </c>
-      <c r="GM5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GN5" s="1">
-        <v>1</v>
-      </c>
-      <c r="GO5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GP5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GQ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GS5" s="1">
-        <v>12</v>
-      </c>
-      <c r="GT5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GU5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GV5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GW5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GX5" s="1">
-        <v>2</v>
-      </c>
-      <c r="GY5" s="1">
-        <v>4</v>
-      </c>
-      <c r="GZ5" s="1">
-        <v>8</v>
-      </c>
-      <c r="HA5" s="1">
-        <v>2</v>
-      </c>
-      <c r="HB5" s="1">
-        <v>2</v>
-      </c>
-      <c r="HC5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HD5" s="1">
-        <v>1</v>
-      </c>
-      <c r="HE5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="HG5" s="1">
-        <v>15</v>
-      </c>
-      <c r="HH5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HI5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HJ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HK5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HM5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HN5" s="1">
-        <v>12</v>
-      </c>
-      <c r="HO5" s="1">
-        <v>2</v>
-      </c>
-      <c r="HP5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HQ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HR5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HS5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HT5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HU5" s="1">
-        <v>15</v>
-      </c>
-      <c r="HV5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HW5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HX5" s="1">
-        <v>3</v>
-      </c>
-      <c r="HY5" s="1">
-        <v>5</v>
-      </c>
-      <c r="HZ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IA5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IB5" s="1">
-        <v>12</v>
-      </c>
-      <c r="IC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="ID5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IE5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IF5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IG5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IH5" s="1">
-        <v>3</v>
-      </c>
-      <c r="II5" s="1">
-        <v>15</v>
-      </c>
-      <c r="IJ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IK5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IM5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IN5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IO5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IP5" s="1">
-        <v>12</v>
-      </c>
-      <c r="IQ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IR5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IS5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IT5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IU5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IV5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IW5" s="1">
-        <v>15</v>
-      </c>
-      <c r="IX5" s="1">
-        <v>3</v>
-      </c>
-      <c r="IY5" s="1">
-        <v>5</v>
-      </c>
-      <c r="IZ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JA5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JB5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JC5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JD5" s="1">
-        <v>12</v>
-      </c>
-      <c r="JE5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JF5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JG5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JH5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JI5" s="1">
-        <v>5</v>
-      </c>
-      <c r="JJ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="JK5" s="1"/>
-      <c r="JL5" s="1"/>
-      <c r="JM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="JN5" s="1"/>
-      <c r="JO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="JP5" s="1"/>
-      <c r="JQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="JR5" s="1"/>
-      <c r="JS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="JT5" s="1"/>
-      <c r="JU5" s="1">
-        <v>1</v>
-      </c>
-      <c r="JV5" s="1"/>
-      <c r="JW5" s="1">
-        <v>1</v>
-      </c>
-      <c r="JX5" s="1">
-        <v>1</v>
+      <c r="KZ5" s="2">
+        <v>78</v>
+      </c>
+      <c r="LA5" s="2">
+        <v>82</v>
+      </c>
+      <c r="LB5" s="2">
+        <v>78</v>
+      </c>
+      <c r="LC5" s="2">
+        <v>81</v>
+      </c>
+      <c r="LD5" s="2">
+        <v>311</v>
+      </c>
+      <c r="LE5" s="2">
+        <v>59</v>
+      </c>
+      <c r="LF5" s="2">
+        <v>83</v>
+      </c>
+      <c r="LG5" s="2">
+        <v>83</v>
+      </c>
+      <c r="LH5" s="2">
+        <v>85</v>
+      </c>
+      <c r="LI5" s="2">
+        <v>83</v>
+      </c>
+      <c r="LJ5" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data =</t>
+    <t>exports.data = </t>
   </si>
   <si>
     <t>#path</t>
@@ -151,875 +151,841 @@
     <t>.property[0].health:number</t>
   </si>
   <si>
+    <t>.property[0].critical:number</t>
+  </si>
+  <si>
+    <t>.property[0].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[0].speed:number</t>
+  </si>
+  <si>
+    <t>.property[1].health:number</t>
+  </si>
+  <si>
+    <t>.property[1].critical:number</t>
+  </si>
+  <si>
+    <t>.property[1].strong:number</t>
+  </si>
+  <si>
+    <t>.property[1].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[1].speed:number</t>
+  </si>
+  <si>
+    <t>.property[2].health:number</t>
+  </si>
+  <si>
+    <t>.property[2].critical:number</t>
+  </si>
+  <si>
+    <t>.property[2].strong:number</t>
+  </si>
+  <si>
+    <t>.property[2].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[2].speed:number</t>
+  </si>
+  <si>
+    <t>.property[3].health:number</t>
+  </si>
+  <si>
+    <t>.property[3].attack:number</t>
+  </si>
+  <si>
+    <t>.property[3].critical:number</t>
+  </si>
+  <si>
+    <t>.property[3].strong:number</t>
+  </si>
+  <si>
+    <t>.property[3].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[3].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[3].speed:number</t>
+  </si>
+  <si>
+    <t>.property[4].health:number</t>
+  </si>
+  <si>
+    <t>.property[4].attack:number</t>
+  </si>
+  <si>
+    <t>.property[4].critical:number</t>
+  </si>
+  <si>
+    <t>.property[4].strong:number</t>
+  </si>
+  <si>
+    <t>.property[4].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[4].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[4].speed:number</t>
+  </si>
+  <si>
+    <t>.property[5].health:number</t>
+  </si>
+  <si>
+    <t>.property[5].attack:number</t>
+  </si>
+  <si>
+    <t>.property[5].critical:number</t>
+  </si>
+  <si>
+    <t>.property[5].strong:number</t>
+  </si>
+  <si>
+    <t>.property[5].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[5].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[5].speed:number</t>
+  </si>
+  <si>
+    <t>.property[6].health:number</t>
+  </si>
+  <si>
+    <t>.property[6].attack:number</t>
+  </si>
+  <si>
+    <t>.property[6].critical:number</t>
+  </si>
+  <si>
+    <t>.property[6].strong:number</t>
+  </si>
+  <si>
+    <t>.property[6].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[6].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[6].speed:number</t>
+  </si>
+  <si>
+    <t>.property[7].health:number</t>
+  </si>
+  <si>
+    <t>.property[7].attack:number</t>
+  </si>
+  <si>
+    <t>.property[7].critical:number</t>
+  </si>
+  <si>
+    <t>.property[7].strong:number</t>
+  </si>
+  <si>
+    <t>.property[7].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[7].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[7].speed:number</t>
+  </si>
+  <si>
+    <t>.property[8].health:number</t>
+  </si>
+  <si>
+    <t>.property[8].attack:number</t>
+  </si>
+  <si>
+    <t>.property[8].critical:number</t>
+  </si>
+  <si>
+    <t>.property[8].strong:number</t>
+  </si>
+  <si>
+    <t>.property[8].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[8].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[8].speed:number</t>
+  </si>
+  <si>
+    <t>.property[9].health:number</t>
+  </si>
+  <si>
+    <t>.property[9].attack:number</t>
+  </si>
+  <si>
+    <t>.property[9].critical:number</t>
+  </si>
+  <si>
+    <t>.property[9].strong:number</t>
+  </si>
+  <si>
+    <t>.property[9].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[9].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[9].speed:number</t>
+  </si>
+  <si>
+    <t>.property[10].health:number</t>
+  </si>
+  <si>
+    <t>.property[10].attack:number</t>
+  </si>
+  <si>
+    <t>.property[10].critical:number</t>
+  </si>
+  <si>
+    <t>.property[10].strong:number</t>
+  </si>
+  <si>
+    <t>.property[10].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[10].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[10].speed:number</t>
+  </si>
+  <si>
+    <t>.property[11].health:number</t>
+  </si>
+  <si>
+    <t>.property[11].attack:number</t>
+  </si>
+  <si>
+    <t>.property[11].critical:number</t>
+  </si>
+  <si>
+    <t>.property[11].strong:number</t>
+  </si>
+  <si>
+    <t>.property[11].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[11].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[11].speed:number</t>
+  </si>
+  <si>
+    <t>.property[12].health:number</t>
+  </si>
+  <si>
+    <t>.property[12].attack:number</t>
+  </si>
+  <si>
+    <t>.property[12].critical:number</t>
+  </si>
+  <si>
+    <t>.property[12].strong:number</t>
+  </si>
+  <si>
+    <t>.property[12].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[12].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[12].speed:number</t>
+  </si>
+  <si>
+    <t>.property[13].health:number</t>
+  </si>
+  <si>
+    <t>.property[13].attack:number</t>
+  </si>
+  <si>
+    <t>.property[13].critical:number</t>
+  </si>
+  <si>
+    <t>.property[13].strong:number</t>
+  </si>
+  <si>
+    <t>.property[13].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[13].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[13].speed:number</t>
+  </si>
+  <si>
+    <t>.property[14].health:number</t>
+  </si>
+  <si>
+    <t>.property[14].attack:number</t>
+  </si>
+  <si>
+    <t>.property[14].critical:number</t>
+  </si>
+  <si>
+    <t>.property[14].strong:number</t>
+  </si>
+  <si>
+    <t>.property[14].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[14].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[14].speed:number</t>
+  </si>
+  <si>
+    <t>.property[15].health:number</t>
+  </si>
+  <si>
+    <t>.property[15].attack:number</t>
+  </si>
+  <si>
+    <t>.property[15].critical:number</t>
+  </si>
+  <si>
+    <t>.property[15].strong:number</t>
+  </si>
+  <si>
+    <t>.property[15].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[15].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[15].speed:number</t>
+  </si>
+  <si>
+    <t>.property[16].health:number</t>
+  </si>
+  <si>
+    <t>.property[16].attack:number</t>
+  </si>
+  <si>
+    <t>.property[16].critical:number</t>
+  </si>
+  <si>
+    <t>.property[16].strong:number</t>
+  </si>
+  <si>
+    <t>.property[16].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[16].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[16].speed:number</t>
+  </si>
+  <si>
+    <t>.property[17].health:number</t>
+  </si>
+  <si>
+    <t>.property[17].attack:number</t>
+  </si>
+  <si>
+    <t>.property[17].critical:number</t>
+  </si>
+  <si>
+    <t>.property[17].strong:number</t>
+  </si>
+  <si>
+    <t>.property[17].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[17].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[17].speed:number</t>
+  </si>
+  <si>
+    <t>.property[18].health:number</t>
+  </si>
+  <si>
+    <t>.property[18].attack:number</t>
+  </si>
+  <si>
+    <t>.property[18].critical:number</t>
+  </si>
+  <si>
+    <t>.property[18].strong:number</t>
+  </si>
+  <si>
+    <t>.property[18].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[18].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[18].speed:number</t>
+  </si>
+  <si>
+    <t>.property[19].health:number</t>
+  </si>
+  <si>
+    <t>.property[19].attack:number</t>
+  </si>
+  <si>
+    <t>.property[19].critical:number</t>
+  </si>
+  <si>
+    <t>.property[19].strong:number</t>
+  </si>
+  <si>
+    <t>.property[19].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[19].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[19].speed:number</t>
+  </si>
+  <si>
+    <t>.property[20].health:number</t>
+  </si>
+  <si>
+    <t>.property[20].attack:number</t>
+  </si>
+  <si>
+    <t>.property[20].critical:number</t>
+  </si>
+  <si>
+    <t>.property[20].strong:number</t>
+  </si>
+  <si>
+    <t>.property[20].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[20].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[20].speed:number</t>
+  </si>
+  <si>
+    <t>.property[21].health:number</t>
+  </si>
+  <si>
+    <t>.property[21].attack:number</t>
+  </si>
+  <si>
+    <t>.property[21].critical:number</t>
+  </si>
+  <si>
+    <t>.property[21].strong:number</t>
+  </si>
+  <si>
+    <t>.property[21].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[21].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[21].speed:number</t>
+  </si>
+  <si>
+    <t>.property[22].health:number</t>
+  </si>
+  <si>
+    <t>.property[22].attack:number</t>
+  </si>
+  <si>
+    <t>.property[22].critical:number</t>
+  </si>
+  <si>
+    <t>.property[22].strong:number</t>
+  </si>
+  <si>
+    <t>.property[22].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[22].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[22].speed:number</t>
+  </si>
+  <si>
+    <t>.property[23].health:number</t>
+  </si>
+  <si>
+    <t>.property[23].attack:number</t>
+  </si>
+  <si>
+    <t>.property[23].critical:number</t>
+  </si>
+  <si>
+    <t>.property[23].strong:number</t>
+  </si>
+  <si>
+    <t>.property[23].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[23].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[23].speed:number</t>
+  </si>
+  <si>
+    <t>.property[24].health:number</t>
+  </si>
+  <si>
+    <t>.property[24].attack:number</t>
+  </si>
+  <si>
+    <t>.property[24].critical:number</t>
+  </si>
+  <si>
+    <t>.property[24].strong:number</t>
+  </si>
+  <si>
+    <t>.property[24].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[24].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[24].speed:number</t>
+  </si>
+  <si>
+    <t>.property[25].health:number</t>
+  </si>
+  <si>
+    <t>.property[25].attack:number</t>
+  </si>
+  <si>
+    <t>.property[25].critical:number</t>
+  </si>
+  <si>
+    <t>.property[25].strong:number</t>
+  </si>
+  <si>
+    <t>.property[25].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[25].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[25].speed:number</t>
+  </si>
+  <si>
+    <t>.property[26].health:number</t>
+  </si>
+  <si>
+    <t>.property[26].attack:number</t>
+  </si>
+  <si>
+    <t>.property[26].critical:number</t>
+  </si>
+  <si>
+    <t>.property[26].strong:number</t>
+  </si>
+  <si>
+    <t>.property[26].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[26].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[26].speed:number</t>
+  </si>
+  <si>
+    <t>.property[27].health:number</t>
+  </si>
+  <si>
+    <t>.property[27].attack:number</t>
+  </si>
+  <si>
+    <t>.property[27].critical:number</t>
+  </si>
+  <si>
+    <t>.property[27].strong:number</t>
+  </si>
+  <si>
+    <t>.property[27].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[27].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[27].speed:number</t>
+  </si>
+  <si>
+    <t>.property[28].health:number</t>
+  </si>
+  <si>
+    <t>.property[28].attack:number</t>
+  </si>
+  <si>
+    <t>.property[28].critical:number</t>
+  </si>
+  <si>
+    <t>.property[28].strong:number</t>
+  </si>
+  <si>
+    <t>.property[28].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[28].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[28].speed:number</t>
+  </si>
+  <si>
+    <t>.property[29].health:number</t>
+  </si>
+  <si>
+    <t>.property[29].attack:number</t>
+  </si>
+  <si>
+    <t>.property[29].critical:number</t>
+  </si>
+  <si>
+    <t>.property[29].strong:number</t>
+  </si>
+  <si>
+    <t>.property[29].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[29].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[29].speed:number</t>
+  </si>
+  <si>
+    <t>.property[30].health:number</t>
+  </si>
+  <si>
+    <t>.property[30].attack:number</t>
+  </si>
+  <si>
+    <t>.property[30].critical:number</t>
+  </si>
+  <si>
+    <t>.property[30].strong:number</t>
+  </si>
+  <si>
+    <t>.property[30].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[30].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[30].speed:number</t>
+  </si>
+  <si>
+    <t>.property[31].health:number</t>
+  </si>
+  <si>
+    <t>.property[31].attack:number</t>
+  </si>
+  <si>
+    <t>.property[31].critical:number</t>
+  </si>
+  <si>
+    <t>.property[31].strong:number</t>
+  </si>
+  <si>
+    <t>.property[31].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[31].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[31].speed:number</t>
+  </si>
+  <si>
+    <t>.property[32].health:number</t>
+  </si>
+  <si>
+    <t>.property[32].attack:number</t>
+  </si>
+  <si>
+    <t>.property[32].critical:number</t>
+  </si>
+  <si>
+    <t>.property[32].strong:number</t>
+  </si>
+  <si>
+    <t>.property[32].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[32].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[32].speed:number</t>
+  </si>
+  <si>
+    <t>.property[33].health:number</t>
+  </si>
+  <si>
+    <t>.property[33].attack:number</t>
+  </si>
+  <si>
+    <t>.property[33].critical:number</t>
+  </si>
+  <si>
+    <t>.property[33].strong:number</t>
+  </si>
+  <si>
+    <t>.property[33].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[33].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[33].speed:number</t>
+  </si>
+  <si>
+    <t>.property[34].health:number</t>
+  </si>
+  <si>
+    <t>.property[34].attack:number</t>
+  </si>
+  <si>
+    <t>.property[34].critical:number</t>
+  </si>
+  <si>
+    <t>.property[34].strong:number</t>
+  </si>
+  <si>
+    <t>.property[34].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[34].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[34].speed:number</t>
+  </si>
+  <si>
+    <t>.property[35].health:number</t>
+  </si>
+  <si>
+    <t>.property[35].attack:number</t>
+  </si>
+  <si>
+    <t>.property[35].critical:number</t>
+  </si>
+  <si>
+    <t>.property[35].strong:number</t>
+  </si>
+  <si>
+    <t>.property[35].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[35].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[35].speed:number</t>
+  </si>
+  <si>
+    <t>.property[36].health:number</t>
+  </si>
+  <si>
+    <t>.property[36].attack:number</t>
+  </si>
+  <si>
+    <t>.property[36].critical:number</t>
+  </si>
+  <si>
+    <t>.property[36].strong:number</t>
+  </si>
+  <si>
+    <t>.property[36].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[36].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[36].speed:number</t>
+  </si>
+  <si>
+    <t>.property[37].health:number</t>
+  </si>
+  <si>
+    <t>.property[37].attack:number</t>
+  </si>
+  <si>
+    <t>.property[37].critical:number</t>
+  </si>
+  <si>
+    <t>.property[37].strong:number</t>
+  </si>
+  <si>
+    <t>.property[37].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[37].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[37].speed:number</t>
+  </si>
+  <si>
+    <t>.property[38].health:number</t>
+  </si>
+  <si>
+    <t>.property[38].attack:number</t>
+  </si>
+  <si>
+    <t>.property[38].critical:number</t>
+  </si>
+  <si>
+    <t>.property[38].strong:number</t>
+  </si>
+  <si>
+    <t>.property[38].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[38].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[38].speed:number</t>
+  </si>
+  <si>
+    <t>.property[39].health:number</t>
+  </si>
+  <si>
+    <t>.property[39].attack:number</t>
+  </si>
+  <si>
+    <t>.property[39].critical:number</t>
+  </si>
+  <si>
+    <t>.property[39].strong:number</t>
+  </si>
+  <si>
+    <t>.property[39].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[39].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[39].speed:number</t>
+  </si>
+  <si>
     <t>.property[0].attack:number</t>
   </si>
   <si>
-    <t>.property[0].critical:number</t>
-  </si>
-  <si>
-    <t>.property[0].strong:number</t>
-  </si>
-  <si>
-    <t>.property[0].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[0].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[0].speed:number</t>
-  </si>
-  <si>
-    <t>.property[1].health:number</t>
-  </si>
-  <si>
     <t>.property[1].attack:number</t>
   </si>
   <si>
-    <t>.property[1].critical:number</t>
-  </si>
-  <si>
-    <t>.property[1].strong:number</t>
-  </si>
-  <si>
-    <t>.property[1].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[1].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[1].speed:number</t>
-  </si>
-  <si>
-    <t>.property[2].health:number</t>
-  </si>
-  <si>
     <t>.property[2].attack:number</t>
-  </si>
-  <si>
-    <t>.property[2].critical:number</t>
-  </si>
-  <si>
-    <t>.property[2].strong:number</t>
-  </si>
-  <si>
-    <t>.property[2].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[2].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[2].speed:number</t>
-  </si>
-  <si>
-    <t>.property[3].health:number</t>
-  </si>
-  <si>
-    <t>.property[3].attack:number</t>
-  </si>
-  <si>
-    <t>.property[3].critical:number</t>
-  </si>
-  <si>
-    <t>.property[3].strong:number</t>
-  </si>
-  <si>
-    <t>.property[3].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[3].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[3].speed:number</t>
-  </si>
-  <si>
-    <t>.property[4].health:number</t>
-  </si>
-  <si>
-    <t>.property[4].attack:number</t>
-  </si>
-  <si>
-    <t>.property[4].critical:number</t>
-  </si>
-  <si>
-    <t>.property[4].strong:number</t>
-  </si>
-  <si>
-    <t>.property[4].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[4].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[4].speed:number</t>
-  </si>
-  <si>
-    <t>.property[5].health:number</t>
-  </si>
-  <si>
-    <t>.property[5].attack:number</t>
-  </si>
-  <si>
-    <t>.property[5].critical:number</t>
-  </si>
-  <si>
-    <t>.property[5].strong:number</t>
-  </si>
-  <si>
-    <t>.property[5].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[5].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[5].speed:number</t>
-  </si>
-  <si>
-    <t>.property[6].health:number</t>
-  </si>
-  <si>
-    <t>.property[6].attack:number</t>
-  </si>
-  <si>
-    <t>.property[6].critical:number</t>
-  </si>
-  <si>
-    <t>.property[6].strong:number</t>
-  </si>
-  <si>
-    <t>.property[6].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[6].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[6].speed:number</t>
-  </si>
-  <si>
-    <t>.property[7].health:number</t>
-  </si>
-  <si>
-    <t>.property[7].attack:number</t>
-  </si>
-  <si>
-    <t>.property[7].critical:number</t>
-  </si>
-  <si>
-    <t>.property[7].strong:number</t>
-  </si>
-  <si>
-    <t>.property[7].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[7].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[7].speed:number</t>
-  </si>
-  <si>
-    <t>.property[8].health:number</t>
-  </si>
-  <si>
-    <t>.property[8].attack:number</t>
-  </si>
-  <si>
-    <t>.property[8].critical:number</t>
-  </si>
-  <si>
-    <t>.property[8].strong:number</t>
-  </si>
-  <si>
-    <t>.property[8].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[8].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[8].speed:number</t>
-  </si>
-  <si>
-    <t>.property[9].health:number</t>
-  </si>
-  <si>
-    <t>.property[9].attack:number</t>
-  </si>
-  <si>
-    <t>.property[9].critical:number</t>
-  </si>
-  <si>
-    <t>.property[9].strong:number</t>
-  </si>
-  <si>
-    <t>.property[9].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[9].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[9].speed:number</t>
-  </si>
-  <si>
-    <t>.property[10].health:number</t>
-  </si>
-  <si>
-    <t>.property[10].attack:number</t>
-  </si>
-  <si>
-    <t>.property[10].critical:number</t>
-  </si>
-  <si>
-    <t>.property[10].strong:number</t>
-  </si>
-  <si>
-    <t>.property[10].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[10].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[10].speed:number</t>
-  </si>
-  <si>
-    <t>.property[11].health:number</t>
-  </si>
-  <si>
-    <t>.property[11].attack:number</t>
-  </si>
-  <si>
-    <t>.property[11].critical:number</t>
-  </si>
-  <si>
-    <t>.property[11].strong:number</t>
-  </si>
-  <si>
-    <t>.property[11].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[11].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[11].speed:number</t>
-  </si>
-  <si>
-    <t>.property[12].health:number</t>
-  </si>
-  <si>
-    <t>.property[12].attack:number</t>
-  </si>
-  <si>
-    <t>.property[12].critical:number</t>
-  </si>
-  <si>
-    <t>.property[12].strong:number</t>
-  </si>
-  <si>
-    <t>.property[12].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[12].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[12].speed:number</t>
-  </si>
-  <si>
-    <t>.property[13].health:number</t>
-  </si>
-  <si>
-    <t>.property[13].attack:number</t>
-  </si>
-  <si>
-    <t>.property[13].critical:number</t>
-  </si>
-  <si>
-    <t>.property[13].strong:number</t>
-  </si>
-  <si>
-    <t>.property[13].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[13].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[13].speed:number</t>
-  </si>
-  <si>
-    <t>.property[14].health:number</t>
-  </si>
-  <si>
-    <t>.property[14].attack:number</t>
-  </si>
-  <si>
-    <t>.property[14].critical:number</t>
-  </si>
-  <si>
-    <t>.property[14].strong:number</t>
-  </si>
-  <si>
-    <t>.property[14].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[14].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[14].speed:number</t>
-  </si>
-  <si>
-    <t>.property[15].health:number</t>
-  </si>
-  <si>
-    <t>.property[15].attack:number</t>
-  </si>
-  <si>
-    <t>.property[15].critical:number</t>
-  </si>
-  <si>
-    <t>.property[15].strong:number</t>
-  </si>
-  <si>
-    <t>.property[15].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[15].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[15].speed:number</t>
-  </si>
-  <si>
-    <t>.property[16].health:number</t>
-  </si>
-  <si>
-    <t>.property[16].attack:number</t>
-  </si>
-  <si>
-    <t>.property[16].critical:number</t>
-  </si>
-  <si>
-    <t>.property[16].strong:number</t>
-  </si>
-  <si>
-    <t>.property[16].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[16].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[16].speed:number</t>
-  </si>
-  <si>
-    <t>.property[17].health:number</t>
-  </si>
-  <si>
-    <t>.property[17].attack:number</t>
-  </si>
-  <si>
-    <t>.property[17].critical:number</t>
-  </si>
-  <si>
-    <t>.property[17].strong:number</t>
-  </si>
-  <si>
-    <t>.property[17].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[17].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[17].speed:number</t>
-  </si>
-  <si>
-    <t>.property[18].health:number</t>
-  </si>
-  <si>
-    <t>.property[18].attack:number</t>
-  </si>
-  <si>
-    <t>.property[18].critical:number</t>
-  </si>
-  <si>
-    <t>.property[18].strong:number</t>
-  </si>
-  <si>
-    <t>.property[18].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[18].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[18].speed:number</t>
-  </si>
-  <si>
-    <t>.property[19].health:number</t>
-  </si>
-  <si>
-    <t>.property[19].attack:number</t>
-  </si>
-  <si>
-    <t>.property[19].critical:number</t>
-  </si>
-  <si>
-    <t>.property[19].strong:number</t>
-  </si>
-  <si>
-    <t>.property[19].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[19].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[19].speed:number</t>
-  </si>
-  <si>
-    <t>.property[20].health:number</t>
-  </si>
-  <si>
-    <t>.property[20].attack:number</t>
-  </si>
-  <si>
-    <t>.property[20].critical:number</t>
-  </si>
-  <si>
-    <t>.property[20].strong:number</t>
-  </si>
-  <si>
-    <t>.property[20].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[20].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[20].speed:number</t>
-  </si>
-  <si>
-    <t>.property[21].health:number</t>
-  </si>
-  <si>
-    <t>.property[21].attack:number</t>
-  </si>
-  <si>
-    <t>.property[21].critical:number</t>
-  </si>
-  <si>
-    <t>.property[21].strong:number</t>
-  </si>
-  <si>
-    <t>.property[21].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[21].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[21].speed:number</t>
-  </si>
-  <si>
-    <t>.property[22].health:number</t>
-  </si>
-  <si>
-    <t>.property[22].attack:number</t>
-  </si>
-  <si>
-    <t>.property[22].critical:number</t>
-  </si>
-  <si>
-    <t>.property[22].strong:number</t>
-  </si>
-  <si>
-    <t>.property[22].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[22].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[22].speed:number</t>
-  </si>
-  <si>
-    <t>.property[23].health:number</t>
-  </si>
-  <si>
-    <t>.property[23].attack:number</t>
-  </si>
-  <si>
-    <t>.property[23].critical:number</t>
-  </si>
-  <si>
-    <t>.property[23].strong:number</t>
-  </si>
-  <si>
-    <t>.property[23].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[23].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[23].speed:number</t>
-  </si>
-  <si>
-    <t>.property[24].health:number</t>
-  </si>
-  <si>
-    <t>.property[24].attack:number</t>
-  </si>
-  <si>
-    <t>.property[24].critical:number</t>
-  </si>
-  <si>
-    <t>.property[24].strong:number</t>
-  </si>
-  <si>
-    <t>.property[24].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[24].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[24].speed:number</t>
-  </si>
-  <si>
-    <t>.property[25].health:number</t>
-  </si>
-  <si>
-    <t>.property[25].attack:number</t>
-  </si>
-  <si>
-    <t>.property[25].critical:number</t>
-  </si>
-  <si>
-    <t>.property[25].strong:number</t>
-  </si>
-  <si>
-    <t>.property[25].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[25].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[25].speed:number</t>
-  </si>
-  <si>
-    <t>.property[26].health:number</t>
-  </si>
-  <si>
-    <t>.property[26].attack:number</t>
-  </si>
-  <si>
-    <t>.property[26].critical:number</t>
-  </si>
-  <si>
-    <t>.property[26].strong:number</t>
-  </si>
-  <si>
-    <t>.property[26].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[26].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[26].speed:number</t>
-  </si>
-  <si>
-    <t>.property[27].health:number</t>
-  </si>
-  <si>
-    <t>.property[27].attack:number</t>
-  </si>
-  <si>
-    <t>.property[27].critical:number</t>
-  </si>
-  <si>
-    <t>.property[27].strong:number</t>
-  </si>
-  <si>
-    <t>.property[27].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[27].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[27].speed:number</t>
-  </si>
-  <si>
-    <t>.property[28].health:number</t>
-  </si>
-  <si>
-    <t>.property[28].attack:number</t>
-  </si>
-  <si>
-    <t>.property[28].critical:number</t>
-  </si>
-  <si>
-    <t>.property[28].strong:number</t>
-  </si>
-  <si>
-    <t>.property[28].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[28].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[28].speed:number</t>
-  </si>
-  <si>
-    <t>.property[29].health:number</t>
-  </si>
-  <si>
-    <t>.property[29].attack:number</t>
-  </si>
-  <si>
-    <t>.property[29].critical:number</t>
-  </si>
-  <si>
-    <t>.property[29].strong:number</t>
-  </si>
-  <si>
-    <t>.property[29].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[29].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[29].speed:number</t>
-  </si>
-  <si>
-    <t>.property[30].health:number</t>
-  </si>
-  <si>
-    <t>.property[30].attack:number</t>
-  </si>
-  <si>
-    <t>.property[30].critical:number</t>
-  </si>
-  <si>
-    <t>.property[30].strong:number</t>
-  </si>
-  <si>
-    <t>.property[30].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[30].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[30].speed:number</t>
-  </si>
-  <si>
-    <t>.property[31].health:number</t>
-  </si>
-  <si>
-    <t>.property[31].attack:number</t>
-  </si>
-  <si>
-    <t>.property[31].critical:number</t>
-  </si>
-  <si>
-    <t>.property[31].strong:number</t>
-  </si>
-  <si>
-    <t>.property[31].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[31].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[31].speed:number</t>
-  </si>
-  <si>
-    <t>.property[32].health:number</t>
-  </si>
-  <si>
-    <t>.property[32].attack:number</t>
-  </si>
-  <si>
-    <t>.property[32].critical:number</t>
-  </si>
-  <si>
-    <t>.property[32].strong:number</t>
-  </si>
-  <si>
-    <t>.property[32].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[32].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[32].speed:number</t>
-  </si>
-  <si>
-    <t>.property[33].health:number</t>
-  </si>
-  <si>
-    <t>.property[33].attack:number</t>
-  </si>
-  <si>
-    <t>.property[33].critical:number</t>
-  </si>
-  <si>
-    <t>.property[33].strong:number</t>
-  </si>
-  <si>
-    <t>.property[33].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[33].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[33].speed:number</t>
-  </si>
-  <si>
-    <t>.property[34].health:number</t>
-  </si>
-  <si>
-    <t>.property[34].attack:number</t>
-  </si>
-  <si>
-    <t>.property[34].critical:number</t>
-  </si>
-  <si>
-    <t>.property[34].strong:number</t>
-  </si>
-  <si>
-    <t>.property[34].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[34].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[34].speed:number</t>
-  </si>
-  <si>
-    <t>.property[35].health:number</t>
-  </si>
-  <si>
-    <t>.property[35].attack:number</t>
-  </si>
-  <si>
-    <t>.property[35].critical:number</t>
-  </si>
-  <si>
-    <t>.property[35].strong:number</t>
-  </si>
-  <si>
-    <t>.property[35].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[35].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[35].speed:number</t>
-  </si>
-  <si>
-    <t>.property[36].health:number</t>
-  </si>
-  <si>
-    <t>.property[36].attack:number</t>
-  </si>
-  <si>
-    <t>.property[36].critical:number</t>
-  </si>
-  <si>
-    <t>.property[36].strong:number</t>
-  </si>
-  <si>
-    <t>.property[36].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[36].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[36].speed:number</t>
-  </si>
-  <si>
-    <t>.property[37].health:number</t>
-  </si>
-  <si>
-    <t>.property[37].attack:number</t>
-  </si>
-  <si>
-    <t>.property[37].critical:number</t>
-  </si>
-  <si>
-    <t>.property[37].strong:number</t>
-  </si>
-  <si>
-    <t>.property[37].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[37].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[37].speed:number</t>
-  </si>
-  <si>
-    <t>.property[38].health:number</t>
-  </si>
-  <si>
-    <t>.property[38].attack:number</t>
-  </si>
-  <si>
-    <t>.property[38].critical:number</t>
-  </si>
-  <si>
-    <t>.property[38].strong:number</t>
-  </si>
-  <si>
-    <t>.property[38].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[38].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[38].speed:number</t>
-  </si>
-  <si>
-    <t>.property[39].health:number</t>
-  </si>
-  <si>
-    <t>.property[39].attack:number</t>
-  </si>
-  <si>
-    <t>.property[39].critical:number</t>
-  </si>
-  <si>
-    <t>.property[39].strong:number</t>
-  </si>
-  <si>
-    <t>.property[39].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[39].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[39].speed:number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color rgb="000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1040,28 +1006,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 4" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1074,7 +1027,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1119,10 +1072,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1154,10 +1107,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1360,15 +1313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LJ5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KL1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3:LJ5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2331,20 +2282,8 @@
       <c r="LF2" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="LG2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LH2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LI2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LJ2" s="1" t="s">
-        <v>323</v>
-      </c>
     </row>
-    <row r="3" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -2469,834 +2408,830 @@
       <c r="AP3" s="1">
         <v>16</v>
       </c>
-      <c r="AQ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="2">
+      <c r="AQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1">
         <v>3</v>
       </c>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE3" s="2">
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="1">
         <v>5</v>
       </c>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="2">
+      <c r="BA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="1">
         <v>5</v>
       </c>
-      <c r="BM3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="2">
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="1">
         <v>7</v>
       </c>
-      <c r="BT3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="2">
+      <c r="BM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="1">
         <v>3</v>
       </c>
-      <c r="BX3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="2">
+      <c r="BQ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="1">
         <v>8</v>
       </c>
-      <c r="CA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="2">
+      <c r="BT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="1">
         <v>3</v>
       </c>
-      <c r="CE3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG3" s="2">
+      <c r="BX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="1">
         <v>12</v>
       </c>
-      <c r="CH3" s="2">
-        <v>1</v>
-      </c>
-      <c r="CI3" s="2">
+      <c r="CA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="1">
         <v>3</v>
       </c>
-      <c r="CJ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK3" s="2">
+      <c r="CC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD3" s="1">
         <v>3</v>
       </c>
-      <c r="CL3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="2">
+      <c r="CE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="1">
         <v>3</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CG3" s="1">
         <v>17</v>
       </c>
-      <c r="CO3" s="2">
-        <v>1</v>
-      </c>
-      <c r="CP3" s="2">
+      <c r="CH3" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI3" s="1">
         <v>3</v>
       </c>
-      <c r="CQ3" s="2">
+      <c r="CJ3" s="1">
         <v>3</v>
       </c>
-      <c r="CR3" s="2">
+      <c r="CK3" s="1">
         <v>3</v>
       </c>
-      <c r="CS3" s="2">
+      <c r="CL3" s="1">
         <v>3</v>
       </c>
-      <c r="CT3" s="2">
+      <c r="CM3" s="1">
         <v>3</v>
       </c>
-      <c r="CU3" s="2">
+      <c r="CN3" s="1">
         <v>23</v>
       </c>
-      <c r="CV3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CW3" s="2">
+      <c r="CO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="1">
         <v>5</v>
       </c>
-      <c r="CX3" s="2">
+      <c r="CQ3" s="1">
         <v>3</v>
       </c>
-      <c r="CY3" s="2">
+      <c r="CR3" s="1">
         <v>5</v>
       </c>
-      <c r="CZ3" s="2">
+      <c r="CS3" s="1">
         <v>3</v>
       </c>
-      <c r="DA3" s="2">
+      <c r="CT3" s="1">
         <v>5</v>
       </c>
-      <c r="DB3" s="2">
+      <c r="CU3" s="1">
         <v>35</v>
       </c>
-      <c r="DC3" s="2">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="2">
+      <c r="CV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="1">
         <v>5</v>
       </c>
-      <c r="DE3" s="2">
+      <c r="CX3" s="1">
         <v>5</v>
       </c>
-      <c r="DF3" s="2">
+      <c r="CY3" s="1">
         <v>5</v>
       </c>
-      <c r="DG3" s="2">
+      <c r="CZ3" s="1">
         <v>5</v>
       </c>
-      <c r="DH3" s="2">
+      <c r="DA3" s="1">
         <v>5</v>
       </c>
-      <c r="DI3" s="2">
+      <c r="DB3" s="1">
         <v>41</v>
       </c>
-      <c r="DJ3" s="2">
+      <c r="DC3" s="1">
         <v>3</v>
       </c>
-      <c r="DK3" s="2">
+      <c r="DD3" s="1">
         <v>7</v>
       </c>
-      <c r="DL3" s="2">
+      <c r="DE3" s="1">
         <v>5</v>
       </c>
-      <c r="DM3" s="2">
+      <c r="DF3" s="1">
         <v>7</v>
       </c>
-      <c r="DN3" s="2">
+      <c r="DG3" s="1">
         <v>5</v>
       </c>
-      <c r="DO3" s="2">
+      <c r="DH3" s="1">
         <v>7</v>
       </c>
-      <c r="DP3" s="2">
+      <c r="DI3" s="1">
         <v>53</v>
       </c>
-      <c r="DQ3" s="2">
+      <c r="DJ3" s="1">
         <v>3</v>
       </c>
-      <c r="DR3" s="2">
+      <c r="DK3" s="1">
         <v>7</v>
       </c>
-      <c r="DS3" s="2">
+      <c r="DL3" s="1">
         <v>7</v>
       </c>
-      <c r="DT3" s="2">
+      <c r="DM3" s="1">
         <v>7</v>
       </c>
-      <c r="DU3" s="2">
+      <c r="DN3" s="1">
         <v>7</v>
       </c>
-      <c r="DV3" s="2">
+      <c r="DO3" s="1">
         <v>9</v>
       </c>
-      <c r="DW3" s="2">
+      <c r="DP3" s="1">
         <v>59</v>
       </c>
-      <c r="DX3" s="2">
+      <c r="DQ3" s="1">
         <v>4</v>
       </c>
-      <c r="DY3" s="2">
+      <c r="DR3" s="1">
         <v>9</v>
       </c>
-      <c r="DZ3" s="2">
+      <c r="DS3" s="1">
         <v>7</v>
       </c>
-      <c r="EA3" s="2">
+      <c r="DT3" s="1">
         <v>9</v>
       </c>
-      <c r="EB3" s="2">
+      <c r="DU3" s="1">
         <v>9</v>
       </c>
-      <c r="EC3" s="2">
+      <c r="DV3" s="1">
         <v>11</v>
       </c>
-      <c r="ED3" s="2">
+      <c r="DW3" s="1">
         <v>71</v>
       </c>
-      <c r="EE3" s="2">
+      <c r="DX3" s="1">
         <v>4</v>
       </c>
-      <c r="EF3" s="2">
+      <c r="DY3" s="1">
         <v>9</v>
       </c>
-      <c r="EG3" s="2">
+      <c r="DZ3" s="1">
         <v>9</v>
       </c>
-      <c r="EH3" s="2">
+      <c r="EA3" s="1">
         <v>11</v>
       </c>
-      <c r="EI3" s="2">
+      <c r="EB3" s="1">
         <v>11</v>
       </c>
-      <c r="EJ3" s="2">
+      <c r="EC3" s="1">
         <v>11</v>
       </c>
-      <c r="EK3" s="2">
+      <c r="ED3" s="1">
         <v>77</v>
       </c>
-      <c r="EL3" s="2">
+      <c r="EE3" s="1">
         <v>5</v>
       </c>
-      <c r="EM3" s="2">
+      <c r="EF3" s="1">
         <v>11</v>
       </c>
-      <c r="EN3" s="2">
+      <c r="EG3" s="1">
         <v>11</v>
       </c>
-      <c r="EO3" s="2">
+      <c r="EH3" s="1">
         <v>13</v>
       </c>
-      <c r="EP3" s="2">
+      <c r="EI3" s="1">
         <v>11</v>
       </c>
-      <c r="EQ3" s="2">
+      <c r="EJ3" s="1">
         <v>13</v>
       </c>
-      <c r="ER3" s="2">
+      <c r="EK3" s="1">
         <v>89</v>
       </c>
-      <c r="ES3" s="2">
+      <c r="EL3" s="1">
         <v>5</v>
       </c>
-      <c r="ET3" s="2">
+      <c r="EM3" s="1">
         <v>13</v>
       </c>
-      <c r="EU3" s="2">
+      <c r="EN3" s="1">
         <v>13</v>
       </c>
-      <c r="EV3" s="2">
+      <c r="EO3" s="1">
         <v>13</v>
       </c>
-      <c r="EW3" s="2">
+      <c r="EP3" s="1">
         <v>13</v>
       </c>
-      <c r="EX3" s="2">
+      <c r="EQ3" s="1">
         <v>13</v>
       </c>
-      <c r="EY3" s="2">
+      <c r="ER3" s="1">
         <v>97</v>
       </c>
-      <c r="EZ3" s="2">
+      <c r="ES3" s="1">
         <v>6</v>
       </c>
-      <c r="FA3" s="2">
+      <c r="ET3" s="1">
         <v>16</v>
       </c>
-      <c r="FB3" s="2">
+      <c r="EU3" s="1">
         <v>14</v>
       </c>
-      <c r="FC3" s="2">
+      <c r="EV3" s="1">
         <v>16</v>
       </c>
-      <c r="FD3" s="2">
+      <c r="EW3" s="1">
         <v>14</v>
       </c>
-      <c r="FE3" s="2">
+      <c r="EX3" s="1">
         <v>16</v>
       </c>
-      <c r="FF3" s="2">
+      <c r="EY3" s="1">
         <v>111</v>
       </c>
-      <c r="FG3" s="2">
+      <c r="EZ3" s="1">
         <v>7</v>
       </c>
-      <c r="FH3" s="2">
+      <c r="FA3" s="1">
         <v>17</v>
       </c>
-      <c r="FI3" s="2">
+      <c r="FB3" s="1">
         <v>17</v>
       </c>
-      <c r="FJ3" s="2">
+      <c r="FC3" s="1">
         <v>17</v>
       </c>
-      <c r="FK3" s="2">
+      <c r="FD3" s="1">
         <v>17</v>
       </c>
-      <c r="FL3" s="2">
+      <c r="FE3" s="1">
         <v>17</v>
       </c>
-      <c r="FM3" s="2">
+      <c r="FF3" s="1">
         <v>119</v>
       </c>
-      <c r="FN3" s="2">
+      <c r="FG3" s="1">
         <v>8</v>
       </c>
-      <c r="FO3" s="2">
-        <v>2</v>
-      </c>
-      <c r="FP3" s="2">
+      <c r="FH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FI3" s="1">
         <v>18</v>
       </c>
-      <c r="FQ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="FR3" s="2">
+      <c r="FJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FK3" s="1">
         <v>18</v>
       </c>
-      <c r="FS3" s="2">
-        <v>2</v>
-      </c>
-      <c r="FT3" s="2">
+      <c r="FL3" s="1">
+        <v>2</v>
+      </c>
+      <c r="FM3" s="1">
         <v>133</v>
       </c>
-      <c r="FU3" s="2">
+      <c r="FN3" s="1">
         <v>9</v>
       </c>
-      <c r="FV3" s="2">
+      <c r="FO3" s="1">
         <v>21</v>
       </c>
-      <c r="FW3" s="2">
+      <c r="FP3" s="1">
         <v>21</v>
       </c>
-      <c r="FX3" s="2">
+      <c r="FQ3" s="1">
         <v>21</v>
       </c>
-      <c r="FY3" s="2">
+      <c r="FR3" s="1">
         <v>21</v>
       </c>
-      <c r="FZ3" s="2">
+      <c r="FS3" s="1">
         <v>21</v>
       </c>
-      <c r="GA3" s="2">
+      <c r="FT3" s="1">
         <v>141</v>
       </c>
-      <c r="GB3" s="2">
-        <v>1</v>
-      </c>
-      <c r="GC3" s="2">
+      <c r="FU3" s="1">
+        <v>1</v>
+      </c>
+      <c r="FV3" s="1">
         <v>24</v>
       </c>
-      <c r="GD3" s="2">
+      <c r="FW3" s="1">
         <v>22</v>
       </c>
-      <c r="GE3" s="2">
+      <c r="FX3" s="1">
         <v>24</v>
       </c>
-      <c r="GF3" s="2">
+      <c r="FY3" s="1">
         <v>22</v>
       </c>
-      <c r="GG3" s="2">
+      <c r="FZ3" s="1">
         <v>24</v>
       </c>
-      <c r="GH3" s="2">
+      <c r="GA3" s="1">
         <v>155</v>
       </c>
-      <c r="GI3" s="2">
+      <c r="GB3" s="1">
         <v>11</v>
       </c>
-      <c r="GJ3" s="2">
+      <c r="GC3" s="1">
         <v>25</v>
       </c>
-      <c r="GK3" s="2">
+      <c r="GD3" s="1">
         <v>25</v>
       </c>
-      <c r="GL3" s="2">
+      <c r="GE3" s="1">
         <v>25</v>
       </c>
-      <c r="GM3" s="2">
+      <c r="GF3" s="1">
         <v>25</v>
       </c>
-      <c r="GN3" s="2">
+      <c r="GG3" s="1">
         <v>25</v>
       </c>
-      <c r="GO3" s="2">
+      <c r="GH3" s="1">
         <v>163</v>
       </c>
-      <c r="GP3" s="2">
+      <c r="GI3" s="1">
         <v>12</v>
       </c>
-      <c r="GQ3" s="2">
+      <c r="GJ3" s="1">
         <v>28</v>
       </c>
-      <c r="GR3" s="2">
+      <c r="GK3" s="1">
         <v>26</v>
       </c>
-      <c r="GS3" s="2">
+      <c r="GL3" s="1">
         <v>28</v>
       </c>
-      <c r="GT3" s="2">
+      <c r="GM3" s="1">
         <v>26</v>
       </c>
-      <c r="GU3" s="2">
+      <c r="GN3" s="1">
         <v>28</v>
       </c>
-      <c r="GV3" s="2">
+      <c r="GO3" s="1">
         <v>177</v>
       </c>
-      <c r="GW3" s="2">
+      <c r="GP3" s="1">
         <v>13</v>
       </c>
-      <c r="GX3" s="2">
+      <c r="GQ3" s="1">
         <v>29</v>
       </c>
-      <c r="GY3" s="2">
+      <c r="GR3" s="1">
         <v>29</v>
       </c>
-      <c r="GZ3" s="2">
+      <c r="GS3" s="1">
         <v>29</v>
       </c>
-      <c r="HA3" s="2">
+      <c r="GT3" s="1">
         <v>29</v>
       </c>
-      <c r="HB3" s="2">
+      <c r="GU3" s="1">
         <v>29</v>
       </c>
-      <c r="HC3" s="2">
+      <c r="GV3" s="1">
         <v>195</v>
       </c>
-      <c r="HD3" s="2">
+      <c r="GW3" s="1">
         <v>14</v>
       </c>
-      <c r="HE3" s="2">
+      <c r="GX3" s="1">
         <v>33</v>
       </c>
-      <c r="HF3" s="2">
+      <c r="GY3" s="1">
         <v>3</v>
       </c>
-      <c r="HG3" s="2">
+      <c r="GZ3" s="1">
         <v>33</v>
       </c>
-      <c r="HH3" s="2">
+      <c r="HA3" s="1">
         <v>31</v>
       </c>
-      <c r="HI3" s="2">
+      <c r="HB3" s="1">
         <v>33</v>
       </c>
-      <c r="HJ3" s="2">
+      <c r="HC3" s="1">
         <v>29</v>
       </c>
-      <c r="HK3" s="2">
+      <c r="HD3" s="1">
         <v>15</v>
       </c>
-      <c r="HL3" s="2">
+      <c r="HE3" s="1">
         <v>34</v>
       </c>
-      <c r="HM3" s="2">
+      <c r="HF3" s="1">
         <v>34</v>
       </c>
-      <c r="HN3" s="2">
+      <c r="HG3" s="1">
         <v>34</v>
       </c>
-      <c r="HO3" s="2">
+      <c r="HH3" s="1">
         <v>35</v>
       </c>
-      <c r="HP3" s="2">
+      <c r="HI3" s="1">
         <v>34</v>
       </c>
-      <c r="HQ3" s="2">
+      <c r="HJ3" s="1">
         <v>227</v>
       </c>
-      <c r="HR3" s="2">
+      <c r="HK3" s="1">
         <v>16</v>
       </c>
-      <c r="HS3" s="2">
+      <c r="HL3" s="1">
         <v>38</v>
       </c>
-      <c r="HT3" s="2">
+      <c r="HM3" s="1">
         <v>35</v>
       </c>
-      <c r="HU3" s="2">
+      <c r="HN3" s="1">
         <v>38</v>
       </c>
-      <c r="HV3" s="2">
+      <c r="HO3" s="1">
         <v>36</v>
       </c>
-      <c r="HW3" s="2">
+      <c r="HP3" s="1">
         <v>38</v>
       </c>
-      <c r="HX3" s="2">
+      <c r="HQ3" s="1">
         <v>241</v>
       </c>
-      <c r="HY3" s="2">
+      <c r="HR3" s="1">
         <v>17</v>
       </c>
-      <c r="HZ3" s="2">
+      <c r="HS3" s="1">
         <v>4</v>
       </c>
-      <c r="IA3" s="2">
+      <c r="HT3" s="1">
         <v>39</v>
       </c>
-      <c r="IB3" s="2">
+      <c r="HU3" s="1">
         <v>4</v>
       </c>
-      <c r="IC3" s="2">
+      <c r="HV3" s="1">
         <v>4</v>
       </c>
-      <c r="ID3" s="2">
+      <c r="HW3" s="1">
         <v>4</v>
       </c>
-      <c r="IE3" s="2">
+      <c r="HX3" s="1">
         <v>253</v>
       </c>
-      <c r="IF3" s="2">
+      <c r="HY3" s="1">
         <v>19</v>
       </c>
-      <c r="IG3" s="2">
+      <c r="HZ3" s="1">
         <v>44</v>
       </c>
-      <c r="IH3" s="2">
+      <c r="IA3" s="1">
         <v>41</v>
       </c>
-      <c r="II3" s="2">
+      <c r="IB3" s="1">
         <v>44</v>
       </c>
-      <c r="IJ3" s="2">
+      <c r="IC3" s="1">
         <v>41</v>
       </c>
-      <c r="IK3" s="2">
+      <c r="ID3" s="1">
         <v>44</v>
       </c>
-      <c r="IL3" s="2">
+      <c r="IE3" s="1">
         <v>267</v>
       </c>
-      <c r="IM3" s="2">
-        <v>2</v>
-      </c>
-      <c r="IN3" s="2">
+      <c r="IF3" s="1">
+        <v>2</v>
+      </c>
+      <c r="IG3" s="1">
         <v>45</v>
       </c>
-      <c r="IO3" s="2">
+      <c r="IH3" s="1">
         <v>45</v>
       </c>
-      <c r="IP3" s="2">
+      <c r="II3" s="1">
         <v>46</v>
       </c>
-      <c r="IQ3" s="2">
+      <c r="IJ3" s="1">
         <v>45</v>
       </c>
-      <c r="IR3" s="2">
+      <c r="IK3" s="1">
         <v>46</v>
       </c>
-      <c r="IS3" s="2">
+      <c r="IL3" s="1">
         <v>279</v>
       </c>
-      <c r="IT3" s="2">
+      <c r="IM3" s="1">
         <v>22</v>
       </c>
-      <c r="IU3" s="2">
+      <c r="IN3" s="1">
         <v>49</v>
       </c>
-      <c r="IV3" s="2">
+      <c r="IO3" s="1">
         <v>47</v>
       </c>
-      <c r="IW3" s="2">
+      <c r="IP3" s="1">
         <v>5</v>
       </c>
-      <c r="IX3" s="2">
+      <c r="IQ3" s="1">
         <v>47</v>
       </c>
-      <c r="IY3" s="2">
+      <c r="IR3" s="1">
         <v>5</v>
       </c>
-      <c r="IZ3" s="2">
+      <c r="IS3" s="1">
         <v>293</v>
       </c>
-      <c r="JA3" s="2">
+      <c r="IT3" s="1">
         <v>23</v>
       </c>
-      <c r="JB3" s="2">
+      <c r="IU3" s="1">
         <v>51</v>
       </c>
-      <c r="JC3" s="2">
+      <c r="IV3" s="1">
         <v>51</v>
       </c>
-      <c r="JD3" s="2">
+      <c r="IW3" s="1">
         <v>51</v>
       </c>
-      <c r="JE3" s="2">
+      <c r="IX3" s="1">
         <v>51</v>
       </c>
-      <c r="JF3" s="2">
+      <c r="IY3" s="1">
         <v>51</v>
       </c>
-      <c r="JG3" s="2">
+      <c r="IZ3" s="1">
         <v>314</v>
       </c>
-      <c r="JH3" s="2">
+      <c r="JA3" s="1">
         <v>25</v>
       </c>
-      <c r="JI3" s="2">
+      <c r="JB3" s="1">
         <v>56</v>
       </c>
-      <c r="JJ3" s="2">
+      <c r="JC3" s="1">
         <v>54</v>
       </c>
-      <c r="JK3" s="2">
+      <c r="JD3" s="1">
         <v>56</v>
       </c>
-      <c r="JL3" s="2">
+      <c r="JE3" s="1">
         <v>54</v>
       </c>
-      <c r="JM3" s="2">
+      <c r="JF3" s="1">
         <v>56</v>
       </c>
-      <c r="JN3" s="2">
+      <c r="JG3" s="1">
         <v>332</v>
       </c>
-      <c r="JO3" s="2">
+      <c r="JH3" s="1">
         <v>26</v>
       </c>
-      <c r="JP3" s="2">
+      <c r="JI3" s="1">
         <v>59</v>
       </c>
-      <c r="JQ3" s="2">
+      <c r="JJ3" s="1">
         <v>59</v>
       </c>
-      <c r="JR3" s="2">
+      <c r="JK3" s="1">
         <v>59</v>
       </c>
-      <c r="JS3" s="2">
+      <c r="JL3" s="1">
         <v>59</v>
       </c>
-      <c r="JT3" s="2">
+      <c r="JM3" s="1">
         <v>59</v>
       </c>
-      <c r="JU3" s="2">
+      <c r="JN3" s="1">
         <v>353</v>
       </c>
-      <c r="JV3" s="2">
+      <c r="JO3" s="1">
         <v>28</v>
       </c>
-      <c r="JW3" s="2">
+      <c r="JP3" s="1">
         <v>64</v>
       </c>
-      <c r="JX3" s="2">
+      <c r="JQ3" s="1">
         <v>62</v>
       </c>
-      <c r="JY3" s="2">
+      <c r="JR3" s="1">
         <v>64</v>
       </c>
-      <c r="JZ3" s="2">
+      <c r="JS3" s="1">
         <v>62</v>
       </c>
-      <c r="KA3" s="2">
+      <c r="JT3" s="1">
         <v>64</v>
       </c>
-      <c r="KB3" s="2">
+      <c r="JU3" s="1">
         <v>371</v>
       </c>
-      <c r="KC3" s="2">
+      <c r="JV3" s="1">
         <v>29</v>
       </c>
-      <c r="KD3" s="2">
+      <c r="JW3" s="1">
         <v>67</v>
       </c>
-      <c r="KE3" s="2">
+      <c r="JX3" s="1">
         <v>67</v>
       </c>
-      <c r="KF3" s="2">
+      <c r="JY3" s="1">
         <v>67</v>
       </c>
-      <c r="KG3" s="2">
+      <c r="JZ3" s="1">
         <v>67</v>
       </c>
-      <c r="KH3" s="2">
+      <c r="KA3" s="1">
         <v>67</v>
       </c>
-      <c r="KI3" s="2">
+      <c r="KB3" s="1">
         <v>392</v>
       </c>
-      <c r="KJ3" s="2">
+      <c r="KC3" s="1">
         <v>31</v>
       </c>
-      <c r="KK3" s="2">
+      <c r="KD3" s="1">
         <v>72</v>
       </c>
-      <c r="KL3" s="2">
+      <c r="KE3" s="1">
         <v>7</v>
       </c>
-      <c r="KM3" s="2">
+      <c r="KF3" s="1">
         <v>72</v>
       </c>
-      <c r="KN3" s="2">
+      <c r="KG3" s="1">
         <v>7</v>
       </c>
-      <c r="KO3" s="2">
+      <c r="KH3" s="1">
         <v>72</v>
       </c>
-      <c r="KP3" s="2">
+      <c r="KI3" s="1">
         <v>41</v>
       </c>
-      <c r="KQ3" s="2">
+      <c r="KJ3" s="1">
         <v>33</v>
       </c>
-      <c r="KR3" s="2">
+      <c r="KK3" s="1">
         <v>75</v>
       </c>
-      <c r="KS3" s="2">
+      <c r="KL3" s="1">
         <v>75</v>
       </c>
-      <c r="KT3" s="2">
+      <c r="KM3" s="1">
         <v>75</v>
       </c>
-      <c r="KU3" s="2">
+      <c r="KN3" s="1">
         <v>75</v>
       </c>
-      <c r="KV3" s="2">
+      <c r="KO3" s="1">
         <v>75</v>
       </c>
-      <c r="KW3" s="2">
+      <c r="KP3" s="1">
         <v>431</v>
       </c>
-      <c r="KX3" s="2">
+      <c r="KQ3" s="1">
         <v>35</v>
       </c>
-      <c r="KY3" s="2">
+      <c r="KR3" s="1">
         <v>8</v>
       </c>
-      <c r="KZ3" s="2">
+      <c r="KS3" s="1">
         <v>78</v>
       </c>
-      <c r="LA3" s="2">
+      <c r="KT3" s="1">
         <v>8</v>
       </c>
-      <c r="LB3" s="2">
+      <c r="KU3" s="1">
         <v>78</v>
       </c>
-      <c r="LC3" s="2">
+      <c r="KV3" s="1">
         <v>8</v>
       </c>
-      <c r="LD3" s="2">
+      <c r="KW3" s="1">
         <v>449</v>
       </c>
-      <c r="LE3" s="2">
+      <c r="KX3" s="1">
         <v>37</v>
       </c>
-      <c r="LF3" s="2">
+      <c r="KY3" s="1">
         <v>83</v>
       </c>
-      <c r="LG3" s="2">
+      <c r="KZ3" s="1">
         <v>83</v>
       </c>
-      <c r="LH3" s="2">
+      <c r="LA3" s="1">
         <v>83</v>
       </c>
-      <c r="LI3" s="2">
+      <c r="LB3" s="1">
         <v>83</v>
       </c>
-      <c r="LJ3" s="2">
+      <c r="LC3" s="1">
         <v>83</v>
       </c>
+      <c r="LD3" s="1"/>
+      <c r="LE3" s="1"/>
+      <c r="LF3" s="1"/>
     </row>
-    <row r="4" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -3421,830 +3356,826 @@
       <c r="AP4" s="1">
         <v>16</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1">
         <v>3</v>
       </c>
-      <c r="BF4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="2">
+      <c r="BA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
         <v>3</v>
       </c>
-      <c r="BM4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="2">
+      <c r="BF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="1">
         <v>3</v>
       </c>
-      <c r="BT4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BZ4" s="2">
+      <c r="BM4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="1">
         <v>4</v>
       </c>
-      <c r="CA4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG4" s="2">
+      <c r="BT4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="1">
         <v>6</v>
       </c>
-      <c r="CH4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CI4" s="2">
+      <c r="CA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="1">
         <v>3</v>
       </c>
-      <c r="CJ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="2">
+      <c r="CC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD4" s="1">
         <v>3</v>
       </c>
-      <c r="CL4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM4" s="2">
+      <c r="CE4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF4" s="1">
         <v>3</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CG4" s="1">
         <v>7</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CH4" s="1">
         <v>3</v>
       </c>
-      <c r="CP4" s="2">
+      <c r="CI4" s="1">
         <v>3</v>
       </c>
-      <c r="CQ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CR4" s="2">
+      <c r="CJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="1">
         <v>3</v>
       </c>
-      <c r="CS4" s="2">
+      <c r="CL4" s="1">
         <v>3</v>
       </c>
-      <c r="CT4" s="2">
+      <c r="CM4" s="1">
         <v>3</v>
       </c>
-      <c r="CU4" s="2">
+      <c r="CN4" s="1">
         <v>9</v>
       </c>
-      <c r="CV4" s="2">
+      <c r="CO4" s="1">
         <v>5</v>
       </c>
-      <c r="CW4" s="2">
+      <c r="CP4" s="1">
         <v>5</v>
       </c>
-      <c r="CX4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CY4" s="2">
+      <c r="CQ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="1">
         <v>4</v>
       </c>
-      <c r="CZ4" s="2">
+      <c r="CS4" s="1">
         <v>3</v>
       </c>
-      <c r="DA4" s="2">
+      <c r="CT4" s="1">
         <v>5</v>
       </c>
-      <c r="DB4" s="2">
+      <c r="CU4" s="1">
         <v>13</v>
       </c>
-      <c r="DC4" s="2">
+      <c r="CV4" s="1">
         <v>6</v>
       </c>
-      <c r="DD4" s="2">
+      <c r="CW4" s="1">
         <v>5</v>
       </c>
-      <c r="DE4" s="2">
+      <c r="CX4" s="1">
         <v>4</v>
       </c>
-      <c r="DF4" s="2">
+      <c r="CY4" s="1">
         <v>5</v>
       </c>
-      <c r="DG4" s="2">
+      <c r="CZ4" s="1">
         <v>5</v>
       </c>
-      <c r="DH4" s="2">
+      <c r="DA4" s="1">
         <v>5</v>
       </c>
-      <c r="DI4" s="2">
+      <c r="DB4" s="1">
         <v>15</v>
       </c>
-      <c r="DJ4" s="2">
+      <c r="DC4" s="1">
         <v>8</v>
       </c>
-      <c r="DK4" s="2">
+      <c r="DD4" s="1">
         <v>7</v>
       </c>
-      <c r="DL4" s="2">
+      <c r="DE4" s="1">
         <v>4</v>
       </c>
-      <c r="DM4" s="2">
+      <c r="DF4" s="1">
         <v>6</v>
       </c>
-      <c r="DN4" s="2">
+      <c r="DG4" s="1">
         <v>5</v>
       </c>
-      <c r="DO4" s="2">
+      <c r="DH4" s="1">
         <v>7</v>
       </c>
-      <c r="DP4" s="2">
+      <c r="DI4" s="1">
         <v>19</v>
       </c>
-      <c r="DQ4" s="2">
+      <c r="DJ4" s="1">
         <v>9</v>
       </c>
-      <c r="DR4" s="2">
+      <c r="DK4" s="1">
         <v>7</v>
       </c>
-      <c r="DS4" s="2">
+      <c r="DL4" s="1">
         <v>6</v>
       </c>
-      <c r="DT4" s="2">
+      <c r="DM4" s="1">
         <v>7</v>
       </c>
-      <c r="DU4" s="2">
+      <c r="DN4" s="1">
         <v>7</v>
       </c>
-      <c r="DV4" s="2">
+      <c r="DO4" s="1">
         <v>9</v>
       </c>
-      <c r="DW4" s="2">
+      <c r="DP4" s="1">
         <v>21</v>
       </c>
-      <c r="DX4" s="2">
+      <c r="DQ4" s="1">
         <v>11</v>
       </c>
-      <c r="DY4" s="2">
+      <c r="DR4" s="1">
         <v>9</v>
       </c>
-      <c r="DZ4" s="2">
+      <c r="DS4" s="1">
         <v>6</v>
       </c>
-      <c r="EA4" s="2">
+      <c r="DT4" s="1">
         <v>8</v>
       </c>
-      <c r="EB4" s="2">
+      <c r="DU4" s="1">
         <v>9</v>
       </c>
-      <c r="EC4" s="2">
+      <c r="DV4" s="1">
         <v>11</v>
       </c>
-      <c r="ED4" s="2">
+      <c r="DW4" s="1">
         <v>25</v>
       </c>
-      <c r="EE4" s="2">
+      <c r="DX4" s="1">
         <v>12</v>
       </c>
-      <c r="EF4" s="2">
+      <c r="DY4" s="1">
         <v>9</v>
       </c>
-      <c r="EG4" s="2">
+      <c r="DZ4" s="1">
         <v>8</v>
       </c>
-      <c r="EH4" s="2">
-        <v>1</v>
-      </c>
-      <c r="EI4" s="2">
+      <c r="EA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="EB4" s="1">
         <v>11</v>
       </c>
-      <c r="EJ4" s="2">
+      <c r="EC4" s="1">
         <v>12</v>
       </c>
-      <c r="EK4" s="2">
+      <c r="ED4" s="1">
         <v>27</v>
       </c>
-      <c r="EL4" s="2">
+      <c r="EE4" s="1">
         <v>14</v>
       </c>
-      <c r="EM4" s="2">
+      <c r="EF4" s="1">
         <v>11</v>
       </c>
-      <c r="EN4" s="2">
-        <v>1</v>
-      </c>
-      <c r="EO4" s="2">
+      <c r="EG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="EH4" s="1">
         <v>11</v>
       </c>
-      <c r="EP4" s="2">
+      <c r="EI4" s="1">
         <v>11</v>
       </c>
-      <c r="EQ4" s="2">
+      <c r="EJ4" s="1">
         <v>14</v>
       </c>
-      <c r="ER4" s="2">
+      <c r="EK4" s="1">
         <v>31</v>
       </c>
-      <c r="ES4" s="2">
+      <c r="EL4" s="1">
         <v>15</v>
       </c>
-      <c r="ET4" s="2">
+      <c r="EM4" s="1">
         <v>13</v>
       </c>
-      <c r="EU4" s="2">
+      <c r="EN4" s="1">
         <v>12</v>
       </c>
-      <c r="EV4" s="2">
+      <c r="EO4" s="1">
         <v>12</v>
       </c>
-      <c r="EW4" s="2">
+      <c r="EP4" s="1">
         <v>13</v>
       </c>
-      <c r="EX4" s="2">
+      <c r="EQ4" s="1">
         <v>14</v>
       </c>
-      <c r="EY4" s="2">
+      <c r="ER4" s="1">
         <v>35</v>
       </c>
-      <c r="EZ4" s="2">
+      <c r="ES4" s="1">
         <v>17</v>
       </c>
-      <c r="FA4" s="2">
+      <c r="ET4" s="1">
         <v>16</v>
       </c>
-      <c r="FB4" s="2">
+      <c r="EU4" s="1">
         <v>13</v>
       </c>
-      <c r="FC4" s="2">
+      <c r="EV4" s="1">
         <v>15</v>
       </c>
-      <c r="FD4" s="2">
+      <c r="EW4" s="1">
         <v>14</v>
       </c>
-      <c r="FE4" s="2">
+      <c r="EX4" s="1">
         <v>16</v>
       </c>
-      <c r="FF4" s="2">
+      <c r="EY4" s="1">
         <v>41</v>
       </c>
-      <c r="FG4" s="2">
+      <c r="EZ4" s="1">
         <v>19</v>
       </c>
-      <c r="FH4" s="2">
+      <c r="FA4" s="1">
         <v>17</v>
       </c>
-      <c r="FI4" s="2">
+      <c r="FB4" s="1">
         <v>16</v>
       </c>
-      <c r="FJ4" s="2">
+      <c r="FC4" s="1">
         <v>17</v>
       </c>
-      <c r="FK4" s="2">
+      <c r="FD4" s="1">
         <v>17</v>
       </c>
-      <c r="FL4" s="2">
+      <c r="FE4" s="1">
         <v>17</v>
       </c>
-      <c r="FM4" s="2">
+      <c r="FF4" s="1">
         <v>45</v>
       </c>
-      <c r="FN4" s="2">
+      <c r="FG4" s="1">
         <v>21</v>
       </c>
-      <c r="FO4" s="2">
-        <v>2</v>
-      </c>
-      <c r="FP4" s="2">
+      <c r="FH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="FI4" s="1">
         <v>17</v>
       </c>
-      <c r="FQ4" s="2">
+      <c r="FJ4" s="1">
         <v>19</v>
       </c>
-      <c r="FR4" s="2">
+      <c r="FK4" s="1">
         <v>18</v>
       </c>
-      <c r="FS4" s="2">
-        <v>2</v>
-      </c>
-      <c r="FT4" s="2">
+      <c r="FL4" s="1">
+        <v>2</v>
+      </c>
+      <c r="FM4" s="1">
         <v>51</v>
       </c>
-      <c r="FU4" s="2">
+      <c r="FN4" s="1">
         <v>23</v>
       </c>
-      <c r="FV4" s="2">
+      <c r="FO4" s="1">
         <v>21</v>
       </c>
-      <c r="FW4" s="2">
-        <v>2</v>
-      </c>
-      <c r="FX4" s="2">
+      <c r="FP4" s="1">
+        <v>2</v>
+      </c>
+      <c r="FQ4" s="1">
         <v>21</v>
       </c>
-      <c r="FY4" s="2">
+      <c r="FR4" s="1">
         <v>21</v>
       </c>
-      <c r="FZ4" s="2">
+      <c r="FS4" s="1">
         <v>21</v>
       </c>
-      <c r="GA4" s="2">
+      <c r="FT4" s="1">
         <v>55</v>
       </c>
-      <c r="GB4" s="2">
+      <c r="FU4" s="1">
         <v>25</v>
       </c>
-      <c r="GC4" s="2">
+      <c r="FV4" s="1">
         <v>24</v>
       </c>
-      <c r="GD4" s="2">
+      <c r="FW4" s="1">
         <v>21</v>
       </c>
-      <c r="GE4" s="2">
+      <c r="FX4" s="1">
         <v>23</v>
       </c>
-      <c r="GF4" s="2">
+      <c r="FY4" s="1">
         <v>22</v>
       </c>
-      <c r="GG4" s="2">
+      <c r="FZ4" s="1">
         <v>24</v>
       </c>
-      <c r="GH4" s="2">
+      <c r="GA4" s="1">
         <v>61</v>
       </c>
-      <c r="GI4" s="2">
+      <c r="GB4" s="1">
         <v>27</v>
       </c>
-      <c r="GJ4" s="2">
+      <c r="GC4" s="1">
         <v>25</v>
       </c>
-      <c r="GK4" s="2">
+      <c r="GD4" s="1">
         <v>24</v>
       </c>
-      <c r="GL4" s="2">
+      <c r="GE4" s="1">
         <v>25</v>
       </c>
-      <c r="GM4" s="2">
+      <c r="GF4" s="1">
         <v>25</v>
       </c>
-      <c r="GN4" s="2">
+      <c r="GG4" s="1">
         <v>25</v>
       </c>
-      <c r="GO4" s="2">
+      <c r="GH4" s="1">
         <v>65</v>
       </c>
-      <c r="GP4" s="2">
+      <c r="GI4" s="1">
         <v>29</v>
       </c>
-      <c r="GQ4" s="2">
+      <c r="GJ4" s="1">
         <v>28</v>
       </c>
-      <c r="GR4" s="2">
+      <c r="GK4" s="1">
         <v>25</v>
       </c>
-      <c r="GS4" s="2">
+      <c r="GL4" s="1">
         <v>27</v>
       </c>
-      <c r="GT4" s="2">
+      <c r="GM4" s="1">
         <v>26</v>
       </c>
-      <c r="GU4" s="2">
+      <c r="GN4" s="1">
         <v>28</v>
       </c>
-      <c r="GV4" s="2">
+      <c r="GO4" s="1">
         <v>71</v>
       </c>
-      <c r="GW4" s="2">
+      <c r="GP4" s="1">
         <v>31</v>
       </c>
-      <c r="GX4" s="2">
+      <c r="GQ4" s="1">
         <v>29</v>
       </c>
-      <c r="GY4" s="2">
+      <c r="GR4" s="1">
         <v>28</v>
       </c>
-      <c r="GZ4" s="2">
+      <c r="GS4" s="1">
         <v>29</v>
       </c>
-      <c r="HA4" s="2">
+      <c r="GT4" s="1">
         <v>29</v>
       </c>
-      <c r="HB4" s="2">
+      <c r="GU4" s="1">
         <v>29</v>
       </c>
-      <c r="HC4" s="2">
+      <c r="GV4" s="1">
         <v>77</v>
       </c>
-      <c r="HD4" s="2">
+      <c r="GW4" s="1">
         <v>34</v>
       </c>
-      <c r="HE4" s="2">
+      <c r="GX4" s="1">
         <v>33</v>
       </c>
-      <c r="HF4" s="2">
+      <c r="GY4" s="1">
         <v>29</v>
       </c>
-      <c r="HG4" s="2">
+      <c r="GZ4" s="1">
         <v>33</v>
       </c>
-      <c r="HH4" s="2">
+      <c r="HA4" s="1">
         <v>31</v>
       </c>
-      <c r="HI4" s="2">
+      <c r="HB4" s="1">
         <v>33</v>
       </c>
-      <c r="HJ4" s="2">
+      <c r="HC4" s="1">
         <v>81</v>
       </c>
-      <c r="HK4" s="2">
+      <c r="HD4" s="1">
         <v>37</v>
       </c>
-      <c r="HL4" s="2">
+      <c r="HE4" s="1">
         <v>33</v>
       </c>
-      <c r="HM4" s="2">
+      <c r="HF4" s="1">
         <v>33</v>
       </c>
-      <c r="HN4" s="2">
+      <c r="HG4" s="1">
         <v>34</v>
       </c>
-      <c r="HO4" s="2">
+      <c r="HH4" s="1">
         <v>35</v>
       </c>
-      <c r="HP4" s="2">
+      <c r="HI4" s="1">
         <v>34</v>
       </c>
-      <c r="HQ4" s="2">
+      <c r="HJ4" s="1">
         <v>87</v>
       </c>
-      <c r="HR4" s="2">
+      <c r="HK4" s="1">
         <v>4</v>
       </c>
-      <c r="HS4" s="2">
+      <c r="HL4" s="1">
         <v>37</v>
       </c>
-      <c r="HT4" s="2">
+      <c r="HM4" s="1">
         <v>34</v>
       </c>
-      <c r="HU4" s="2">
+      <c r="HN4" s="1">
         <v>38</v>
       </c>
-      <c r="HV4" s="2">
+      <c r="HO4" s="1">
         <v>36</v>
       </c>
-      <c r="HW4" s="2">
+      <c r="HP4" s="1">
         <v>38</v>
       </c>
-      <c r="HX4" s="2">
+      <c r="HQ4" s="1">
         <v>91</v>
       </c>
-      <c r="HY4" s="2">
+      <c r="HR4" s="1">
         <v>43</v>
       </c>
-      <c r="HZ4" s="2">
+      <c r="HS4" s="1">
         <v>39</v>
       </c>
-      <c r="IA4" s="2">
+      <c r="HT4" s="1">
         <v>38</v>
       </c>
-      <c r="IB4" s="2">
+      <c r="HU4" s="1">
         <v>39</v>
       </c>
-      <c r="IC4" s="2">
+      <c r="HV4" s="1">
         <v>4</v>
       </c>
-      <c r="ID4" s="2">
+      <c r="HW4" s="1">
         <v>4</v>
       </c>
-      <c r="IE4" s="2">
+      <c r="HX4" s="1">
         <v>97</v>
       </c>
-      <c r="IF4" s="2">
+      <c r="HY4" s="1">
         <v>46</v>
       </c>
-      <c r="IG4" s="2">
+      <c r="HZ4" s="1">
         <v>43</v>
       </c>
-      <c r="IH4" s="2">
+      <c r="IA4" s="1">
         <v>4</v>
       </c>
-      <c r="II4" s="2">
+      <c r="IB4" s="1">
         <v>43</v>
       </c>
-      <c r="IJ4" s="2">
+      <c r="IC4" s="1">
         <v>41</v>
       </c>
-      <c r="IK4" s="2">
+      <c r="ID4" s="1">
         <v>44</v>
       </c>
-      <c r="IL4" s="2">
+      <c r="IE4" s="1">
         <v>11</v>
       </c>
-      <c r="IM4" s="2">
+      <c r="IF4" s="1">
         <v>49</v>
       </c>
-      <c r="IN4" s="2">
+      <c r="IG4" s="1">
         <v>44</v>
       </c>
-      <c r="IO4" s="2">
+      <c r="IH4" s="1">
         <v>44</v>
       </c>
-      <c r="IP4" s="2">
+      <c r="II4" s="1">
         <v>44</v>
       </c>
-      <c r="IQ4" s="2">
+      <c r="IJ4" s="1">
         <v>45</v>
       </c>
-      <c r="IR4" s="2">
+      <c r="IK4" s="1">
         <v>46</v>
       </c>
-      <c r="IS4" s="2">
+      <c r="IL4" s="1">
         <v>17</v>
       </c>
-      <c r="IT4" s="2">
+      <c r="IM4" s="1">
         <v>52</v>
       </c>
-      <c r="IU4" s="2">
+      <c r="IN4" s="1">
         <v>48</v>
       </c>
-      <c r="IV4" s="2">
+      <c r="IO4" s="1">
         <v>46</v>
       </c>
-      <c r="IW4" s="2">
+      <c r="IP4" s="1">
         <v>48</v>
       </c>
-      <c r="IX4" s="2">
+      <c r="IQ4" s="1">
         <v>47</v>
       </c>
-      <c r="IY4" s="2">
+      <c r="IR4" s="1">
         <v>5</v>
       </c>
-      <c r="IZ4" s="2">
+      <c r="IS4" s="1">
         <v>111</v>
       </c>
-      <c r="JA4" s="2">
+      <c r="IT4" s="1">
         <v>55</v>
       </c>
-      <c r="JB4" s="2">
+      <c r="IU4" s="1">
         <v>5</v>
       </c>
-      <c r="JC4" s="2">
+      <c r="IV4" s="1">
         <v>5</v>
       </c>
-      <c r="JD4" s="2">
+      <c r="IW4" s="1">
         <v>49</v>
       </c>
-      <c r="JE4" s="2">
+      <c r="IX4" s="1">
         <v>5</v>
       </c>
-      <c r="JF4" s="2">
+      <c r="IY4" s="1">
         <v>51</v>
       </c>
-      <c r="JG4" s="2">
+      <c r="IZ4" s="1">
         <v>123</v>
       </c>
-      <c r="JH4" s="2">
+      <c r="JA4" s="1">
         <v>58</v>
       </c>
-      <c r="JI4" s="2">
+      <c r="JB4" s="1">
         <v>55</v>
       </c>
-      <c r="JJ4" s="2">
+      <c r="JC4" s="1">
         <v>53</v>
       </c>
-      <c r="JK4" s="2">
+      <c r="JD4" s="1">
         <v>54</v>
       </c>
-      <c r="JL4" s="2">
+      <c r="JE4" s="1">
         <v>53</v>
       </c>
-      <c r="JM4" s="2">
+      <c r="JF4" s="1">
         <v>56</v>
       </c>
-      <c r="JN4" s="2">
+      <c r="JG4" s="1">
         <v>132</v>
       </c>
-      <c r="JO4" s="2">
+      <c r="JH4" s="1">
         <v>61</v>
       </c>
-      <c r="JP4" s="2">
+      <c r="JI4" s="1">
         <v>58</v>
       </c>
-      <c r="JQ4" s="2">
+      <c r="JJ4" s="1">
         <v>58</v>
       </c>
-      <c r="JR4" s="2">
+      <c r="JK4" s="1">
         <v>57</v>
       </c>
-      <c r="JS4" s="2">
+      <c r="JL4" s="1">
         <v>58</v>
       </c>
-      <c r="JT4" s="2">
+      <c r="JM4" s="1">
         <v>59</v>
       </c>
-      <c r="JU4" s="2">
+      <c r="JN4" s="1">
         <v>144</v>
       </c>
-      <c r="JV4" s="2">
+      <c r="JO4" s="1">
         <v>64</v>
       </c>
-      <c r="JW4" s="2">
+      <c r="JP4" s="1">
         <v>63</v>
       </c>
-      <c r="JX4" s="2">
+      <c r="JQ4" s="1">
         <v>61</v>
       </c>
-      <c r="JY4" s="2">
+      <c r="JR4" s="1">
         <v>62</v>
       </c>
-      <c r="JZ4" s="2">
+      <c r="JS4" s="1">
         <v>61</v>
       </c>
-      <c r="KA4" s="2">
+      <c r="JT4" s="1">
         <v>64</v>
       </c>
-      <c r="KB4" s="2">
+      <c r="JU4" s="1">
         <v>153</v>
       </c>
-      <c r="KC4" s="2">
+      <c r="JV4" s="1">
         <v>67</v>
       </c>
-      <c r="KD4" s="2">
+      <c r="JW4" s="1">
         <v>66</v>
       </c>
-      <c r="KE4" s="2">
+      <c r="JX4" s="1">
         <v>66</v>
       </c>
-      <c r="KF4" s="2">
+      <c r="JY4" s="1">
         <v>65</v>
       </c>
-      <c r="KG4" s="2">
+      <c r="JZ4" s="1">
         <v>66</v>
       </c>
-      <c r="KH4" s="2">
+      <c r="KA4" s="1">
         <v>67</v>
       </c>
-      <c r="KI4" s="2">
+      <c r="KB4" s="1">
         <v>165</v>
       </c>
-      <c r="KJ4" s="2">
+      <c r="KC4" s="1">
         <v>7</v>
       </c>
-      <c r="KK4" s="2">
+      <c r="KD4" s="1">
         <v>71</v>
       </c>
-      <c r="KL4" s="2">
+      <c r="KE4" s="1">
         <v>69</v>
       </c>
-      <c r="KM4" s="2">
+      <c r="KF4" s="1">
         <v>7</v>
       </c>
-      <c r="KN4" s="2">
+      <c r="KG4" s="1">
         <v>69</v>
       </c>
-      <c r="KO4" s="2">
+      <c r="KH4" s="1">
         <v>72</v>
       </c>
-      <c r="KP4" s="2">
+      <c r="KI4" s="1">
         <v>174</v>
       </c>
-      <c r="KQ4" s="2">
+      <c r="KJ4" s="1">
         <v>73</v>
       </c>
-      <c r="KR4" s="2">
+      <c r="KK4" s="1">
         <v>74</v>
       </c>
-      <c r="KS4" s="2">
+      <c r="KL4" s="1">
         <v>74</v>
       </c>
-      <c r="KT4" s="2">
+      <c r="KM4" s="1">
         <v>73</v>
       </c>
-      <c r="KU4" s="2">
+      <c r="KN4" s="1">
         <v>74</v>
       </c>
-      <c r="KV4" s="2">
+      <c r="KO4" s="1">
         <v>75</v>
       </c>
-      <c r="KW4" s="2">
+      <c r="KP4" s="1">
         <v>186</v>
       </c>
-      <c r="KX4" s="2">
+      <c r="KQ4" s="1">
         <v>77</v>
       </c>
-      <c r="KY4" s="2">
+      <c r="KR4" s="1">
         <v>79</v>
       </c>
-      <c r="KZ4" s="2">
+      <c r="KS4" s="1">
         <v>77</v>
       </c>
-      <c r="LA4" s="2">
+      <c r="KT4" s="1">
         <v>78</v>
       </c>
-      <c r="LB4" s="2">
+      <c r="KU4" s="1">
         <v>77</v>
       </c>
-      <c r="LC4" s="2">
+      <c r="KV4" s="1">
         <v>8</v>
       </c>
-      <c r="LD4" s="2">
+      <c r="KW4" s="1">
         <v>195</v>
       </c>
-      <c r="LE4" s="2">
+      <c r="KX4" s="1">
         <v>81</v>
       </c>
-      <c r="LF4" s="2">
+      <c r="KY4" s="1">
         <v>82</v>
       </c>
-      <c r="LG4" s="2">
+      <c r="KZ4" s="1">
         <v>82</v>
       </c>
-      <c r="LH4" s="2">
+      <c r="LA4" s="1">
         <v>81</v>
       </c>
-      <c r="LI4" s="2">
+      <c r="LB4" s="1">
         <v>82</v>
       </c>
-      <c r="LJ4" s="2">
+      <c r="LC4" s="1">
         <v>83</v>
       </c>
+      <c r="LD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="LE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="LF4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -4369,836 +4300,831 @@
       <c r="AP5" s="1">
         <v>16</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="2">
+      <c r="AQ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1">
         <v>3</v>
       </c>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE5" s="2">
+      <c r="AV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="1">
         <v>5</v>
       </c>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL5" s="2">
+      <c r="BA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="1">
         <v>5</v>
       </c>
-      <c r="BM5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BN5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="2">
+      <c r="BF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="1">
         <v>7</v>
       </c>
-      <c r="BT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW5" s="2">
+      <c r="BM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="1">
         <v>3</v>
       </c>
-      <c r="BX5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="2">
+      <c r="BQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="1">
         <v>8</v>
       </c>
-      <c r="CA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD5" s="2">
+      <c r="BT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="1">
         <v>3</v>
       </c>
-      <c r="CE5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG5" s="2">
-        <v>1</v>
-      </c>
-      <c r="CH5" s="2">
-        <v>1</v>
-      </c>
-      <c r="CI5" s="2">
+      <c r="BX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="1">
         <v>3</v>
       </c>
-      <c r="CJ5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK5" s="2">
+      <c r="CC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="1">
         <v>4</v>
       </c>
-      <c r="CL5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM5" s="2">
+      <c r="CE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="1">
         <v>3</v>
       </c>
-      <c r="CN5" s="2">
+      <c r="CG5" s="1">
         <v>11</v>
       </c>
-      <c r="CO5" s="2">
-        <v>1</v>
-      </c>
-      <c r="CP5" s="2">
+      <c r="CH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="1">
         <v>3</v>
       </c>
-      <c r="CQ5" s="2">
+      <c r="CJ5" s="1">
         <v>3</v>
       </c>
-      <c r="CR5" s="2">
+      <c r="CK5" s="1">
         <v>5</v>
       </c>
-      <c r="CS5" s="2">
+      <c r="CL5" s="1">
         <v>3</v>
       </c>
-      <c r="CT5" s="2">
+      <c r="CM5" s="1">
         <v>4</v>
       </c>
-      <c r="CU5" s="2">
+      <c r="CN5" s="1">
         <v>17</v>
       </c>
-      <c r="CV5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CW5" s="2">
+      <c r="CO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="1">
         <v>5</v>
       </c>
-      <c r="CX5" s="2">
+      <c r="CQ5" s="1">
         <v>3</v>
       </c>
-      <c r="CY5" s="2">
+      <c r="CR5" s="1">
         <v>7</v>
       </c>
-      <c r="CZ5" s="2">
+      <c r="CS5" s="1">
         <v>3</v>
       </c>
-      <c r="DA5" s="2">
+      <c r="CT5" s="1">
         <v>6</v>
       </c>
-      <c r="DB5" s="2">
+      <c r="CU5" s="1">
         <v>23</v>
       </c>
-      <c r="DC5" s="2">
+      <c r="CV5" s="1">
         <v>3</v>
       </c>
-      <c r="DD5" s="2">
+      <c r="CW5" s="1">
         <v>5</v>
       </c>
-      <c r="DE5" s="2">
+      <c r="CX5" s="1">
         <v>5</v>
       </c>
-      <c r="DF5" s="2">
+      <c r="CY5" s="1">
         <v>7</v>
       </c>
-      <c r="DG5" s="2">
+      <c r="CZ5" s="1">
         <v>5</v>
       </c>
-      <c r="DH5" s="2">
+      <c r="DA5" s="1">
         <v>6</v>
       </c>
-      <c r="DI5" s="2">
+      <c r="DB5" s="1">
         <v>29</v>
       </c>
-      <c r="DJ5" s="2">
+      <c r="DC5" s="1">
         <v>4</v>
       </c>
-      <c r="DK5" s="2">
+      <c r="DD5" s="1">
         <v>7</v>
       </c>
-      <c r="DL5" s="2">
+      <c r="DE5" s="1">
         <v>5</v>
       </c>
-      <c r="DM5" s="2">
+      <c r="DF5" s="1">
         <v>9</v>
       </c>
-      <c r="DN5" s="2">
+      <c r="DG5" s="1">
         <v>5</v>
       </c>
-      <c r="DO5" s="2">
+      <c r="DH5" s="1">
         <v>8</v>
       </c>
-      <c r="DP5" s="2">
+      <c r="DI5" s="1">
         <v>35</v>
       </c>
-      <c r="DQ5" s="2">
+      <c r="DJ5" s="1">
         <v>5</v>
       </c>
-      <c r="DR5" s="2">
+      <c r="DK5" s="1">
         <v>7</v>
       </c>
-      <c r="DS5" s="2">
+      <c r="DL5" s="1">
         <v>7</v>
       </c>
-      <c r="DT5" s="2">
+      <c r="DM5" s="1">
         <v>9</v>
       </c>
-      <c r="DU5" s="2">
+      <c r="DN5" s="1">
         <v>7</v>
       </c>
-      <c r="DV5" s="2">
-        <v>1</v>
-      </c>
-      <c r="DW5" s="2">
+      <c r="DO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="1">
         <v>41</v>
       </c>
-      <c r="DX5" s="2">
+      <c r="DQ5" s="1">
         <v>6</v>
       </c>
-      <c r="DY5" s="2">
+      <c r="DR5" s="1">
         <v>9</v>
       </c>
-      <c r="DZ5" s="2">
+      <c r="DS5" s="1">
         <v>7</v>
       </c>
-      <c r="EA5" s="2">
+      <c r="DT5" s="1">
         <v>11</v>
       </c>
-      <c r="EB5" s="2">
+      <c r="DU5" s="1">
         <v>9</v>
       </c>
-      <c r="EC5" s="2">
+      <c r="DV5" s="1">
         <v>12</v>
       </c>
-      <c r="ED5" s="2">
+      <c r="DW5" s="1">
         <v>47</v>
       </c>
-      <c r="EE5" s="2">
+      <c r="DX5" s="1">
         <v>7</v>
       </c>
-      <c r="EF5" s="2">
+      <c r="DY5" s="1">
         <v>9</v>
       </c>
-      <c r="EG5" s="2">
+      <c r="DZ5" s="1">
         <v>9</v>
       </c>
-      <c r="EH5" s="2">
+      <c r="EA5" s="1">
         <v>13</v>
       </c>
-      <c r="EI5" s="2">
+      <c r="EB5" s="1">
         <v>11</v>
       </c>
-      <c r="EJ5" s="2">
+      <c r="EC5" s="1">
         <v>12</v>
       </c>
-      <c r="EK5" s="2">
+      <c r="ED5" s="1">
         <v>53</v>
       </c>
-      <c r="EL5" s="2">
+      <c r="EE5" s="1">
         <v>8</v>
       </c>
-      <c r="EM5" s="2">
+      <c r="EF5" s="1">
         <v>11</v>
       </c>
-      <c r="EN5" s="2">
+      <c r="EG5" s="1">
         <v>11</v>
       </c>
-      <c r="EO5" s="2">
+      <c r="EH5" s="1">
         <v>15</v>
       </c>
-      <c r="EP5" s="2">
+      <c r="EI5" s="1">
         <v>11</v>
       </c>
-      <c r="EQ5" s="2">
+      <c r="EJ5" s="1">
         <v>14</v>
       </c>
-      <c r="ER5" s="2">
+      <c r="EK5" s="1">
         <v>59</v>
       </c>
-      <c r="ES5" s="2">
+      <c r="EL5" s="1">
         <v>9</v>
       </c>
-      <c r="ET5" s="2">
+      <c r="EM5" s="1">
         <v>13</v>
       </c>
-      <c r="EU5" s="2">
+      <c r="EN5" s="1">
         <v>13</v>
       </c>
-      <c r="EV5" s="2">
+      <c r="EO5" s="1">
         <v>15</v>
       </c>
-      <c r="EW5" s="2">
+      <c r="EP5" s="1">
         <v>13</v>
       </c>
-      <c r="EX5" s="2">
+      <c r="EQ5" s="1">
         <v>14</v>
       </c>
-      <c r="EY5" s="2">
+      <c r="ER5" s="1">
         <v>67</v>
       </c>
-      <c r="EZ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="FA5" s="2">
+      <c r="ES5" s="1">
+        <v>1</v>
+      </c>
+      <c r="ET5" s="1">
         <v>16</v>
       </c>
-      <c r="FB5" s="2">
+      <c r="EU5" s="1">
         <v>14</v>
       </c>
-      <c r="FC5" s="2">
+      <c r="EV5" s="1">
         <v>18</v>
       </c>
-      <c r="FD5" s="2">
+      <c r="EW5" s="1">
         <v>14</v>
       </c>
-      <c r="FE5" s="2">
+      <c r="EX5" s="1">
         <v>17</v>
       </c>
-      <c r="FF5" s="2">
+      <c r="EY5" s="1">
         <v>75</v>
       </c>
-      <c r="FG5" s="2">
+      <c r="EZ5" s="1">
         <v>12</v>
       </c>
-      <c r="FH5" s="2">
+      <c r="FA5" s="1">
         <v>17</v>
       </c>
-      <c r="FI5" s="2">
+      <c r="FB5" s="1">
         <v>17</v>
       </c>
-      <c r="FJ5" s="2">
+      <c r="FC5" s="1">
         <v>19</v>
       </c>
-      <c r="FK5" s="2">
+      <c r="FD5" s="1">
         <v>17</v>
       </c>
-      <c r="FL5" s="2">
+      <c r="FE5" s="1">
         <v>18</v>
       </c>
-      <c r="FM5" s="2">
+      <c r="FF5" s="1">
         <v>83</v>
       </c>
-      <c r="FN5" s="2">
+      <c r="FG5" s="1">
         <v>13</v>
       </c>
-      <c r="FO5" s="2">
-        <v>2</v>
-      </c>
-      <c r="FP5" s="2">
+      <c r="FH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="FI5" s="1">
         <v>18</v>
       </c>
-      <c r="FQ5" s="2">
+      <c r="FJ5" s="1">
         <v>22</v>
       </c>
-      <c r="FR5" s="2">
+      <c r="FK5" s="1">
         <v>18</v>
       </c>
-      <c r="FS5" s="2">
+      <c r="FL5" s="1">
         <v>21</v>
       </c>
-      <c r="FT5" s="2">
+      <c r="FM5" s="1">
         <v>91</v>
       </c>
-      <c r="FU5" s="2">
+      <c r="FN5" s="1">
         <v>15</v>
       </c>
-      <c r="FV5" s="2">
+      <c r="FO5" s="1">
         <v>21</v>
       </c>
-      <c r="FW5" s="2">
+      <c r="FP5" s="1">
         <v>21</v>
       </c>
-      <c r="FX5" s="2">
+      <c r="FQ5" s="1">
         <v>23</v>
       </c>
-      <c r="FY5" s="2">
+      <c r="FR5" s="1">
         <v>21</v>
       </c>
-      <c r="FZ5" s="2">
+      <c r="FS5" s="1">
         <v>22</v>
       </c>
-      <c r="GA5" s="2">
+      <c r="FT5" s="1">
         <v>99</v>
       </c>
-      <c r="GB5" s="2">
+      <c r="FU5" s="1">
         <v>16</v>
       </c>
-      <c r="GC5" s="2">
+      <c r="FV5" s="1">
         <v>24</v>
       </c>
-      <c r="GD5" s="2">
+      <c r="FW5" s="1">
         <v>22</v>
       </c>
-      <c r="GE5" s="2">
+      <c r="FX5" s="1">
         <v>26</v>
       </c>
-      <c r="GF5" s="2">
+      <c r="FY5" s="1">
         <v>22</v>
       </c>
-      <c r="GG5" s="2">
+      <c r="FZ5" s="1">
         <v>25</v>
       </c>
-      <c r="GH5" s="2">
+      <c r="GA5" s="1">
         <v>17</v>
       </c>
-      <c r="GI5" s="2">
+      <c r="GB5" s="1">
         <v>18</v>
       </c>
-      <c r="GJ5" s="2">
+      <c r="GC5" s="1">
         <v>25</v>
       </c>
-      <c r="GK5" s="2">
+      <c r="GD5" s="1">
         <v>25</v>
       </c>
-      <c r="GL5" s="2">
+      <c r="GE5" s="1">
         <v>27</v>
       </c>
-      <c r="GM5" s="2">
+      <c r="GF5" s="1">
         <v>25</v>
       </c>
-      <c r="GN5" s="2">
+      <c r="GG5" s="1">
         <v>26</v>
       </c>
-      <c r="GO5" s="2">
+      <c r="GH5" s="1">
         <v>115</v>
       </c>
-      <c r="GP5" s="2">
+      <c r="GI5" s="1">
         <v>19</v>
       </c>
-      <c r="GQ5" s="2">
+      <c r="GJ5" s="1">
         <v>28</v>
       </c>
-      <c r="GR5" s="2">
+      <c r="GK5" s="1">
         <v>26</v>
       </c>
-      <c r="GS5" s="2">
+      <c r="GL5" s="1">
         <v>3</v>
       </c>
-      <c r="GT5" s="2">
+      <c r="GM5" s="1">
         <v>26</v>
       </c>
-      <c r="GU5" s="2">
+      <c r="GN5" s="1">
         <v>29</v>
       </c>
-      <c r="GV5" s="2">
+      <c r="GO5" s="1">
         <v>123</v>
       </c>
-      <c r="GW5" s="2">
+      <c r="GP5" s="1">
         <v>21</v>
       </c>
-      <c r="GX5" s="2">
+      <c r="GQ5" s="1">
         <v>29</v>
       </c>
-      <c r="GY5" s="2">
+      <c r="GR5" s="1">
         <v>29</v>
       </c>
-      <c r="GZ5" s="2">
+      <c r="GS5" s="1">
         <v>31</v>
       </c>
-      <c r="HA5" s="2">
+      <c r="GT5" s="1">
         <v>29</v>
       </c>
-      <c r="HB5" s="2">
+      <c r="GU5" s="1">
         <v>3</v>
       </c>
-      <c r="HC5" s="2">
+      <c r="GV5" s="1">
         <v>135</v>
       </c>
-      <c r="HD5" s="2">
+      <c r="GW5" s="1">
         <v>23</v>
       </c>
-      <c r="HE5" s="2">
+      <c r="GX5" s="1">
         <v>33</v>
       </c>
-      <c r="HF5" s="2">
+      <c r="GY5" s="1">
         <v>3</v>
       </c>
-      <c r="HG5" s="2">
+      <c r="GZ5" s="1">
         <v>35</v>
       </c>
-      <c r="HH5" s="2">
+      <c r="HA5" s="1">
         <v>31</v>
       </c>
-      <c r="HI5" s="2">
+      <c r="HB5" s="1">
         <v>34</v>
       </c>
-      <c r="HJ5" s="2">
+      <c r="HC5" s="1">
         <v>143</v>
       </c>
-      <c r="HK5" s="2">
+      <c r="HD5" s="1">
         <v>25</v>
       </c>
-      <c r="HL5" s="2">
+      <c r="HE5" s="1">
         <v>34</v>
       </c>
-      <c r="HM5" s="2">
+      <c r="HF5" s="1">
         <v>34</v>
       </c>
-      <c r="HN5" s="2">
+      <c r="HG5" s="1">
         <v>36</v>
       </c>
-      <c r="HO5" s="2">
+      <c r="HH5" s="1">
         <v>35</v>
       </c>
-      <c r="HP5" s="2">
+      <c r="HI5" s="1">
         <v>35</v>
       </c>
-      <c r="HQ5" s="2">
+      <c r="HJ5" s="1">
         <v>155</v>
       </c>
-      <c r="HR5" s="2">
+      <c r="HK5" s="1">
         <v>27</v>
       </c>
-      <c r="HS5" s="2">
+      <c r="HL5" s="1">
         <v>38</v>
       </c>
-      <c r="HT5" s="2">
+      <c r="HM5" s="1">
         <v>35</v>
       </c>
-      <c r="HU5" s="2">
+      <c r="HN5" s="1">
         <v>4</v>
       </c>
-      <c r="HV5" s="2">
+      <c r="HO5" s="1">
         <v>36</v>
       </c>
-      <c r="HW5" s="2">
+      <c r="HP5" s="1">
         <v>39</v>
       </c>
-      <c r="HX5" s="2">
+      <c r="HQ5" s="1">
         <v>163</v>
       </c>
-      <c r="HY5" s="2">
+      <c r="HR5" s="1">
         <v>29</v>
       </c>
-      <c r="HZ5" s="2">
+      <c r="HS5" s="1">
         <v>4</v>
       </c>
-      <c r="IA5" s="2">
+      <c r="HT5" s="1">
         <v>39</v>
       </c>
-      <c r="IB5" s="2">
+      <c r="HU5" s="1">
         <v>42</v>
       </c>
-      <c r="IC5" s="2">
+      <c r="HV5" s="1">
         <v>4</v>
       </c>
-      <c r="ID5" s="2">
+      <c r="HW5" s="1">
         <v>41</v>
       </c>
-      <c r="IE5" s="2">
+      <c r="HX5" s="1">
         <v>175</v>
       </c>
-      <c r="IF5" s="2">
+      <c r="HY5" s="1">
         <v>31</v>
       </c>
-      <c r="IG5" s="2">
+      <c r="HZ5" s="1">
         <v>44</v>
       </c>
-      <c r="IH5" s="2">
+      <c r="IA5" s="1">
         <v>41</v>
       </c>
-      <c r="II5" s="2">
+      <c r="IB5" s="1">
         <v>46</v>
       </c>
-      <c r="IJ5" s="2">
+      <c r="IC5" s="1">
         <v>41</v>
       </c>
-      <c r="IK5" s="2">
+      <c r="ID5" s="1">
         <v>45</v>
       </c>
-      <c r="IL5" s="2">
+      <c r="IE5" s="1">
         <v>183</v>
       </c>
-      <c r="IM5" s="2">
+      <c r="IF5" s="1">
         <v>33</v>
       </c>
-      <c r="IN5" s="2">
+      <c r="IG5" s="1">
         <v>45</v>
       </c>
-      <c r="IO5" s="2">
+      <c r="IH5" s="1">
         <v>45</v>
       </c>
-      <c r="IP5" s="2">
+      <c r="II5" s="1">
         <v>48</v>
       </c>
-      <c r="IQ5" s="2">
+      <c r="IJ5" s="1">
         <v>45</v>
       </c>
-      <c r="IR5" s="2">
+      <c r="IK5" s="1">
         <v>47</v>
       </c>
-      <c r="IS5" s="2">
+      <c r="IL5" s="1">
         <v>195</v>
       </c>
-      <c r="IT5" s="2">
+      <c r="IM5" s="1">
         <v>35</v>
       </c>
-      <c r="IU5" s="2">
+      <c r="IN5" s="1">
         <v>49</v>
       </c>
-      <c r="IV5" s="2">
+      <c r="IO5" s="1">
         <v>47</v>
       </c>
-      <c r="IW5" s="2">
+      <c r="IP5" s="1">
         <v>52</v>
       </c>
-      <c r="IX5" s="2">
+      <c r="IQ5" s="1">
         <v>47</v>
       </c>
-      <c r="IY5" s="2">
+      <c r="IR5" s="1">
         <v>51</v>
       </c>
-      <c r="IZ5" s="2">
+      <c r="IS5" s="1">
         <v>23</v>
       </c>
-      <c r="JA5" s="2">
+      <c r="IT5" s="1">
         <v>37</v>
       </c>
-      <c r="JB5" s="2">
+      <c r="IU5" s="1">
         <v>51</v>
       </c>
-      <c r="JC5" s="2">
+      <c r="IV5" s="1">
         <v>51</v>
       </c>
-      <c r="JD5" s="2">
+      <c r="IW5" s="1">
         <v>53</v>
       </c>
-      <c r="JE5" s="2">
+      <c r="IX5" s="1">
         <v>51</v>
       </c>
-      <c r="JF5" s="2">
+      <c r="IY5" s="1">
         <v>52</v>
       </c>
-      <c r="JG5" s="2">
+      <c r="IZ5" s="1">
         <v>218</v>
       </c>
-      <c r="JH5" s="2">
+      <c r="JA5" s="1">
         <v>4</v>
       </c>
-      <c r="JI5" s="2">
+      <c r="JB5" s="1">
         <v>56</v>
       </c>
-      <c r="JJ5" s="2">
+      <c r="JC5" s="1">
         <v>54</v>
       </c>
-      <c r="JK5" s="2">
+      <c r="JD5" s="1">
         <v>58</v>
       </c>
-      <c r="JL5" s="2">
+      <c r="JE5" s="1">
         <v>54</v>
       </c>
-      <c r="JM5" s="2">
+      <c r="JF5" s="1">
         <v>57</v>
       </c>
-      <c r="JN5" s="2">
+      <c r="JG5" s="1">
         <v>23</v>
       </c>
-      <c r="JO5" s="2">
+      <c r="JH5" s="1">
         <v>42</v>
       </c>
-      <c r="JP5" s="2">
+      <c r="JI5" s="1">
         <v>59</v>
       </c>
-      <c r="JQ5" s="2">
+      <c r="JJ5" s="1">
         <v>59</v>
       </c>
-      <c r="JR5" s="2">
+      <c r="JK5" s="1">
         <v>61</v>
       </c>
-      <c r="JS5" s="2">
+      <c r="JL5" s="1">
         <v>59</v>
       </c>
-      <c r="JT5" s="2">
+      <c r="JM5" s="1">
         <v>6</v>
       </c>
-      <c r="JU5" s="2">
+      <c r="JN5" s="1">
         <v>245</v>
       </c>
-      <c r="JV5" s="2">
+      <c r="JO5" s="1">
         <v>45</v>
       </c>
-      <c r="JW5" s="2">
+      <c r="JP5" s="1">
         <v>64</v>
       </c>
-      <c r="JX5" s="2">
+      <c r="JQ5" s="1">
         <v>62</v>
       </c>
-      <c r="JY5" s="2">
+      <c r="JR5" s="1">
         <v>66</v>
       </c>
-      <c r="JZ5" s="2">
+      <c r="JS5" s="1">
         <v>62</v>
       </c>
-      <c r="KA5" s="2">
+      <c r="JT5" s="1">
         <v>65</v>
       </c>
-      <c r="KB5" s="2">
+      <c r="JU5" s="1">
         <v>257</v>
       </c>
-      <c r="KC5" s="2">
+      <c r="JV5" s="1">
         <v>47</v>
       </c>
-      <c r="KD5" s="2">
+      <c r="JW5" s="1">
         <v>67</v>
       </c>
-      <c r="KE5" s="2">
+      <c r="JX5" s="1">
         <v>67</v>
       </c>
-      <c r="KF5" s="2">
+      <c r="JY5" s="1">
         <v>69</v>
       </c>
-      <c r="KG5" s="2">
+      <c r="JZ5" s="1">
         <v>67</v>
       </c>
-      <c r="KH5" s="2">
+      <c r="KA5" s="1">
         <v>68</v>
       </c>
-      <c r="KI5" s="2">
+      <c r="KB5" s="1">
         <v>272</v>
       </c>
-      <c r="KJ5" s="2">
+      <c r="KC5" s="1">
         <v>5</v>
       </c>
-      <c r="KK5" s="2">
+      <c r="KD5" s="1">
         <v>72</v>
       </c>
-      <c r="KL5" s="2">
+      <c r="KE5" s="1">
         <v>7</v>
       </c>
-      <c r="KM5" s="2">
+      <c r="KF5" s="1">
         <v>74</v>
       </c>
-      <c r="KN5" s="2">
+      <c r="KG5" s="1">
         <v>7</v>
       </c>
-      <c r="KO5" s="2">
+      <c r="KH5" s="1">
         <v>73</v>
       </c>
-      <c r="KP5" s="2">
+      <c r="KI5" s="1">
         <v>284</v>
       </c>
-      <c r="KQ5" s="2">
+      <c r="KJ5" s="1">
         <v>53</v>
       </c>
-      <c r="KR5" s="2">
+      <c r="KK5" s="1">
         <v>75</v>
       </c>
-      <c r="KS5" s="2">
+      <c r="KL5" s="1">
         <v>75</v>
       </c>
-      <c r="KT5" s="2">
+      <c r="KM5" s="1">
         <v>77</v>
       </c>
-      <c r="KU5" s="2">
+      <c r="KN5" s="1">
         <v>75</v>
       </c>
-      <c r="KV5" s="2">
+      <c r="KO5" s="1">
         <v>76</v>
       </c>
-      <c r="KW5" s="2">
+      <c r="KP5" s="1">
         <v>299</v>
       </c>
-      <c r="KX5" s="2">
+      <c r="KQ5" s="1">
         <v>56</v>
       </c>
-      <c r="KY5" s="2">
+      <c r="KR5" s="1">
         <v>8</v>
       </c>
-      <c r="KZ5" s="2">
+      <c r="KS5" s="1">
         <v>78</v>
       </c>
-      <c r="LA5" s="2">
+      <c r="KT5" s="1">
         <v>82</v>
       </c>
-      <c r="LB5" s="2">
+      <c r="KU5" s="1">
         <v>78</v>
       </c>
-      <c r="LC5" s="2">
+      <c r="KV5" s="1">
         <v>81</v>
       </c>
-      <c r="LD5" s="2">
+      <c r="KW5" s="1">
         <v>311</v>
       </c>
-      <c r="LE5" s="2">
+      <c r="KX5" s="1">
         <v>59</v>
       </c>
-      <c r="LF5" s="2">
+      <c r="KY5" s="1">
         <v>83</v>
       </c>
-      <c r="LG5" s="2">
+      <c r="KZ5" s="1">
         <v>83</v>
       </c>
-      <c r="LH5" s="2">
+      <c r="LA5" s="1">
         <v>85</v>
       </c>
-      <c r="LI5" s="2">
+      <c r="LB5" s="1">
         <v>83</v>
       </c>
-      <c r="LJ5" s="2">
+      <c r="LC5" s="1">
         <v>84</v>
       </c>
+      <c r="LD5" s="1"/>
+      <c r="LE5" s="1"/>
+      <c r="LF5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
 </worksheet>
 </file>
--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data = </t>
+    <t>exports.data =</t>
   </si>
   <si>
     <t>#path</t>
@@ -151,18 +151,30 @@
     <t>.property[0].health:number</t>
   </si>
   <si>
+    <t>.property[0].attack:number</t>
+  </si>
+  <si>
     <t>.property[0].critical:number</t>
   </si>
   <si>
+    <t>.property[0].strong:number</t>
+  </si>
+  <si>
     <t>.property[0].accuracy:number</t>
   </si>
   <si>
+    <t>.property[0].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[0].speed:number</t>
   </si>
   <si>
     <t>.property[1].health:number</t>
   </si>
   <si>
+    <t>.property[1].attack:number</t>
+  </si>
+  <si>
     <t>.property[1].critical:number</t>
   </si>
   <si>
@@ -172,12 +184,18 @@
     <t>.property[1].accuracy:number</t>
   </si>
   <si>
+    <t>.property[1].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[1].speed:number</t>
   </si>
   <si>
     <t>.property[2].health:number</t>
   </si>
   <si>
+    <t>.property[2].attack:number</t>
+  </si>
+  <si>
     <t>.property[2].critical:number</t>
   </si>
   <si>
@@ -187,6 +205,9 @@
     <t>.property[2].accuracy:number</t>
   </si>
   <si>
+    <t>.property[2].reactivity:number</t>
+  </si>
+  <si>
     <t>.property[2].speed:number</t>
   </si>
   <si>
@@ -965,27 +986,25 @@
   </si>
   <si>
     <t>.property[39].speed:number</t>
-  </si>
-  <si>
-    <t>.property[0].attack:number</t>
-  </si>
-  <si>
-    <t>.property[1].attack:number</t>
-  </si>
-  <si>
-    <t>.property[2].attack:number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="000"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1009,12 +1028,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1027,7 +1049,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1072,10 +1094,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1107,10 +1129,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="MS P????"/>
-        <a:font script="Hang" typeface="?? ??"/>
-        <a:font script="Hans" typeface="??"/>
-        <a:font script="Hant" typeface="????"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1313,13 +1335,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:LJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="KL1" workbookViewId="0">
+      <selection activeCell="AQ3" sqref="AQ3:LJ5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2282,8 +2306,20 @@
       <c r="LF2" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="LG2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LH2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LI2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LJ2" s="1" t="s">
+        <v>323</v>
+      </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -2408,830 +2444,834 @@
       <c r="AP3" s="1">
         <v>16</v>
       </c>
-      <c r="AQ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="1">
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2">
         <v>1</v>
       </c>
-      <c r="AS3" s="1">
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2">
         <v>1</v>
       </c>
-      <c r="AT3" s="1">
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2">
         <v>1</v>
       </c>
-      <c r="AU3" s="1">
+      <c r="AX3" s="2">
         <v>3</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2">
         <v>1</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="BA3" s="2">
         <v>1</v>
       </c>
-      <c r="AX3" s="1">
+      <c r="BB3" s="2">
         <v>1</v>
       </c>
-      <c r="AY3" s="1">
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2">
         <v>1</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="BE3" s="2">
         <v>5</v>
       </c>
-      <c r="BA3" s="1">
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2">
         <v>1</v>
       </c>
-      <c r="BB3" s="1">
+      <c r="BH3" s="2">
         <v>1</v>
       </c>
-      <c r="BC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="1">
+      <c r="BI3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="2">
         <v>5</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BM3" s="2">
         <v>1</v>
       </c>
-      <c r="BG3" s="1">
+      <c r="BN3" s="2">
         <v>1</v>
       </c>
-      <c r="BH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="1">
+      <c r="BO3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="2">
         <v>1</v>
       </c>
-      <c r="BK3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="1">
+      <c r="BR3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="2">
         <v>7</v>
       </c>
-      <c r="BM3" s="1">
+      <c r="BT3" s="2">
         <v>1</v>
       </c>
-      <c r="BN3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="1">
+      <c r="BU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="2">
         <v>3</v>
       </c>
-      <c r="BQ3" s="1">
+      <c r="BX3" s="2">
         <v>1</v>
       </c>
-      <c r="BR3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="1">
+      <c r="BY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="2">
         <v>8</v>
       </c>
-      <c r="BT3" s="1">
+      <c r="CA3" s="2">
         <v>1</v>
       </c>
-      <c r="BU3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="1">
+      <c r="CB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CD3" s="2">
         <v>3</v>
       </c>
-      <c r="BX3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="1">
+      <c r="CE3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="2">
         <v>12</v>
       </c>
-      <c r="CA3" s="1">
+      <c r="CH3" s="2">
         <v>1</v>
       </c>
-      <c r="CB3" s="1">
+      <c r="CI3" s="2">
         <v>3</v>
       </c>
-      <c r="CC3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="1">
+      <c r="CJ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK3" s="2">
         <v>3</v>
       </c>
-      <c r="CE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="1">
+      <c r="CL3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="2">
         <v>3</v>
       </c>
-      <c r="CG3" s="1">
+      <c r="CN3" s="2">
         <v>17</v>
       </c>
-      <c r="CH3" s="1">
+      <c r="CO3" s="2">
         <v>1</v>
       </c>
-      <c r="CI3" s="1">
+      <c r="CP3" s="2">
         <v>3</v>
       </c>
-      <c r="CJ3" s="1">
+      <c r="CQ3" s="2">
         <v>3</v>
       </c>
-      <c r="CK3" s="1">
+      <c r="CR3" s="2">
         <v>3</v>
       </c>
-      <c r="CL3" s="1">
+      <c r="CS3" s="2">
         <v>3</v>
       </c>
-      <c r="CM3" s="1">
+      <c r="CT3" s="2">
         <v>3</v>
       </c>
-      <c r="CN3" s="1">
+      <c r="CU3" s="2">
         <v>23</v>
       </c>
-      <c r="CO3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CP3" s="1">
+      <c r="CV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="2">
         <v>5</v>
       </c>
-      <c r="CQ3" s="1">
+      <c r="CX3" s="2">
         <v>3</v>
       </c>
-      <c r="CR3" s="1">
+      <c r="CY3" s="2">
         <v>5</v>
       </c>
-      <c r="CS3" s="1">
+      <c r="CZ3" s="2">
         <v>3</v>
       </c>
-      <c r="CT3" s="1">
+      <c r="DA3" s="2">
         <v>5</v>
       </c>
-      <c r="CU3" s="1">
+      <c r="DB3" s="2">
         <v>35</v>
       </c>
-      <c r="CV3" s="1">
-        <v>2</v>
-      </c>
-      <c r="CW3" s="1">
+      <c r="DC3" s="2">
+        <v>2</v>
+      </c>
+      <c r="DD3" s="2">
         <v>5</v>
       </c>
-      <c r="CX3" s="1">
+      <c r="DE3" s="2">
         <v>5</v>
       </c>
-      <c r="CY3" s="1">
+      <c r="DF3" s="2">
         <v>5</v>
       </c>
-      <c r="CZ3" s="1">
+      <c r="DG3" s="2">
         <v>5</v>
       </c>
-      <c r="DA3" s="1">
+      <c r="DH3" s="2">
         <v>5</v>
       </c>
-      <c r="DB3" s="1">
+      <c r="DI3" s="2">
         <v>41</v>
       </c>
-      <c r="DC3" s="1">
+      <c r="DJ3" s="2">
         <v>3</v>
       </c>
-      <c r="DD3" s="1">
+      <c r="DK3" s="2">
         <v>7</v>
       </c>
-      <c r="DE3" s="1">
+      <c r="DL3" s="2">
         <v>5</v>
       </c>
-      <c r="DF3" s="1">
+      <c r="DM3" s="2">
         <v>7</v>
       </c>
-      <c r="DG3" s="1">
+      <c r="DN3" s="2">
         <v>5</v>
       </c>
-      <c r="DH3" s="1">
+      <c r="DO3" s="2">
         <v>7</v>
       </c>
-      <c r="DI3" s="1">
+      <c r="DP3" s="2">
         <v>53</v>
       </c>
-      <c r="DJ3" s="1">
+      <c r="DQ3" s="2">
         <v>3</v>
       </c>
-      <c r="DK3" s="1">
+      <c r="DR3" s="2">
         <v>7</v>
       </c>
-      <c r="DL3" s="1">
+      <c r="DS3" s="2">
         <v>7</v>
       </c>
-      <c r="DM3" s="1">
+      <c r="DT3" s="2">
         <v>7</v>
       </c>
-      <c r="DN3" s="1">
+      <c r="DU3" s="2">
         <v>7</v>
       </c>
-      <c r="DO3" s="1">
+      <c r="DV3" s="2">
         <v>9</v>
       </c>
-      <c r="DP3" s="1">
+      <c r="DW3" s="2">
         <v>59</v>
       </c>
-      <c r="DQ3" s="1">
+      <c r="DX3" s="2">
         <v>4</v>
       </c>
-      <c r="DR3" s="1">
+      <c r="DY3" s="2">
         <v>9</v>
       </c>
-      <c r="DS3" s="1">
+      <c r="DZ3" s="2">
         <v>7</v>
       </c>
-      <c r="DT3" s="1">
+      <c r="EA3" s="2">
         <v>9</v>
       </c>
-      <c r="DU3" s="1">
+      <c r="EB3" s="2">
         <v>9</v>
       </c>
-      <c r="DV3" s="1">
+      <c r="EC3" s="2">
         <v>11</v>
       </c>
-      <c r="DW3" s="1">
+      <c r="ED3" s="2">
         <v>71</v>
       </c>
-      <c r="DX3" s="1">
+      <c r="EE3" s="2">
         <v>4</v>
       </c>
-      <c r="DY3" s="1">
+      <c r="EF3" s="2">
         <v>9</v>
       </c>
-      <c r="DZ3" s="1">
+      <c r="EG3" s="2">
         <v>9</v>
       </c>
-      <c r="EA3" s="1">
+      <c r="EH3" s="2">
         <v>11</v>
       </c>
-      <c r="EB3" s="1">
+      <c r="EI3" s="2">
         <v>11</v>
       </c>
-      <c r="EC3" s="1">
+      <c r="EJ3" s="2">
         <v>11</v>
       </c>
-      <c r="ED3" s="1">
+      <c r="EK3" s="2">
         <v>77</v>
       </c>
-      <c r="EE3" s="1">
+      <c r="EL3" s="2">
         <v>5</v>
       </c>
-      <c r="EF3" s="1">
+      <c r="EM3" s="2">
         <v>11</v>
       </c>
-      <c r="EG3" s="1">
+      <c r="EN3" s="2">
         <v>11</v>
       </c>
-      <c r="EH3" s="1">
+      <c r="EO3" s="2">
         <v>13</v>
       </c>
-      <c r="EI3" s="1">
+      <c r="EP3" s="2">
         <v>11</v>
       </c>
-      <c r="EJ3" s="1">
+      <c r="EQ3" s="2">
         <v>13</v>
       </c>
-      <c r="EK3" s="1">
+      <c r="ER3" s="2">
         <v>89</v>
       </c>
-      <c r="EL3" s="1">
+      <c r="ES3" s="2">
         <v>5</v>
       </c>
-      <c r="EM3" s="1">
+      <c r="ET3" s="2">
         <v>13</v>
       </c>
-      <c r="EN3" s="1">
+      <c r="EU3" s="2">
         <v>13</v>
       </c>
-      <c r="EO3" s="1">
+      <c r="EV3" s="2">
         <v>13</v>
       </c>
-      <c r="EP3" s="1">
+      <c r="EW3" s="2">
         <v>13</v>
       </c>
-      <c r="EQ3" s="1">
+      <c r="EX3" s="2">
         <v>13</v>
       </c>
-      <c r="ER3" s="1">
+      <c r="EY3" s="2">
         <v>97</v>
       </c>
-      <c r="ES3" s="1">
+      <c r="EZ3" s="2">
         <v>6</v>
       </c>
-      <c r="ET3" s="1">
+      <c r="FA3" s="2">
         <v>16</v>
       </c>
-      <c r="EU3" s="1">
+      <c r="FB3" s="2">
         <v>14</v>
       </c>
-      <c r="EV3" s="1">
+      <c r="FC3" s="2">
         <v>16</v>
       </c>
-      <c r="EW3" s="1">
+      <c r="FD3" s="2">
         <v>14</v>
       </c>
-      <c r="EX3" s="1">
+      <c r="FE3" s="2">
         <v>16</v>
       </c>
-      <c r="EY3" s="1">
+      <c r="FF3" s="2">
         <v>111</v>
       </c>
-      <c r="EZ3" s="1">
+      <c r="FG3" s="2">
         <v>7</v>
       </c>
-      <c r="FA3" s="1">
+      <c r="FH3" s="2">
         <v>17</v>
       </c>
-      <c r="FB3" s="1">
+      <c r="FI3" s="2">
         <v>17</v>
       </c>
-      <c r="FC3" s="1">
+      <c r="FJ3" s="2">
         <v>17</v>
       </c>
-      <c r="FD3" s="1">
+      <c r="FK3" s="2">
         <v>17</v>
       </c>
-      <c r="FE3" s="1">
+      <c r="FL3" s="2">
         <v>17</v>
       </c>
-      <c r="FF3" s="1">
+      <c r="FM3" s="2">
         <v>119</v>
       </c>
-      <c r="FG3" s="1">
+      <c r="FN3" s="2">
         <v>8</v>
       </c>
-      <c r="FH3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI3" s="1">
+      <c r="FO3" s="2">
+        <v>20</v>
+      </c>
+      <c r="FP3" s="2">
         <v>18</v>
       </c>
-      <c r="FJ3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FK3" s="1">
+      <c r="FQ3" s="2">
+        <v>20</v>
+      </c>
+      <c r="FR3" s="2">
         <v>18</v>
       </c>
-      <c r="FL3" s="1">
-        <v>2</v>
-      </c>
-      <c r="FM3" s="1">
+      <c r="FS3" s="2">
+        <v>20</v>
+      </c>
+      <c r="FT3" s="2">
         <v>133</v>
       </c>
-      <c r="FN3" s="1">
+      <c r="FU3" s="2">
         <v>9</v>
       </c>
-      <c r="FO3" s="1">
+      <c r="FV3" s="2">
         <v>21</v>
       </c>
-      <c r="FP3" s="1">
+      <c r="FW3" s="2">
         <v>21</v>
       </c>
-      <c r="FQ3" s="1">
+      <c r="FX3" s="2">
         <v>21</v>
       </c>
-      <c r="FR3" s="1">
+      <c r="FY3" s="2">
         <v>21</v>
       </c>
-      <c r="FS3" s="1">
+      <c r="FZ3" s="2">
         <v>21</v>
       </c>
-      <c r="FT3" s="1">
+      <c r="GA3" s="2">
         <v>141</v>
       </c>
-      <c r="FU3" s="1">
-        <v>1</v>
-      </c>
-      <c r="FV3" s="1">
+      <c r="GB3" s="2">
+        <v>10</v>
+      </c>
+      <c r="GC3" s="2">
         <v>24</v>
       </c>
-      <c r="FW3" s="1">
+      <c r="GD3" s="2">
         <v>22</v>
       </c>
-      <c r="FX3" s="1">
+      <c r="GE3" s="2">
         <v>24</v>
       </c>
-      <c r="FY3" s="1">
+      <c r="GF3" s="2">
         <v>22</v>
       </c>
-      <c r="FZ3" s="1">
+      <c r="GG3" s="2">
         <v>24</v>
       </c>
-      <c r="GA3" s="1">
+      <c r="GH3" s="2">
         <v>155</v>
       </c>
-      <c r="GB3" s="1">
+      <c r="GI3" s="2">
         <v>11</v>
       </c>
-      <c r="GC3" s="1">
+      <c r="GJ3" s="2">
         <v>25</v>
       </c>
-      <c r="GD3" s="1">
+      <c r="GK3" s="2">
         <v>25</v>
       </c>
-      <c r="GE3" s="1">
+      <c r="GL3" s="2">
         <v>25</v>
       </c>
-      <c r="GF3" s="1">
+      <c r="GM3" s="2">
         <v>25</v>
       </c>
-      <c r="GG3" s="1">
+      <c r="GN3" s="2">
         <v>25</v>
       </c>
-      <c r="GH3" s="1">
+      <c r="GO3" s="2">
         <v>163</v>
       </c>
-      <c r="GI3" s="1">
+      <c r="GP3" s="2">
         <v>12</v>
       </c>
-      <c r="GJ3" s="1">
+      <c r="GQ3" s="2">
         <v>28</v>
       </c>
-      <c r="GK3" s="1">
+      <c r="GR3" s="2">
         <v>26</v>
       </c>
-      <c r="GL3" s="1">
+      <c r="GS3" s="2">
         <v>28</v>
       </c>
-      <c r="GM3" s="1">
+      <c r="GT3" s="2">
         <v>26</v>
       </c>
-      <c r="GN3" s="1">
+      <c r="GU3" s="2">
         <v>28</v>
       </c>
-      <c r="GO3" s="1">
+      <c r="GV3" s="2">
         <v>177</v>
       </c>
-      <c r="GP3" s="1">
+      <c r="GW3" s="2">
         <v>13</v>
       </c>
-      <c r="GQ3" s="1">
+      <c r="GX3" s="2">
         <v>29</v>
       </c>
-      <c r="GR3" s="1">
+      <c r="GY3" s="2">
         <v>29</v>
       </c>
-      <c r="GS3" s="1">
+      <c r="GZ3" s="2">
         <v>29</v>
       </c>
-      <c r="GT3" s="1">
+      <c r="HA3" s="2">
         <v>29</v>
       </c>
-      <c r="GU3" s="1">
+      <c r="HB3" s="2">
         <v>29</v>
       </c>
-      <c r="GV3" s="1">
+      <c r="HC3" s="2">
         <v>195</v>
       </c>
-      <c r="GW3" s="1">
+      <c r="HD3" s="2">
         <v>14</v>
       </c>
-      <c r="GX3" s="1">
+      <c r="HE3" s="2">
         <v>33</v>
       </c>
-      <c r="GY3" s="1">
-        <v>3</v>
-      </c>
-      <c r="GZ3" s="1">
+      <c r="HF3" s="2">
+        <v>30</v>
+      </c>
+      <c r="HG3" s="2">
         <v>33</v>
       </c>
-      <c r="HA3" s="1">
+      <c r="HH3" s="2">
         <v>31</v>
       </c>
-      <c r="HB3" s="1">
+      <c r="HI3" s="2">
         <v>33</v>
       </c>
-      <c r="HC3" s="1">
+      <c r="HJ3" s="2">
+        <v>209</v>
+      </c>
+      <c r="HK3" s="2">
+        <v>15</v>
+      </c>
+      <c r="HL3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HM3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HN3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HO3" s="2">
+        <v>35</v>
+      </c>
+      <c r="HP3" s="2">
+        <v>34</v>
+      </c>
+      <c r="HQ3" s="2">
+        <v>227</v>
+      </c>
+      <c r="HR3" s="2">
+        <v>16</v>
+      </c>
+      <c r="HS3" s="2">
+        <v>38</v>
+      </c>
+      <c r="HT3" s="2">
+        <v>35</v>
+      </c>
+      <c r="HU3" s="2">
+        <v>38</v>
+      </c>
+      <c r="HV3" s="2">
+        <v>36</v>
+      </c>
+      <c r="HW3" s="2">
+        <v>38</v>
+      </c>
+      <c r="HX3" s="2">
+        <v>241</v>
+      </c>
+      <c r="HY3" s="2">
+        <v>17</v>
+      </c>
+      <c r="HZ3" s="2">
+        <v>40</v>
+      </c>
+      <c r="IA3" s="2">
+        <v>39</v>
+      </c>
+      <c r="IB3" s="2">
+        <v>40</v>
+      </c>
+      <c r="IC3" s="2">
+        <v>40</v>
+      </c>
+      <c r="ID3" s="2">
+        <v>40</v>
+      </c>
+      <c r="IE3" s="2">
+        <v>253</v>
+      </c>
+      <c r="IF3" s="2">
+        <v>19</v>
+      </c>
+      <c r="IG3" s="2">
+        <v>44</v>
+      </c>
+      <c r="IH3" s="2">
+        <v>41</v>
+      </c>
+      <c r="II3" s="2">
+        <v>44</v>
+      </c>
+      <c r="IJ3" s="2">
+        <v>41</v>
+      </c>
+      <c r="IK3" s="2">
+        <v>44</v>
+      </c>
+      <c r="IL3" s="2">
+        <v>267</v>
+      </c>
+      <c r="IM3" s="2">
+        <v>20</v>
+      </c>
+      <c r="IN3" s="2">
+        <v>45</v>
+      </c>
+      <c r="IO3" s="2">
+        <v>45</v>
+      </c>
+      <c r="IP3" s="2">
+        <v>46</v>
+      </c>
+      <c r="IQ3" s="2">
+        <v>45</v>
+      </c>
+      <c r="IR3" s="2">
+        <v>46</v>
+      </c>
+      <c r="IS3" s="2">
+        <v>279</v>
+      </c>
+      <c r="IT3" s="2">
+        <v>22</v>
+      </c>
+      <c r="IU3" s="2">
+        <v>49</v>
+      </c>
+      <c r="IV3" s="2">
+        <v>47</v>
+      </c>
+      <c r="IW3" s="2">
+        <v>50</v>
+      </c>
+      <c r="IX3" s="2">
+        <v>47</v>
+      </c>
+      <c r="IY3" s="2">
+        <v>50</v>
+      </c>
+      <c r="IZ3" s="2">
+        <v>293</v>
+      </c>
+      <c r="JA3" s="2">
+        <v>23</v>
+      </c>
+      <c r="JB3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JC3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JD3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JE3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JF3" s="2">
+        <v>51</v>
+      </c>
+      <c r="JG3" s="2">
+        <v>314</v>
+      </c>
+      <c r="JH3" s="2">
+        <v>25</v>
+      </c>
+      <c r="JI3" s="2">
+        <v>56</v>
+      </c>
+      <c r="JJ3" s="2">
+        <v>54</v>
+      </c>
+      <c r="JK3" s="2">
+        <v>56</v>
+      </c>
+      <c r="JL3" s="2">
+        <v>54</v>
+      </c>
+      <c r="JM3" s="2">
+        <v>56</v>
+      </c>
+      <c r="JN3" s="2">
+        <v>332</v>
+      </c>
+      <c r="JO3" s="2">
+        <v>26</v>
+      </c>
+      <c r="JP3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JQ3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JR3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JS3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JT3" s="2">
+        <v>59</v>
+      </c>
+      <c r="JU3" s="2">
+        <v>353</v>
+      </c>
+      <c r="JV3" s="2">
+        <v>28</v>
+      </c>
+      <c r="JW3" s="2">
+        <v>64</v>
+      </c>
+      <c r="JX3" s="2">
+        <v>62</v>
+      </c>
+      <c r="JY3" s="2">
+        <v>64</v>
+      </c>
+      <c r="JZ3" s="2">
+        <v>62</v>
+      </c>
+      <c r="KA3" s="2">
+        <v>64</v>
+      </c>
+      <c r="KB3" s="2">
+        <v>371</v>
+      </c>
+      <c r="KC3" s="2">
         <v>29</v>
       </c>
-      <c r="HD3" s="1">
-        <v>15</v>
-      </c>
-      <c r="HE3" s="1">
-        <v>34</v>
-      </c>
-      <c r="HF3" s="1">
-        <v>34</v>
-      </c>
-      <c r="HG3" s="1">
-        <v>34</v>
-      </c>
-      <c r="HH3" s="1">
+      <c r="KD3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KE3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KF3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KG3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KH3" s="2">
+        <v>67</v>
+      </c>
+      <c r="KI3" s="2">
+        <v>392</v>
+      </c>
+      <c r="KJ3" s="2">
+        <v>31</v>
+      </c>
+      <c r="KK3" s="2">
+        <v>72</v>
+      </c>
+      <c r="KL3" s="2">
+        <v>70</v>
+      </c>
+      <c r="KM3" s="2">
+        <v>72</v>
+      </c>
+      <c r="KN3" s="2">
+        <v>70</v>
+      </c>
+      <c r="KO3" s="2">
+        <v>72</v>
+      </c>
+      <c r="KP3" s="2">
+        <v>410</v>
+      </c>
+      <c r="KQ3" s="2">
+        <v>33</v>
+      </c>
+      <c r="KR3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KS3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KT3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KU3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KV3" s="2">
+        <v>75</v>
+      </c>
+      <c r="KW3" s="2">
+        <v>431</v>
+      </c>
+      <c r="KX3" s="2">
         <v>35</v>
       </c>
-      <c r="HI3" s="1">
-        <v>34</v>
-      </c>
-      <c r="HJ3" s="1">
-        <v>227</v>
-      </c>
-      <c r="HK3" s="1">
-        <v>16</v>
-      </c>
-      <c r="HL3" s="1">
-        <v>38</v>
-      </c>
-      <c r="HM3" s="1">
-        <v>35</v>
-      </c>
-      <c r="HN3" s="1">
-        <v>38</v>
-      </c>
-      <c r="HO3" s="1">
-        <v>36</v>
-      </c>
-      <c r="HP3" s="1">
-        <v>38</v>
-      </c>
-      <c r="HQ3" s="1">
-        <v>241</v>
-      </c>
-      <c r="HR3" s="1">
-        <v>17</v>
-      </c>
-      <c r="HS3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HT3" s="1">
-        <v>39</v>
-      </c>
-      <c r="HU3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HV3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HW3" s="1">
-        <v>4</v>
-      </c>
-      <c r="HX3" s="1">
-        <v>253</v>
-      </c>
-      <c r="HY3" s="1">
-        <v>19</v>
-      </c>
-      <c r="HZ3" s="1">
-        <v>44</v>
-      </c>
-      <c r="IA3" s="1">
-        <v>41</v>
-      </c>
-      <c r="IB3" s="1">
-        <v>44</v>
-      </c>
-      <c r="IC3" s="1">
-        <v>41</v>
-      </c>
-      <c r="ID3" s="1">
-        <v>44</v>
-      </c>
-      <c r="IE3" s="1">
-        <v>267</v>
-      </c>
-      <c r="IF3" s="1">
-        <v>2</v>
-      </c>
-      <c r="IG3" s="1">
-        <v>45</v>
-      </c>
-      <c r="IH3" s="1">
-        <v>45</v>
-      </c>
-      <c r="II3" s="1">
-        <v>46</v>
-      </c>
-      <c r="IJ3" s="1">
-        <v>45</v>
-      </c>
-      <c r="IK3" s="1">
-        <v>46</v>
-      </c>
-      <c r="IL3" s="1">
-        <v>279</v>
-      </c>
-      <c r="IM3" s="1">
-        <v>22</v>
-      </c>
-      <c r="IN3" s="1">
-        <v>49</v>
-      </c>
-      <c r="IO3" s="1">
-        <v>47</v>
-      </c>
-      <c r="IP3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IQ3" s="1">
-        <v>47</v>
-      </c>
-      <c r="IR3" s="1">
-        <v>5</v>
-      </c>
-      <c r="IS3" s="1">
-        <v>293</v>
-      </c>
-      <c r="IT3" s="1">
-        <v>23</v>
-      </c>
-      <c r="IU3" s="1">
-        <v>51</v>
-      </c>
-      <c r="IV3" s="1">
-        <v>51</v>
-      </c>
-      <c r="IW3" s="1">
-        <v>51</v>
-      </c>
-      <c r="IX3" s="1">
-        <v>51</v>
-      </c>
-      <c r="IY3" s="1">
-        <v>51</v>
-      </c>
-      <c r="IZ3" s="1">
-        <v>314</v>
-      </c>
-      <c r="JA3" s="1">
-        <v>25</v>
-      </c>
-      <c r="JB3" s="1">
-        <v>56</v>
-      </c>
-      <c r="JC3" s="1">
-        <v>54</v>
-      </c>
-      <c r="JD3" s="1">
-        <v>56</v>
-      </c>
-      <c r="JE3" s="1">
-        <v>54</v>
-      </c>
-      <c r="JF3" s="1">
-        <v>56</v>
-      </c>
-      <c r="JG3" s="1">
-        <v>332</v>
-      </c>
-      <c r="JH3" s="1">
-        <v>26</v>
-      </c>
-      <c r="JI3" s="1">
-        <v>59</v>
-      </c>
-      <c r="JJ3" s="1">
-        <v>59</v>
-      </c>
-      <c r="JK3" s="1">
-        <v>59</v>
-      </c>
-      <c r="JL3" s="1">
-        <v>59</v>
-      </c>
-      <c r="JM3" s="1">
-        <v>59</v>
-      </c>
-      <c r="JN3" s="1">
-        <v>353</v>
-      </c>
-      <c r="JO3" s="1">
-        <v>28</v>
-      </c>
-      <c r="JP3" s="1">
-        <v>64</v>
-      </c>
-      <c r="JQ3" s="1">
-        <v>62</v>
-      </c>
-      <c r="JR3" s="1">
-        <v>64</v>
-      </c>
-      <c r="JS3" s="1">
-        <v>62</v>
-      </c>
-      <c r="JT3" s="1">
-        <v>64</v>
-      </c>
-      <c r="JU3" s="1">
-        <v>371</v>
-      </c>
-      <c r="JV3" s="1">
-        <v>29</v>
-      </c>
-      <c r="JW3" s="1">
-        <v>67</v>
-      </c>
-      <c r="JX3" s="1">
-        <v>67</v>
-      </c>
-      <c r="JY3" s="1">
-        <v>67</v>
-      </c>
-      <c r="JZ3" s="1">
-        <v>67</v>
-      </c>
-      <c r="KA3" s="1">
-        <v>67</v>
-      </c>
-      <c r="KB3" s="1">
-        <v>392</v>
-      </c>
-      <c r="KC3" s="1">
-        <v>31</v>
-      </c>
-      <c r="KD3" s="1">
-        <v>72</v>
-      </c>
-      <c r="KE3" s="1">
-        <v>7</v>
-      </c>
-      <c r="KF3" s="1">
-        <v>72</v>
-      </c>
-      <c r="KG3" s="1">
-        <v>7</v>
-      </c>
-      <c r="KH3" s="1">
-        <v>72</v>
-      </c>
-      <c r="KI3" s="1">
-        <v>41</v>
-      </c>
-      <c r="KJ3" s="1">
-        <v>33</v>
-      </c>
-      <c r="KK3" s="1">
-        <v>75</v>
-      </c>
-      <c r="KL3" s="1">
-        <v>75</v>
-      </c>
-      <c r="KM3" s="1">
-        <v>75</v>
-      </c>
-      <c r="KN3" s="1">
-        <v>75</v>
-      </c>
-      <c r="KO3" s="1">
-        <v>75</v>
-      </c>
-      <c r="KP3" s="1">
-        <v>431</v>
-      </c>
-      <c r="KQ3" s="1">
-        <v>35</v>
-      </c>
-      <c r="KR3" s="1">
-        <v>8</v>
-      </c>
-      <c r="KS3" s="1">
+      <c r="KY3" s="2">
+        <v>80</v>
+      </c>
+      <c r="KZ3" s="2">
         <v>78</v>
       </c>
-      <c r="KT3" s="1">
-        <v>8</v>
-      </c>
-      <c r="KU3" s="1">
+      <c r="LA3" s="2">
+        <v>80</v>
+      </c>
+      <c r="LB3" s="2">
         <v>78</v>
       </c>
-      <c r="KV3" s="1">
-        <v>8</v>
-      </c>
-      <c r="KW3" s="1">
+      <c r="LC3" s="2">
+        <v>80</v>
+      </c>
+      <c r="LD3" s="2">
         <v>449</v>
       </c>
-      <c r="KX3" s="1">
+      <c r="LE3" s="2">
         <v>37</v>
       </c>
-      <c r="KY3" s="1">
+      <c r="LF3" s="2">
         <v>83</v>
       </c>
-      <c r="KZ3" s="1">
+      <c r="LG3" s="2">
         <v>83</v>
       </c>
-      <c r="LA3" s="1">
+      <c r="LH3" s="2">
         <v>83</v>
       </c>
-      <c r="LB3" s="1">
+      <c r="LI3" s="2">
         <v>83</v>
       </c>
-      <c r="LC3" s="1">
+      <c r="LJ3" s="2">
         <v>83</v>
       </c>
-      <c r="LD3" s="1"/>
-      <c r="LE3" s="1"/>
-      <c r="LF3" s="1"/>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -3356,826 +3396,830 @@
       <c r="AP4" s="1">
         <v>16</v>
       </c>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1">
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2">
         <v>1</v>
       </c>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1">
+      <c r="AS4" s="2">
         <v>1</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AY4" s="2">
         <v>1</v>
       </c>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1">
+      <c r="AZ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2">
         <v>3</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="BF4" s="2">
         <v>1</v>
       </c>
-      <c r="BB4" s="1">
+      <c r="BG4" s="2">
         <v>1</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BH4" s="2">
         <v>1</v>
       </c>
-      <c r="BD4" s="1">
+      <c r="BI4" s="2">
         <v>1</v>
       </c>
-      <c r="BE4" s="1">
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="2">
         <v>3</v>
       </c>
-      <c r="BF4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="1">
+      <c r="BM4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="2">
         <v>1</v>
       </c>
-      <c r="BH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI4" s="1">
+      <c r="BO4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="2">
         <v>1</v>
       </c>
-      <c r="BJ4" s="1">
+      <c r="BQ4" s="2">
         <v>1</v>
       </c>
-      <c r="BK4" s="1">
+      <c r="BR4" s="2">
         <v>1</v>
       </c>
-      <c r="BL4" s="1">
+      <c r="BS4" s="2">
         <v>3</v>
       </c>
-      <c r="BM4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BQ4" s="1">
+      <c r="BT4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="2">
         <v>1</v>
       </c>
-      <c r="BR4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="1">
+      <c r="BY4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="2">
         <v>4</v>
       </c>
-      <c r="BT4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ4" s="1">
+      <c r="CA4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CC4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CD4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="2">
         <v>6</v>
       </c>
-      <c r="CA4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="1">
+      <c r="CH4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="2">
         <v>3</v>
       </c>
-      <c r="CC4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD4" s="1">
+      <c r="CJ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="2">
         <v>3</v>
       </c>
-      <c r="CE4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CF4" s="1">
+      <c r="CL4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM4" s="2">
         <v>3</v>
       </c>
-      <c r="CG4" s="1">
+      <c r="CN4" s="2">
         <v>7</v>
       </c>
-      <c r="CH4" s="1">
+      <c r="CO4" s="2">
         <v>3</v>
       </c>
-      <c r="CI4" s="1">
+      <c r="CP4" s="2">
         <v>3</v>
       </c>
-      <c r="CJ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="1">
+      <c r="CQ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="2">
         <v>3</v>
       </c>
-      <c r="CL4" s="1">
+      <c r="CS4" s="2">
         <v>3</v>
       </c>
-      <c r="CM4" s="1">
+      <c r="CT4" s="2">
         <v>3</v>
       </c>
-      <c r="CN4" s="1">
+      <c r="CU4" s="2">
         <v>9</v>
       </c>
-      <c r="CO4" s="1">
+      <c r="CV4" s="2">
         <v>5</v>
       </c>
-      <c r="CP4" s="1">
+      <c r="CW4" s="2">
         <v>5</v>
       </c>
-      <c r="CQ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="CR4" s="1">
+      <c r="CX4" s="2">
+        <v>2</v>
+      </c>
+      <c r="CY4" s="2">
         <v>4</v>
       </c>
-      <c r="CS4" s="1">
+      <c r="CZ4" s="2">
         <v>3</v>
       </c>
-      <c r="CT4" s="1">
+      <c r="DA4" s="2">
         <v>5</v>
       </c>
-      <c r="CU4" s="1">
+      <c r="DB4" s="2">
         <v>13</v>
       </c>
-      <c r="CV4" s="1">
+      <c r="DC4" s="2">
         <v>6</v>
       </c>
-      <c r="CW4" s="1">
+      <c r="DD4" s="2">
         <v>5</v>
       </c>
-      <c r="CX4" s="1">
+      <c r="DE4" s="2">
         <v>4</v>
       </c>
-      <c r="CY4" s="1">
+      <c r="DF4" s="2">
         <v>5</v>
       </c>
-      <c r="CZ4" s="1">
+      <c r="DG4" s="2">
         <v>5</v>
       </c>
-      <c r="DA4" s="1">
+      <c r="DH4" s="2">
         <v>5</v>
       </c>
-      <c r="DB4" s="1">
+      <c r="DI4" s="2">
         <v>15</v>
       </c>
-      <c r="DC4" s="1">
+      <c r="DJ4" s="2">
         <v>8</v>
       </c>
-      <c r="DD4" s="1">
+      <c r="DK4" s="2">
         <v>7</v>
       </c>
-      <c r="DE4" s="1">
+      <c r="DL4" s="2">
         <v>4</v>
       </c>
-      <c r="DF4" s="1">
+      <c r="DM4" s="2">
         <v>6</v>
       </c>
-      <c r="DG4" s="1">
+      <c r="DN4" s="2">
         <v>5</v>
       </c>
-      <c r="DH4" s="1">
+      <c r="DO4" s="2">
         <v>7</v>
       </c>
-      <c r="DI4" s="1">
+      <c r="DP4" s="2">
         <v>19</v>
       </c>
-      <c r="DJ4" s="1">
+      <c r="DQ4" s="2">
         <v>9</v>
       </c>
-      <c r="DK4" s="1">
+      <c r="DR4" s="2">
         <v>7</v>
       </c>
-      <c r="DL4" s="1">
+      <c r="DS4" s="2">
         <v>6</v>
       </c>
-      <c r="DM4" s="1">
+      <c r="DT4" s="2">
         <v>7</v>
       </c>
-      <c r="DN4" s="1">
+      <c r="DU4" s="2">
         <v>7</v>
       </c>
-      <c r="DO4" s="1">
+      <c r="DV4" s="2">
         <v>9</v>
       </c>
-      <c r="DP4" s="1">
+      <c r="DW4" s="2">
         <v>21</v>
       </c>
-      <c r="DQ4" s="1">
+      <c r="DX4" s="2">
         <v>11</v>
       </c>
-      <c r="DR4" s="1">
+      <c r="DY4" s="2">
         <v>9</v>
       </c>
-      <c r="DS4" s="1">
+      <c r="DZ4" s="2">
         <v>6</v>
       </c>
-      <c r="DT4" s="1">
+      <c r="EA4" s="2">
         <v>8</v>
       </c>
-      <c r="DU4" s="1">
+      <c r="EB4" s="2">
         <v>9</v>
       </c>
-      <c r="DV4" s="1">
+      <c r="EC4" s="2">
         <v>11</v>
       </c>
-      <c r="DW4" s="1">
+      <c r="ED4" s="2">
         <v>25</v>
       </c>
-      <c r="DX4" s="1">
+      <c r="EE4" s="2">
         <v>12</v>
       </c>
-      <c r="DY4" s="1">
+      <c r="EF4" s="2">
         <v>9</v>
       </c>
-      <c r="DZ4" s="1">
+      <c r="EG4" s="2">
         <v>8</v>
       </c>
-      <c r="EA4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EB4" s="1">
+      <c r="EH4" s="2">
+        <v>10</v>
+      </c>
+      <c r="EI4" s="2">
         <v>11</v>
       </c>
-      <c r="EC4" s="1">
+      <c r="EJ4" s="2">
         <v>12</v>
       </c>
-      <c r="ED4" s="1">
+      <c r="EK4" s="2">
         <v>27</v>
       </c>
-      <c r="EE4" s="1">
+      <c r="EL4" s="2">
         <v>14</v>
       </c>
-      <c r="EF4" s="1">
+      <c r="EM4" s="2">
         <v>11</v>
       </c>
-      <c r="EG4" s="1">
-        <v>1</v>
-      </c>
-      <c r="EH4" s="1">
+      <c r="EN4" s="2">
+        <v>10</v>
+      </c>
+      <c r="EO4" s="2">
         <v>11</v>
       </c>
-      <c r="EI4" s="1">
+      <c r="EP4" s="2">
         <v>11</v>
       </c>
-      <c r="EJ4" s="1">
+      <c r="EQ4" s="2">
         <v>14</v>
       </c>
-      <c r="EK4" s="1">
+      <c r="ER4" s="2">
         <v>31</v>
       </c>
-      <c r="EL4" s="1">
+      <c r="ES4" s="2">
         <v>15</v>
       </c>
-      <c r="EM4" s="1">
+      <c r="ET4" s="2">
         <v>13</v>
       </c>
-      <c r="EN4" s="1">
+      <c r="EU4" s="2">
         <v>12</v>
       </c>
-      <c r="EO4" s="1">
+      <c r="EV4" s="2">
         <v>12</v>
       </c>
-      <c r="EP4" s="1">
+      <c r="EW4" s="2">
         <v>13</v>
       </c>
-      <c r="EQ4" s="1">
+      <c r="EX4" s="2">
         <v>14</v>
       </c>
-      <c r="ER4" s="1">
+      <c r="EY4" s="2">
         <v>35</v>
       </c>
-      <c r="ES4" s="1">
+      <c r="EZ4" s="2">
         <v>17</v>
       </c>
-      <c r="ET4" s="1">
+      <c r="FA4" s="2">
         <v>16</v>
       </c>
-      <c r="EU4" s="1">
+      <c r="FB4" s="2">
         <v>13</v>
       </c>
-      <c r="EV4" s="1">
+      <c r="FC4" s="2">
         <v>15</v>
       </c>
-      <c r="EW4" s="1">
+      <c r="FD4" s="2">
         <v>14</v>
       </c>
-      <c r="EX4" s="1">
+      <c r="FE4" s="2">
         <v>16</v>
       </c>
-      <c r="EY4" s="1">
+      <c r="FF4" s="2">
         <v>41</v>
       </c>
-      <c r="EZ4" s="1">
+      <c r="FG4" s="2">
         <v>19</v>
       </c>
-      <c r="FA4" s="1">
+      <c r="FH4" s="2">
         <v>17</v>
       </c>
-      <c r="FB4" s="1">
+      <c r="FI4" s="2">
         <v>16</v>
       </c>
-      <c r="FC4" s="1">
+      <c r="FJ4" s="2">
         <v>17</v>
       </c>
-      <c r="FD4" s="1">
+      <c r="FK4" s="2">
         <v>17</v>
       </c>
-      <c r="FE4" s="1">
+      <c r="FL4" s="2">
         <v>17</v>
       </c>
-      <c r="FF4" s="1">
+      <c r="FM4" s="2">
         <v>45</v>
       </c>
-      <c r="FG4" s="1">
+      <c r="FN4" s="2">
         <v>21</v>
       </c>
-      <c r="FH4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI4" s="1">
+      <c r="FO4" s="2">
+        <v>20</v>
+      </c>
+      <c r="FP4" s="2">
         <v>17</v>
       </c>
-      <c r="FJ4" s="1">
+      <c r="FQ4" s="2">
         <v>19</v>
       </c>
-      <c r="FK4" s="1">
+      <c r="FR4" s="2">
         <v>18</v>
       </c>
-      <c r="FL4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FM4" s="1">
+      <c r="FS4" s="2">
+        <v>20</v>
+      </c>
+      <c r="FT4" s="2">
         <v>51</v>
       </c>
-      <c r="FN4" s="1">
+      <c r="FU4" s="2">
         <v>23</v>
       </c>
-      <c r="FO4" s="1">
+      <c r="FV4" s="2">
         <v>21</v>
       </c>
-      <c r="FP4" s="1">
-        <v>2</v>
-      </c>
-      <c r="FQ4" s="1">
+      <c r="FW4" s="2">
+        <v>20</v>
+      </c>
+      <c r="FX4" s="2">
         <v>21</v>
       </c>
-      <c r="FR4" s="1">
+      <c r="FY4" s="2">
         <v>21</v>
       </c>
-      <c r="FS4" s="1">
+      <c r="FZ4" s="2">
         <v>21</v>
       </c>
-      <c r="FT4" s="1">
+      <c r="GA4" s="2">
         <v>55</v>
       </c>
-      <c r="FU4" s="1">
+      <c r="GB4" s="2">
         <v>25</v>
       </c>
-      <c r="FV4" s="1">
+      <c r="GC4" s="2">
         <v>24</v>
       </c>
-      <c r="FW4" s="1">
+      <c r="GD4" s="2">
         <v>21</v>
       </c>
-      <c r="FX4" s="1">
+      <c r="GE4" s="2">
         <v>23</v>
       </c>
-      <c r="FY4" s="1">
+      <c r="GF4" s="2">
         <v>22</v>
       </c>
-      <c r="FZ4" s="1">
+      <c r="GG4" s="2">
         <v>24</v>
       </c>
-      <c r="GA4" s="1">
+      <c r="GH4" s="2">
         <v>61</v>
       </c>
-      <c r="GB4" s="1">
+      <c r="GI4" s="2">
         <v>27</v>
       </c>
-      <c r="GC4" s="1">
+      <c r="GJ4" s="2">
         <v>25</v>
       </c>
-      <c r="GD4" s="1">
+      <c r="GK4" s="2">
         <v>24</v>
       </c>
-      <c r="GE4" s="1">
+      <c r="GL4" s="2">
         <v>25</v>
       </c>
-      <c r="GF4" s="1">
+      <c r="GM4" s="2">
         <v>25</v>
       </c>
-      <c r="GG4" s="1">
+      <c r="GN4" s="2">
         <v>25</v>
       </c>
-      <c r="GH4" s="1">
+      <c r="GO4" s="2">
         <v>65</v>
       </c>
-      <c r="GI4" s="1">
+      <c r="GP4" s="2">
         <v>29</v>
       </c>
-      <c r="GJ4" s="1">
+      <c r="GQ4" s="2">
         <v>28</v>
       </c>
-      <c r="GK4" s="1">
+      <c r="GR4" s="2">
         <v>25</v>
       </c>
-      <c r="GL4" s="1">
+      <c r="GS4" s="2">
         <v>27</v>
       </c>
-      <c r="GM4" s="1">
+      <c r="GT4" s="2">
         <v>26</v>
       </c>
-      <c r="GN4" s="1">
+      <c r="GU4" s="2">
         <v>28</v>
       </c>
-      <c r="GO4" s="1">
+      <c r="GV4" s="2">
         <v>71</v>
       </c>
-      <c r="GP4" s="1">
+      <c r="GW4" s="2">
         <v>31</v>
       </c>
-      <c r="GQ4" s="1">
+      <c r="GX4" s="2">
         <v>29</v>
       </c>
-      <c r="GR4" s="1">
+      <c r="GY4" s="2">
         <v>28</v>
       </c>
-      <c r="GS4" s="1">
+      <c r="GZ4" s="2">
         <v>29</v>
       </c>
-      <c r="GT4" s="1">
+      <c r="HA4" s="2">
         <v>29</v>
       </c>
-      <c r="GU4" s="1">
+      <c r="HB4" s="2">
         <v>29</v>
       </c>
-      <c r="GV4" s="1">
+      <c r="HC4" s="2">
         <v>77</v>
       </c>
-      <c r="GW4" s="1">
+      <c r="HD4" s="2">
         <v>34</v>
       </c>
-      <c r="GX4" s="1">
+      <c r="HE4" s="2">
         <v>33</v>
       </c>
-      <c r="GY4" s="1">
+      <c r="HF4" s="2">
         <v>29</v>
       </c>
-      <c r="GZ4" s="1">
+      <c r="HG4" s="2">
         <v>33</v>
       </c>
-      <c r="HA4" s="1">
+      <c r="HH4" s="2">
         <v>31</v>
       </c>
-      <c r="HB4" s="1">
+      <c r="HI4" s="2">
         <v>33</v>
       </c>
-      <c r="HC4" s="1">
+      <c r="HJ4" s="2">
         <v>81</v>
       </c>
-      <c r="HD4" s="1">
+      <c r="HK4" s="2">
         <v>37</v>
       </c>
-      <c r="HE4" s="1">
+      <c r="HL4" s="2">
         <v>33</v>
       </c>
-      <c r="HF4" s="1">
+      <c r="HM4" s="2">
         <v>33</v>
       </c>
-      <c r="HG4" s="1">
+      <c r="HN4" s="2">
         <v>34</v>
       </c>
-      <c r="HH4" s="1">
+      <c r="HO4" s="2">
         <v>35</v>
       </c>
-      <c r="HI4" s="1">
+      <c r="HP4" s="2">
         <v>34</v>
       </c>
-      <c r="HJ4" s="1">
+      <c r="HQ4" s="2">
         <v>87</v>
       </c>
-      <c r="HK4" s="1">
-        <v>4</v>
-      </c>
-      <c r="HL4" s="1">
+      <c r="HR4" s="2">
+        <v>40</v>
+      </c>
+      <c r="HS4" s="2">
         <v>37</v>
       </c>
-      <c r="HM4" s="1">
+      <c r="HT4" s="2">
         <v>34</v>
       </c>
-      <c r="HN4" s="1">
+      <c r="HU4" s="2">
         <v>38</v>
       </c>
-      <c r="HO4" s="1">
+      <c r="HV4" s="2">
         <v>36</v>
       </c>
-      <c r="HP4" s="1">
+      <c r="HW4" s="2">
         <v>38</v>
       </c>
-      <c r="HQ4" s="1">
+      <c r="HX4" s="2">
         <v>91</v>
       </c>
-      <c r="HR4" s="1">
+      <c r="HY4" s="2">
         <v>43</v>
       </c>
-      <c r="HS4" s="1">
+      <c r="HZ4" s="2">
         <v>39</v>
       </c>
-      <c r="HT4" s="1">
+      <c r="IA4" s="2">
         <v>38</v>
       </c>
-      <c r="HU4" s="1">
+      <c r="IB4" s="2">
         <v>39</v>
       </c>
-      <c r="HV4" s="1">
-        <v>4</v>
-      </c>
-      <c r="HW4" s="1">
-        <v>4</v>
-      </c>
-      <c r="HX4" s="1">
+      <c r="IC4" s="2">
+        <v>40</v>
+      </c>
+      <c r="ID4" s="2">
+        <v>40</v>
+      </c>
+      <c r="IE4" s="2">
         <v>97</v>
       </c>
-      <c r="HY4" s="1">
+      <c r="IF4" s="2">
         <v>46</v>
       </c>
-      <c r="HZ4" s="1">
+      <c r="IG4" s="2">
         <v>43</v>
       </c>
-      <c r="IA4" s="1">
-        <v>4</v>
-      </c>
-      <c r="IB4" s="1">
+      <c r="IH4" s="2">
+        <v>40</v>
+      </c>
+      <c r="II4" s="2">
         <v>43</v>
       </c>
-      <c r="IC4" s="1">
+      <c r="IJ4" s="2">
         <v>41</v>
       </c>
-      <c r="ID4" s="1">
+      <c r="IK4" s="2">
         <v>44</v>
       </c>
-      <c r="IE4" s="1">
-        <v>11</v>
-      </c>
-      <c r="IF4" s="1">
+      <c r="IL4" s="2">
+        <v>101</v>
+      </c>
+      <c r="IM4" s="2">
         <v>49</v>
       </c>
-      <c r="IG4" s="1">
+      <c r="IN4" s="2">
         <v>44</v>
       </c>
-      <c r="IH4" s="1">
+      <c r="IO4" s="2">
         <v>44</v>
       </c>
-      <c r="II4" s="1">
+      <c r="IP4" s="2">
         <v>44</v>
       </c>
-      <c r="IJ4" s="1">
+      <c r="IQ4" s="2">
         <v>45</v>
       </c>
-      <c r="IK4" s="1">
+      <c r="IR4" s="2">
         <v>46</v>
       </c>
-      <c r="IL4" s="1">
-        <v>17</v>
-      </c>
-      <c r="IM4" s="1">
+      <c r="IS4" s="2">
+        <v>107</v>
+      </c>
+      <c r="IT4" s="2">
         <v>52</v>
       </c>
-      <c r="IN4" s="1">
+      <c r="IU4" s="2">
         <v>48</v>
       </c>
-      <c r="IO4" s="1">
+      <c r="IV4" s="2">
         <v>46</v>
       </c>
-      <c r="IP4" s="1">
+      <c r="IW4" s="2">
         <v>48</v>
       </c>
-      <c r="IQ4" s="1">
+      <c r="IX4" s="2">
         <v>47</v>
       </c>
-      <c r="IR4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IS4" s="1">
+      <c r="IY4" s="2">
+        <v>50</v>
+      </c>
+      <c r="IZ4" s="2">
         <v>111</v>
       </c>
-      <c r="IT4" s="1">
+      <c r="JA4" s="2">
         <v>55</v>
       </c>
-      <c r="IU4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IV4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IW4" s="1">
+      <c r="JB4" s="2">
+        <v>50</v>
+      </c>
+      <c r="JC4" s="2">
+        <v>50</v>
+      </c>
+      <c r="JD4" s="2">
         <v>49</v>
       </c>
-      <c r="IX4" s="1">
-        <v>5</v>
-      </c>
-      <c r="IY4" s="1">
+      <c r="JE4" s="2">
+        <v>50</v>
+      </c>
+      <c r="JF4" s="2">
         <v>51</v>
       </c>
-      <c r="IZ4" s="1">
+      <c r="JG4" s="2">
         <v>123</v>
       </c>
-      <c r="JA4" s="1">
+      <c r="JH4" s="2">
         <v>58</v>
       </c>
-      <c r="JB4" s="1">
+      <c r="JI4" s="2">
         <v>55</v>
       </c>
-      <c r="JC4" s="1">
+      <c r="JJ4" s="2">
         <v>53</v>
       </c>
-      <c r="JD4" s="1">
+      <c r="JK4" s="2">
         <v>54</v>
       </c>
-      <c r="JE4" s="1">
+      <c r="JL4" s="2">
         <v>53</v>
       </c>
-      <c r="JF4" s="1">
+      <c r="JM4" s="2">
         <v>56</v>
       </c>
-      <c r="JG4" s="1">
+      <c r="JN4" s="2">
         <v>132</v>
       </c>
-      <c r="JH4" s="1">
+      <c r="JO4" s="2">
         <v>61</v>
       </c>
-      <c r="JI4" s="1">
+      <c r="JP4" s="2">
         <v>58</v>
       </c>
-      <c r="JJ4" s="1">
+      <c r="JQ4" s="2">
         <v>58</v>
       </c>
-      <c r="JK4" s="1">
+      <c r="JR4" s="2">
         <v>57</v>
       </c>
-      <c r="JL4" s="1">
+      <c r="JS4" s="2">
         <v>58</v>
       </c>
-      <c r="JM4" s="1">
+      <c r="JT4" s="2">
         <v>59</v>
       </c>
-      <c r="JN4" s="1">
+      <c r="JU4" s="2">
         <v>144</v>
       </c>
-      <c r="JO4" s="1">
+      <c r="JV4" s="2">
         <v>64</v>
       </c>
-      <c r="JP4" s="1">
+      <c r="JW4" s="2">
         <v>63</v>
       </c>
-      <c r="JQ4" s="1">
+      <c r="JX4" s="2">
         <v>61</v>
       </c>
-      <c r="JR4" s="1">
+      <c r="JY4" s="2">
         <v>62</v>
       </c>
-      <c r="JS4" s="1">
+      <c r="JZ4" s="2">
         <v>61</v>
       </c>
-      <c r="JT4" s="1">
+      <c r="KA4" s="2">
         <v>64</v>
       </c>
-      <c r="JU4" s="1">
+      <c r="KB4" s="2">
         <v>153</v>
       </c>
-      <c r="JV4" s="1">
+      <c r="KC4" s="2">
         <v>67</v>
       </c>
-      <c r="JW4" s="1">
+      <c r="KD4" s="2">
         <v>66</v>
       </c>
-      <c r="JX4" s="1">
+      <c r="KE4" s="2">
         <v>66</v>
       </c>
-      <c r="JY4" s="1">
+      <c r="KF4" s="2">
         <v>65</v>
       </c>
-      <c r="JZ4" s="1">
+      <c r="KG4" s="2">
         <v>66</v>
       </c>
-      <c r="KA4" s="1">
+      <c r="KH4" s="2">
         <v>67</v>
       </c>
-      <c r="KB4" s="1">
+      <c r="KI4" s="2">
         <v>165</v>
       </c>
-      <c r="KC4" s="1">
-        <v>7</v>
-      </c>
-      <c r="KD4" s="1">
+      <c r="KJ4" s="2">
+        <v>70</v>
+      </c>
+      <c r="KK4" s="2">
         <v>71</v>
       </c>
-      <c r="KE4" s="1">
+      <c r="KL4" s="2">
         <v>69</v>
       </c>
-      <c r="KF4" s="1">
-        <v>7</v>
-      </c>
-      <c r="KG4" s="1">
+      <c r="KM4" s="2">
+        <v>70</v>
+      </c>
+      <c r="KN4" s="2">
         <v>69</v>
       </c>
-      <c r="KH4" s="1">
+      <c r="KO4" s="2">
         <v>72</v>
       </c>
-      <c r="KI4" s="1">
+      <c r="KP4" s="2">
         <v>174</v>
       </c>
-      <c r="KJ4" s="1">
+      <c r="KQ4" s="2">
         <v>73</v>
       </c>
-      <c r="KK4" s="1">
+      <c r="KR4" s="2">
         <v>74</v>
       </c>
-      <c r="KL4" s="1">
+      <c r="KS4" s="2">
         <v>74</v>
       </c>
-      <c r="KM4" s="1">
+      <c r="KT4" s="2">
         <v>73</v>
       </c>
-      <c r="KN4" s="1">
+      <c r="KU4" s="2">
         <v>74</v>
       </c>
-      <c r="KO4" s="1">
+      <c r="KV4" s="2">
         <v>75</v>
       </c>
-      <c r="KP4" s="1">
+      <c r="KW4" s="2">
         <v>186</v>
       </c>
-      <c r="KQ4" s="1">
+      <c r="KX4" s="2">
         <v>77</v>
       </c>
-      <c r="KR4" s="1">
+      <c r="KY4" s="2">
         <v>79</v>
       </c>
-      <c r="KS4" s="1">
+      <c r="KZ4" s="2">
         <v>77</v>
       </c>
-      <c r="KT4" s="1">
+      <c r="LA4" s="2">
         <v>78</v>
       </c>
-      <c r="KU4" s="1">
+      <c r="LB4" s="2">
         <v>77</v>
       </c>
-      <c r="KV4" s="1">
-        <v>8</v>
-      </c>
-      <c r="KW4" s="1">
+      <c r="LC4" s="2">
+        <v>80</v>
+      </c>
+      <c r="LD4" s="2">
         <v>195</v>
       </c>
-      <c r="KX4" s="1">
+      <c r="LE4" s="2">
         <v>81</v>
       </c>
-      <c r="KY4" s="1">
+      <c r="LF4" s="2">
         <v>82</v>
       </c>
-      <c r="KZ4" s="1">
+      <c r="LG4" s="2">
         <v>82</v>
       </c>
-      <c r="LA4" s="1">
+      <c r="LH4" s="2">
         <v>81</v>
       </c>
-      <c r="LB4" s="1">
+      <c r="LI4" s="2">
         <v>82</v>
       </c>
-      <c r="LC4" s="1">
+      <c r="LJ4" s="2">
         <v>83</v>
       </c>
-      <c r="LD4" s="1">
-        <v>1</v>
-      </c>
-      <c r="LE4" s="1">
-        <v>1</v>
-      </c>
-      <c r="LF4" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:322" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -4300,831 +4344,836 @@
       <c r="AP5" s="1">
         <v>16</v>
       </c>
-      <c r="AQ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="1">
+      <c r="AQ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2">
         <v>1</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2">
         <v>1</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2">
         <v>1</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AX5" s="2">
         <v>3</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2">
         <v>1</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="BA5" s="2">
         <v>1</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="BB5" s="2">
         <v>1</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2">
         <v>1</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BE5" s="2">
         <v>5</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2">
         <v>1</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BH5" s="2">
         <v>1</v>
       </c>
-      <c r="BC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BE5" s="1">
+      <c r="BI5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="2">
         <v>5</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BM5" s="2">
         <v>1</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BN5" s="2">
         <v>1</v>
       </c>
-      <c r="BH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BJ5" s="1">
+      <c r="BO5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="2">
         <v>1</v>
       </c>
-      <c r="BK5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BL5" s="1">
+      <c r="BR5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="2">
         <v>7</v>
       </c>
-      <c r="BM5" s="1">
+      <c r="BT5" s="2">
         <v>1</v>
       </c>
-      <c r="BN5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BO5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="1">
+      <c r="BU5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="2">
         <v>3</v>
       </c>
-      <c r="BQ5" s="1">
+      <c r="BX5" s="2">
         <v>1</v>
       </c>
-      <c r="BR5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="1">
+      <c r="BY5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="2">
         <v>8</v>
       </c>
-      <c r="BT5" s="1">
+      <c r="CA5" s="2">
         <v>1</v>
       </c>
-      <c r="BU5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BV5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BW5" s="1">
+      <c r="CB5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="2">
         <v>3</v>
       </c>
-      <c r="BX5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BY5" s="1">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="1">
+      <c r="CE5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>10</v>
+      </c>
+      <c r="CH5" s="2">
         <v>1</v>
       </c>
-      <c r="CA5" s="1">
+      <c r="CI5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>4</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>11</v>
+      </c>
+      <c r="CO5" s="2">
         <v>1</v>
       </c>
-      <c r="CB5" s="1">
+      <c r="CP5" s="2">
         <v>3</v>
       </c>
-      <c r="CC5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CD5" s="1">
+      <c r="CQ5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CR5" s="2">
+        <v>5</v>
+      </c>
+      <c r="CS5" s="2">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="2">
         <v>4</v>
       </c>
-      <c r="CE5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CF5" s="1">
+      <c r="CU5" s="2">
+        <v>17</v>
+      </c>
+      <c r="CV5" s="2">
+        <v>2</v>
+      </c>
+      <c r="CW5" s="2">
+        <v>5</v>
+      </c>
+      <c r="CX5" s="2">
         <v>3</v>
       </c>
-      <c r="CG5" s="1">
+      <c r="CY5" s="2">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="2">
+        <v>3</v>
+      </c>
+      <c r="DA5" s="2">
+        <v>6</v>
+      </c>
+      <c r="DB5" s="2">
+        <v>23</v>
+      </c>
+      <c r="DC5" s="2">
+        <v>3</v>
+      </c>
+      <c r="DD5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DF5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DG5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DH5" s="2">
+        <v>6</v>
+      </c>
+      <c r="DI5" s="2">
+        <v>29</v>
+      </c>
+      <c r="DJ5" s="2">
+        <v>4</v>
+      </c>
+      <c r="DK5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DL5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DM5" s="2">
+        <v>9</v>
+      </c>
+      <c r="DN5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DO5" s="2">
+        <v>8</v>
+      </c>
+      <c r="DP5" s="2">
+        <v>35</v>
+      </c>
+      <c r="DQ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="DR5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DS5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DT5" s="2">
+        <v>9</v>
+      </c>
+      <c r="DU5" s="2">
+        <v>7</v>
+      </c>
+      <c r="DV5" s="2">
+        <v>10</v>
+      </c>
+      <c r="DW5" s="2">
+        <v>41</v>
+      </c>
+      <c r="DX5" s="2">
+        <v>6</v>
+      </c>
+      <c r="DY5" s="2">
+        <v>9</v>
+      </c>
+      <c r="DZ5" s="2">
+        <v>7</v>
+      </c>
+      <c r="EA5" s="2">
         <v>11</v>
       </c>
-      <c r="CH5" s="1">
-        <v>1</v>
-      </c>
-      <c r="CI5" s="1">
-        <v>3</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="CK5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>4</v>
-      </c>
-      <c r="CN5" s="1">
+      <c r="EB5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EC5" s="2">
+        <v>12</v>
+      </c>
+      <c r="ED5" s="2">
+        <v>47</v>
+      </c>
+      <c r="EE5" s="2">
+        <v>7</v>
+      </c>
+      <c r="EF5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EG5" s="2">
+        <v>9</v>
+      </c>
+      <c r="EH5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EI5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EJ5" s="2">
+        <v>12</v>
+      </c>
+      <c r="EK5" s="2">
+        <v>53</v>
+      </c>
+      <c r="EL5" s="2">
+        <v>8</v>
+      </c>
+      <c r="EM5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EN5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EO5" s="2">
+        <v>15</v>
+      </c>
+      <c r="EP5" s="2">
+        <v>11</v>
+      </c>
+      <c r="EQ5" s="2">
+        <v>14</v>
+      </c>
+      <c r="ER5" s="2">
+        <v>59</v>
+      </c>
+      <c r="ES5" s="2">
+        <v>9</v>
+      </c>
+      <c r="ET5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EU5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EV5" s="2">
+        <v>15</v>
+      </c>
+      <c r="EW5" s="2">
+        <v>13</v>
+      </c>
+      <c r="EX5" s="2">
+        <v>14</v>
+      </c>
+      <c r="EY5" s="2">
+        <v>67</v>
+      </c>
+      <c r="EZ5" s="2">
+        <v>10</v>
+      </c>
+      <c r="FA5" s="2">
+        <v>16</v>
+      </c>
+      <c r="FB5" s="2">
+        <v>14</v>
+      </c>
+      <c r="FC5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FD5" s="2">
+        <v>14</v>
+      </c>
+      <c r="FE5" s="2">
         <v>17</v>
       </c>
-      <c r="CO5" s="1">
-        <v>2</v>
-      </c>
-      <c r="CP5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CQ5" s="1">
-        <v>3</v>
-      </c>
-      <c r="CR5" s="1">
-        <v>7</v>
-      </c>
-      <c r="CS5" s="1">
-        <v>3</v>
-      </c>
-      <c r="CT5" s="1">
-        <v>6</v>
-      </c>
-      <c r="CU5" s="1">
+      <c r="FF5" s="2">
+        <v>75</v>
+      </c>
+      <c r="FG5" s="2">
+        <v>12</v>
+      </c>
+      <c r="FH5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FI5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FJ5" s="2">
+        <v>19</v>
+      </c>
+      <c r="FK5" s="2">
+        <v>17</v>
+      </c>
+      <c r="FL5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FM5" s="2">
+        <v>83</v>
+      </c>
+      <c r="FN5" s="2">
+        <v>13</v>
+      </c>
+      <c r="FO5" s="2">
+        <v>20</v>
+      </c>
+      <c r="FP5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FQ5" s="2">
+        <v>22</v>
+      </c>
+      <c r="FR5" s="2">
+        <v>18</v>
+      </c>
+      <c r="FS5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FT5" s="2">
+        <v>91</v>
+      </c>
+      <c r="FU5" s="2">
+        <v>15</v>
+      </c>
+      <c r="FV5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FW5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FX5" s="2">
         <v>23</v>
       </c>
-      <c r="CV5" s="1">
-        <v>3</v>
-      </c>
-      <c r="CW5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CX5" s="1">
-        <v>5</v>
-      </c>
-      <c r="CY5" s="1">
-        <v>7</v>
-      </c>
-      <c r="CZ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="DA5" s="1">
-        <v>6</v>
-      </c>
-      <c r="DB5" s="1">
+      <c r="FY5" s="2">
+        <v>21</v>
+      </c>
+      <c r="FZ5" s="2">
+        <v>22</v>
+      </c>
+      <c r="GA5" s="2">
+        <v>99</v>
+      </c>
+      <c r="GB5" s="2">
+        <v>16</v>
+      </c>
+      <c r="GC5" s="2">
+        <v>24</v>
+      </c>
+      <c r="GD5" s="2">
+        <v>22</v>
+      </c>
+      <c r="GE5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GF5" s="2">
+        <v>22</v>
+      </c>
+      <c r="GG5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GH5" s="2">
+        <v>107</v>
+      </c>
+      <c r="GI5" s="2">
+        <v>18</v>
+      </c>
+      <c r="GJ5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GK5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GL5" s="2">
+        <v>27</v>
+      </c>
+      <c r="GM5" s="2">
+        <v>25</v>
+      </c>
+      <c r="GN5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GO5" s="2">
+        <v>115</v>
+      </c>
+      <c r="GP5" s="2">
+        <v>19</v>
+      </c>
+      <c r="GQ5" s="2">
+        <v>28</v>
+      </c>
+      <c r="GR5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GS5" s="2">
+        <v>30</v>
+      </c>
+      <c r="GT5" s="2">
+        <v>26</v>
+      </c>
+      <c r="GU5" s="2">
         <v>29</v>
       </c>
-      <c r="DC5" s="1">
-        <v>4</v>
-      </c>
-      <c r="DD5" s="1">
-        <v>7</v>
-      </c>
-      <c r="DE5" s="1">
-        <v>5</v>
-      </c>
-      <c r="DF5" s="1">
-        <v>9</v>
-      </c>
-      <c r="DG5" s="1">
-        <v>5</v>
-      </c>
-      <c r="DH5" s="1">
-        <v>8</v>
-      </c>
-      <c r="DI5" s="1">
+      <c r="GV5" s="2">
+        <v>123</v>
+      </c>
+      <c r="GW5" s="2">
+        <v>21</v>
+      </c>
+      <c r="GX5" s="2">
+        <v>29</v>
+      </c>
+      <c r="GY5" s="2">
+        <v>29</v>
+      </c>
+      <c r="GZ5" s="2">
+        <v>31</v>
+      </c>
+      <c r="HA5" s="2">
+        <v>29</v>
+      </c>
+      <c r="HB5" s="2">
+        <v>30</v>
+      </c>
+      <c r="HC5" s="2">
+        <v>135</v>
+      </c>
+      <c r="HD5" s="2">
+        <v>23</v>
+      </c>
+      <c r="HE5" s="2">
+        <v>33</v>
+      </c>
+      <c r="HF5" s="2">
+        <v>30</v>
+      </c>
+      <c r="HG5" s="2">
         <v>35</v>
       </c>
-      <c r="DJ5" s="1">
-        <v>5</v>
-      </c>
-      <c r="DK5" s="1">
-        <v>7</v>
-      </c>
-      <c r="DL5" s="1">
-        <v>7</v>
-      </c>
-      <c r="DM5" s="1">
-        <v>9</v>
-      </c>
-      <c r="DN5" s="1">
-        <v>7</v>
-      </c>
-      <c r="DO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="DP5" s="1">
+      <c r="HH5" s="2">
+        <v>31</v>
+      </c>
+      <c r="HI5" s="2">
+        <v>34</v>
+      </c>
+      <c r="HJ5" s="2">
+        <v>143</v>
+      </c>
+      <c r="HK5" s="2">
+        <v>25</v>
+      </c>
+      <c r="HL5" s="2">
+        <v>34</v>
+      </c>
+      <c r="HM5" s="2">
+        <v>34</v>
+      </c>
+      <c r="HN5" s="2">
+        <v>36</v>
+      </c>
+      <c r="HO5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HP5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HQ5" s="2">
+        <v>155</v>
+      </c>
+      <c r="HR5" s="2">
+        <v>27</v>
+      </c>
+      <c r="HS5" s="2">
+        <v>38</v>
+      </c>
+      <c r="HT5" s="2">
+        <v>35</v>
+      </c>
+      <c r="HU5" s="2">
+        <v>40</v>
+      </c>
+      <c r="HV5" s="2">
+        <v>36</v>
+      </c>
+      <c r="HW5" s="2">
+        <v>39</v>
+      </c>
+      <c r="HX5" s="2">
+        <v>163</v>
+      </c>
+      <c r="HY5" s="2">
+        <v>29</v>
+      </c>
+      <c r="HZ5" s="2">
+        <v>40</v>
+      </c>
+      <c r="IA5" s="2">
+        <v>39</v>
+      </c>
+      <c r="IB5" s="2">
+        <v>42</v>
+      </c>
+      <c r="IC5" s="2">
+        <v>40</v>
+      </c>
+      <c r="ID5" s="2">
         <v>41</v>
       </c>
-      <c r="DQ5" s="1">
-        <v>6</v>
-      </c>
-      <c r="DR5" s="1">
-        <v>9</v>
-      </c>
-      <c r="DS5" s="1">
-        <v>7</v>
-      </c>
-      <c r="DT5" s="1">
-        <v>11</v>
-      </c>
-      <c r="DU5" s="1">
-        <v>9</v>
-      </c>
-      <c r="DV5" s="1">
-        <v>12</v>
-      </c>
-      <c r="DW5" s="1">
+      <c r="IE5" s="2">
+        <v>175</v>
+      </c>
+      <c r="IF5" s="2">
+        <v>31</v>
+      </c>
+      <c r="IG5" s="2">
+        <v>44</v>
+      </c>
+      <c r="IH5" s="2">
+        <v>41</v>
+      </c>
+      <c r="II5" s="2">
+        <v>46</v>
+      </c>
+      <c r="IJ5" s="2">
+        <v>41</v>
+      </c>
+      <c r="IK5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IL5" s="2">
+        <v>183</v>
+      </c>
+      <c r="IM5" s="2">
+        <v>33</v>
+      </c>
+      <c r="IN5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IO5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IP5" s="2">
+        <v>48</v>
+      </c>
+      <c r="IQ5" s="2">
+        <v>45</v>
+      </c>
+      <c r="IR5" s="2">
         <v>47</v>
       </c>
-      <c r="DX5" s="1">
-        <v>7</v>
-      </c>
-      <c r="DY5" s="1">
-        <v>9</v>
-      </c>
-      <c r="DZ5" s="1">
-        <v>9</v>
-      </c>
-      <c r="EA5" s="1">
-        <v>13</v>
-      </c>
-      <c r="EB5" s="1">
-        <v>11</v>
-      </c>
-      <c r="EC5" s="1">
-        <v>12</v>
-      </c>
-      <c r="ED5" s="1">
+      <c r="IS5" s="2">
+        <v>195</v>
+      </c>
+      <c r="IT5" s="2">
+        <v>35</v>
+      </c>
+      <c r="IU5" s="2">
+        <v>49</v>
+      </c>
+      <c r="IV5" s="2">
+        <v>47</v>
+      </c>
+      <c r="IW5" s="2">
+        <v>52</v>
+      </c>
+      <c r="IX5" s="2">
+        <v>47</v>
+      </c>
+      <c r="IY5" s="2">
+        <v>51</v>
+      </c>
+      <c r="IZ5" s="2">
+        <v>203</v>
+      </c>
+      <c r="JA5" s="2">
+        <v>37</v>
+      </c>
+      <c r="JB5" s="2">
+        <v>51</v>
+      </c>
+      <c r="JC5" s="2">
+        <v>51</v>
+      </c>
+      <c r="JD5" s="2">
         <v>53</v>
       </c>
-      <c r="EE5" s="1">
-        <v>8</v>
-      </c>
-      <c r="EF5" s="1">
-        <v>11</v>
-      </c>
-      <c r="EG5" s="1">
-        <v>11</v>
-      </c>
-      <c r="EH5" s="1">
-        <v>15</v>
-      </c>
-      <c r="EI5" s="1">
-        <v>11</v>
-      </c>
-      <c r="EJ5" s="1">
-        <v>14</v>
-      </c>
-      <c r="EK5" s="1">
+      <c r="JE5" s="2">
+        <v>51</v>
+      </c>
+      <c r="JF5" s="2">
+        <v>52</v>
+      </c>
+      <c r="JG5" s="2">
+        <v>218</v>
+      </c>
+      <c r="JH5" s="2">
+        <v>40</v>
+      </c>
+      <c r="JI5" s="2">
+        <v>56</v>
+      </c>
+      <c r="JJ5" s="2">
+        <v>54</v>
+      </c>
+      <c r="JK5" s="2">
+        <v>58</v>
+      </c>
+      <c r="JL5" s="2">
+        <v>54</v>
+      </c>
+      <c r="JM5" s="2">
+        <v>57</v>
+      </c>
+      <c r="JN5" s="2">
+        <v>230</v>
+      </c>
+      <c r="JO5" s="2">
+        <v>42</v>
+      </c>
+      <c r="JP5" s="2">
         <v>59</v>
       </c>
-      <c r="EL5" s="1">
-        <v>9</v>
-      </c>
-      <c r="EM5" s="1">
-        <v>13</v>
-      </c>
-      <c r="EN5" s="1">
-        <v>13</v>
-      </c>
-      <c r="EO5" s="1">
-        <v>15</v>
-      </c>
-      <c r="EP5" s="1">
-        <v>13</v>
-      </c>
-      <c r="EQ5" s="1">
-        <v>14</v>
-      </c>
-      <c r="ER5" s="1">
+      <c r="JQ5" s="2">
+        <v>59</v>
+      </c>
+      <c r="JR5" s="2">
+        <v>61</v>
+      </c>
+      <c r="JS5" s="2">
+        <v>59</v>
+      </c>
+      <c r="JT5" s="2">
+        <v>60</v>
+      </c>
+      <c r="JU5" s="2">
+        <v>245</v>
+      </c>
+      <c r="JV5" s="2">
+        <v>45</v>
+      </c>
+      <c r="JW5" s="2">
+        <v>64</v>
+      </c>
+      <c r="JX5" s="2">
+        <v>62</v>
+      </c>
+      <c r="JY5" s="2">
+        <v>66</v>
+      </c>
+      <c r="JZ5" s="2">
+        <v>62</v>
+      </c>
+      <c r="KA5" s="2">
+        <v>65</v>
+      </c>
+      <c r="KB5" s="2">
+        <v>257</v>
+      </c>
+      <c r="KC5" s="2">
+        <v>47</v>
+      </c>
+      <c r="KD5" s="2">
         <v>67</v>
       </c>
-      <c r="ES5" s="1">
-        <v>1</v>
-      </c>
-      <c r="ET5" s="1">
-        <v>16</v>
-      </c>
-      <c r="EU5" s="1">
-        <v>14</v>
-      </c>
-      <c r="EV5" s="1">
-        <v>18</v>
-      </c>
-      <c r="EW5" s="1">
-        <v>14</v>
-      </c>
-      <c r="EX5" s="1">
-        <v>17</v>
-      </c>
-      <c r="EY5" s="1">
+      <c r="KE5" s="2">
+        <v>67</v>
+      </c>
+      <c r="KF5" s="2">
+        <v>69</v>
+      </c>
+      <c r="KG5" s="2">
+        <v>67</v>
+      </c>
+      <c r="KH5" s="2">
+        <v>68</v>
+      </c>
+      <c r="KI5" s="2">
+        <v>272</v>
+      </c>
+      <c r="KJ5" s="2">
+        <v>50</v>
+      </c>
+      <c r="KK5" s="2">
+        <v>72</v>
+      </c>
+      <c r="KL5" s="2">
+        <v>70</v>
+      </c>
+      <c r="KM5" s="2">
+        <v>74</v>
+      </c>
+      <c r="KN5" s="2">
+        <v>70</v>
+      </c>
+      <c r="KO5" s="2">
+        <v>73</v>
+      </c>
+      <c r="KP5" s="2">
+        <v>284</v>
+      </c>
+      <c r="KQ5" s="2">
+        <v>53</v>
+      </c>
+      <c r="KR5" s="2">
         <v>75</v>
       </c>
-      <c r="EZ5" s="1">
-        <v>12</v>
-      </c>
-      <c r="FA5" s="1">
-        <v>17</v>
-      </c>
-      <c r="FB5" s="1">
-        <v>17</v>
-      </c>
-      <c r="FC5" s="1">
-        <v>19</v>
-      </c>
-      <c r="FD5" s="1">
-        <v>17</v>
-      </c>
-      <c r="FE5" s="1">
-        <v>18</v>
-      </c>
-      <c r="FF5" s="1">
+      <c r="KS5" s="2">
+        <v>75</v>
+      </c>
+      <c r="KT5" s="2">
+        <v>77</v>
+      </c>
+      <c r="KU5" s="2">
+        <v>75</v>
+      </c>
+      <c r="KV5" s="2">
+        <v>76</v>
+      </c>
+      <c r="KW5" s="2">
+        <v>299</v>
+      </c>
+      <c r="KX5" s="2">
+        <v>56</v>
+      </c>
+      <c r="KY5" s="2">
+        <v>80</v>
+      </c>
+      <c r="KZ5" s="2">
+        <v>78</v>
+      </c>
+      <c r="LA5" s="2">
+        <v>82</v>
+      </c>
+      <c r="LB5" s="2">
+        <v>78</v>
+      </c>
+      <c r="LC5" s="2">
+        <v>81</v>
+      </c>
+      <c r="LD5" s="2">
+        <v>311</v>
+      </c>
+      <c r="LE5" s="2">
+        <v>59</v>
+      </c>
+      <c r="LF5" s="2">
         <v>83</v>
       </c>
-      <c r="FG5" s="1">
-        <v>13</v>
-      </c>
-      <c r="FH5" s="1">
-        <v>2</v>
-      </c>
-      <c r="FI5" s="1">
-        <v>18</v>
-      </c>
-      <c r="FJ5" s="1">
-        <v>22</v>
-      </c>
-      <c r="FK5" s="1">
-        <v>18</v>
-      </c>
-      <c r="FL5" s="1">
-        <v>21</v>
-      </c>
-      <c r="FM5" s="1">
-        <v>91</v>
-      </c>
-      <c r="FN5" s="1">
-        <v>15</v>
-      </c>
-      <c r="FO5" s="1">
-        <v>21</v>
-      </c>
-      <c r="FP5" s="1">
-        <v>21</v>
-      </c>
-      <c r="FQ5" s="1">
-        <v>23</v>
-      </c>
-      <c r="FR5" s="1">
-        <v>21</v>
-      </c>
-      <c r="FS5" s="1">
-        <v>22</v>
-      </c>
-      <c r="FT5" s="1">
-        <v>99</v>
-      </c>
-      <c r="FU5" s="1">
-        <v>16</v>
-      </c>
-      <c r="FV5" s="1">
-        <v>24</v>
-      </c>
-      <c r="FW5" s="1">
-        <v>22</v>
-      </c>
-      <c r="FX5" s="1">
-        <v>26</v>
-      </c>
-      <c r="FY5" s="1">
-        <v>22</v>
-      </c>
-      <c r="FZ5" s="1">
-        <v>25</v>
-      </c>
-      <c r="GA5" s="1">
-        <v>17</v>
-      </c>
-      <c r="GB5" s="1">
-        <v>18</v>
-      </c>
-      <c r="GC5" s="1">
-        <v>25</v>
-      </c>
-      <c r="GD5" s="1">
-        <v>25</v>
-      </c>
-      <c r="GE5" s="1">
-        <v>27</v>
-      </c>
-      <c r="GF5" s="1">
-        <v>25</v>
-      </c>
-      <c r="GG5" s="1">
-        <v>26</v>
-      </c>
-      <c r="GH5" s="1">
-        <v>115</v>
-      </c>
-      <c r="GI5" s="1">
-        <v>19</v>
-      </c>
-      <c r="GJ5" s="1">
-        <v>28</v>
-      </c>
-      <c r="GK5" s="1">
-        <v>26</v>
-      </c>
-      <c r="GL5" s="1">
-        <v>3</v>
-      </c>
-      <c r="GM5" s="1">
-        <v>26</v>
-      </c>
-      <c r="GN5" s="1">
-        <v>29</v>
-      </c>
-      <c r="GO5" s="1">
-        <v>123</v>
-      </c>
-      <c r="GP5" s="1">
-        <v>21</v>
-      </c>
-      <c r="GQ5" s="1">
-        <v>29</v>
-      </c>
-      <c r="GR5" s="1">
-        <v>29</v>
-      </c>
-      <c r="GS5" s="1">
-        <v>31</v>
-      </c>
-      <c r="GT5" s="1">
-        <v>29</v>
-      </c>
-      <c r="GU5" s="1">
-        <v>3</v>
-      </c>
-      <c r="GV5" s="1">
-        <v>135</v>
-      </c>
-      <c r="GW5" s="1">
-        <v>23</v>
-      </c>
-      <c r="GX5" s="1">
-        <v>33</v>
-      </c>
-      <c r="GY5" s="1">
-        <v>3</v>
-      </c>
-      <c r="GZ5" s="1">
-        <v>35</v>
-      </c>
-      <c r="HA5" s="1">
-        <v>31</v>
-      </c>
-      <c r="HB5" s="1">
-        <v>34</v>
-      </c>
-      <c r="HC5" s="1">
-        <v>143</v>
-      </c>
-      <c r="HD5" s="1">
-        <v>25</v>
-      </c>
-      <c r="HE5" s="1">
-        <v>34</v>
-      </c>
-      <c r="HF5" s="1">
-        <v>34</v>
-      </c>
-      <c r="HG5" s="1">
-        <v>36</v>
-      </c>
-      <c r="HH5" s="1">
-        <v>35</v>
-      </c>
-      <c r="HI5" s="1">
-        <v>35</v>
-      </c>
-      <c r="HJ5" s="1">
-        <v>155</v>
-      </c>
-      <c r="HK5" s="1">
-        <v>27</v>
-      </c>
-      <c r="HL5" s="1">
-        <v>38</v>
-      </c>
-      <c r="HM5" s="1">
-        <v>35</v>
-      </c>
-      <c r="HN5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HO5" s="1">
-        <v>36</v>
-      </c>
-      <c r="HP5" s="1">
-        <v>39</v>
-      </c>
-      <c r="HQ5" s="1">
-        <v>163</v>
-      </c>
-      <c r="HR5" s="1">
-        <v>29</v>
-      </c>
-      <c r="HS5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HT5" s="1">
-        <v>39</v>
-      </c>
-      <c r="HU5" s="1">
-        <v>42</v>
-      </c>
-      <c r="HV5" s="1">
-        <v>4</v>
-      </c>
-      <c r="HW5" s="1">
-        <v>41</v>
-      </c>
-      <c r="HX5" s="1">
-        <v>175</v>
-      </c>
-      <c r="HY5" s="1">
-        <v>31</v>
-      </c>
-      <c r="HZ5" s="1">
-        <v>44</v>
-      </c>
-      <c r="IA5" s="1">
-        <v>41</v>
-      </c>
-      <c r="IB5" s="1">
-        <v>46</v>
-      </c>
-      <c r="IC5" s="1">
-        <v>41</v>
-      </c>
-      <c r="ID5" s="1">
-        <v>45</v>
-      </c>
-      <c r="IE5" s="1">
-        <v>183</v>
-      </c>
-      <c r="IF5" s="1">
-        <v>33</v>
-      </c>
-      <c r="IG5" s="1">
-        <v>45</v>
-      </c>
-      <c r="IH5" s="1">
-        <v>45</v>
-      </c>
-      <c r="II5" s="1">
-        <v>48</v>
-      </c>
-      <c r="IJ5" s="1">
-        <v>45</v>
-      </c>
-      <c r="IK5" s="1">
-        <v>47</v>
-      </c>
-      <c r="IL5" s="1">
-        <v>195</v>
-      </c>
-      <c r="IM5" s="1">
-        <v>35</v>
-      </c>
-      <c r="IN5" s="1">
-        <v>49</v>
-      </c>
-      <c r="IO5" s="1">
-        <v>47</v>
-      </c>
-      <c r="IP5" s="1">
-        <v>52</v>
-      </c>
-      <c r="IQ5" s="1">
-        <v>47</v>
-      </c>
-      <c r="IR5" s="1">
-        <v>51</v>
-      </c>
-      <c r="IS5" s="1">
-        <v>23</v>
-      </c>
-      <c r="IT5" s="1">
-        <v>37</v>
-      </c>
-      <c r="IU5" s="1">
-        <v>51</v>
-      </c>
-      <c r="IV5" s="1">
-        <v>51</v>
-      </c>
-      <c r="IW5" s="1">
-        <v>53</v>
-      </c>
-      <c r="IX5" s="1">
-        <v>51</v>
-      </c>
-      <c r="IY5" s="1">
-        <v>52</v>
-      </c>
-      <c r="IZ5" s="1">
-        <v>218</v>
-      </c>
-      <c r="JA5" s="1">
-        <v>4</v>
-      </c>
-      <c r="JB5" s="1">
-        <v>56</v>
-      </c>
-      <c r="JC5" s="1">
-        <v>54</v>
-      </c>
-      <c r="JD5" s="1">
-        <v>58</v>
-      </c>
-      <c r="JE5" s="1">
-        <v>54</v>
-      </c>
-      <c r="JF5" s="1">
-        <v>57</v>
-      </c>
-      <c r="JG5" s="1">
-        <v>23</v>
-      </c>
-      <c r="JH5" s="1">
-        <v>42</v>
-      </c>
-      <c r="JI5" s="1">
-        <v>59</v>
-      </c>
-      <c r="JJ5" s="1">
-        <v>59</v>
-      </c>
-      <c r="JK5" s="1">
-        <v>61</v>
-      </c>
-      <c r="JL5" s="1">
-        <v>59</v>
-      </c>
-      <c r="JM5" s="1">
-        <v>6</v>
-      </c>
-      <c r="JN5" s="1">
-        <v>245</v>
-      </c>
-      <c r="JO5" s="1">
-        <v>45</v>
-      </c>
-      <c r="JP5" s="1">
-        <v>64</v>
-      </c>
-      <c r="JQ5" s="1">
-        <v>62</v>
-      </c>
-      <c r="JR5" s="1">
-        <v>66</v>
-      </c>
-      <c r="JS5" s="1">
-        <v>62</v>
-      </c>
-      <c r="JT5" s="1">
-        <v>65</v>
-      </c>
-      <c r="JU5" s="1">
-        <v>257</v>
-      </c>
-      <c r="JV5" s="1">
-        <v>47</v>
-      </c>
-      <c r="JW5" s="1">
-        <v>67</v>
-      </c>
-      <c r="JX5" s="1">
-        <v>67</v>
-      </c>
-      <c r="JY5" s="1">
-        <v>69</v>
-      </c>
-      <c r="JZ5" s="1">
-        <v>67</v>
-      </c>
-      <c r="KA5" s="1">
-        <v>68</v>
-      </c>
-      <c r="KB5" s="1">
-        <v>272</v>
-      </c>
-      <c r="KC5" s="1">
-        <v>5</v>
-      </c>
-      <c r="KD5" s="1">
-        <v>72</v>
-      </c>
-      <c r="KE5" s="1">
-        <v>7</v>
-      </c>
-      <c r="KF5" s="1">
-        <v>74</v>
-      </c>
-      <c r="KG5" s="1">
-        <v>7</v>
-      </c>
-      <c r="KH5" s="1">
-        <v>73</v>
-      </c>
-      <c r="KI5" s="1">
-        <v>284</v>
-      </c>
-      <c r="KJ5" s="1">
-        <v>53</v>
-      </c>
-      <c r="KK5" s="1">
-        <v>75</v>
-      </c>
-      <c r="KL5" s="1">
-        <v>75</v>
-      </c>
-      <c r="KM5" s="1">
-        <v>77</v>
-      </c>
-      <c r="KN5" s="1">
-        <v>75</v>
-      </c>
-      <c r="KO5" s="1">
-        <v>76</v>
-      </c>
-      <c r="KP5" s="1">
-        <v>299</v>
-      </c>
-      <c r="KQ5" s="1">
-        <v>56</v>
-      </c>
-      <c r="KR5" s="1">
-        <v>8</v>
-      </c>
-      <c r="KS5" s="1">
-        <v>78</v>
-      </c>
-      <c r="KT5" s="1">
-        <v>82</v>
-      </c>
-      <c r="KU5" s="1">
-        <v>78</v>
-      </c>
-      <c r="KV5" s="1">
-        <v>81</v>
-      </c>
-      <c r="KW5" s="1">
-        <v>311</v>
-      </c>
-      <c r="KX5" s="1">
-        <v>59</v>
-      </c>
-      <c r="KY5" s="1">
+      <c r="LG5" s="2">
         <v>83</v>
       </c>
-      <c r="KZ5" s="1">
+      <c r="LH5" s="2">
+        <v>85</v>
+      </c>
+      <c r="LI5" s="2">
         <v>83</v>
       </c>
-      <c r="LA5" s="1">
-        <v>85</v>
-      </c>
-      <c r="LB5" s="1">
-        <v>83</v>
-      </c>
-      <c r="LC5" s="1">
+      <c r="LJ5" s="2">
         <v>84</v>
       </c>
-      <c r="LD5" s="1"/>
-      <c r="LE5" s="1"/>
-      <c r="LF5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/enhance.xlsx
+++ b/enhance.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t>#head</t>
   </si>
   <si>
-    <t>exports.data =</t>
+    <t>exports.data = </t>
   </si>
   <si>
     <t>#path</t>
@@ -151,860 +151,841 @@
     <t>.property[0].health:number</t>
   </si>
   <si>
+    <t>.property[0].critical:number</t>
+  </si>
+  <si>
+    <t>.property[0].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[0].speed:number</t>
+  </si>
+  <si>
+    <t>.property[1].health:number</t>
+  </si>
+  <si>
+    <t>.property[1].critical:number</t>
+  </si>
+  <si>
+    <t>.property[1].strong:number</t>
+  </si>
+  <si>
+    <t>.property[1].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[1].speed:number</t>
+  </si>
+  <si>
+    <t>.property[2].health:number</t>
+  </si>
+  <si>
+    <t>.property[2].critical:number</t>
+  </si>
+  <si>
+    <t>.property[2].strong:number</t>
+  </si>
+  <si>
+    <t>.property[2].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[2].speed:number</t>
+  </si>
+  <si>
+    <t>.property[3].health:number</t>
+  </si>
+  <si>
+    <t>.property[3].attack:number</t>
+  </si>
+  <si>
+    <t>.property[3].critical:number</t>
+  </si>
+  <si>
+    <t>.property[3].strong:number</t>
+  </si>
+  <si>
+    <t>.property[3].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[3].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[3].speed:number</t>
+  </si>
+  <si>
+    <t>.property[4].health:number</t>
+  </si>
+  <si>
+    <t>.property[4].attack:number</t>
+  </si>
+  <si>
+    <t>.property[4].critical:number</t>
+  </si>
+  <si>
+    <t>.property[4].strong:number</t>
+  </si>
+  <si>
+    <t>.property[4].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[4].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[4].speed:number</t>
+  </si>
+  <si>
+    <t>.property[5].health:number</t>
+  </si>
+  <si>
+    <t>.property[5].attack:number</t>
+  </si>
+  <si>
+    <t>.property[5].critical:number</t>
+  </si>
+  <si>
+    <t>.property[5].strong:number</t>
+  </si>
+  <si>
+    <t>.property[5].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[5].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[5].speed:number</t>
+  </si>
+  <si>
+    <t>.property[6].health:number</t>
+  </si>
+  <si>
+    <t>.property[6].attack:number</t>
+  </si>
+  <si>
+    <t>.property[6].critical:number</t>
+  </si>
+  <si>
+    <t>.property[6].strong:number</t>
+  </si>
+  <si>
+    <t>.property[6].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[6].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[6].speed:number</t>
+  </si>
+  <si>
+    <t>.property[7].health:number</t>
+  </si>
+  <si>
+    <t>.property[7].attack:number</t>
+  </si>
+  <si>
+    <t>.property[7].critical:number</t>
+  </si>
+  <si>
+    <t>.property[7].strong:number</t>
+  </si>
+  <si>
+    <t>.property[7].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[7].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[7].speed:number</t>
+  </si>
+  <si>
+    <t>.property[8].health:number</t>
+  </si>
+  <si>
+    <t>.property[8].attack:number</t>
+  </si>
+  <si>
+    <t>.property[8].critical:number</t>
+  </si>
+  <si>
+    <t>.property[8].strong:number</t>
+  </si>
+  <si>
+    <t>.property[8].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[8].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[8].speed:number</t>
+  </si>
+  <si>
+    <t>.property[9].health:number</t>
+  </si>
+  <si>
+    <t>.property[9].attack:number</t>
+  </si>
+  <si>
+    <t>.property[9].critical:number</t>
+  </si>
+  <si>
+    <t>.property[9].strong:number</t>
+  </si>
+  <si>
+    <t>.property[9].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[9].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[9].speed:number</t>
+  </si>
+  <si>
+    <t>.property[10].health:number</t>
+  </si>
+  <si>
+    <t>.property[10].attack:number</t>
+  </si>
+  <si>
+    <t>.property[10].critical:number</t>
+  </si>
+  <si>
+    <t>.property[10].strong:number</t>
+  </si>
+  <si>
+    <t>.property[10].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[10].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[10].speed:number</t>
+  </si>
+  <si>
+    <t>.property[11].health:number</t>
+  </si>
+  <si>
+    <t>.property[11].attack:number</t>
+  </si>
+  <si>
+    <t>.property[11].critical:number</t>
+  </si>
+  <si>
+    <t>.property[11].strong:number</t>
+  </si>
+  <si>
+    <t>.property[11].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[11].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[11].speed:number</t>
+  </si>
+  <si>
+    <t>.property[12].health:number</t>
+  </si>
+  <si>
+    <t>.property[12].attack:number</t>
+  </si>
+  <si>
+    <t>.property[12].critical:number</t>
+  </si>
+  <si>
+    <t>.property[12].strong:number</t>
+  </si>
+  <si>
+    <t>.property[12].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[12].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[12].speed:number</t>
+  </si>
+  <si>
+    <t>.property[13].health:number</t>
+  </si>
+  <si>
+    <t>.property[13].attack:number</t>
+  </si>
+  <si>
+    <t>.property[13].critical:number</t>
+  </si>
+  <si>
+    <t>.property[13].strong:number</t>
+  </si>
+  <si>
+    <t>.property[13].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[13].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[13].speed:number</t>
+  </si>
+  <si>
+    <t>.property[14].health:number</t>
+  </si>
+  <si>
+    <t>.property[14].attack:number</t>
+  </si>
+  <si>
+    <t>.property[14].critical:number</t>
+  </si>
+  <si>
+    <t>.property[14].strong:number</t>
+  </si>
+  <si>
+    <t>.property[14].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[14].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[14].speed:number</t>
+  </si>
+  <si>
+    <t>.property[15].health:number</t>
+  </si>
+  <si>
+    <t>.property[15].attack:number</t>
+  </si>
+  <si>
+    <t>.property[15].critical:number</t>
+  </si>
+  <si>
+    <t>.property[15].strong:number</t>
+  </si>
+  <si>
+    <t>.property[15].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[15].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[15].speed:number</t>
+  </si>
+  <si>
+    <t>.property[16].health:number</t>
+  </si>
+  <si>
+    <t>.property[16].attack:number</t>
+  </si>
+  <si>
+    <t>.property[16].critical:number</t>
+  </si>
+  <si>
+    <t>.property[16].strong:number</t>
+  </si>
+  <si>
+    <t>.property[16].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[16].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[16].speed:number</t>
+  </si>
+  <si>
+    <t>.property[17].health:number</t>
+  </si>
+  <si>
+    <t>.property[17].attack:number</t>
+  </si>
+  <si>
+    <t>.property[17].critical:number</t>
+  </si>
+  <si>
+    <t>.property[17].strong:number</t>
+  </si>
+  <si>
+    <t>.property[17].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[17].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[17].speed:number</t>
+  </si>
+  <si>
+    <t>.property[18].health:number</t>
+  </si>
+  <si>
+    <t>.property[18].attack:number</t>
+  </si>
+  <si>
+    <t>.property[18].critical:number</t>
+  </si>
+  <si>
+    <t>.property[18].strong:number</t>
+  </si>
+  <si>
+    <t>.property[18].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[18].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[18].speed:number</t>
+  </si>
+  <si>
+    <t>.property[19].health:number</t>
+  </si>
+  <si>
+    <t>.property[19].attack:number</t>
+  </si>
+  <si>
+    <t>.property[19].critical:number</t>
+  </si>
+  <si>
+    <t>.property[19].strong:number</t>
+  </si>
+  <si>
+    <t>.property[19].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[19].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[19].speed:number</t>
+  </si>
+  <si>
+    <t>.property[20].health:number</t>
+  </si>
+  <si>
+    <t>.property[20].attack:number</t>
+  </si>
+  <si>
+    <t>.property[20].critical:number</t>
+  </si>
+  <si>
+    <t>.property[20].strong:number</t>
+  </si>
+  <si>
+    <t>.property[20].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[20].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[20].speed:number</t>
+  </si>
+  <si>
+    <t>.property[21].health:number</t>
+  </si>
+  <si>
+    <t>.property[21].attack:number</t>
+  </si>
+  <si>
+    <t>.property[21].critical:number</t>
+  </si>
+  <si>
+    <t>.property[21].strong:number</t>
+  </si>
+  <si>
+    <t>.property[21].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[21].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[21].speed:number</t>
+  </si>
+  <si>
+    <t>.property[22].health:number</t>
+  </si>
+  <si>
+    <t>.property[22].attack:number</t>
+  </si>
+  <si>
+    <t>.property[22].critical:number</t>
+  </si>
+  <si>
+    <t>.property[22].strong:number</t>
+  </si>
+  <si>
+    <t>.property[22].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[22].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[22].speed:number</t>
+  </si>
+  <si>
+    <t>.property[23].health:number</t>
+  </si>
+  <si>
+    <t>.property[23].attack:number</t>
+  </si>
+  <si>
+    <t>.property[23].critical:number</t>
+  </si>
+  <si>
+    <t>.property[23].strong:number</t>
+  </si>
+  <si>
+    <t>.property[23].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[23].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[23].speed:number</t>
+  </si>
+  <si>
+    <t>.property[24].health:number</t>
+  </si>
+  <si>
+    <t>.property[24].attack:number</t>
+  </si>
+  <si>
+    <t>.property[24].critical:number</t>
+  </si>
+  <si>
+    <t>.property[24].strong:number</t>
+  </si>
+  <si>
+    <t>.property[24].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[24].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[24].speed:number</t>
+  </si>
+  <si>
+    <t>.property[25].health:number</t>
+  </si>
+  <si>
+    <t>.property[25].attack:number</t>
+  </si>
+  <si>
+    <t>.property[25].critical:number</t>
+  </si>
+  <si>
+    <t>.property[25].strong:number</t>
+  </si>
+  <si>
+    <t>.property[25].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[25].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[25].speed:number</t>
+  </si>
+  <si>
+    <t>.property[26].health:number</t>
+  </si>
+  <si>
+    <t>.property[26].attack:number</t>
+  </si>
+  <si>
+    <t>.property[26].critical:number</t>
+  </si>
+  <si>
+    <t>.property[26].strong:number</t>
+  </si>
+  <si>
+    <t>.property[26].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[26].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[26].speed:number</t>
+  </si>
+  <si>
+    <t>.property[27].health:number</t>
+  </si>
+  <si>
+    <t>.property[27].attack:number</t>
+  </si>
+  <si>
+    <t>.property[27].critical:number</t>
+  </si>
+  <si>
+    <t>.property[27].strong:number</t>
+  </si>
+  <si>
+    <t>.property[27].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[27].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[27].speed:number</t>
+  </si>
+  <si>
+    <t>.property[28].health:number</t>
+  </si>
+  <si>
+    <t>.property[28].attack:number</t>
+  </si>
+  <si>
+    <t>.property[28].critical:number</t>
+  </si>
+  <si>
+    <t>.property[28].strong:number</t>
+  </si>
+  <si>
+    <t>.property[28].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[28].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[28].speed:number</t>
+  </si>
+  <si>
+    <t>.property[29].health:number</t>
+  </si>
+  <si>
+    <t>.property[29].attack:number</t>
+  </si>
+  <si>
+    <t>.property[29].critical:number</t>
+  </si>
+  <si>
+    <t>.property[29].strong:number</t>
+  </si>
+  <si>
+    <t>.property[29].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[29].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[29].speed:number</t>
+  </si>
+  <si>
+    <t>.property[30].health:number</t>
+  </si>
+  <si>
+    <t>.property[30].attack:number</t>
+  </si>
+  <si>
+    <t>.property[30].critical:number</t>
+  </si>
+  <si>
+    <t>.property[30].strong:number</t>
+  </si>
+  <si>
+    <t>.property[30].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[30].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[30].speed:number</t>
+  </si>
+  <si>
+    <t>.property[31].health:number</t>
+  </si>
+  <si>
+    <t>.property[31].attack:number</t>
+  </si>
+  <si>
+    <t>.property[31].critical:number</t>
+  </si>
+  <si>
+    <t>.property[31].strong:number</t>
+  </si>
+  <si>
+    <t>.property[31].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[31].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[31].speed:number</t>
+  </si>
+  <si>
+    <t>.property[32].health:number</t>
+  </si>
+  <si>
+    <t>.property[32].attack:number</t>
+  </si>
+  <si>
+    <t>.property[32].critical:number</t>
+  </si>
+  <si>
+    <t>.property[32].strong:number</t>
+  </si>
+  <si>
+    <t>.property[32].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[32].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[32].speed:number</t>
+  </si>
+  <si>
+    <t>.property[33].health:number</t>
+  </si>
+  <si>
+    <t>.property[33].attack:number</t>
+  </si>
+  <si>
+    <t>.property[33].critical:number</t>
+  </si>
+  <si>
+    <t>.property[33].strong:number</t>
+  </si>
+  <si>
+    <t>.property[33].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[33].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[33].speed:number</t>
+  </si>
+  <si>
+    <t>.property[34].health:number</t>
+  </si>
+  <si>
+    <t>.property[34].attack:number</t>
+  </si>
+  <si>
+    <t>.property[34].critical:number</t>
+  </si>
+  <si>
+    <t>.property[34].strong:number</t>
+  </si>
+  <si>
+    <t>.property[34].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[34].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[34].speed:number</t>
+  </si>
+  <si>
+    <t>.property[35].health:number</t>
+  </si>
+  <si>
+    <t>.property[35].attack:number</t>
+  </si>
+  <si>
+    <t>.property[35].critical:number</t>
+  </si>
+  <si>
+    <t>.property[35].strong:number</t>
+  </si>
+  <si>
+    <t>.property[35].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[35].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[35].speed:number</t>
+  </si>
+  <si>
+    <t>.property[36].health:number</t>
+  </si>
+  <si>
+    <t>.property[36].attack:number</t>
+  </si>
+  <si>
+    <t>.property[36].critical:number</t>
+  </si>
+  <si>
+    <t>.property[36].strong:number</t>
+  </si>
+  <si>
+    <t>.property[36].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[36].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[36].speed:number</t>
+  </si>
+  <si>
+    <t>.property[37].health:number</t>
+  </si>
+  <si>
+    <t>.property[37].attack:number</t>
+  </si>
+  <si>
+    <t>.property[37].critical:number</t>
+  </si>
+  <si>
+    <t>.property[37].strong:number</t>
+  </si>
+  <si>
+    <t>.property[37].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[37].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[37].speed:number</t>
+  </si>
+  <si>
+    <t>.property[38].health:number</t>
+  </si>
+  <si>
+    <t>.property[38].attack:number</t>
+  </si>
+  <si>
+    <t>.property[38].critical:number</t>
+  </si>
+  <si>
+    <t>.property[38].strong:number</t>
+  </si>
+  <si>
+    <t>.property[38].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[38].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[38].speed:number</t>
+  </si>
+  <si>
+    <t>.property[39].health:number</t>
+  </si>
+  <si>
+    <t>.property[39].attack:number</t>
+  </si>
+  <si>
+    <t>.property[39].critical:number</t>
+  </si>
+  <si>
+    <t>.property[39].strong:number</t>
+  </si>
+  <si>
+    <t>.property[39].accuracy:number</t>
+  </si>
+  <si>
+    <t>.property[39].reactivity:number</t>
+  </si>
+  <si>
+    <t>.property[39].speed:number</t>
+  </si>
+  <si>
     <t>.property[0].attack:number</t>
   </si>
   <si>
-    <t>.property[0].critical:number</t>
-  </si>
-  <si>
-    <t>.property[0].strong:number</t>
-  </si>
-  <si>
-    <t>.property[0].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[0].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[0].speed:number</t>
-  </si>
-  <si>
-    <t>.property[1].health:number</t>
-  </si>
-  <si>
     <t>.property[1].attack:number</t>
   </si>
   <si>
-    <t>.property[1].critical:number</t>
-  </si>
-  <si>
-    <t>.property[1].strong:number</t>
-  </si>
-  <si>
-    <t>.property[1].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[1].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[1].speed:number</t>
-  </si>
-  <si>
-    <t>.property[2].health:number</t>
-  </si>
-  <si>
     <t>.property[2].attack:number</t>
-  </si>
-  <si>
-    <t>.property[2].critical:number</t>
-  </si>
-  <si>
-    <t>.property[2].strong:number</t>
-  </si>
-  <si>
-    <t>.property[2].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[2].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[2].speed:number</t>
-  </si>
-  <si>
-    <t>.property[3].health:number</t>
-  </si>
-  <si>
-    <t>.property[3].attack:number</t>
-  </si>
-  <si>
-    <t>.property[3].critical:number</t>
-  </si>
-  <si>
-    <t>.property[3].strong:number</t>
-  </si>
-  <si>
-    <t>.property[3].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[3].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[3].speed:number</t>
-  </si>
-  <si>
-    <t>.property[4].health:number</t>
-  </si>
-  <si>
-    <t>.property[4].attack:number</t>
-  </si>
-  <si>
-    <t>.property[4].critical:number</t>
-  </si>
-  <si>
-    <t>.property[4].strong:number</t>
-  </si>
-  <si>
-    <t>.property[4].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[4].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[4].speed:number</t>
-  </si>
-  <si>
-    <t>.property[5].health:number</t>
-  </si>
-  <si>
-    <t>.property[5].attack:number</t>
-  </si>
-  <si>
-    <t>.property[5].critical:number</t>
-  </si>
-  <si>
-    <t>.property[5].strong:number</t>
-  </si>
-  <si>
-    <t>.property[5].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[5].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[5].speed:number</t>
-  </si>
-  <si>
-    <t>.property[6].health:number</t>
-  </si>
-  <si>
-    <t>.property[6].attack:number</t>
-  </si>
-  <si>
-    <t>.property[6].critical:number</t>
-  </si>
-  <si>
-    <t>.property[6].strong:number</t>
-  </si>
-  <si>
-    <t>.property[6].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[6].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[6].speed:number</t>
-  </si>
-  <si>
-    <t>.property[7].health:number</t>
-  </si>
-  <si>
-    <t>.property[7].attack:number</t>
-  </si>
-  <si>
-    <t>.property[7].critical:number</t>
-  </si>
-  <si>
-    <t>.property[7].strong:number</t>
-  </si>
-  <si>
-    <t>.property[7].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[7].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[7].speed:number</t>
-  </si>
-  <si>
-    <t>.property[8].health:number</t>
-  </si>
-  <si>
-    <t>.property[8].attack:number</t>
-  </si>
-  <si>
-    <t>.property[8].critical:number</t>
-  </si>
-  <si>
-    <t>.property[8].strong:number</t>
-  </si>
-  <si>
-    <t>.property[8].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[8].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[8].speed:number</t>
-  </si>
-  <si>
-    <t>.property[9].health:number</t>
-  </si>
-  <si>
-    <t>.property[9].attack:number</t>
-  </si>
-  <si>
-    <t>.property[9].critical:number</t>
-  </si>
-  <si>
-    <t>.property[9].strong:number</t>
-  </si>
-  <si>
-    <t>.property[9].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[9].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[9].speed:number</t>
-  </si>
-  <si>
-    <t>.property[10].health:number</t>
-  </si>
-  <si>
-    <t>.property[10].attack:number</t>
-  </si>
-  <si>
-    <t>.property[10].critical:number</t>
-  </si>
-  <si>
-    <t>.property[10].strong:number</t>
-  </si>
-  <si>
-    <t>.property[10].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[10].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[10].speed:number</t>
-  </si>
-  <si>
-    <t>.property[11].health:number</t>
-  </si>
-  <si>
-    <t>.property[11].attack:number</t>
-  </si>
-  <si>
-    <t>.property[11].critical:number</t>
-  </si>
-  <si>
-    <t>.property[11].strong:number</t>
-  </si>
-  <si>
-    <t>.property[11].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[11].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[11].speed:number</t>
-  </si>
-  <si>
-    <t>.property[12].health:number</t>
-  </si>
-  <si>
-    <t>.property[12].attack:number</t>
-  </si>
-  <si>
-    <t>.property[12].critical:number</t>
-  </si>
-  <si>
-    <t>.property[12].strong:number</t>
-  </si>
-  <si>
-    <t>.property[12].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[12].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[12].speed:number</t>
-  </si>
-  <si>
-    <t>.property[13].health:number</t>
-  </si>
-  <si>
-    <t>.property[13].attack:number</t>
-  </si>
-  <si>
-    <t>.property[13].critical:number</t>
-  </si>
-  <si>
-    <t>.property[13].strong:number</t>
-  </si>
-  <si>
-    <t>.property[13].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[13].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[13].speed:number</t>
-  </si>
-  <si>
-    <t>.property[14].health:number</t>
-  </si>
-  <si>
-    <t>.property[14].attack:number</t>
-  </si>
-  <si>
-    <t>.property[14].critical:number</t>
-  </si>
-  <si>
-    <t>.property[14].strong:number</t>
-  </si>
-  <si>
-    <t>.property[14].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[14].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[14].speed:number</t>
-  </si>
-  <si>
-    <t>.property[15].health:number</t>
-  </si>
-  <si>
-    <t>.property[15].attack:number</t>
-  </si>
-  <si>
-    <t>.property[15].critical:number</t>
-  </si>
-  <si>
-    <t>.property[15].strong:number</t>
-  </si>
-  <si>
-    <t>.property[15].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[15].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[15].speed:number</t>
-  </si>
-  <si>
-    <t>.property[16].health:number</t>
-  </si>
-  <si>
-    <t>.property[16].attack:number</t>
-  </si>
-  <si>
-    <t>.property[16].critical:number</t>
-  </si>
-  <si>
-    <t>.property[16].strong:number</t>
-  </si>
-  <si>
-    <t>.property[16].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[16].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[16].speed:number</t>
-  </si>
-  <si>
-    <t>.property[17].health:number</t>
-  </si>
-  <si>
-    <t>.property[17].attack:number</t>
-  </si>
-  <si>
-    <t>.property[17].critical:number</t>
-  </si>
-  <si>
-    <t>.property[17].strong:number</t>
-  </si>
-  <si>
-    <t>.property[17].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[17].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[17].speed:number</t>
-  </si>
-  <si>
-    <t>.property[18].health:number</t>
-  </si>
-  <si>
-    <t>.property[18].attack:number</t>
-  </si>
-  <si>
-    <t>.property[18].critical:number</t>
-  </si>
-  <si>
-    <t>.property[18].strong:number</t>
-  </si>
-  <si>
-    <t>.property[18].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[18].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[18].speed:number</t>
-  </si>
-  <si>
-    <t>.property[19].health:number</t>
-  </si>
-  <si>
-    <t>.property[19].attack:number</t>
-  </si>
-  <si>
-    <t>.property[19].critical:number</t>
-  </si>
-  <si>
-    <t>.property[19].strong:number</t>
-  </si>
-  <si>
-    <t>.property[19].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[19].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[19].speed:number</t>
-  </si>
-  <si>
-    <t>.property[20].health:number</t>
-  </si>
-  <si>
-    <t>.property[20].attack:number</t>
-  </si>
-  <si>
-    <t>.property[20].critical:number</t>
-  </si>
-  <si>
-    <t>.property[20].strong:number</t>
-  </si>
-  <si>
-    <t>.property[20].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[20].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[20].speed:number</t>
-  </si>
-  <si>
-    <t>.property[21].health:number</t>
-  </si>
-  <si>
-    <t>.property[21].attack:number</t>
-  </si>
-  <si>
-    <t>.property[21].critical:number</t>
-  </si>
-  <si>
-    <t>.property[21].strong:number</t>
-  </si>
-  <si>
-    <t>.property[21].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[21].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[21].speed:number</t>
-  </si>
-  <si>
-    <t>.property[22].health:number</t>
-  </si>
-  <si>
-    <t>.property[22].attack:number</t>
-  </si>
-  <si>
-    <t>.property[22].critical:number</t>
-  </si>
-  <si>
-    <t>.property[22].strong:number</t>
-  </si>
-  <si>
-    <t>.property[22].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[22].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[22].speed:number</t>
-  </si>
-  <si>
-    <t>.property[23].health:number</t>
-  </si>
-  <si>
-    <t>.property[23].attack:number</t>
-  </si>
-  <si>
-    <t>.property[23].critical:number</t>
-  </si>
-  <si>
-    <t>.property[23].strong:number</t>
-  </si>
-  <si>
-    <t>.property[23].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[23].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[23].speed:number</t>
-  </si>
-  <si>
-    <t>.property[24].health:number</t>
-  </si>
-  <si>
-    <t>.property[24].attack:number</t>
-  </si>
-  <si>
-    <t>.property[24].critical:number</t>
-  </si>
-  <si>
-    <t>.property[24].strong:number</t>
-  </si>
-  <si>
-    <t>.property[24].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[24].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[24].speed:number</t>
-  </si>
-  <si>
-    <t>.property[25].health:number</t>
-  </si>
-  <si>
-    <t>.property[25].attack:number</t>
-  </si>
-  <si>
-    <t>.property[25].critical:number</t>
-  </si>
-  <si>
-    <t>.property[25].strong:number</t>
-  </si>
-  <si>
-    <t>.property[25].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[25].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[25].speed:number</t>
-  </si>
-  <si>
-    <t>.property[26].health:number</t>
-  </si>
-  <si>
-    <t>.property[26].attack:number</t>
-  </si>
-  <si>
-    <t>.property[26].critical:number</t>
-  </si>
-  <si>
-    <t>.property[26].strong:number</t>
-  </si>
-  <si>
-    <t>.property[26].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[26].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[26].speed:number</t>
-  </si>
-  <si>
-    <t>.property[27].health:number</t>
-  </si>
-  <si>
-    <t>.property[27].attack:number</t>
-  </si>
-  <si>
-    <t>.property[27].critical:number</t>
-  </si>
-  <si>
-    <t>.property[27].strong:number</t>
-  </si>
-  <si>
-    <t>.property[27].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[27].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[27].speed:number</t>
-  </si>
-  <si>
-    <t>.property[28].health:number</t>
-  </si>
-  <si>
-    <t>.property[28].attack:number</t>
-  </si>
-  <si>
-    <t>.property[28].critical:number</t>
-  </si>
-  <si>
-    <t>.property[28].strong:number</t>
-  </si>
-  <si>
-    <t>.property[28].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[28].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[28].speed:number</t>
-  </si>
-  <si>
-    <t>.property[29].health:number</t>
-  </si>
-  <si>
-    <t>.property[29].attack:number</t>
-  </si>
-  <si>
-    <t>.property[29].critical:number</t>
-  </si>
-  <si>
-    <t>.property[29].strong:number</t>
-  </si>
-  <si>
-    <t>.property[29].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[29].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[29].speed:number</t>
-  </si>
-  <si>
-    <t>.property[30].health:number</t>
-  </si>
-  <si>
-    <t>.property[30].attack:number</t>
-  </si>
-  <si>
-    <t>.property[30].critical:number</t>
-  </si>
-  <si>
-    <t>.property[30].strong:number</t>
-  </si>
-  <si>
-    <t>.property[30].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[30].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[30].speed:number</t>
-  </si>
-  <si>
-    <t>.property[31].health:number</t>
-  </si>
-  <si>
-    <t>.property[31].attack:number</t>
-  </si>
-  <si>
-    <t>.property[31].critical:number</t>
-  </si>
-  <si>
-    <t>.property[31].strong:number</t>
-  </si>
-  <si>
-    <t>.property[31].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[31].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[31].speed:number</t>
-  </si>
-  <si>
-    <t>.property[32].health:number</t>
-  </si>
-  <si>
-    <t>.property[32].attack:number</t>
-  </si>
-  <si>
-    <t>.property[32].critical:number</t>
-  </si>
-  <si>
-    <t>.property[32].strong:number</t>
-  </si>
-  <si>
-    <t>.property[32].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[32].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[32].speed:number</t>
-  </si>
-  <si>
-    <t>.property[33].health:number</t>
-  </si>
-  <si>
-    <t>.property[33].attack:number</t>
-  </si>
-  <si>
-    <t>.property[33].critical:number</t>
-  </si>
-  <si>
-    <t>.property[33].strong:number</t>
-  </si>
-  <si>
-    <t>.property[33].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[33].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[33].speed:number</t>
-  </si>
-  <si>
-    <t>.property[34].health:number</t>
-  </si>
-  <si>
-    <t>.property[34].attack:number</t>
-  </si>
-  <si>
-    <t>.property[34].critical:number</t>
-  </si>
-  <si>
-    <t>.property[34].strong:number</t>
-  </si>
-  <si>
-    <t>.property[34].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[34].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[34].speed:number</t>
-  </si>
-  <si>
-    <t>.property[35].health:number</t>
-  </si>
-  <si>
-    <t>.property[35].attack:number</t>
-  </si>
-  <si>
-    <t>.property[35].critical:number</t>
-  </si>
-  <si>
-    <t>.property[35].strong:number</t>
-  </si>
-  <si>
-    <t>.property[35].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[35].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[35].speed:number</t>
-  </si>
-  <si>
-    <t>.property[36].health:number</t>
-  </si>
-  <si>
-    <t>.property[36].attack:number</t>
-  </si>
-  <si>
-    <t>.property[36].critical:number</t>
-  </si>
-  <si>
-    <t>.property[36].strong:number</t>
-  </si>
-  <si>
-    <t>.property[36].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[36].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[36].speed:number</t>
-  </si>
-  <si>
-    <t>.property[37].health:number</t>
-  </si>
-  <si>
-    <t>.property[37].attack:number</t>
-  </si>
-  <si>
-    <t>.property[37].critical:number</t>
-  </si>
-  <si>
-    <t>.property[37].strong:number</t>
-  </si>
-  <si>
-    <t>.property[37].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[37].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[37].speed:number</t>
-  </si>
-  <si>
-    <t>.property[38].health:number</t>
-  </si>
-  <si>
-    <t>.property[38].attack:number</t>
-  </si>
-  <si>
-    <t>.property[38].critical:number</t>
-  </si>
-  <si>
-    <t>.property[38].strong:number</t>
-  </si>
-  <si>
-    <t>.property[38].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[38].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[38].speed:number</t>
-  </si>
-  <si>
-    <t>.property[39].health:number</t>
-  </si>
-  <si>
-    <t>.property[39].attack:number</t>
-  </si>
-  <si>
-    <t>.property[39].critical:number</t>
-  </si>
-  <si>
-    <t>.property[39].strong:number</t>
-  </si>
-  <si>
-    <t>.property[39].accuracy:number</t>
-  </si>
-  <si>
-    <t>.property[39].reactivity:number</t>
-  </si>
-  <si>
-    <t>.property[39].speed:number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color rgb="000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1028,15 +1009,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf xfId="0" fillId="0" borderId="0" fontId="0" numFmtId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,7 +1027,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1094,10 +1072,10 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1129,10 +1107,10 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="MS P????"/>
+        <a:font script="Hang" typeface="?? ??"/>
+        <a:font script="Hans" typeface="??"/>
+        <a:font script="Hant" typeface="????"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -1335,15 +1313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:LJ5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KL1" workbookViewId="0">
-      <selection activeCell="AQ3" sqref="AQ3:LJ5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2306,20 +2282,8 @@
       <c r="LF2" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="LG2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="LH2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="LI2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="LJ2" s="1" t="s">
-        <v>323</v>
-      </c>
     </row>
-    <row r="3" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>0</v>
@@ -2444,834 +2408,830 @@
       <c r="AP3" s="1">
         <v>16</v>
       </c>
-      <c r="AQ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2">
+      <c r="AQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="1">
         <v>1</v>
       </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2">
+      <c r="AS3" s="1">
         <v>1</v>
       </c>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2">
+      <c r="AT3" s="1">
         <v>1</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AU3" s="1">
         <v>3</v>
       </c>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2">
+      <c r="AV3" s="1">
         <v>1</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="AW3" s="1">
         <v>1</v>
       </c>
-      <c r="BB3" s="2">
+      <c r="AX3" s="1">
         <v>1</v>
       </c>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2">
+      <c r="AY3" s="1">
         <v>1</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="AZ3" s="1">
         <v>5</v>
       </c>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2">
+      <c r="BA3" s="1">
         <v>1</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BB3" s="1">
         <v>1</v>
       </c>
-      <c r="BI3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="2">
+      <c r="BC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="1">
         <v>5</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="BF3" s="1">
         <v>1</v>
       </c>
-      <c r="BN3" s="2">
+      <c r="BG3" s="1">
         <v>1</v>
       </c>
-      <c r="BO3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="2">
+      <c r="BH3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="1">
         <v>1</v>
       </c>
-      <c r="BR3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="2">
+      <c r="BK3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="1">
         <v>7</v>
       </c>
-      <c r="BT3" s="2">
+      <c r="BM3" s="1">
         <v>1</v>
       </c>
-      <c r="BU3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="2">
+      <c r="BN3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="1">
         <v>3</v>
       </c>
-      <c r="BX3" s="2">
+      <c r="BQ3" s="1">
         <v>1</v>
       </c>
-      <c r="BY3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="2">
+      <c r="BR3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="1">
         <v>8</v>
       </c>
-      <c r="CA3" s="2">
+      <c r="BT3" s="1">
         <v>1</v>
       </c>
-      <c r="CB3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="2">
+      <c r="BU3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="1">
         <v>3</v>
       </c>
-      <c r="CE3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG3" s="2">
+      <c r="BX3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="1">
         <v>12</v>
       </c>
-      <c r="CH3" s="2">
+      <c r="CA3" s="1">
         <v>1</v>
       </c>
-      <c r="CI3" s="2">
+      <c r="CB3" s="1">
         <v>3</v>
       </c>
-      <c r="CJ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK3" s="2">
+      <c r="CC3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD3" s="1">
         <v>3</v>
       </c>
-      <c r="CL3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="2">
+      <c r="CE3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="1">
         <v>3</v>
       </c>
-      <c r="CN3" s="2">
+      <c r="CG3" s="1">
         <v>17</v>
       </c>
-      <c r="CO3" s="2">
+      <c r="CH3" s="1">
         <v>1</v>
       </c>
-      <c r="CP3" s="2">
+      <c r="CI3" s="1">
         <v>3</v>
       </c>
-      <c r="CQ3" s="2">
+      <c r="CJ3" s="1">
         <v>3</v>
       </c>
-      <c r="CR3" s="2">
+      <c r="CK3" s="1">
         <v>3</v>
       </c>
-      <c r="CS3" s="2">
+      <c r="CL3" s="1">
         <v>3</v>
       </c>
-      <c r="CT3" s="2">
+      <c r="CM3" s="1">
         <v>3</v>
       </c>
-      <c r="CU3" s="2">
+      <c r="CN3" s="1">
         <v>23</v>
       </c>
-      <c r="CV3" s="2">
-        <v>2</v>
-      </c>
-      <c r="CW3" s="2">
+      <c r="CO3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP3" s="1">
         <v>5</v>
       </c>
-      <c r="CX3" s="2">
+      <c r="CQ3" s="1">
         <v>3</v>
       </c>
-      <c r="CY3" s="2">
+      <c r="CR3" s="1">
         <v>5</v>
       </c>
-      <c r="CZ3" s="2">
+      <c r="CS3" s="1">
         <v>3</v>
       </c>
-      <c r="DA3" s="2">
+      <c r="CT3" s="1">
         <v>5</v>
       </c>
-      <c r="DB3" s="2">
+      <c r="CU3" s="1">
         <v>35</v>
       </c>
-      <c r="DC3" s="2">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="2">
+      <c r="CV3" s="1">
+        <v>2</v>
+      </c>
+      <c r="CW3" s="1">
         <v>5</v>
       </c>
-      <c r="DE3" s="2">
+      <c r="CX3" s="1">
         <v>5</v>
       </c>
-      <c r="DF3" s="2">
+      <c r="CY3" s="1">
         <v>5</v>
       </c>
-      <c r="DG3" s="2">
+      <c r="CZ3" s="1">
         <v>5</v>
       </c>
-      <c r="DH3" s="2">
+      <c r="DA3" s="1">
         <v>5</v>
       </c>
-      <c r="DI3" s="2">
+      <c r="DB3" s="1">
         <v>41</v>
       </c>
-      <c r="DJ3" s="2">
+      <c r="DC3" s="1">
         <v>3</v>
       </c>
-      <c r="DK3" s="2">
+      <c r="DD3" s="1">
         <v>7</v>
       </c>
-      <c r="DL3" s="2">
+      <c r="DE3" s="1">
         <v>5</v>
       </c>
-      <c r="DM3" s="2">
+      <c r="DF3" s="1">
         <v>7</v>
       </c>
-      <c r="DN3" s="2">
+      <c r="DG3" s="1">
         <v>5</v>
       </c>
-      <c r="DO3" s="2">
+      <c r="DH3" s="1">
         <v>7</v>
       </c>
-      <c r="DP3" s="2">
+      <c r="DI3" s="1">
         <v>53</v>
       </c>
-      <c r="DQ3" s="2">
+      <c r="DJ3" s="1">
         <v>3</v>
       </c>
-      <c r="DR3" s="2">
+      <c r="DK3" s="1">
         <v>7</v>
       </c>
-      <c r="DS3" s="2">
+      <c r="DL3" s="1">
         <v>7</v>
       </c>
-      <c r="DT3" s="2">
+      <c r="DM3" s="1">
         <v>7</v>
       </c>
-      <c r="DU3" s="2">
+      <c r="DN3" s="1">
         <v>7</v>
       </c>
-      <c r="DV3" s="2">
+      <c r="DO3" s="1">
         <v>9</v>
       </c>
-      <c r="DW3" s="2">
+      <c r="DP3" s="1">
         <v>59</v>
       </c>
-      <c r="DX3" s="2">
+      <c r="DQ3" s="1">
         <v>4</v>
       </c>
-      <c r="DY3" s="2">
+      <c r="DR3" s="1">
         <v>9</v>
       </c>
-      <c r="DZ3" s="2">
+      <c r="DS3" s="1">
         <v>7</v>
       </c>
-      <c r="EA3" s="2">
+      <c r="DT3" s="1">
         <v>9</v>
       </c>
-      <c r="EB3" s="2">
+      <c r="DU3" s="1">
         <v>9</v>
       </c>
-      <c r="EC3" s="2">
+      <c r="DV3" s="1">
         <v>11</v>
       </c>
-      <c r="ED3" s="2">
+      <c r="DW3" s="1">
         <v>71</v>
       </c>
-      <c r="EE3" s="2">
+      <c r="DX3" s="1">
         <v>4</v>
       </c>
-      <c r="EF3" s="2">
+      <c r="DY3" s="1">
         <v>9</v>
       </c>
-      <c r="EG3" s="2">
+      <c r="DZ3" s="1">
         <v>9</v>
       </c>
-      <c r="EH3" s="2">
+      <c r="EA3" s="1">
         <v>11</v>
       </c>
-      <c r="EI3" s="2">
+      <c r="EB3" s="1">
         <v>11</v>
       </c>
-      <c r="EJ3" s="2">
+      <c r="EC3" s="1">
         <v>11</v>
       </c>
-      <c r="EK3" s="2">
+      <c r="ED3" s="1">
         <v>77</v>
       </c>
-      <c r="EL3" s="2">
+      <c r="EE3" s="1">
         <v>5</v>
       </c>
-      <c r="EM3" s="2">
+      <c r="EF3" s="1">
         <v>11</v>
       </c>
-      <c r="EN3" s="2">
+      <c r="EG3" s="1">
         <v>11</v>
       </c>
-      <c r="EO3" s="2">
+      <c r="EH3" s="1">
         <v>13</v>
       </c>
-      <c r="EP3" s="2">
+      <c r="EI3" s="1">
         <v>11</v>
       </c>
-      <c r="EQ3" s="2">
+      <c r="EJ3" s="1">
         <v>13</v>
       </c>
-      <c r="ER3" s="2">
+      <c r="EK3" s="1">
         <v>89</v>
       </c>
-      <c r="ES3" s="2">
+      <c r="EL3" s="1">
         <v>5</v>
       </c>
-      <c r="ET3" s="2">
+      <c r="EM3" s="1">
         <v>13</v>
       </c>
-      <c r="EU3" s="2">
+      <c r="EN3" s="1">
         <v>13</v>
       </c>
-      <c r="EV3" s="2">
+      <c r="EO3" s="1">
         <v>13</v>
       </c>
-      <c r="EW3" s="2">
+      <c r="EP3" s="1">
         <v>13</v>
       </c>
-      <c r="EX3" s="2">
+      <c r="EQ3" s="1">
         <v>13</v>
       </c>
-      <c r="EY3" s="2">
+      <c r="ER3" s="1">
         <v>97</v>
       </c>
-      <c r="EZ3" s="2">
+      <c r="ES3" s="1">
         <v>6</v>
       </c>
-      <c r="FA3" s="2">
+      <c r="ET3" s="1">
         <v>16</v>
       </c>
-      <c r="FB3" s="2">
+      <c r="EU3" s="1">
         <v>14</v>
       </c>
-      <c r="FC3" s="2">
+      <c r="EV3" s="1">
         <v>16</v>
       </c>
-      <c r="FD3" s="2">
+      <c r="EW3" s="1">
         <v>14</v>
       </c>
-      <c r="FE3" s="2">
+      <c r="EX3" s="1">
         <v>16</v>
       </c>
-      <c r="FF3" s="2">
+      <c r="EY3" s="1">
         <v>111</v>
       </c>
-      <c r="FG3" s="2">
+      <c r="EZ3" s="1">
         <v>7</v>
       </c>
-      <c r="FH3" s="2">
+      <c r="FA3" s="1">
         <v>17</v>
       </c>
-      <c r="FI3" s="2">
+      <c r="FB3" s="1">
         <v>17</v>
       </c>
-      <c r="FJ3" s="2">
+      <c r="FC3" s="1">
         <v>17</v>
       </c>
-      <c r="FK3" s="2">
+      <c r="FD3" s="1">
         <v>17</v>
       </c>
-      <c r="FL3" s="2">
+      <c r="FE3" s="1">
         <v>17</v>
       </c>
-      <c r="FM3" s="2">
+      <c r="FF3" s="1">
         <v>119</v>
       </c>
-      <c r="FN3" s="2">
+      <c r="FG3" s="1">
         <v>8</v>
       </c>
-      <c r="FO3" s="2">
+      <c r="FH3" s="1">
         <v>20</v>
       </c>
-      <c r="FP3" s="2">
+      <c r="FI3" s="1">
         <v>18</v>
       </c>
-      <c r="FQ3" s="2">
+      <c r="FJ3" s="1">
         <v>20</v>
       </c>
-      <c r="FR3" s="2">
+      <c r="FK3" s="1">
         <v>18</v>
       </c>
-      <c r="FS3" s="2">
+      <c r="FL3" s="1">
         <v>20</v>
       </c>
-      <c r="FT3" s="2">
+      <c r="FM3" s="1">
         <v>133</v>
       </c>
-      <c r="FU3" s="2">
+      <c r="FN3" s="1">
         <v>9</v>
       </c>
-      <c r="FV3" s="2">
+      <c r="FO3" s="1">
         <v>21</v>
       </c>
-      <c r="FW3" s="2">
+      <c r="FP3" s="1">
         <v>21</v>
       </c>
-      <c r="FX3" s="2">
+      <c r="FQ3" s="1">
         <v>21</v>
       </c>
-      <c r="FY3" s="2">
+      <c r="FR3" s="1">
         <v>21</v>
       </c>
-      <c r="FZ3" s="2">
+      <c r="FS3" s="1">
         <v>21</v>
       </c>
-      <c r="GA3" s="2">
+      <c r="FT3" s="1">
         <v>141</v>
       </c>
-      <c r="GB3" s="2">
+      <c r="FU3" s="1">
         <v>10</v>
       </c>
-      <c r="GC3" s="2">
+      <c r="FV3" s="1">
         <v>24</v>
       </c>
-      <c r="GD3" s="2">
+      <c r="FW3" s="1">
         <v>22</v>
       </c>
-      <c r="GE3" s="2">
+      <c r="FX3" s="1">
         <v>24</v>
       </c>
-      <c r="GF3" s="2">
+      <c r="FY3" s="1">
         <v>22</v>
       </c>
-      <c r="GG3" s="2">
+      <c r="FZ3" s="1">
         <v>24</v>
       </c>
-      <c r="GH3" s="2">
+      <c r="GA3" s="1">
         <v>155</v>
       </c>
-      <c r="GI3" s="2">
+      <c r="GB3" s="1">
         <v>11</v>
       </c>
-      <c r="GJ3" s="2">
+      <c r="GC3" s="1">
         <v>25</v>
       </c>
-      <c r="GK3" s="2">
+      <c r="GD3" s="1">
         <v>25</v>
       </c>
-      <c r="GL3" s="2">
+      <c r="GE3" s="1">
         <v>25</v>
       </c>
-      <c r="GM3" s="2">
+      <c r="GF3" s="1">
         <v>25</v>
       </c>
-      <c r="GN3" s="2">
+      <c r="GG3" s="1">
         <v>25</v>
       </c>
-      <c r="GO3" s="2">
+      <c r="GH3" s="1">
         <v>163</v>
       </c>
-      <c r="GP3" s="2">
+      <c r="GI3" s="1">
         <v>12</v>
       </c>
-      <c r="GQ3" s="2">
+      <c r="GJ3" s="1">
         <v>28</v>
       </c>
-      <c r="GR3" s="2">
+      <c r="GK3" s="1">
         <v>26</v>
       </c>
-      <c r="GS3" s="2">
+      <c r="GL3" s="1">
         <v>28</v>
       </c>
-      <c r="GT3" s="2">
+      <c r="GM3" s="1">
         <v>26</v>
       </c>
-      <c r="GU3" s="2">
+      <c r="GN3" s="1">
         <v>28</v>
       </c>
-      <c r="GV3" s="2">
+      <c r="GO3" s="1">
         <v>177</v>
       </c>
-      <c r="GW3" s="2">
+      <c r="GP3" s="1">
         <v>13</v>
       </c>
-      <c r="GX3" s="2">
+      <c r="GQ3" s="1">
         <v>29</v>
       </c>
-      <c r="GY3" s="2">
+      <c r="GR3" s="1">
         <v>29</v>
       </c>
-      <c r="GZ3" s="2">
+      <c r="GS3" s="1">
         <v>29</v>
       </c>
-      <c r="HA3" s="2">
+      <c r="GT3" s="1">
         <v>29</v>
       </c>
-      <c r="HB3" s="2">
+      <c r="GU3" s="1">
         <v>29</v>
       </c>
-      <c r="HC3" s="2">
+      <c r="GV3" s="1">
         <v>195</v>
       </c>
-      <c r="HD3" s="2">
+      <c r="GW3" s="1">
         <v>14</v>
       </c>
-      <c r="HE3" s="2">
+      <c r="GX3" s="1">
         <v>33</v>
       </c>
-      <c r="HF3" s="2">
+      <c r="GY3" s="1">
         <v>30</v>
       </c>
-      <c r="HG3" s="2">
+      <c r="GZ3" s="1">
         <v>33</v>
       </c>
-      <c r="HH3" s="2">
+      <c r="HA3" s="1">
         <v>31</v>
       </c>
-      <c r="HI3" s="2">
+      <c r="HB3" s="1">
         <v>33</v>
       </c>
-      <c r="HJ3" s="2">
+      <c r="HC3" s="1">
         <v>209</v>
       </c>
-      <c r="HK3" s="2">
+      <c r="HD3" s="1">
         <v>15</v>
       </c>
-      <c r="HL3" s="2">
+      <c r="HE3" s="1">
         <v>34</v>
       </c>
-      <c r="HM3" s="2">
+      <c r="HF3" s="1">
         <v>34</v>
       </c>
-      <c r="HN3" s="2">
+      <c r="HG3" s="1">
         <v>34</v>
       </c>
-      <c r="HO3" s="2">
+      <c r="HH3" s="1">
         <v>35</v>
       </c>
-      <c r="HP3" s="2">
+      <c r="HI3" s="1">
         <v>34</v>
       </c>
-      <c r="HQ3" s="2">
+      <c r="HJ3" s="1">
         <v>227</v>
       </c>
-      <c r="HR3" s="2">
+      <c r="HK3" s="1">
         <v>16</v>
       </c>
-      <c r="HS3" s="2">
+      <c r="HL3" s="1">
         <v>38</v>
       </c>
-      <c r="HT3" s="2">
+      <c r="HM3" s="1">
         <v>35</v>
       </c>
-      <c r="HU3" s="2">
+      <c r="HN3" s="1">
         <v>38</v>
       </c>
-      <c r="HV3" s="2">
+      <c r="HO3" s="1">
         <v>36</v>
       </c>
-      <c r="HW3" s="2">
+      <c r="HP3" s="1">
         <v>38</v>
       </c>
-      <c r="HX3" s="2">
+      <c r="HQ3" s="1">
         <v>241</v>
       </c>
-      <c r="HY3" s="2">
+      <c r="HR3" s="1">
         <v>17</v>
       </c>
-      <c r="HZ3" s="2">
+      <c r="HS3" s="1">
         <v>40</v>
       </c>
-      <c r="IA3" s="2">
+      <c r="HT3" s="1">
         <v>39</v>
       </c>
-      <c r="IB3" s="2">
+      <c r="HU3" s="1">
         <v>40</v>
       </c>
-      <c r="IC3" s="2">
+      <c r="HV3" s="1">
         <v>40</v>
       </c>
-      <c r="ID3" s="2">
+      <c r="HW3" s="1">
         <v>40</v>
       </c>
-      <c r="IE3" s="2">
+      <c r="HX3" s="1">
         <v>253</v>
       </c>
-      <c r="IF3" s="2">
+      <c r="HY3" s="1">
         <v>19</v>
       </c>
-      <c r="IG3" s="2">
+      <c r="HZ3" s="1">
         <v>44</v>
       </c>
-      <c r="IH3" s="2">
+      <c r="IA3" s="1">
         <v>41</v>
       </c>
-      <c r="II3" s="2">
+      <c r="IB3" s="1">
         <v>44</v>
       </c>
-      <c r="IJ3" s="2">
+      <c r="IC3" s="1">
         <v>41</v>
       </c>
-      <c r="IK3" s="2">
+      <c r="ID3" s="1">
         <v>44</v>
       </c>
-      <c r="IL3" s="2">
+      <c r="IE3" s="1">
         <v>267</v>
       </c>
-      <c r="IM3" s="2">
+      <c r="IF3" s="1">
         <v>20</v>
       </c>
-      <c r="IN3" s="2">
+      <c r="IG3" s="1">
         <v>45</v>
       </c>
-      <c r="IO3" s="2">
+      <c r="IH3" s="1">
         <v>45</v>
       </c>
-      <c r="IP3" s="2">
+      <c r="II3" s="1">
         <v>46</v>
       </c>
-      <c r="IQ3" s="2">
+      <c r="IJ3" s="1">
         <v>45</v>
       </c>
-      <c r="IR3" s="2">
+      <c r="IK3" s="1">
         <v>46</v>
       </c>
-      <c r="IS3" s="2">
+      <c r="IL3" s="1">
         <v>279</v>
       </c>
-      <c r="IT3" s="2">
+      <c r="IM3" s="1">
         <v>22</v>
       </c>
-      <c r="IU3" s="2">
+      <c r="IN3" s="1">
         <v>49</v>
       </c>
-      <c r="IV3" s="2">
+      <c r="IO3" s="1">
         <v>47</v>
       </c>
-      <c r="IW3" s="2">
+      <c r="IP3" s="1">
         <v>50</v>
       </c>
-      <c r="IX3" s="2">
+      <c r="IQ3" s="1">
         <v>47</v>
       </c>
-      <c r="IY3" s="2">
+      <c r="IR3" s="1">
         <v>50</v>
       </c>
-      <c r="IZ3" s="2">
+      <c r="IS3" s="1">
         <v>293</v>
       </c>
-      <c r="JA3" s="2">
+      <c r="IT3" s="1">
         <v>23</v>
       </c>
-      <c r="JB3" s="2">
+      <c r="IU3" s="1">
         <v>51</v>
       </c>
-      <c r="JC3" s="2">
+      <c r="IV3" s="1">
         <v>51</v>
       </c>
-      <c r="JD3" s="2">
+      <c r="IW3" s="1">
         <v>51</v>
       </c>
-      <c r="JE3" s="2">
+      <c r="IX3" s="1">
         <v>51</v>
       </c>
-      <c r="JF3" s="2">
+      <c r="IY3" s="1">
         <v>51</v>
       </c>
-      <c r="JG3" s="2">
+      <c r="IZ3" s="1">
         <v>314</v>
       </c>
-      <c r="JH3" s="2">
+      <c r="JA3" s="1">
         <v>25</v>
       </c>
-      <c r="JI3" s="2">
+      <c r="JB3" s="1">
         <v>56</v>
       </c>
-      <c r="JJ3" s="2">
+      <c r="JC3" s="1">
         <v>54</v>
       </c>
-      <c r="JK3" s="2">
+      <c r="JD3" s="1">
         <v>56</v>
       </c>
-      <c r="JL3" s="2">
+      <c r="JE3" s="1">
         <v>54</v>
       </c>
-      <c r="JM3" s="2">
+      <c r="JF3" s="1">
         <v>56</v>
       </c>
-      <c r="JN3" s="2">
+      <c r="JG3" s="1">
         <v>332</v>
       </c>
-      <c r="JO3" s="2">
+      <c r="JH3" s="1">
         <v>26</v>
       </c>
-      <c r="JP3" s="2">
+      <c r="JI3" s="1">
         <v>59</v>
       </c>
-      <c r="JQ3" s="2">
+      <c r="JJ3" s="1">
         <v>59</v>
       </c>
-      <c r="JR3" s="2">
+      <c r="JK3" s="1">
         <v>59</v>
       </c>
-      <c r="JS3" s="2">
+      <c r="JL3" s="1">
         <v>59</v>
       </c>
-      <c r="JT3" s="2">
+      <c r="JM3" s="1">
         <v>59</v>
       </c>
-      <c r="JU3" s="2">
+      <c r="JN3" s="1">
         <v>353</v>
       </c>
-      <c r="JV3" s="2">
+      <c r="JO3" s="1">
         <v>28</v>
       </c>
-      <c r="JW3" s="2">
+      <c r="JP3" s="1">
         <v>64</v>
       </c>
-      <c r="JX3" s="2">
+      <c r="JQ3" s="1">
         <v>62</v>
       </c>
-      <c r="JY3" s="2">
+      <c r="JR3" s="1">
         <v>64</v>
       </c>
-      <c r="JZ3" s="2">
+      <c r="JS3" s="1">
         <v>62</v>
       </c>
-      <c r="KA3" s="2">
+      <c r="JT3" s="1">
         <v>64</v>
       </c>
-      <c r="KB3" s="2">
+      <c r="JU3" s="1">
         <v>371</v>
       </c>
-      <c r="KC3" s="2">
+      <c r="JV3" s="1">
         <v>29</v>
       </c>
-      <c r="KD3" s="2">
+      <c r="JW3" s="1">
         <v>67</v>
       </c>
-      <c r="KE3" s="2">
+      <c r="JX3" s="1">
         <v>67</v>
       </c>
-      <c r="KF3" s="2">
+      <c r="JY3" s="1">
         <v>67</v>
       </c>
-      <c r="KG3" s="2">
+      <c r="JZ3" s="1">
         <v>67</v>
       </c>
-      <c r="KH3" s="2">
+      <c r="KA3" s="1">
         <v>67</v>
       </c>
-      <c r="KI3" s="2">
+      <c r="KB3" s="1">
         <v>392</v>
       </c>
-      <c r="KJ3" s="2">
+      <c r="KC3" s="1">
         <v>31</v>
       </c>
-      <c r="KK3" s="2">
+      <c r="KD3" s="1">
         <v>72</v>
       </c>
-      <c r="KL3" s="2">
+      <c r="KE3" s="1">
         <v>70</v>
       </c>
-      <c r="KM3" s="2">
+      <c r="KF3" s="1">
         <v>72</v>
       </c>
-      <c r="KN3" s="2">
+      <c r="KG3" s="1">
         <v>70</v>
       </c>
-      <c r="KO3" s="2">
+      <c r="KH3" s="1">
         <v>72</v>
       </c>
-      <c r="KP3" s="2">
+      <c r="KI3" s="1">
         <v>410</v>
       </c>
-      <c r="KQ3" s="2">
+      <c r="KJ3" s="1">
         <v>33</v>
       </c>
-      <c r="KR3" s="2">
+      <c r="KK3" s="1">
         <v>75</v>
       </c>
-      <c r="KS3" s="2">
+      <c r="KL3" s="1">
         <v>75</v>
       </c>
-      <c r="KT3" s="2">
+      <c r="KM3" s="1">
         <v>75</v>
       </c>
-      <c r="KU3" s="2">
+      <c r="KN3" s="1">
         <v>75</v>
       </c>
-      <c r="KV3" s="2">
+      <c r="KO3" s="1">
         <v>75</v>
       </c>
-      <c r="KW3" s="2">
+      <c r="KP3" s="1">
         <v>431</v>
       </c>
-      <c r="KX3" s="2">
+      <c r="KQ3" s="1">
         <v>35</v>
       </c>
-      <c r="KY3" s="2">
+      <c r="KR3" s="1">
         <v>80</v>
       </c>
-      <c r="KZ3" s="2">
+      <c r="KS3" s="1">
         <v>78</v>
       </c>
-      <c r="LA3" s="2">
+      <c r="KT3" s="1">
         <v>80</v>
       </c>
-      <c r="LB3" s="2">
+      <c r="KU3" s="1">
         <v>78</v>
       </c>
-      <c r="LC3" s="2">
+      <c r="KV3" s="1">
         <v>80</v>
       </c>
-      <c r="LD3" s="2">
+      <c r="KW3" s="1">
         <v>449</v>
       </c>
-      <c r="LE3" s="2">
+      <c r="KX3" s="1">
         <v>37</v>
       </c>
-      <c r="LF3" s="2">
+      <c r="KY3" s="1">
         <v>83</v>
       </c>
-      <c r="LG3" s="2">
+      <c r="KZ3" s="1">
         <v>83</v>
       </c>
-      <c r="LH3" s="2">
+      <c r="LA3" s="1">
         <v>83</v>
       </c>
-      <c r="LI3" s="2">
+      <c r="LB3" s="1">
         <v>83</v>
       </c>
-      <c r="LJ3" s="2">
+      <c r="LC3" s="1">
         <v>83</v>
       </c>
+      <c r="LD3" s="1"/>
+      <c r="LE3" s="1"/>
+      <c r="LF3" s="1"/>
     </row>
-    <row r="4" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -3396,830 +3356,826 @@
       <c r="AP4" s="1">
         <v>16</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1">
         <v>1</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1">
         <v>1</v>
       </c>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2">
+      <c r="AV4" s="1">
         <v>1</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AW4" s="1">
         <v>1</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1">
+        <v>3</v>
+      </c>
+      <c r="BA4" s="1">
         <v>1</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BB4" s="1">
         <v>1</v>
       </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2">
+      <c r="BC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="1">
         <v>3</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BF4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="1">
         <v>1</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI4" s="1">
         <v>1</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BJ4" s="1">
         <v>1</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BK4" s="1">
         <v>1</v>
       </c>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2">
+      <c r="BL4" s="1">
+        <v>3</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="1">
         <v>1</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BR4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>4</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CA4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="1">
         <v>3</v>
       </c>
-      <c r="BM4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BN4" s="2">
+      <c r="CC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CE4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>7</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CM4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN4" s="1">
+        <v>9</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CQ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="CR4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CS4" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>13</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>6</v>
+      </c>
+      <c r="CW4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CX4" s="1">
+        <v>4</v>
+      </c>
+      <c r="CY4" s="1">
+        <v>5</v>
+      </c>
+      <c r="CZ4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DA4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DB4" s="1">
+        <v>15</v>
+      </c>
+      <c r="DC4" s="1">
+        <v>8</v>
+      </c>
+      <c r="DD4" s="1">
+        <v>7</v>
+      </c>
+      <c r="DE4" s="1">
+        <v>4</v>
+      </c>
+      <c r="DF4" s="1">
+        <v>6</v>
+      </c>
+      <c r="DG4" s="1">
+        <v>5</v>
+      </c>
+      <c r="DH4" s="1">
+        <v>7</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>19</v>
+      </c>
+      <c r="DJ4" s="1">
+        <v>9</v>
+      </c>
+      <c r="DK4" s="1">
+        <v>7</v>
+      </c>
+      <c r="DL4" s="1">
+        <v>6</v>
+      </c>
+      <c r="DM4" s="1">
+        <v>7</v>
+      </c>
+      <c r="DN4" s="1">
+        <v>7</v>
+      </c>
+      <c r="DO4" s="1">
+        <v>9</v>
+      </c>
+      <c r="DP4" s="1">
+        <v>21</v>
+      </c>
+      <c r="DQ4" s="1">
+        <v>11</v>
+      </c>
+      <c r="DR4" s="1">
+        <v>9</v>
+      </c>
+      <c r="DS4" s="1">
+        <v>6</v>
+      </c>
+      <c r="DT4" s="1">
+        <v>8</v>
+      </c>
+      <c r="DU4" s="1">
+        <v>9</v>
+      </c>
+      <c r="DV4" s="1">
+        <v>11</v>
+      </c>
+      <c r="DW4" s="1">
+        <v>25</v>
+      </c>
+      <c r="DX4" s="1">
+        <v>12</v>
+      </c>
+      <c r="DY4" s="1">
+        <v>9</v>
+      </c>
+      <c r="DZ4" s="1">
+        <v>8</v>
+      </c>
+      <c r="EA4" s="1">
+        <v>10</v>
+      </c>
+      <c r="EB4" s="1">
+        <v>11</v>
+      </c>
+      <c r="EC4" s="1">
+        <v>12</v>
+      </c>
+      <c r="ED4" s="1">
+        <v>27</v>
+      </c>
+      <c r="EE4" s="1">
+        <v>14</v>
+      </c>
+      <c r="EF4" s="1">
+        <v>11</v>
+      </c>
+      <c r="EG4" s="1">
+        <v>10</v>
+      </c>
+      <c r="EH4" s="1">
+        <v>11</v>
+      </c>
+      <c r="EI4" s="1">
+        <v>11</v>
+      </c>
+      <c r="EJ4" s="1">
+        <v>14</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>31</v>
+      </c>
+      <c r="EL4" s="1">
+        <v>15</v>
+      </c>
+      <c r="EM4" s="1">
+        <v>13</v>
+      </c>
+      <c r="EN4" s="1">
+        <v>12</v>
+      </c>
+      <c r="EO4" s="1">
+        <v>12</v>
+      </c>
+      <c r="EP4" s="1">
+        <v>13</v>
+      </c>
+      <c r="EQ4" s="1">
+        <v>14</v>
+      </c>
+      <c r="ER4" s="1">
+        <v>35</v>
+      </c>
+      <c r="ES4" s="1">
+        <v>17</v>
+      </c>
+      <c r="ET4" s="1">
+        <v>16</v>
+      </c>
+      <c r="EU4" s="1">
+        <v>13</v>
+      </c>
+      <c r="EV4" s="1">
+        <v>15</v>
+      </c>
+      <c r="EW4" s="1">
+        <v>14</v>
+      </c>
+      <c r="EX4" s="1">
+        <v>16</v>
+      </c>
+      <c r="EY4" s="1">
+        <v>41</v>
+      </c>
+      <c r="EZ4" s="1">
+        <v>19</v>
+      </c>
+      <c r="FA4" s="1">
+        <v>17</v>
+      </c>
+      <c r="FB4" s="1">
+        <v>16</v>
+      </c>
+      <c r="FC4" s="1">
+        <v>17</v>
+      </c>
+      <c r="FD4" s="1">
+        <v>17</v>
+      </c>
+      <c r="FE4" s="1">
+        <v>17</v>
+      </c>
+      <c r="FF4" s="1">
+        <v>45</v>
+      </c>
+      <c r="FG4" s="1">
+        <v>21</v>
+      </c>
+      <c r="FH4" s="1">
+        <v>20</v>
+      </c>
+      <c r="FI4" s="1">
+        <v>17</v>
+      </c>
+      <c r="FJ4" s="1">
+        <v>19</v>
+      </c>
+      <c r="FK4" s="1">
+        <v>18</v>
+      </c>
+      <c r="FL4" s="1">
+        <v>20</v>
+      </c>
+      <c r="FM4" s="1">
+        <v>51</v>
+      </c>
+      <c r="FN4" s="1">
+        <v>23</v>
+      </c>
+      <c r="FO4" s="1">
+        <v>21</v>
+      </c>
+      <c r="FP4" s="1">
+        <v>20</v>
+      </c>
+      <c r="FQ4" s="1">
+        <v>21</v>
+      </c>
+      <c r="FR4" s="1">
+        <v>21</v>
+      </c>
+      <c r="FS4" s="1">
+        <v>21</v>
+      </c>
+      <c r="FT4" s="1">
+        <v>55</v>
+      </c>
+      <c r="FU4" s="1">
+        <v>25</v>
+      </c>
+      <c r="FV4" s="1">
+        <v>24</v>
+      </c>
+      <c r="FW4" s="1">
+        <v>21</v>
+      </c>
+      <c r="FX4" s="1">
+        <v>23</v>
+      </c>
+      <c r="FY4" s="1">
+        <v>22</v>
+      </c>
+      <c r="FZ4" s="1">
+        <v>24</v>
+      </c>
+      <c r="GA4" s="1">
+        <v>61</v>
+      </c>
+      <c r="GB4" s="1">
+        <v>27</v>
+      </c>
+      <c r="GC4" s="1">
+        <v>25</v>
+      </c>
+      <c r="GD4" s="1">
+        <v>24</v>
+      </c>
+      <c r="GE4" s="1">
+        <v>25</v>
+      </c>
+      <c r="GF4" s="1">
+        <v>25</v>
+      </c>
+      <c r="GG4" s="1">
+        <v>25</v>
+      </c>
+      <c r="GH4" s="1">
+        <v>65</v>
+      </c>
+      <c r="GI4" s="1">
+        <v>29</v>
+      </c>
+      <c r="GJ4" s="1">
+        <v>28</v>
+      </c>
+      <c r="GK4" s="1">
+        <v>25</v>
+      </c>
+      <c r="GL4" s="1">
+        <v>27</v>
+      </c>
+      <c r="GM4" s="1">
+        <v>26</v>
+      </c>
+      <c r="GN4" s="1">
+        <v>28</v>
+      </c>
+      <c r="GO4" s="1">
+        <v>71</v>
+      </c>
+      <c r="GP4" s="1">
+        <v>31</v>
+      </c>
+      <c r="GQ4" s="1">
+        <v>29</v>
+      </c>
+      <c r="GR4" s="1">
+        <v>28</v>
+      </c>
+      <c r="GS4" s="1">
+        <v>29</v>
+      </c>
+      <c r="GT4" s="1">
+        <v>29</v>
+      </c>
+      <c r="GU4" s="1">
+        <v>29</v>
+      </c>
+      <c r="GV4" s="1">
+        <v>77</v>
+      </c>
+      <c r="GW4" s="1">
+        <v>34</v>
+      </c>
+      <c r="GX4" s="1">
+        <v>33</v>
+      </c>
+      <c r="GY4" s="1">
+        <v>29</v>
+      </c>
+      <c r="GZ4" s="1">
+        <v>33</v>
+      </c>
+      <c r="HA4" s="1">
+        <v>31</v>
+      </c>
+      <c r="HB4" s="1">
+        <v>33</v>
+      </c>
+      <c r="HC4" s="1">
+        <v>81</v>
+      </c>
+      <c r="HD4" s="1">
+        <v>37</v>
+      </c>
+      <c r="HE4" s="1">
+        <v>33</v>
+      </c>
+      <c r="HF4" s="1">
+        <v>33</v>
+      </c>
+      <c r="HG4" s="1">
+        <v>34</v>
+      </c>
+      <c r="HH4" s="1">
+        <v>35</v>
+      </c>
+      <c r="HI4" s="1">
+        <v>34</v>
+      </c>
+      <c r="HJ4" s="1">
+        <v>87</v>
+      </c>
+      <c r="HK4" s="1">
+        <v>40</v>
+      </c>
+      <c r="HL4" s="1">
+        <v>37</v>
+      </c>
+      <c r="HM4" s="1">
+        <v>34</v>
+      </c>
+      <c r="HN4" s="1">
+        <v>38</v>
+      </c>
+      <c r="HO4" s="1">
+        <v>36</v>
+      </c>
+      <c r="HP4" s="1">
+        <v>38</v>
+      </c>
+      <c r="HQ4" s="1">
+        <v>91</v>
+      </c>
+      <c r="HR4" s="1">
+        <v>43</v>
+      </c>
+      <c r="HS4" s="1">
+        <v>39</v>
+      </c>
+      <c r="HT4" s="1">
+        <v>38</v>
+      </c>
+      <c r="HU4" s="1">
+        <v>39</v>
+      </c>
+      <c r="HV4" s="1">
+        <v>40</v>
+      </c>
+      <c r="HW4" s="1">
+        <v>40</v>
+      </c>
+      <c r="HX4" s="1">
+        <v>97</v>
+      </c>
+      <c r="HY4" s="1">
+        <v>46</v>
+      </c>
+      <c r="HZ4" s="1">
+        <v>43</v>
+      </c>
+      <c r="IA4" s="1">
+        <v>40</v>
+      </c>
+      <c r="IB4" s="1">
+        <v>43</v>
+      </c>
+      <c r="IC4" s="1">
+        <v>41</v>
+      </c>
+      <c r="ID4" s="1">
+        <v>44</v>
+      </c>
+      <c r="IE4" s="1">
+        <v>101</v>
+      </c>
+      <c r="IF4" s="1">
+        <v>49</v>
+      </c>
+      <c r="IG4" s="1">
+        <v>44</v>
+      </c>
+      <c r="IH4" s="1">
+        <v>44</v>
+      </c>
+      <c r="II4" s="1">
+        <v>44</v>
+      </c>
+      <c r="IJ4" s="1">
+        <v>45</v>
+      </c>
+      <c r="IK4" s="1">
+        <v>46</v>
+      </c>
+      <c r="IL4" s="1">
+        <v>107</v>
+      </c>
+      <c r="IM4" s="1">
+        <v>52</v>
+      </c>
+      <c r="IN4" s="1">
+        <v>48</v>
+      </c>
+      <c r="IO4" s="1">
+        <v>46</v>
+      </c>
+      <c r="IP4" s="1">
+        <v>48</v>
+      </c>
+      <c r="IQ4" s="1">
+        <v>47</v>
+      </c>
+      <c r="IR4" s="1">
+        <v>50</v>
+      </c>
+      <c r="IS4" s="1">
+        <v>111</v>
+      </c>
+      <c r="IT4" s="1">
+        <v>55</v>
+      </c>
+      <c r="IU4" s="1">
+        <v>50</v>
+      </c>
+      <c r="IV4" s="1">
+        <v>50</v>
+      </c>
+      <c r="IW4" s="1">
+        <v>49</v>
+      </c>
+      <c r="IX4" s="1">
+        <v>50</v>
+      </c>
+      <c r="IY4" s="1">
+        <v>51</v>
+      </c>
+      <c r="IZ4" s="1">
+        <v>123</v>
+      </c>
+      <c r="JA4" s="1">
+        <v>58</v>
+      </c>
+      <c r="JB4" s="1">
+        <v>55</v>
+      </c>
+      <c r="JC4" s="1">
+        <v>53</v>
+      </c>
+      <c r="JD4" s="1">
+        <v>54</v>
+      </c>
+      <c r="JE4" s="1">
+        <v>53</v>
+      </c>
+      <c r="JF4" s="1">
+        <v>56</v>
+      </c>
+      <c r="JG4" s="1">
+        <v>132</v>
+      </c>
+      <c r="JH4" s="1">
+        <v>61</v>
+      </c>
+      <c r="JI4" s="1">
+        <v>58</v>
+      </c>
+      <c r="JJ4" s="1">
+        <v>58</v>
+      </c>
+      <c r="JK4" s="1">
+        <v>57</v>
+      </c>
+      <c r="JL4" s="1">
+        <v>58</v>
+      </c>
+      <c r="JM4" s="1">
+        <v>59</v>
+      </c>
+      <c r="JN4" s="1">
+        <v>144</v>
+      </c>
+      <c r="JO4" s="1">
+        <v>64</v>
+      </c>
+      <c r="JP4" s="1">
+        <v>63</v>
+      </c>
+      <c r="JQ4" s="1">
+        <v>61</v>
+      </c>
+      <c r="JR4" s="1">
+        <v>62</v>
+      </c>
+      <c r="JS4" s="1">
+        <v>61</v>
+      </c>
+      <c r="JT4" s="1">
+        <v>64</v>
+      </c>
+      <c r="JU4" s="1">
+        <v>153</v>
+      </c>
+      <c r="JV4" s="1">
+        <v>67</v>
+      </c>
+      <c r="JW4" s="1">
+        <v>66</v>
+      </c>
+      <c r="JX4" s="1">
+        <v>66</v>
+      </c>
+      <c r="JY4" s="1">
+        <v>65</v>
+      </c>
+      <c r="JZ4" s="1">
+        <v>66</v>
+      </c>
+      <c r="KA4" s="1">
+        <v>67</v>
+      </c>
+      <c r="KB4" s="1">
+        <v>165</v>
+      </c>
+      <c r="KC4" s="1">
+        <v>70</v>
+      </c>
+      <c r="KD4" s="1">
+        <v>71</v>
+      </c>
+      <c r="KE4" s="1">
+        <v>69</v>
+      </c>
+      <c r="KF4" s="1">
+        <v>70</v>
+      </c>
+      <c r="KG4" s="1">
+        <v>69</v>
+      </c>
+      <c r="KH4" s="1">
+        <v>72</v>
+      </c>
+      <c r="KI4" s="1">
+        <v>174</v>
+      </c>
+      <c r="KJ4" s="1">
+        <v>73</v>
+      </c>
+      <c r="KK4" s="1">
+        <v>74</v>
+      </c>
+      <c r="KL4" s="1">
+        <v>74</v>
+      </c>
+      <c r="KM4" s="1">
+        <v>73</v>
+      </c>
+      <c r="KN4" s="1">
+        <v>74</v>
+      </c>
+      <c r="KO4" s="1">
+        <v>75</v>
+      </c>
+      <c r="KP4" s="1">
+        <v>186</v>
+      </c>
+      <c r="KQ4" s="1">
+        <v>77</v>
+      </c>
+      <c r="KR4" s="1">
+        <v>79</v>
+      </c>
+      <c r="KS4" s="1">
+        <v>77</v>
+      </c>
+      <c r="KT4" s="1">
+        <v>78</v>
+      </c>
+      <c r="KU4" s="1">
+        <v>77</v>
+      </c>
+      <c r="KV4" s="1">
+        <v>80</v>
+      </c>
+      <c r="KW4" s="1">
+        <v>195</v>
+      </c>
+      <c r="KX4" s="1">
+        <v>81</v>
+      </c>
+      <c r="KY4" s="1">
+        <v>82</v>
+      </c>
+      <c r="KZ4" s="1">
+        <v>82</v>
+      </c>
+      <c r="LA4" s="1">
+        <v>81</v>
+      </c>
+      <c r="LB4" s="1">
+        <v>82</v>
+      </c>
+      <c r="LC4" s="1">
+        <v>83</v>
+      </c>
+      <c r="LD4" s="1">
         <v>1</v>
       </c>
-      <c r="BO4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="2">
+      <c r="LE4" s="1">
         <v>1</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="LF4" s="1">
         <v>1</v>
       </c>
-      <c r="BR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="2">
-        <v>3</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>4</v>
-      </c>
-      <c r="CA4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG4" s="2">
-        <v>6</v>
-      </c>
-      <c r="CH4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CI4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CJ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CL4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CN4" s="2">
-        <v>7</v>
-      </c>
-      <c r="CO4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CP4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CQ4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CR4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CS4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CT4" s="2">
-        <v>3</v>
-      </c>
-      <c r="CU4" s="2">
-        <v>9</v>
-      </c>
-      <c r="CV4" s="2">
-        <v>5</v>
-      </c>
-      <c r="CW4" s="2">
-        <v>5</v>
-      </c>
-      <c r="CX4" s="2">
-        <v>2</v>
-      </c>
-      <c r="CY4" s="2">
-        <v>4</v>
-      </c>
-      <c r="CZ4" s="2">
-        <v>3</v>
-      </c>
-      <c r="DA4" s="2">
-        <v>5</v>
-      </c>
-      <c r="DB4" s="2">
-        <v>13</v>
-      </c>
-      <c r="DC4" s="2">
-        <v>6</v>
-      </c>
-      <c r="DD4" s="2">
-        <v>5</v>
-      </c>
-      <c r="DE4" s="2">
-        <v>4</v>
-      </c>
-      <c r="DF4" s="2">
-        <v>5</v>
-      </c>
-      <c r="DG4" s="2">
-        <v>5</v>
-      </c>
-      <c r="DH4" s="2">
-        <v>5</v>
-      </c>
-      <c r="DI4" s="2">
-        <v>15</v>
-      </c>
-      <c r="DJ4" s="2">
-        <v>8</v>
-      </c>
-      <c r="DK4" s="2">
-        <v>7</v>
-      </c>
-      <c r="DL4" s="2">
-        <v>4</v>
-      </c>
-      <c r="DM4" s="2">
-        <v>6</v>
-      </c>
-      <c r="DN4" s="2">
-        <v>5</v>
-      </c>
-      <c r="DO4" s="2">
-        <v>7</v>
-      </c>
-      <c r="DP4" s="2">
-        <v>19</v>
-      </c>
-      <c r="DQ4" s="2">
-        <v>9</v>
-      </c>
-      <c r="DR4" s="2">
-        <v>7</v>
-      </c>
-      <c r="DS4" s="2">
-        <v>6</v>
-      </c>
-      <c r="DT4" s="2">
-        <v>7</v>
-      </c>
-      <c r="DU4" s="2">
-        <v>7</v>
-      </c>
-      <c r="DV4" s="2">
-        <v>9</v>
-      </c>
-      <c r="DW4" s="2">
-        <v>21</v>
-      </c>
-      <c r="DX4" s="2">
-        <v>11</v>
-      </c>
-      <c r="DY4" s="2">
-        <v>9</v>
-      </c>
-      <c r="DZ4" s="2">
-        <v>6</v>
-      </c>
-      <c r="EA4" s="2">
-        <v>8</v>
-      </c>
-      <c r="EB4" s="2">
-        <v>9</v>
-      </c>
-      <c r="EC4" s="2">
-        <v>11</v>
-      </c>
-      <c r="ED4" s="2">
-        <v>25</v>
-      </c>
-      <c r="EE4" s="2">
-        <v>12</v>
-      </c>
-      <c r="EF4" s="2">
-        <v>9</v>
-      </c>
-      <c r="EG4" s="2">
-        <v>8</v>
-      </c>
-      <c r="EH4" s="2">
-        <v>10</v>
-      </c>
-      <c r="EI4" s="2">
-        <v>11</v>
-      </c>
-      <c r="EJ4" s="2">
-        <v>12</v>
-      </c>
-      <c r="EK4" s="2">
-        <v>27</v>
-      </c>
-      <c r="EL4" s="2">
-        <v>14</v>
-      </c>
-      <c r="EM4" s="2">
-        <v>11</v>
-      </c>
-      <c r="EN4" s="2">
-        <v>10</v>
-      </c>
-      <c r="EO4" s="2">
-        <v>11</v>
-      </c>
-      <c r="EP4" s="2">
-        <v>11</v>
-      </c>
-      <c r="EQ4" s="2">
-        <v>14</v>
-      </c>
-      <c r="ER4" s="2">
-        <v>31</v>
-      </c>
-      <c r="ES4" s="2">
-        <v>15</v>
-      </c>
-      <c r="ET4" s="2">
-        <v>13</v>
-      </c>
-      <c r="EU4" s="2">
-        <v>12</v>
-      </c>
-      <c r="EV4" s="2">
-        <v>12</v>
-      </c>
-      <c r="EW4" s="2">
-        <v>13</v>
-      </c>
-      <c r="EX4" s="2">
-        <v>14</v>
-      </c>
-      <c r="EY4" s="2">
-        <v>35</v>
-      </c>
-      <c r="EZ4" s="2">
-        <v>17</v>
-      </c>
-      <c r="FA4" s="2">
-        <v>16</v>
-      </c>
-      <c r="FB4" s="2">
-        <v>13</v>
-      </c>
-      <c r="FC4" s="2">
-        <v>15</v>
-      </c>
-      <c r="FD4" s="2">
-        <v>14</v>
-      </c>
-      <c r="FE4" s="2">
-        <v>16</v>
-      </c>
-      <c r="FF4" s="2">
-        <v>41</v>
-      </c>
-      <c r="FG4" s="2">
-        <v>19</v>
-      </c>
-      <c r="FH4" s="2">
-        <v>17</v>
-      </c>
-      <c r="FI4" s="2">
-        <v>16</v>
-      </c>
-      <c r="FJ4" s="2">
-        <v>17</v>
-      </c>
-      <c r="FK4" s="2">
-        <v>17</v>
-      </c>
-      <c r="FL4" s="2">
-        <v>17</v>
-      </c>
-      <c r="FM4" s="2">
-        <v>45</v>
-      </c>
-      <c r="FN4" s="2">
-        <v>21</v>
-      </c>
-      <c r="FO4" s="2">
-        <v>20</v>
-      </c>
-      <c r="FP4" s="2">
-        <v>17</v>
-      </c>
-      <c r="FQ4" s="2">
-        <v>19</v>
-      </c>
-      <c r="FR4" s="2">
-        <v>18</v>
-      </c>
-      <c r="FS4" s="2">
-        <v>20</v>
-      </c>
-      <c r="FT4" s="2">
-        <v>51</v>
-      </c>
-      <c r="FU4" s="2">
-        <v>23</v>
-      </c>
-      <c r="FV4" s="2">
-        <v>21</v>
-      </c>
-      <c r="FW4" s="2">
-        <v>20</v>
-      </c>
-      <c r="FX4" s="2">
-        <v>21</v>
-      </c>
-      <c r="FY4" s="2">
-        <v>21</v>
-      </c>
-      <c r="FZ4" s="2">
-        <v>21</v>
-      </c>
-      <c r="GA4" s="2">
-        <v>55</v>
-      </c>
-      <c r="GB4" s="2">
-        <v>25</v>
-      </c>
-      <c r="GC4" s="2">
-        <v>24</v>
-      </c>
-      <c r="GD4" s="2">
-        <v>21</v>
-      </c>
-      <c r="GE4" s="2">
-        <v>23</v>
-      </c>
-      <c r="GF4" s="2">
-        <v>22</v>
-      </c>
-      <c r="GG4" s="2">
-        <v>24</v>
-      </c>
-      <c r="GH4" s="2">
-        <v>61</v>
-      </c>
-      <c r="GI4" s="2">
-        <v>27</v>
-      </c>
-      <c r="GJ4" s="2">
-        <v>25</v>
-      </c>
-      <c r="GK4" s="2">
-        <v>24</v>
-      </c>
-      <c r="GL4" s="2">
-        <v>25</v>
-      </c>
-      <c r="GM4" s="2">
-        <v>25</v>
-      </c>
-      <c r="GN4" s="2">
-        <v>25</v>
-      </c>
-      <c r="GO4" s="2">
-        <v>65</v>
-      </c>
-      <c r="GP4" s="2">
-        <v>29</v>
-      </c>
-      <c r="GQ4" s="2">
-        <v>28</v>
-      </c>
-      <c r="GR4" s="2">
-        <v>25</v>
-      </c>
-      <c r="GS4" s="2">
-        <v>27</v>
-      </c>
-      <c r="GT4" s="2">
-        <v>26</v>
-      </c>
-      <c r="GU4" s="2">
-        <v>28</v>
-      </c>
-      <c r="GV4" s="2">
-        <v>71</v>
-      </c>
-      <c r="GW4" s="2">
-        <v>31</v>
-      </c>
-      <c r="GX4" s="2">
-        <v>29</v>
-      </c>
-      <c r="GY4" s="2">
-        <v>28</v>
-      </c>
-      <c r="GZ4" s="2">
-        <v>29</v>
-      </c>
-      <c r="HA4" s="2">
-        <v>29</v>
-      </c>
-      <c r="HB4" s="2">
-        <v>29</v>
-      </c>
-      <c r="HC4" s="2">
-        <v>77</v>
-      </c>
-      <c r="HD4" s="2">
-        <v>34</v>
-      </c>
-      <c r="HE4" s="2">
-        <v>33</v>
-      </c>
-      <c r="HF4" s="2">
-        <v>29</v>
-      </c>
-      <c r="HG4" s="2">
-        <v>33</v>
-      </c>
-      <c r="HH4" s="2">
-        <v>31</v>
-      </c>
-      <c r="HI4" s="2">
-        <v>33</v>
-      </c>
-      <c r="HJ4" s="2">
-        <v>81</v>
-      </c>
-      <c r="HK4" s="2">
-        <v>37</v>
-      </c>
-      <c r="HL4" s="2">
-        <v>33</v>
-      </c>
-      <c r="HM4" s="2">
-        <v>33</v>
-      </c>
-      <c r="HN4" s="2">
-        <v>34</v>
-      </c>
-      <c r="HO4" s="2">
-        <v>35</v>
-      </c>
-      <c r="HP4" s="2">
-        <v>34</v>
-      </c>
-      <c r="HQ4" s="2">
-        <v>87</v>
-      </c>
-      <c r="HR4" s="2">
-        <v>40</v>
-      </c>
-      <c r="HS4" s="2">
-        <v>37</v>
-      </c>
-      <c r="HT4" s="2">
-        <v>34</v>
-      </c>
-      <c r="HU4" s="2">
-        <v>38</v>
-      </c>
-      <c r="HV4" s="2">
-        <v>36</v>
-      </c>
-      <c r="HW4" s="2">
-        <v>38</v>
-      </c>
-      <c r="HX4" s="2">
-        <v>91</v>
-      </c>
-      <c r="HY4" s="2">
-        <v>43</v>
-      </c>
-      <c r="HZ4" s="2">
-        <v>39</v>
-      </c>
-      <c r="IA4" s="2">
-        <v>38</v>
-      </c>
-      <c r="IB4" s="2">
-        <v>39</v>
-      </c>
-      <c r="IC4" s="2">
-        <v>40</v>
-      </c>
-      <c r="ID4" s="2">
-        <v>40</v>
-      </c>
-      <c r="IE4" s="2">
-        <v>97</v>
-      </c>
-      <c r="IF4" s="2">
-        <v>46</v>
-      </c>
-      <c r="IG4" s="2">
-        <v>43</v>
-      </c>
-      <c r="IH4" s="2">
-        <v>40</v>
-      </c>
-      <c r="II4" s="2">
-        <v>43</v>
-      </c>
-      <c r="IJ4" s="2">
-        <v>41</v>
-      </c>
-      <c r="IK4" s="2">
-        <v>44</v>
-      </c>
-      <c r="IL4" s="2">
-        <v>101</v>
-      </c>
-      <c r="IM4" s="2">
-        <v>49</v>
-      </c>
-      <c r="IN4" s="2">
-        <v>44</v>
-      </c>
-      <c r="IO4" s="2">
-        <v>44</v>
-      </c>
-      <c r="IP4" s="2">
-        <v>44</v>
-      </c>
-      <c r="IQ4" s="2">
-        <v>45</v>
-      </c>
-      <c r="IR4" s="2">
-        <v>46</v>
-      </c>
-      <c r="IS4" s="2">
-        <v>107</v>
-      </c>
-      <c r="IT4" s="2">
-        <v>52</v>
-      </c>
-      <c r="IU4" s="2">
-        <v>48</v>
-      </c>
-      <c r="IV4" s="2">
-        <v>46</v>
-      </c>
-      <c r="IW4" s="2">
-        <v>48</v>
-      </c>
-      <c r="IX4" s="2">
-        <v>47</v>
-      </c>
-      <c r="IY4" s="2">
-        <v>50</v>
-      </c>
-      <c r="IZ4" s="2">
-        <v>111</v>
-      </c>
-      <c r="JA4" s="2">
-        <v>55</v>
-      </c>
-      <c r="JB4" s="2">
-        <v>50</v>
-      </c>
-      <c r="JC4" s="2">
-        <v>50</v>
-      </c>
-      <c r="JD4" s="2">
-        <v>49</v>
-      </c>
-      <c r="JE4" s="2">
-        <v>50</v>
-      </c>
-      <c r="JF4" s="2">
-        <v>51</v>
-      </c>
-      <c r="JG4" s="2">
-        <v>123</v>
-      </c>
-      <c r="JH4" s="2">
-        <v>58</v>
-      </c>
-      <c r="JI4" s="2">
-        <v>55</v>
-      </c>
-      <c r="JJ4" s="2">
-        <v>53</v>
-      </c>
-      <c r="JK4" s="2">
-        <v>54</v>
-      </c>
-      <c r="JL4" s="2">
-        <v>53</v>
-      </c>
-      <c r="JM4" s="2">
-        <v>56</v>
-      </c>
-      <c r="JN4" s="2">
-        <v>132</v>
-      </c>
-      <c r="JO4" s="2">
-        <v>61</v>
-      </c>
-      <c r="JP4" s="2">
-        <v>58</v>
-      </c>
-      <c r="JQ4" s="2">
-        <v>58</v>
-      </c>
-      <c r="JR4" s="2">
-        <v>57</v>
-      </c>
-      <c r="JS4" s="2">
-        <v>58</v>
-      </c>
-      <c r="JT4" s="2">
-        <v>59</v>
-      </c>
-      <c r="JU4" s="2">
-        <v>144</v>
-      </c>
-      <c r="JV4" s="2">
-        <v>64</v>
-      </c>
-      <c r="JW4" s="2">
-        <v>63</v>
-      </c>
-      <c r="JX4" s="2">
-        <v>61</v>
-      </c>
-      <c r="JY4" s="2">
-        <v>62</v>
-      </c>
-      <c r="JZ4" s="2">
-        <v>61</v>
-      </c>
-      <c r="KA4" s="2">
-        <v>64</v>
-      </c>
-      <c r="KB4" s="2">
-        <v>153</v>
-      </c>
-      <c r="KC4" s="2">
-        <v>67</v>
-      </c>
-      <c r="KD4" s="2">
-        <v>66</v>
-      </c>
-      <c r="KE4" s="2">
-        <v>66</v>
-      </c>
-      <c r="KF4" s="2">
-        <v>65</v>
-      </c>
-      <c r="KG4" s="2">
-        <v>66</v>
-      </c>
-      <c r="KH4" s="2">
-        <v>67</v>
-      </c>
-      <c r="KI4" s="2">
-        <v>165</v>
-      </c>
-      <c r="KJ4" s="2">
-        <v>70</v>
-      </c>
-      <c r="KK4" s="2">
-        <v>71</v>
-      </c>
-      <c r="KL4" s="2">
-        <v>69</v>
-      </c>
-      <c r="KM4" s="2">
-        <v>70</v>
-      </c>
-      <c r="KN4" s="2">
-        <v>69</v>
-      </c>
-      <c r="KO4" s="2">
-        <v>72</v>
-      </c>
-      <c r="KP4" s="2">
-        <v>174</v>
-      </c>
-      <c r="KQ4" s="2">
-        <v>73</v>
-      </c>
-      <c r="KR4" s="2">
-        <v>74</v>
-      </c>
-      <c r="KS4" s="2">
-        <v>74</v>
-      </c>
-      <c r="KT4" s="2">
-        <v>73</v>
-      </c>
-      <c r="KU4" s="2">
-        <v>74</v>
-      </c>
-      <c r="KV4" s="2">
-        <v>75</v>
-      </c>
-      <c r="KW4" s="2">
-        <v>186</v>
-      </c>
-      <c r="KX4" s="2">
-        <v>77</v>
-      </c>
-      <c r="KY4" s="2">
-        <v>79</v>
-      </c>
-      <c r="KZ4" s="2">
-        <v>77</v>
-      </c>
-      <c r="LA4" s="2">
-        <v>78</v>
-      </c>
-      <c r="LB4" s="2">
-        <v>77</v>
-      </c>
-      <c r="LC4" s="2">
-        <v>80</v>
-      </c>
-      <c r="LD4" s="2">
-        <v>195</v>
-      </c>
-      <c r="LE4" s="2">
-        <v>81</v>
-      </c>
-      <c r="LF4" s="2">
-        <v>82</v>
-      </c>
-      <c r="LG4" s="2">
-        <v>82</v>
-      </c>
-      <c r="LH4" s="2">
-        <v>81</v>
-      </c>
-      <c r="LI4" s="2">
-        <v>82</v>
-      </c>
-      <c r="LJ4" s="2">
-        <v>83</v>
-      </c>
     </row>
-    <row r="5" spans="1:322" x14ac:dyDescent="0.15">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -4344,836 +4300,831 @@
       <c r="AP5" s="1">
         <v>16</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2">
+      <c r="AQ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="1">
         <v>1</v>
       </c>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2">
+      <c r="AS5" s="1">
         <v>1</v>
       </c>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2">
+      <c r="AT5" s="1">
         <v>1</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AU5" s="1">
         <v>3</v>
       </c>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2">
+      <c r="AV5" s="1">
         <v>1</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="AW5" s="1">
         <v>1</v>
       </c>
-      <c r="BB5" s="2">
+      <c r="AX5" s="1">
         <v>1</v>
       </c>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2">
+      <c r="AY5" s="1">
         <v>1</v>
       </c>
-      <c r="BE5" s="2">
+      <c r="AZ5" s="1">
         <v>5</v>
       </c>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2">
+      <c r="BA5" s="1">
         <v>1</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BB5" s="1">
         <v>1</v>
       </c>
-      <c r="BI5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL5" s="2">
+      <c r="BC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="1">
         <v>5</v>
       </c>
-      <c r="BM5" s="2">
+      <c r="BF5" s="1">
         <v>1</v>
       </c>
-      <c r="BN5" s="2">
+      <c r="BG5" s="1">
         <v>1</v>
       </c>
-      <c r="BO5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BQ5" s="2">
+      <c r="BH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="1">
         <v>1</v>
       </c>
-      <c r="BR5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="2">
+      <c r="BK5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="1">
         <v>7</v>
       </c>
-      <c r="BT5" s="2">
+      <c r="BM5" s="1">
         <v>1</v>
       </c>
-      <c r="BU5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BW5" s="2">
+      <c r="BN5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="1">
         <v>3</v>
       </c>
-      <c r="BX5" s="2">
+      <c r="BQ5" s="1">
         <v>1</v>
       </c>
-      <c r="BY5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="2">
+      <c r="BR5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="1">
         <v>8</v>
       </c>
-      <c r="CA5" s="2">
+      <c r="BT5" s="1">
         <v>1</v>
       </c>
-      <c r="CB5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD5" s="2">
+      <c r="BU5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="1">
         <v>3</v>
       </c>
-      <c r="CE5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CF5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CG5" s="2">
+      <c r="BX5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="1">
         <v>10</v>
       </c>
-      <c r="CH5" s="2">
+      <c r="CA5" s="1">
         <v>1</v>
       </c>
-      <c r="CI5" s="2">
+      <c r="CB5" s="1">
         <v>3</v>
       </c>
-      <c r="CJ5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CK5" s="2">
+      <c r="CC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="1">
         <v>4</v>
       </c>
-      <c r="CL5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CM5" s="2">
+      <c r="CE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="1">
         <v>3</v>
       </c>
-      <c r="CN5" s="2">
+      <c r="CG5" s="1">
         <v>11</v>
       </c>
-      <c r="CO5" s="2">
+      <c r="CH5" s="1">
         <v>1</v>
       </c>
-      <c r="CP5" s="2">
+      <c r="CI5" s="1">
         <v>3</v>
       </c>
-      <c r="CQ5" s="2">
+      <c r="CJ5" s="1">
         <v>3</v>
       </c>
-      <c r="CR5" s="2">
+      <c r="CK5" s="1">
         <v>5</v>
       </c>
-      <c r="CS5" s="2">
+      <c r="CL5" s="1">
         <v>3</v>
       </c>
-      <c r="CT5" s="2">
+      <c r="CM5" s="1">
         <v>4</v>
       </c>
-      <c r="CU5" s="2">
+      <c r="CN5" s="1">
         <v>17</v>
       </c>
-      <c r="CV5" s="2">
-        <v>2</v>
-      </c>
-      <c r="CW5" s="2">
+      <c r="CO5" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="1">
         <v>5</v>
       </c>
-      <c r="CX5" s="2">
+      <c r="CQ5" s="1">
         <v>3</v>
       </c>
-      <c r="CY5" s="2">
+      <c r="CR5" s="1">
         <v>7</v>
       </c>
-      <c r="CZ5" s="2">
+      <c r="CS5" s="1">
         <v>3</v>
       </c>
-      <c r="DA5" s="2">
+      <c r="CT5" s="1">
         <v>6</v>
       </c>
-      <c r="DB5" s="2">
+      <c r="CU5" s="1">
         <v>23</v>
       </c>
-      <c r="DC5" s="2">
+      <c r="CV5" s="1">
         <v>3</v>
       </c>
-      <c r="DD5" s="2">
+      <c r="CW5" s="1">
         <v>5</v>
       </c>
-      <c r="DE5" s="2">
+      <c r="CX5" s="1">
         <v>5</v>
       </c>
-      <c r="DF5" s="2">
+      <c r="CY5" s="1">
         <v>7</v>
       </c>
-      <c r="DG5" s="2">
+      <c r="CZ5" s="1">
         <v>5</v>
       </c>
-      <c r="DH5" s="2">
+      <c r="DA5" s="1">
         <v>6</v>
       </c>
-      <c r="DI5" s="2">
+      <c r="DB5" s="1">
         <v>29</v>
       </c>
-      <c r="DJ5" s="2">
+      <c r="DC5" s="1">
         <v>4</v>
       </c>
-      <c r="DK5" s="2">
+      <c r="DD5" s="1">
         <v>7</v>
       </c>
-      <c r="DL5" s="2">
+      <c r="DE5" s="1">
         <v>5</v>
       </c>
-      <c r="DM5" s="2">
+      <c r="DF5" s="1">
         <v>9</v>
       </c>
-      <c r="DN5" s="2">
+      <c r="DG5" s="1">
         <v>5</v>
       </c>
-      <c r="DO5" s="2">
+      <c r="DH5" s="1">
         <v>8</v>
       </c>
-      <c r="DP5" s="2">
+      <c r="DI5" s="1">
         <v>35</v>
       </c>
-      <c r="DQ5" s="2">
+      <c r="DJ5" s="1">
         <v>5</v>
       </c>
-      <c r="DR5" s="2">
+      <c r="DK5" s="1">
         <v>7</v>
       </c>
-      <c r="DS5" s="2">
+      <c r="DL5" s="1">
         <v>7</v>
       </c>
-      <c r="DT5" s="2">
+      <c r="DM5" s="1">
         <v>9</v>
       </c>
-      <c r="DU5" s="2">
+      <c r="DN5" s="1">
         <v>7</v>
       </c>
-      <c r="DV5" s="2">
+      <c r="DO5" s="1">
         <v>10</v>
       </c>
-      <c r="DW5" s="2">
+      <c r="DP5" s="1">
         <v>41</v>
       </c>
-      <c r="DX5" s="2">
+      <c r="DQ5" s="1">
         <v>6</v>
       </c>
-      <c r="DY5" s="2">
+      <c r="DR5" s="1">
         <v>9</v>
       </c>
-      <c r="DZ5" s="2">
+      <c r="DS5" s="1">
         <v>7</v>
       </c>
-      <c r="EA5" s="2">
+      <c r="DT5" s="1">
         <v>11</v>
       </c>
-      <c r="EB5" s="2">
+      <c r="DU5" s="1">
         <v>9</v>
       </c>
-      <c r="EC5" s="2">
+      <c r="DV5" s="1">
         <v>12</v>
       </c>
-      <c r="ED5" s="2">
+      <c r="DW5" s="1">
         <v>47</v>
       </c>
-      <c r="EE5" s="2">
+      <c r="DX5" s="1">
         <v>7</v>
       </c>
-      <c r="EF5" s="2">
+      <c r="DY5" s="1">
         <v>9</v>
       </c>
-      <c r="EG5" s="2">
+      <c r="DZ5" s="1">
         <v>9</v>
       </c>
-      <c r="EH5" s="2">
+      <c r="EA5" s="1">
         <v>13</v>
       </c>
-      <c r="EI5" s="2">
+      <c r="EB5" s="1">
         <v>11</v>
       </c>
-      <c r="EJ5" s="2">
+      <c r="EC5" s="1">
         <v>12</v>
       </c>
-      <c r="EK5" s="2">
+      <c r="ED5" s="1">
         <v>53</v>
       </c>
-      <c r="EL5" s="2">
+      <c r="EE5" s="1">
         <v>8</v>
       </c>
-      <c r="EM5" s="2">
+      <c r="EF5" s="1">
         <v>11</v>
       </c>
-      <c r="EN5" s="2">
+      <c r="EG5" s="1">
         <v>11</v>
       </c>
-      <c r="EO5" s="2">
+      <c r="EH5" s="1">
         <v>15</v>
       </c>
-      <c r="EP5" s="2">
+      <c r="EI5" s="1">
         <v>11</v>
       </c>
-      <c r="EQ5" s="2">
+      <c r="EJ5" s="1">
         <v>14</v>
       </c>
-      <c r="ER5" s="2">
+      <c r="EK5" s="1">
         <v>59</v>
       </c>
-      <c r="ES5" s="2">
+      <c r="EL5" s="1">
         <v>9</v>
       </c>
-      <c r="ET5" s="2">
+      <c r="EM5" s="1">
         <v>13</v>
       </c>
-      <c r="EU5" s="2">
+      <c r="EN5" s="1">
         <v>13</v>
       </c>
-      <c r="EV5" s="2">
+      <c r="EO5" s="1">
         <v>15</v>
       </c>
-      <c r="EW5" s="2">
+      <c r="EP5" s="1">
         <v>13</v>
       </c>
-      <c r="EX5" s="2">
+      <c r="EQ5" s="1">
         <v>14</v>
       </c>
-      <c r="EY5" s="2">
+      <c r="ER5" s="1">
         <v>67</v>
       </c>
-      <c r="EZ5" s="2">
+      <c r="ES5" s="1">
         <v>10</v>
       </c>
-      <c r="FA5" s="2">
+      <c r="ET5" s="1">
         <v>16</v>
       </c>
-      <c r="FB5" s="2">
+      <c r="EU5" s="1">
         <v>14</v>
       </c>
-      <c r="FC5" s="2">
+      <c r="EV5" s="1">
         <v>18</v>
       </c>
-      <c r="FD5" s="2">
+      <c r="EW5" s="1">
         <v>14</v>
       </c>
-      <c r="FE5" s="2">
+      <c r="EX5" s="1">
         <v>17</v>
       </c>
-      <c r="FF5" s="2">
+      <c r="EY5" s="1">
         <v>75</v>
       </c>
-      <c r="FG5" s="2">
+      <c r="EZ5" s="1">
         <v>12</v>
       </c>
-      <c r="FH5" s="2">
+      <c r="FA5" s="1">
         <v>17</v>
       </c>
-      <c r="FI5" s="2">
+      <c r="FB5" s="1">
         <v>17</v>
       </c>
-      <c r="FJ5" s="2">
+      <c r="FC5" s="1">
         <v>19</v>
       </c>
-      <c r="FK5" s="2">
+      <c r="FD5" s="1">
         <v>17</v>
       </c>
-      <c r="FL5" s="2">
+      <c r="FE5" s="1">
         <v>18</v>
       </c>
-      <c r="FM5" s="2">
+      <c r="FF5" s="1">
         <v>83</v>
       </c>
-      <c r="FN5" s="2">
+      <c r="FG5" s="1">
         <v>13</v>
       </c>
-      <c r="FO5" s="2">
+      <c r="FH5" s="1">
         <v>20</v>
       </c>
-      <c r="FP5" s="2">
+      <c r="FI5" s="1">
         <v>18</v>
       </c>
-      <c r="FQ5" s="2">
+      <c r="FJ5" s="1">
         <v>22</v>
       </c>
-      <c r="FR5" s="2">
+      <c r="FK5" s="1">
         <v>18</v>
       </c>
-      <c r="FS5" s="2">
+      <c r="FL5" s="1">
         <v>21</v>
       </c>
-      <c r="FT5" s="2">
+      <c r="FM5" s="1">
         <v>91</v>
       </c>
-      <c r="FU5" s="2">
+      <c r="FN5" s="1">
         <v>15</v>
       </c>
-      <c r="FV5" s="2">
+      <c r="FO5" s="1">
         <v>21</v>
       </c>
-      <c r="FW5" s="2">
+      <c r="FP5" s="1">
         <v>21</v>
       </c>
-      <c r="FX5" s="2">
+      <c r="FQ5" s="1">
         <v>23</v>
       </c>
-      <c r="FY5" s="2">
+      <c r="FR5" s="1">
         <v>21</v>
       </c>
-      <c r="FZ5" s="2">
+      <c r="FS5" s="1">
         <v>22</v>
       </c>
-      <c r="GA5" s="2">
+      <c r="FT5" s="1">
         <v>99</v>
       </c>
-      <c r="GB5" s="2">
+      <c r="FU5" s="1">
         <v>16</v>
       </c>
-      <c r="GC5" s="2">
+      <c r="FV5" s="1">
         <v>24</v>
       </c>
-      <c r="GD5" s="2">
+      <c r="FW5" s="1">
         <v>22</v>
       </c>
-      <c r="GE5" s="2">
+      <c r="FX5" s="1">
         <v>26</v>
       </c>
-      <c r="GF5" s="2">
+      <c r="FY5" s="1">
         <v>22</v>
       </c>
-      <c r="GG5" s="2">
+      <c r="FZ5" s="1">
         <v>25</v>
       </c>
-      <c r="GH5" s="2">
+      <c r="GA5" s="1">
         <v>107</v>
       </c>
-      <c r="GI5" s="2">
+      <c r="GB5" s="1">
         <v>18</v>
       </c>
-      <c r="GJ5" s="2">
+      <c r="GC5" s="1">
         <v>25</v>
       </c>
-      <c r="GK5" s="2">
+      <c r="GD5" s="1">
         <v>25</v>
       </c>
-      <c r="GL5" s="2">
+      <c r="GE5" s="1">
         <v>27</v>
       </c>
-      <c r="GM5" s="2">
+      <c r="GF5" s="1">
         <v>25</v>
       </c>
-      <c r="GN5" s="2">
+      <c r="GG5" s="1">
         <v>26</v>
       </c>
-      <c r="GO5" s="2">
+      <c r="GH5" s="1">
         <v>115</v>
       </c>
-      <c r="GP5" s="2">
+      <c r="GI5" s="1">
         <v>19</v>
       </c>
-      <c r="GQ5" s="2">
+      <c r="GJ5" s="1">
         <v>28</v>
       </c>
-      <c r="GR5" s="2">
+      <c r="GK5" s="1">
         <v>26</v>
       </c>
-      <c r="GS5" s="2">
+      <c r="GL5" s="1">
         <v>30</v>
       </c>
-      <c r="GT5" s="2">
+      <c r="GM5" s="1">
         <v>26</v>
       </c>
-      <c r="GU5" s="2">
+      <c r="GN5" s="1">
         <v>29</v>
       </c>
-      <c r="GV5" s="2">
+      <c r="GO5" s="1">
         <v>123</v>
       </c>
-      <c r="GW5" s="2">
+      <c r="GP5" s="1">
         <v>21</v>
       </c>
-      <c r="GX5" s="2">
+      <c r="GQ5" s="1">
         <v>29</v>
       </c>
-      <c r="GY5" s="2">
+      <c r="GR5" s="1">
         <v>29</v>
       </c>
-      <c r="GZ5" s="2">
+      <c r="GS5" s="1">
         <v>31</v>
       </c>
-      <c r="HA5" s="2">
+      <c r="GT5" s="1">
         <v>29</v>
       </c>
-      <c r="HB5" s="2">
+      <c r="GU5" s="1">
         <v>30</v>
       </c>
-      <c r="HC5" s="2">
+      <c r="GV5" s="1">
         <v>135</v>
       </c>
-      <c r="HD5" s="2">
+      <c r="GW5" s="1">
         <v>23</v>
       </c>
-      <c r="HE5" s="2">
+      <c r="GX5" s="1">
         <v>33</v>
       </c>
-      <c r="HF5" s="2">
+      <c r="GY5" s="1">
         <v>30</v>
       </c>
-      <c r="HG5" s="2">
+      <c r="GZ5" s="1">
         <v>35</v>
       </c>
-      <c r="HH5" s="2">
+      <c r="HA5" s="1">
         <v>31</v>
       </c>
-      <c r="HI5" s="2">
+      <c r="HB5" s="1">
         <v>34</v>
       </c>
-      <c r="HJ5" s="2">
+      <c r="HC5" s="1">
         <v>143</v>
       </c>
-      <c r="HK5" s="2">
+      <c r="HD5" s="1">
         <v>25</v>
       </c>
-      <c r="HL5" s="2">
+      <c r="HE5" s="1">
         <v>34</v>
       </c>
-      <c r="HM5" s="2">
+      <c r="HF5" s="1">
         <v>34</v>
       </c>
-      <c r="HN5" s="2">
+      <c r="HG5" s="1">
         <v>36</v>
       </c>
-      <c r="HO5" s="2">
+      <c r="HH5" s="1">
         <v>35</v>
       </c>
-      <c r="HP5" s="2">
+      <c r="HI5" s="1">
         <v>35</v>
       </c>
-      <c r="HQ5" s="2">
+      <c r="HJ5" s="1">
         <v>155</v>
       </c>
-      <c r="HR5" s="2">
+      <c r="HK5" s="1">
         <v>27</v>
       </c>
-      <c r="HS5" s="2">
+      <c r="HL5" s="1">
         <v>38</v>
       </c>
-      <c r="HT5" s="2">
+      <c r="HM5" s="1">
         <v>35</v>
       </c>
-      <c r="HU5" s="2">
+      <c r="HN5" s="1">
         <v>40</v>
       </c>
-      <c r="HV5" s="2">
+      <c r="HO5" s="1">
         <v>36</v>
       </c>
-      <c r="HW5" s="2">
+      <c r="HP5" s="1">
         <v>39</v>
       </c>
-      <c r="HX5" s="2">
+      <c r="HQ5" s="1">
         <v>163</v>
       </c>
-      <c r="HY5" s="2">
+      <c r="HR5" s="1">
         <v>29</v>
       </c>
-      <c r="HZ5" s="2">
+      <c r="HS5" s="1">
         <v>40</v>
       </c>
-      <c r="IA5" s="2">
+      <c r="HT5" s="1">
         <v>39</v>
       </c>
-      <c r="IB5" s="2">
+      <c r="HU5" s="1">
         <v>42</v>
       </c>
-      <c r="IC5" s="2">
+      <c r="HV5" s="1">
         <v>40</v>
       </c>
-      <c r="ID5" s="2">
+      <c r="HW5" s="1">
         <v>41</v>
       </c>
-      <c r="IE5" s="2">
+      <c r="HX5" s="1">
         <v>175</v>
       </c>
-      <c r="IF5" s="2">
+      <c r="HY5" s="1">
         <v>31</v>
       </c>
-      <c r="IG5" s="2">
+      <c r="HZ5" s="1">
         <v>44</v>
       </c>
-      <c r="IH5" s="2">
+      <c r="IA5" s="1">
         <v>41</v>
       </c>
-      <c r="II5" s="2">
+      <c r="IB5" s="1">
         <v>46</v>
       </c>
-      <c r="IJ5" s="2">
+      <c r="IC5" s="1">
         <v>41</v>
       </c>
-      <c r="IK5" s="2">
+      <c r="ID5" s="1">
         <v>45</v>
       </c>
-      <c r="IL5" s="2">
+      <c r="IE5" s="1">
         <v>183</v>
       </c>
-      <c r="IM5" s="2">
+      <c r="IF5" s="1">
         <v>33</v>
       </c>
-      <c r="IN5" s="2">
+      <c r="IG5" s="1">
         <v>45</v>
       </c>
-      <c r="IO5" s="2">
+      <c r="IH5" s="1">
         <v>45</v>
       </c>
-      <c r="IP5" s="2">
+      <c r="II5" s="1">
         <v>48</v>
       </c>
-      <c r="IQ5" s="2">
+      <c r="IJ5" s="1">
         <v>45</v>
       </c>
-      <c r="IR5" s="2">
+      <c r="IK5" s="1">
         <v>47</v>
       </c>
-      <c r="IS5" s="2">
+      <c r="IL5" s="1">
         <v>195</v>
       </c>
-      <c r="IT5" s="2">
+      <c r="IM5" s="1">
         <v>35</v>
       </c>
-      <c r="IU5" s="2">
+      <c r="IN5" s="1">
         <v>49</v>
       </c>
-      <c r="IV5" s="2">
+      <c r="IO5" s="1">
         <v>47</v>
       </c>
-      <c r="IW5" s="2">
+      <c r="IP5" s="1">
         <v>52</v>
       </c>
-      <c r="IX5" s="2">
+      <c r="IQ5" s="1">
         <v>47</v>
       </c>
-      <c r="IY5" s="2">
+      <c r="IR5" s="1">
         <v>51</v>
       </c>
-      <c r="IZ5" s="2">
+      <c r="IS5" s="1">
         <v>203</v>
       </c>
-      <c r="JA5" s="2">
+      <c r="IT5" s="1">
         <v>37</v>
       </c>
-      <c r="JB5" s="2">
+      <c r="IU5" s="1">
         <v>51</v>
       </c>
-      <c r="JC5" s="2">
+      <c r="IV5" s="1">
         <v>51</v>
       </c>
-      <c r="JD5" s="2">
+      <c r="IW5" s="1">
         <v>53</v>
       </c>
-      <c r="JE5" s="2">
+      <c r="IX5" s="1">
         <v>51</v>
       </c>
-      <c r="JF5" s="2">
+      <c r="IY5" s="1">
         <v>52</v>
       </c>
-      <c r="JG5" s="2">
+      <c r="IZ5" s="1">
         <v>218</v>
       </c>
-      <c r="JH5" s="2">
+      <c r="JA5" s="1">
         <v>40</v>
       </c>
-      <c r="JI5" s="2">
+      <c r="JB5" s="1">
         <v>56</v>
       </c>
-      <c r="JJ5" s="2">
+      <c r="JC5" s="1">
         <v>54</v>
       </c>
-      <c r="JK5" s="2">
+      <c r="JD5" s="1">
         <v>58</v>
       </c>
-      <c r="JL5" s="2">
+      <c r="JE5" s="1">
         <v>54</v>
       </c>
-      <c r="JM5" s="2">
+      <c r="JF5" s="1">
         <v>57</v>
       </c>
-      <c r="JN5" s="2">
+      <c r="JG5" s="1">
         <v>230</v>
       </c>
-      <c r="JO5" s="2">
+      <c r="JH5" s="1">
         <v>42</v>
       </c>
-      <c r="JP5" s="2">
+      <c r="JI5" s="1">
         <v>59</v>
       </c>
-      <c r="JQ5" s="2">
+      <c r="JJ5" s="1">
         <v>59</v>
       </c>
-      <c r="JR5" s="2">
+      <c r="JK5" s="1">
         <v>61</v>
       </c>
-      <c r="JS5" s="2">
+      <c r="JL5" s="1">
         <v>59</v>
       </c>
-      <c r="JT5" s="2">
+      <c r="JM5" s="1">
         <v>60</v>
       </c>
-      <c r="JU5" s="2">
+      <c r="JN5" s="1">
         <v>245</v>
       </c>
-      <c r="JV5" s="2">
+      <c r="JO5" s="1">
         <v>45</v>
       </c>
-      <c r="JW5" s="2">
+      <c r="JP5" s="1">
         <v>64</v>
       </c>
-      <c r="JX5" s="2">
+      <c r="JQ5" s="1">
         <v>62</v>
       </c>
-      <c r="JY5" s="2">
+      <c r="JR5" s="1">
         <v>66</v>
       </c>
-      <c r="JZ5" s="2">
+      <c r="JS5" s="1">
         <v>62</v>
       </c>
-      <c r="KA5" s="2">
+      <c r="JT5" s="1">
         <v>65</v>
       </c>
-      <c r="KB5" s="2">
+      <c r="JU5" s="1">
         <v>257</v>
       </c>
-      <c r="KC5" s="2">
+      <c r="JV5" s="1">
         <v>47</v>
       </c>
-      <c r="KD5" s="2">
+      <c r="JW5" s="1">
         <v>67</v>
       </c>
-      <c r="KE5" s="2">
+      <c r="JX5" s="1">
         <v>67</v>
       </c>
-      <c r="KF5" s="2">
+      <c r="JY5" s="1">
         <v>69</v>
       </c>
-      <c r="KG5" s="2">
+      <c r="JZ5" s="1">
         <v>67</v>
       </c>
-      <c r="KH5" s="2">
+      <c r="KA5" s="1">
         <v>68</v>
       </c>
-      <c r="KI5" s="2">
+      <c r="KB5" s="1">
         <v>272</v>
       </c>
-      <c r="KJ5" s="2">
+      <c r="KC5" s="1">
         <v>50</v>
       </c>
-      <c r="KK5" s="2">
+      <c r="KD5" s="1">
         <v>72</v>
       </c>
-      <c r="KL5" s="2">
+      <c r="KE5" s="1">
         <v>70</v>
       </c>
-      <c r="KM5" s="2">
+      <c r="KF5" s="1">
         <v>74</v>
       </c>
-      <c r="KN5" s="2">
+      <c r="KG5" s="1">
         <v>70</v>
       </c>
-      <c r="KO5" s="2">
+      <c r="KH5" s="1">
         <v>73</v>
       </c>
-      <c r="KP5" s="2">
+      <c r="KI5" s="1">
         <v>284</v>
       </c>
-      <c r="KQ5" s="2">
+      <c r="KJ5" s="1">
         <v>53</v>
       </c>
-      <c r="KR5" s="2">
+      <c r="KK5" s="1">
         <v>75</v>
       </c>
-      <c r="KS5" s="2">
+      <c r="KL5" s="1">
         <v>75</v>
       </c>
-      <c r="KT5" s="2">
+      <c r="KM5" s="1">
         <v>77</v>
       </c>
-      <c r="KU5" s="2">
+      <c r="KN5" s="1">
         <v>75</v>
       </c>
-      <c r="KV5" s="2">
+      <c r="KO5" s="1">
         <v>76</v>
       </c>
-      <c r="KW5" s="2">
+      <c r="KP5" s="1">
         <v>299</v>
       </c>
-      <c r="KX5" s="2">
+      <c r="KQ5" s="1">
         <v>56</v>
       </c>
-      <c r="KY5" s="2">
+      <c r="KR5" s="1">
         <v>80</v>
       </c>
-      <c r="KZ5" s="2">
+      <c r="KS5" s="1">
         <v>78</v>
       </c>
-      <c r="LA5" s="2">
+      <c r="KT5" s="1">
         <v>82</v>
       </c>
-      <c r="LB5" s="2">
+      <c r="KU5" s="1">
         <v>78</v>
       </c>
-      <c r="LC5" s="2">
+      <c r="KV5" s="1">
         <v>81</v>
       </c>
-      <c r="LD5" s="2">
+      <c r="KW5" s="1">
         <v>311</v>
       </c>
-      <c r="LE5" s="2">
+      <c r="KX5" s="1">
         <v>59</v>
       </c>
-      <c r="LF5" s="2">
+      <c r="KY5" s="1">
         <v>83</v>
       </c>
-      <c r="LG5" s="2">
+      <c r="KZ5" s="1">
         <v>83</v>
       </c>
-      <c r="LH5" s="2">
+      <c r="LA5" s="1">
         <v>85</v>
       </c>
-      <c r="LI5" s="2">
+      <c r="LB5" s="1">
         <v>83</v>
       </c>
-      <c r="LJ5" s="2">
+      <c r="LC5" s="1">
         <v>84</v>
       </c>
+      <c r="LD5" s="1"/>
+      <c r="LE5" s="1"/>
+      <c r="LF5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100"/>
 </worksheet>
 </file>